--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E81981-B6E6-434B-B7D3-FA2876FDC4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB87FA7-31A9-41E2-BB4B-A7859322C67C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="2610" windowWidth="14025" windowHeight="10680" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
-    <sheet name="TimeSpacePositionTable" sheetId="2" r:id="rId1"/>
+    <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,41 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>multi|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>positionId|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeSpaceUI_Low</t>
-  </si>
-  <si>
-    <t>TimeSpaceUI_Medium</t>
-  </si>
-  <si>
-    <t>TimeSpaceUI_High</t>
-  </si>
-  <si>
-    <t>TimeSpaceUI_Ultra</t>
-  </si>
-  <si>
-    <t>TimeSpaceUI_ExtraUltra</t>
+    <t>level|Int</t>
   </si>
   <si>
     <t>requiredAccumulatedPowerLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward|String!</t>
   </si>
 </sst>
 </file>
@@ -428,185 +403,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1.2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>80</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1.2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>120</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1.3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>180</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1.3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>250</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1.5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB87FA7-31A9-41E2-BB4B-A7859322C67C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F4D157-EA47-4A78-B25A-CE0789A673F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>level|Int</t>
   </si>
@@ -39,7 +39,22 @@
     <t>requiredAccumulatedPowerLevel|Int</t>
   </si>
   <si>
-    <t>reward|String!</t>
+    <t>requiredGold|Int</t>
+  </si>
+  <si>
+    <t>rewardDiamond|Int</t>
+  </si>
+  <si>
+    <t>displayHp|Float</t>
+  </si>
+  <si>
+    <t>displayAtk|Float</t>
+  </si>
+  <si>
+    <t>accumulatedHp|Float</t>
+  </si>
+  <si>
+    <t>accumulatedAtk|Float</t>
   </si>
 </sst>
 </file>
@@ -403,11 +418,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -415,7 +428,7 @@
     <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,125 +438,323 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1400</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1600</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1800</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2200</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
+      </c>
+      <c r="G8">
+        <v>1200</v>
+      </c>
+      <c r="H8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>2400</v>
+      </c>
+      <c r="F9">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>1200</v>
+      </c>
+      <c r="H9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2600</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>1200</v>
+      </c>
+      <c r="H10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>2800</v>
+      </c>
+      <c r="F11">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>1200</v>
+      </c>
+      <c r="H11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>3000</v>
+      </c>
+      <c r="E12">
+        <v>400</v>
+      </c>
+      <c r="G12">
+        <v>1600</v>
+      </c>
+      <c r="H12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>3200</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>1600</v>
+      </c>
+      <c r="H13">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>3400</v>
+      </c>
+      <c r="E14">
+        <v>400</v>
+      </c>
+      <c r="G14">
+        <v>2000</v>
+      </c>
+      <c r="H14">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>3600</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>2000</v>
+      </c>
+      <c r="H15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>55</v>
+      </c>
+      <c r="C16">
+        <v>3800</v>
+      </c>
+      <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="G16">
+        <v>2500</v>
+      </c>
+      <c r="H16">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F4D157-EA47-4A78-B25A-CE0789A673F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D26F9-0AA6-4974-9A0B-1617C694A214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -45,16 +45,16 @@
     <t>rewardDiamond|Int</t>
   </si>
   <si>
-    <t>displayHp|Float</t>
-  </si>
-  <si>
-    <t>displayAtk|Float</t>
-  </si>
-  <si>
     <t>accumulatedHp|Float</t>
   </si>
   <si>
     <t>accumulatedAtk|Float</t>
+  </si>
+  <si>
+    <t>displayHp|Int</t>
+  </si>
+  <si>
+    <t>displayAtk|Int</t>
   </si>
 </sst>
 </file>
@@ -442,16 +442,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -459,10 +459,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E2">
         <v>200</v>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1200</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1400</v>
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1600</v>
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1800</v>
@@ -562,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>2000</v>
@@ -582,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>2200</v>
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>2400</v>
@@ -622,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>2600</v>
@@ -642,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2800</v>
@@ -662,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>3000</v>
@@ -682,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>3200</v>
@@ -702,7 +702,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>3400</v>
@@ -722,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>3600</v>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>3800</v>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D26F9-0AA6-4974-9A0B-1617C694A214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605A048B-A461-42AE-8958-F39CF9CC6730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,16 +459,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1200</v>
@@ -488,10 +488,10 @@
         <v>30</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -499,19 +499,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1400</v>
       </c>
       <c r="E4">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -519,19 +519,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>1600</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G5">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -539,22 +539,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>1800</v>
       </c>
       <c r="E6">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>800</v>
+        <v>1020</v>
       </c>
       <c r="H6">
-        <v>65</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -562,19 +562,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>2000</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>800</v>
+        <v>1020</v>
       </c>
       <c r="H7">
-        <v>105</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -582,19 +582,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>2200</v>
       </c>
       <c r="E8">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>1200</v>
+        <v>1520</v>
       </c>
       <c r="H8">
-        <v>105</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -602,19 +602,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>2400</v>
       </c>
       <c r="F9">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>1200</v>
+        <v>1520</v>
       </c>
       <c r="H9">
-        <v>150</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -622,19 +622,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>2600</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G10">
-        <v>1200</v>
+        <v>1520</v>
       </c>
       <c r="H10">
-        <v>150</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -642,19 +642,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>2800</v>
       </c>
       <c r="F11">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>1200</v>
+        <v>1520</v>
       </c>
       <c r="H11">
-        <v>195</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -662,19 +662,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>3000</v>
       </c>
       <c r="E12">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="G12">
-        <v>1600</v>
+        <v>2070</v>
       </c>
       <c r="H12">
-        <v>195</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -682,19 +682,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>3200</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>1600</v>
+        <v>2070</v>
       </c>
       <c r="H13">
-        <v>245</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -702,19 +702,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>3400</v>
       </c>
       <c r="E14">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <v>2000</v>
+        <v>2740</v>
       </c>
       <c r="H14">
-        <v>245</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -722,19 +722,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C15">
         <v>3600</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G15">
-        <v>2000</v>
+        <v>2740</v>
       </c>
       <c r="H15">
-        <v>245</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -742,19 +742,1189 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C16">
         <v>3800</v>
       </c>
       <c r="E16">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>2500</v>
+        <v>3440</v>
       </c>
       <c r="H16">
-        <v>245</v>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <v>4000</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>3440</v>
+      </c>
+      <c r="H17">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>130</v>
+      </c>
+      <c r="C18">
+        <v>4200</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>4240</v>
+      </c>
+      <c r="H18">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>138</v>
+      </c>
+      <c r="C19">
+        <v>4400</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>5140</v>
+      </c>
+      <c r="H19">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>144</v>
+      </c>
+      <c r="C20">
+        <v>4600</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>5140</v>
+      </c>
+      <c r="H20">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>4800</v>
+      </c>
+      <c r="E21">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <v>6240</v>
+      </c>
+      <c r="H21">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>166</v>
+      </c>
+      <c r="C22">
+        <v>5000</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="G22">
+        <v>6240</v>
+      </c>
+      <c r="H22">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>174</v>
+      </c>
+      <c r="C23">
+        <v>5200</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>7390</v>
+      </c>
+      <c r="H23">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>180</v>
+      </c>
+      <c r="C24">
+        <v>5400</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>7390</v>
+      </c>
+      <c r="H24">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>188</v>
+      </c>
+      <c r="C25">
+        <v>5600</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>8590</v>
+      </c>
+      <c r="H25">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+      <c r="C26">
+        <v>5800</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>9840</v>
+      </c>
+      <c r="H26">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>206</v>
+      </c>
+      <c r="C27">
+        <v>6000</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>11140</v>
+      </c>
+      <c r="H27">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>214</v>
+      </c>
+      <c r="C28">
+        <v>6200</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>11140</v>
+      </c>
+      <c r="H28">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>220</v>
+      </c>
+      <c r="C29">
+        <v>6400</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>12490</v>
+      </c>
+      <c r="H29">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>224</v>
+      </c>
+      <c r="C30">
+        <v>6600</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>12490</v>
+      </c>
+      <c r="H30">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>238</v>
+      </c>
+      <c r="C31">
+        <v>6800</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>12490</v>
+      </c>
+      <c r="H31">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>242</v>
+      </c>
+      <c r="C32">
+        <v>7000</v>
+      </c>
+      <c r="E32">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <v>13890</v>
+      </c>
+      <c r="H32">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>250</v>
+      </c>
+      <c r="C33">
+        <v>7200</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>13890</v>
+      </c>
+      <c r="H33">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>256</v>
+      </c>
+      <c r="C34">
+        <v>7400</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <v>15340</v>
+      </c>
+      <c r="H34">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>266</v>
+      </c>
+      <c r="C35">
+        <v>7600</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>16840</v>
+      </c>
+      <c r="H35">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>274</v>
+      </c>
+      <c r="C36">
+        <v>7800</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>18390</v>
+      </c>
+      <c r="H36">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>278</v>
+      </c>
+      <c r="C37">
+        <v>8000</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>18390</v>
+      </c>
+      <c r="H37">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>284</v>
+      </c>
+      <c r="C38">
+        <v>8200</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>19990</v>
+      </c>
+      <c r="H38">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>290</v>
+      </c>
+      <c r="C39">
+        <v>8400</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>19990</v>
+      </c>
+      <c r="H39">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>298</v>
+      </c>
+      <c r="C40">
+        <v>8600</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>21640</v>
+      </c>
+      <c r="H40">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>316</v>
+      </c>
+      <c r="C41">
+        <v>8800</v>
+      </c>
+      <c r="D41">
+        <v>120</v>
+      </c>
+      <c r="G41">
+        <v>21640</v>
+      </c>
+      <c r="H41">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>324</v>
+      </c>
+      <c r="C42">
+        <v>9000</v>
+      </c>
+      <c r="E42">
+        <v>35</v>
+      </c>
+      <c r="G42">
+        <v>23440</v>
+      </c>
+      <c r="H42">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>330</v>
+      </c>
+      <c r="C43">
+        <v>9200</v>
+      </c>
+      <c r="F43">
+        <v>25</v>
+      </c>
+      <c r="G43">
+        <v>23440</v>
+      </c>
+      <c r="H43">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>342</v>
+      </c>
+      <c r="C44">
+        <v>9400</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+      <c r="F44">
+        <v>15</v>
+      </c>
+      <c r="G44">
+        <v>25440</v>
+      </c>
+      <c r="H44">
+        <v>6712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>350</v>
+      </c>
+      <c r="C45">
+        <v>9600</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>27540</v>
+      </c>
+      <c r="H45">
+        <v>6712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>370</v>
+      </c>
+      <c r="C46">
+        <v>9800</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>27540</v>
+      </c>
+      <c r="H46">
+        <v>6712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>378</v>
+      </c>
+      <c r="C47">
+        <v>10000</v>
+      </c>
+      <c r="E47">
+        <v>35</v>
+      </c>
+      <c r="G47">
+        <v>29740</v>
+      </c>
+      <c r="H47">
+        <v>6712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>382</v>
+      </c>
+      <c r="C48">
+        <v>10200</v>
+      </c>
+      <c r="F48">
+        <v>25</v>
+      </c>
+      <c r="G48">
+        <v>29740</v>
+      </c>
+      <c r="H48">
+        <v>7362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>392</v>
+      </c>
+      <c r="C49">
+        <v>10400</v>
+      </c>
+      <c r="E49">
+        <v>25</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>32040</v>
+      </c>
+      <c r="H49">
+        <v>8037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>396</v>
+      </c>
+      <c r="C50">
+        <v>10600</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+      <c r="G50">
+        <v>34390</v>
+      </c>
+      <c r="H50">
+        <v>8037</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>402</v>
+      </c>
+      <c r="C51">
+        <v>10800</v>
+      </c>
+      <c r="F51">
+        <v>25</v>
+      </c>
+      <c r="G51">
+        <v>34390</v>
+      </c>
+      <c r="H51">
+        <v>8787</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>408</v>
+      </c>
+      <c r="C52">
+        <v>11000</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="G52">
+        <v>36890</v>
+      </c>
+      <c r="H52">
+        <v>8787</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>418</v>
+      </c>
+      <c r="C53">
+        <v>11200</v>
+      </c>
+      <c r="E53">
+        <v>25</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>39440</v>
+      </c>
+      <c r="H53">
+        <v>9562</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>422</v>
+      </c>
+      <c r="C54">
+        <v>11400</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>42040</v>
+      </c>
+      <c r="H54">
+        <v>9562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>430</v>
+      </c>
+      <c r="C55">
+        <v>11600</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>42040</v>
+      </c>
+      <c r="H55">
+        <v>10362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>452</v>
+      </c>
+      <c r="C56">
+        <v>11800</v>
+      </c>
+      <c r="D56">
+        <v>150</v>
+      </c>
+      <c r="G56">
+        <v>42040</v>
+      </c>
+      <c r="H56">
+        <v>10362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>460</v>
+      </c>
+      <c r="C57">
+        <v>12000</v>
+      </c>
+      <c r="E57">
+        <v>40</v>
+      </c>
+      <c r="G57">
+        <v>45240</v>
+      </c>
+      <c r="H57">
+        <v>10362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>468</v>
+      </c>
+      <c r="C58">
+        <v>12200</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>45240</v>
+      </c>
+      <c r="H58">
+        <v>11262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>478</v>
+      </c>
+      <c r="C59">
+        <v>12400</v>
+      </c>
+      <c r="E59">
+        <v>25</v>
+      </c>
+      <c r="F59">
+        <v>15</v>
+      </c>
+      <c r="G59">
+        <v>48540</v>
+      </c>
+      <c r="H59">
+        <v>12237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>482</v>
+      </c>
+      <c r="C60">
+        <v>12600</v>
+      </c>
+      <c r="E60">
+        <v>35</v>
+      </c>
+      <c r="G60">
+        <v>51940</v>
+      </c>
+      <c r="H60">
+        <v>12237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>488</v>
+      </c>
+      <c r="C61">
+        <v>12800</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>51940</v>
+      </c>
+      <c r="H61">
+        <v>13337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>496</v>
+      </c>
+      <c r="C62">
+        <v>13000</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
+      <c r="G62">
+        <v>55740</v>
+      </c>
+      <c r="H62">
+        <v>13337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>506</v>
+      </c>
+      <c r="C63">
+        <v>13200</v>
+      </c>
+      <c r="E63">
+        <v>25</v>
+      </c>
+      <c r="F63">
+        <v>15</v>
+      </c>
+      <c r="G63">
+        <v>59590</v>
+      </c>
+      <c r="H63">
+        <v>14537</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>514</v>
+      </c>
+      <c r="C64">
+        <v>13400</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>63490</v>
+      </c>
+      <c r="H64">
+        <v>14537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>518</v>
+      </c>
+      <c r="C65">
+        <v>13600</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="G65">
+        <v>63490</v>
+      </c>
+      <c r="H65">
+        <v>15837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>524</v>
+      </c>
+      <c r="C66">
+        <v>13800</v>
+      </c>
+      <c r="E66">
+        <v>40</v>
+      </c>
+      <c r="G66">
+        <v>67690</v>
+      </c>
+      <c r="H66">
+        <v>15837</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>540</v>
+      </c>
+      <c r="C67">
+        <v>14000</v>
+      </c>
+      <c r="D67">
+        <v>120</v>
+      </c>
+      <c r="G67">
+        <v>67690</v>
+      </c>
+      <c r="H67">
+        <v>15837</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>548</v>
+      </c>
+      <c r="C68">
+        <v>14200</v>
+      </c>
+      <c r="E68">
+        <v>35</v>
+      </c>
+      <c r="G68">
+        <v>72090</v>
+      </c>
+      <c r="H68">
+        <v>15837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>558</v>
+      </c>
+      <c r="C69">
+        <v>14400</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <v>25</v>
+      </c>
+      <c r="G69">
+        <v>76540</v>
+      </c>
+      <c r="H69">
+        <v>17337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>566</v>
+      </c>
+      <c r="C70">
+        <v>14600</v>
+      </c>
+      <c r="E70">
+        <v>35</v>
+      </c>
+      <c r="G70">
+        <v>81040</v>
+      </c>
+      <c r="H70">
+        <v>17337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>576</v>
+      </c>
+      <c r="C71">
+        <v>14800</v>
+      </c>
+      <c r="E71">
+        <v>25</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+      <c r="G71">
+        <v>85590</v>
+      </c>
+      <c r="H71">
+        <v>19237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>584</v>
+      </c>
+      <c r="C72">
+        <v>15000</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
+      </c>
+      <c r="G72">
+        <v>90190</v>
+      </c>
+      <c r="H72">
+        <v>19237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>592</v>
+      </c>
+      <c r="C73">
+        <v>15200</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="G73">
+        <v>90190</v>
+      </c>
+      <c r="H73">
+        <v>21337</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605A048B-A461-42AE-8958-F39CF9CC6730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D3502-D9B8-4FDB-B98B-9FDD24227E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
@@ -420,7 +420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -462,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -482,7 +484,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -502,7 +504,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -522,7 +524,7 @@
         <v>28</v>
       </c>
       <c r="C5">
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="D5">
         <v>90</v>
@@ -542,7 +544,7 @@
         <v>36</v>
       </c>
       <c r="C6">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -565,7 +567,7 @@
         <v>42</v>
       </c>
       <c r="C7">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -585,7 +587,7 @@
         <v>46</v>
       </c>
       <c r="C8">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -605,7 +607,7 @@
         <v>52</v>
       </c>
       <c r="C9">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -625,7 +627,7 @@
         <v>68</v>
       </c>
       <c r="C10">
-        <v>2600</v>
+        <v>8000</v>
       </c>
       <c r="D10">
         <v>70</v>
@@ -645,7 +647,7 @@
         <v>72</v>
       </c>
       <c r="C11">
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -665,7 +667,7 @@
         <v>80</v>
       </c>
       <c r="C12">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="E12">
         <v>25</v>
@@ -685,7 +687,7 @@
         <v>86</v>
       </c>
       <c r="C13">
-        <v>3200</v>
+        <v>4600</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -705,7 +707,7 @@
         <v>92</v>
       </c>
       <c r="C14">
-        <v>3400</v>
+        <v>4900</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -725,7 +727,7 @@
         <v>106</v>
       </c>
       <c r="C15">
-        <v>3600</v>
+        <v>12000</v>
       </c>
       <c r="D15">
         <v>110</v>
@@ -745,7 +747,7 @@
         <v>114</v>
       </c>
       <c r="C16">
-        <v>3800</v>
+        <v>6800</v>
       </c>
       <c r="E16">
         <v>30</v>
@@ -765,7 +767,7 @@
         <v>120</v>
       </c>
       <c r="C17">
-        <v>4000</v>
+        <v>6400</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -785,7 +787,7 @@
         <v>130</v>
       </c>
       <c r="C18">
-        <v>4200</v>
+        <v>6600</v>
       </c>
       <c r="E18">
         <v>25</v>
@@ -808,7 +810,7 @@
         <v>138</v>
       </c>
       <c r="C19">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="E19">
         <v>30</v>
@@ -828,7 +830,7 @@
         <v>144</v>
       </c>
       <c r="C20">
-        <v>4600</v>
+        <v>6800</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -848,7 +850,7 @@
         <v>150</v>
       </c>
       <c r="C21">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="E21">
         <v>35</v>
@@ -868,7 +870,7 @@
         <v>166</v>
       </c>
       <c r="C22">
-        <v>5000</v>
+        <v>19500</v>
       </c>
       <c r="D22">
         <v>90</v>
@@ -888,7 +890,7 @@
         <v>174</v>
       </c>
       <c r="C23">
-        <v>5200</v>
+        <v>9000</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -908,7 +910,7 @@
         <v>180</v>
       </c>
       <c r="C24">
-        <v>5400</v>
+        <v>9400</v>
       </c>
       <c r="F24">
         <v>25</v>
@@ -928,7 +930,7 @@
         <v>188</v>
       </c>
       <c r="C25">
-        <v>5600</v>
+        <v>9200</v>
       </c>
       <c r="E25">
         <v>25</v>
@@ -948,7 +950,7 @@
         <v>200</v>
       </c>
       <c r="C26">
-        <v>5800</v>
+        <v>9600</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -971,7 +973,7 @@
         <v>206</v>
       </c>
       <c r="C27">
-        <v>6000</v>
+        <v>9800</v>
       </c>
       <c r="E27">
         <v>25</v>
@@ -991,7 +993,7 @@
         <v>214</v>
       </c>
       <c r="C28">
-        <v>6200</v>
+        <v>9500</v>
       </c>
       <c r="F28">
         <v>20</v>
@@ -1011,7 +1013,7 @@
         <v>220</v>
       </c>
       <c r="C29">
-        <v>6400</v>
+        <v>9900</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -1031,7 +1033,7 @@
         <v>224</v>
       </c>
       <c r="C30">
-        <v>6600</v>
+        <v>9600</v>
       </c>
       <c r="F30">
         <v>20</v>
@@ -1051,7 +1053,7 @@
         <v>238</v>
       </c>
       <c r="C31">
-        <v>6800</v>
+        <v>28000</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -1071,7 +1073,7 @@
         <v>242</v>
       </c>
       <c r="C32">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="E32">
         <v>35</v>
@@ -1091,7 +1093,7 @@
         <v>250</v>
       </c>
       <c r="C33">
-        <v>7200</v>
+        <v>13800</v>
       </c>
       <c r="F33">
         <v>25</v>
@@ -1111,7 +1113,7 @@
         <v>256</v>
       </c>
       <c r="C34">
-        <v>7400</v>
+        <v>13200</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -1131,7 +1133,7 @@
         <v>266</v>
       </c>
       <c r="C35">
-        <v>7600</v>
+        <v>13600</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -1154,7 +1156,7 @@
         <v>274</v>
       </c>
       <c r="C36">
-        <v>7800</v>
+        <v>13400</v>
       </c>
       <c r="E36">
         <v>30</v>
@@ -1174,7 +1176,7 @@
         <v>278</v>
       </c>
       <c r="C37">
-        <v>8000</v>
+        <v>13800</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -1194,7 +1196,7 @@
         <v>284</v>
       </c>
       <c r="C38">
-        <v>8200</v>
+        <v>13600</v>
       </c>
       <c r="E38">
         <v>30</v>
@@ -1214,7 +1216,7 @@
         <v>290</v>
       </c>
       <c r="C39">
-        <v>8400</v>
+        <v>13900</v>
       </c>
       <c r="F39">
         <v>20</v>
@@ -1234,7 +1236,7 @@
         <v>298</v>
       </c>
       <c r="C40">
-        <v>8600</v>
+        <v>13700</v>
       </c>
       <c r="E40">
         <v>30</v>
@@ -1254,7 +1256,7 @@
         <v>316</v>
       </c>
       <c r="C41">
-        <v>8800</v>
+        <v>37500</v>
       </c>
       <c r="D41">
         <v>120</v>
@@ -1274,7 +1276,7 @@
         <v>324</v>
       </c>
       <c r="C42">
-        <v>9000</v>
+        <v>17700</v>
       </c>
       <c r="E42">
         <v>35</v>
@@ -1294,7 +1296,7 @@
         <v>330</v>
       </c>
       <c r="C43">
-        <v>9200</v>
+        <v>17500</v>
       </c>
       <c r="F43">
         <v>25</v>
@@ -1314,7 +1316,7 @@
         <v>342</v>
       </c>
       <c r="C44">
-        <v>9400</v>
+        <v>17900</v>
       </c>
       <c r="E44">
         <v>25</v>
@@ -1337,7 +1339,7 @@
         <v>350</v>
       </c>
       <c r="C45">
-        <v>9600</v>
+        <v>17300</v>
       </c>
       <c r="E45">
         <v>30</v>
@@ -1357,7 +1359,7 @@
         <v>370</v>
       </c>
       <c r="C46">
-        <v>9800</v>
+        <v>45000</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -1377,7 +1379,7 @@
         <v>378</v>
       </c>
       <c r="C47">
-        <v>10000</v>
+        <v>22300</v>
       </c>
       <c r="E47">
         <v>35</v>
@@ -1397,7 +1399,7 @@
         <v>382</v>
       </c>
       <c r="C48">
-        <v>10200</v>
+        <v>22800</v>
       </c>
       <c r="F48">
         <v>25</v>
@@ -1417,7 +1419,7 @@
         <v>392</v>
       </c>
       <c r="C49">
-        <v>10400</v>
+        <v>23200</v>
       </c>
       <c r="E49">
         <v>25</v>
@@ -1440,7 +1442,7 @@
         <v>396</v>
       </c>
       <c r="C50">
-        <v>10600</v>
+        <v>23000</v>
       </c>
       <c r="E50">
         <v>30</v>
@@ -1460,7 +1462,7 @@
         <v>402</v>
       </c>
       <c r="C51">
-        <v>10800</v>
+        <v>22700</v>
       </c>
       <c r="F51">
         <v>25</v>
@@ -1480,7 +1482,7 @@
         <v>408</v>
       </c>
       <c r="C52">
-        <v>11000</v>
+        <v>23200</v>
       </c>
       <c r="E52">
         <v>30</v>
@@ -1500,7 +1502,7 @@
         <v>418</v>
       </c>
       <c r="C53">
-        <v>11200</v>
+        <v>24000</v>
       </c>
       <c r="E53">
         <v>25</v>
@@ -1523,7 +1525,7 @@
         <v>422</v>
       </c>
       <c r="C54">
-        <v>11400</v>
+        <v>23500</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -1543,7 +1545,7 @@
         <v>430</v>
       </c>
       <c r="C55">
-        <v>11600</v>
+        <v>23800</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -1563,7 +1565,7 @@
         <v>452</v>
       </c>
       <c r="C56">
-        <v>11800</v>
+        <v>52000</v>
       </c>
       <c r="D56">
         <v>150</v>
@@ -1583,7 +1585,7 @@
         <v>460</v>
       </c>
       <c r="C57">
-        <v>12000</v>
+        <v>28500</v>
       </c>
       <c r="E57">
         <v>40</v>
@@ -1603,7 +1605,7 @@
         <v>468</v>
       </c>
       <c r="C58">
-        <v>12200</v>
+        <v>28000</v>
       </c>
       <c r="F58">
         <v>20</v>
@@ -1623,7 +1625,7 @@
         <v>478</v>
       </c>
       <c r="C59">
-        <v>12400</v>
+        <v>28700</v>
       </c>
       <c r="E59">
         <v>25</v>
@@ -1646,7 +1648,7 @@
         <v>482</v>
       </c>
       <c r="C60">
-        <v>12600</v>
+        <v>28500</v>
       </c>
       <c r="E60">
         <v>35</v>
@@ -1666,7 +1668,7 @@
         <v>488</v>
       </c>
       <c r="C61">
-        <v>12800</v>
+        <v>29200</v>
       </c>
       <c r="F61">
         <v>20</v>
@@ -1686,7 +1688,7 @@
         <v>496</v>
       </c>
       <c r="C62">
-        <v>13000</v>
+        <v>29500</v>
       </c>
       <c r="E62">
         <v>30</v>
@@ -1706,7 +1708,7 @@
         <v>506</v>
       </c>
       <c r="C63">
-        <v>13200</v>
+        <v>29000</v>
       </c>
       <c r="E63">
         <v>25</v>
@@ -1729,7 +1731,7 @@
         <v>514</v>
       </c>
       <c r="C64">
-        <v>13400</v>
+        <v>29700</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -1749,7 +1751,7 @@
         <v>518</v>
       </c>
       <c r="C65">
-        <v>13600</v>
+        <v>29500</v>
       </c>
       <c r="F65">
         <v>20</v>
@@ -1769,7 +1771,7 @@
         <v>524</v>
       </c>
       <c r="C66">
-        <v>13800</v>
+        <v>29900</v>
       </c>
       <c r="E66">
         <v>40</v>
@@ -1789,7 +1791,7 @@
         <v>540</v>
       </c>
       <c r="C67">
-        <v>14000</v>
+        <v>64000</v>
       </c>
       <c r="D67">
         <v>120</v>
@@ -1809,7 +1811,7 @@
         <v>548</v>
       </c>
       <c r="C68">
-        <v>14200</v>
+        <v>33000</v>
       </c>
       <c r="E68">
         <v>35</v>
@@ -1829,7 +1831,7 @@
         <v>558</v>
       </c>
       <c r="C69">
-        <v>14400</v>
+        <v>33500</v>
       </c>
       <c r="E69">
         <v>30</v>
@@ -1852,7 +1854,7 @@
         <v>566</v>
       </c>
       <c r="C70">
-        <v>14600</v>
+        <v>33800</v>
       </c>
       <c r="E70">
         <v>35</v>
@@ -1872,7 +1874,7 @@
         <v>576</v>
       </c>
       <c r="C71">
-        <v>14800</v>
+        <v>34500</v>
       </c>
       <c r="E71">
         <v>25</v>
@@ -1895,7 +1897,7 @@
         <v>584</v>
       </c>
       <c r="C72">
-        <v>15000</v>
+        <v>34200</v>
       </c>
       <c r="E72">
         <v>30</v>
@@ -1915,7 +1917,7 @@
         <v>592</v>
       </c>
       <c r="C73">
-        <v>15200</v>
+        <v>35000</v>
       </c>
       <c r="F73">
         <v>20</v>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D3502-D9B8-4FDB-B98B-9FDD24227E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AEB778-B011-45FA-8467-2245A335006B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -470,7 +470,7 @@
         <v>60</v>
       </c>
       <c r="G2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -481,19 +481,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1700</v>
@@ -510,10 +510,10 @@
         <v>50</v>
       </c>
       <c r="G4">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -521,19 +521,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>5000</v>
-      </c>
-      <c r="D5">
-        <v>90</v>
+        <v>1600</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="H5">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -541,22 +541,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>1020</v>
+        <v>450</v>
       </c>
       <c r="H6">
-        <v>165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -564,19 +564,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>2100</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>1020</v>
+        <v>640</v>
       </c>
       <c r="H7">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -584,19 +584,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>2800</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
+        <v>2200</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>1520</v>
+        <v>640</v>
       </c>
       <c r="H8">
-        <v>275</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -604,19 +604,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>2600</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
+        <v>2100</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>1520</v>
+        <v>840</v>
       </c>
       <c r="H9">
-        <v>395</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -624,19 +624,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>8000</v>
-      </c>
-      <c r="D10">
-        <v>70</v>
+        <v>2400</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>1520</v>
+        <v>1120</v>
       </c>
       <c r="H10">
-        <v>395</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -644,19 +647,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>4300</v>
+        <v>2100</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>1520</v>
+        <v>1120</v>
       </c>
       <c r="H11">
-        <v>545</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -664,19 +667,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>4800</v>
+        <v>2800</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>2070</v>
+        <v>1520</v>
       </c>
       <c r="H12">
-        <v>545</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -684,19 +687,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C13">
-        <v>4600</v>
+        <v>2600</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>2070</v>
+        <v>1520</v>
       </c>
       <c r="H13">
-        <v>745</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -704,19 +707,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C14">
-        <v>4900</v>
-      </c>
-      <c r="E14">
-        <v>30</v>
+        <v>8000</v>
+      </c>
+      <c r="D14">
+        <v>70</v>
       </c>
       <c r="G14">
-        <v>2740</v>
+        <v>1520</v>
       </c>
       <c r="H14">
-        <v>745</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -724,19 +727,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C15">
-        <v>12000</v>
-      </c>
-      <c r="D15">
-        <v>110</v>
+        <v>4300</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
       </c>
       <c r="G15">
-        <v>2740</v>
+        <v>1520</v>
       </c>
       <c r="H15">
-        <v>745</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -744,19 +747,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C16">
-        <v>6800</v>
+        <v>4800</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>3440</v>
+        <v>2070</v>
       </c>
       <c r="H16">
-        <v>745</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -764,19 +767,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C17">
-        <v>6400</v>
+        <v>4600</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G17">
-        <v>3440</v>
+        <v>2070</v>
       </c>
       <c r="H17">
-        <v>995</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -784,22 +787,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C18">
-        <v>6600</v>
+        <v>4900</v>
       </c>
       <c r="E18">
-        <v>25</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>4240</v>
+        <v>2740</v>
       </c>
       <c r="H18">
-        <v>1295</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -807,19 +807,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C19">
-        <v>7000</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
+        <v>12000</v>
+      </c>
+      <c r="D19">
+        <v>110</v>
       </c>
       <c r="G19">
-        <v>5140</v>
+        <v>2740</v>
       </c>
       <c r="H19">
-        <v>1295</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -827,19 +827,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C20">
         <v>6800</v>
       </c>
-      <c r="F20">
-        <v>20</v>
+      <c r="E20">
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>5140</v>
+        <v>3440</v>
       </c>
       <c r="H20">
-        <v>1645</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -847,19 +847,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C21">
-        <v>7500</v>
-      </c>
-      <c r="E21">
-        <v>35</v>
+        <v>6400</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>6240</v>
+        <v>3440</v>
       </c>
       <c r="H21">
-        <v>1645</v>
+        <v>995</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -867,19 +867,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C22">
-        <v>19500</v>
-      </c>
-      <c r="D22">
-        <v>90</v>
+        <v>6600</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>6240</v>
+        <v>4240</v>
       </c>
       <c r="H22">
-        <v>1645</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -887,19 +890,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C23">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="E23">
         <v>30</v>
       </c>
       <c r="G23">
-        <v>7390</v>
+        <v>5140</v>
       </c>
       <c r="H23">
-        <v>1645</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -907,19 +910,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="C24">
-        <v>9400</v>
+        <v>6800</v>
       </c>
       <c r="F24">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G24">
-        <v>7390</v>
+        <v>5140</v>
       </c>
       <c r="H24">
-        <v>2045</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -927,19 +930,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C25">
-        <v>9200</v>
+        <v>7500</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G25">
-        <v>8590</v>
+        <v>6240</v>
       </c>
       <c r="H25">
-        <v>2045</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -947,22 +950,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C26">
-        <v>9600</v>
-      </c>
-      <c r="E26">
-        <v>20</v>
-      </c>
-      <c r="F26">
-        <v>15</v>
+        <v>19500</v>
+      </c>
+      <c r="D26">
+        <v>90</v>
       </c>
       <c r="G26">
-        <v>9840</v>
+        <v>6240</v>
       </c>
       <c r="H26">
-        <v>2470</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -970,19 +970,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="C27">
-        <v>9800</v>
+        <v>9000</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <v>11140</v>
+        <v>7390</v>
       </c>
       <c r="H27">
-        <v>2470</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -990,19 +990,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="C28">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G28">
-        <v>11140</v>
+        <v>7390</v>
       </c>
       <c r="H28">
-        <v>2920</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1010,19 +1010,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C29">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="E29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G29">
-        <v>12490</v>
+        <v>8590</v>
       </c>
       <c r="H29">
-        <v>2920</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1030,19 +1030,22 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C30">
         <v>9600</v>
       </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
       <c r="F30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G30">
-        <v>12490</v>
+        <v>9840</v>
       </c>
       <c r="H30">
-        <v>3387</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1050,19 +1053,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="C31">
-        <v>28000</v>
-      </c>
-      <c r="D31">
-        <v>100</v>
+        <v>9800</v>
+      </c>
+      <c r="E31">
+        <v>25</v>
       </c>
       <c r="G31">
-        <v>12490</v>
+        <v>11140</v>
       </c>
       <c r="H31">
-        <v>3387</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1070,19 +1073,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C32">
-        <v>13500</v>
-      </c>
-      <c r="E32">
-        <v>35</v>
+        <v>9500</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
       </c>
       <c r="G32">
-        <v>13890</v>
+        <v>11140</v>
       </c>
       <c r="H32">
-        <v>3387</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1090,19 +1093,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="C33">
-        <v>13800</v>
-      </c>
-      <c r="F33">
-        <v>25</v>
+        <v>9900</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>13890</v>
+        <v>12490</v>
       </c>
       <c r="H33">
-        <v>3887</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1110,19 +1113,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C34">
-        <v>13200</v>
-      </c>
-      <c r="E34">
-        <v>30</v>
+        <v>9600</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
       </c>
       <c r="G34">
-        <v>15340</v>
+        <v>12490</v>
       </c>
       <c r="H34">
-        <v>3887</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1130,22 +1133,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="C35">
-        <v>13600</v>
-      </c>
-      <c r="E35">
-        <v>20</v>
-      </c>
-      <c r="F35">
-        <v>15</v>
+        <v>28000</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
       </c>
       <c r="G35">
-        <v>16840</v>
+        <v>12490</v>
       </c>
       <c r="H35">
-        <v>4412</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1153,19 +1153,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C36">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="E36">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G36">
-        <v>18390</v>
+        <v>13890</v>
       </c>
       <c r="H36">
-        <v>4412</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1173,19 +1173,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="C37">
         <v>13800</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G37">
-        <v>18390</v>
+        <v>13890</v>
       </c>
       <c r="H37">
-        <v>4962</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1193,19 +1193,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="C38">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="E38">
         <v>30</v>
       </c>
       <c r="G38">
-        <v>19990</v>
+        <v>15340</v>
       </c>
       <c r="H38">
-        <v>4962</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1213,19 +1213,22 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C39">
-        <v>13900</v>
+        <v>13600</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
       </c>
       <c r="F39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G39">
-        <v>19990</v>
+        <v>16840</v>
       </c>
       <c r="H39">
-        <v>5529</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1233,19 +1236,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C40">
-        <v>13700</v>
+        <v>13400</v>
       </c>
       <c r="E40">
         <v>30</v>
       </c>
       <c r="G40">
-        <v>21640</v>
+        <v>18390</v>
       </c>
       <c r="H40">
-        <v>5529</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1253,19 +1256,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="C41">
-        <v>37500</v>
-      </c>
-      <c r="D41">
-        <v>120</v>
+        <v>13800</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
       </c>
       <c r="G41">
-        <v>21640</v>
+        <v>18390</v>
       </c>
       <c r="H41">
-        <v>5529</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1273,19 +1276,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="C42">
-        <v>17700</v>
+        <v>13600</v>
       </c>
       <c r="E42">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G42">
-        <v>23440</v>
+        <v>19990</v>
       </c>
       <c r="H42">
-        <v>5529</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1293,19 +1296,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C43">
-        <v>17500</v>
+        <v>13900</v>
       </c>
       <c r="F43">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G43">
-        <v>23440</v>
+        <v>19990</v>
       </c>
       <c r="H43">
-        <v>6112</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1313,22 +1316,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="C44">
-        <v>17900</v>
+        <v>13700</v>
       </c>
       <c r="E44">
-        <v>25</v>
-      </c>
-      <c r="F44">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G44">
-        <v>25440</v>
+        <v>21640</v>
       </c>
       <c r="H44">
-        <v>6712</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1336,19 +1336,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="C45">
-        <v>17300</v>
-      </c>
-      <c r="E45">
-        <v>30</v>
+        <v>37500</v>
+      </c>
+      <c r="D45">
+        <v>120</v>
       </c>
       <c r="G45">
-        <v>27540</v>
+        <v>21640</v>
       </c>
       <c r="H45">
-        <v>6712</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1356,19 +1356,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="C46">
-        <v>45000</v>
-      </c>
-      <c r="D46">
-        <v>100</v>
+        <v>17700</v>
+      </c>
+      <c r="E46">
+        <v>35</v>
       </c>
       <c r="G46">
-        <v>27540</v>
+        <v>23440</v>
       </c>
       <c r="H46">
-        <v>6712</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -1376,19 +1376,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C47">
-        <v>22300</v>
-      </c>
-      <c r="E47">
-        <v>35</v>
+        <v>17500</v>
+      </c>
+      <c r="F47">
+        <v>25</v>
       </c>
       <c r="G47">
-        <v>29740</v>
+        <v>23440</v>
       </c>
       <c r="H47">
-        <v>6712</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -1396,19 +1396,22 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="C48">
-        <v>22800</v>
+        <v>17900</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
       </c>
       <c r="F48">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G48">
-        <v>29740</v>
+        <v>25440</v>
       </c>
       <c r="H48">
-        <v>7362</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1416,22 +1419,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="C49">
-        <v>23200</v>
+        <v>17300</v>
       </c>
       <c r="E49">
-        <v>25</v>
-      </c>
-      <c r="F49">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G49">
-        <v>32040</v>
+        <v>27540</v>
       </c>
       <c r="H49">
-        <v>8037</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1439,19 +1439,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="C50">
-        <v>23000</v>
-      </c>
-      <c r="E50">
-        <v>30</v>
+        <v>45000</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
       </c>
       <c r="G50">
-        <v>34390</v>
+        <v>27540</v>
       </c>
       <c r="H50">
-        <v>8037</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1459,19 +1459,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="C51">
-        <v>22700</v>
-      </c>
-      <c r="F51">
-        <v>25</v>
+        <v>22300</v>
+      </c>
+      <c r="E51">
+        <v>35</v>
       </c>
       <c r="G51">
-        <v>34390</v>
+        <v>29740</v>
       </c>
       <c r="H51">
-        <v>8787</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1479,19 +1479,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="C52">
-        <v>23200</v>
-      </c>
-      <c r="E52">
-        <v>30</v>
+        <v>22800</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
       </c>
       <c r="G52">
-        <v>36890</v>
+        <v>29740</v>
       </c>
       <c r="H52">
-        <v>8787</v>
+        <v>7362</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1499,22 +1499,22 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="C53">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="E53">
         <v>25</v>
       </c>
       <c r="F53">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G53">
-        <v>39440</v>
+        <v>32040</v>
       </c>
       <c r="H53">
-        <v>9562</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1522,19 +1522,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="C54">
-        <v>23500</v>
+        <v>23000</v>
       </c>
       <c r="E54">
         <v>30</v>
       </c>
       <c r="G54">
-        <v>42040</v>
+        <v>34390</v>
       </c>
       <c r="H54">
-        <v>9562</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1542,19 +1542,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="C55">
-        <v>23800</v>
+        <v>22700</v>
       </c>
       <c r="F55">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G55">
-        <v>42040</v>
+        <v>34390</v>
       </c>
       <c r="H55">
-        <v>10362</v>
+        <v>8787</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -1562,19 +1562,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="C56">
-        <v>52000</v>
-      </c>
-      <c r="D56">
-        <v>150</v>
+        <v>23200</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
       </c>
       <c r="G56">
-        <v>42040</v>
+        <v>36890</v>
       </c>
       <c r="H56">
-        <v>10362</v>
+        <v>8787</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -1582,19 +1582,22 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="C57">
-        <v>28500</v>
+        <v>24000</v>
       </c>
       <c r="E57">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="F57">
+        <v>15</v>
       </c>
       <c r="G57">
-        <v>45240</v>
+        <v>39440</v>
       </c>
       <c r="H57">
-        <v>10362</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -1602,19 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="C58">
-        <v>28000</v>
-      </c>
-      <c r="F58">
-        <v>20</v>
+        <v>23500</v>
+      </c>
+      <c r="E58">
+        <v>30</v>
       </c>
       <c r="G58">
-        <v>45240</v>
+        <v>42040</v>
       </c>
       <c r="H58">
-        <v>11262</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -1622,22 +1625,19 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="C59">
-        <v>28700</v>
-      </c>
-      <c r="E59">
-        <v>25</v>
+        <v>23800</v>
       </c>
       <c r="F59">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G59">
-        <v>48540</v>
+        <v>42040</v>
       </c>
       <c r="H59">
-        <v>12237</v>
+        <v>10362</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1645,19 +1645,19 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="C60">
-        <v>28500</v>
-      </c>
-      <c r="E60">
-        <v>35</v>
+        <v>52000</v>
+      </c>
+      <c r="D60">
+        <v>150</v>
       </c>
       <c r="G60">
-        <v>51940</v>
+        <v>42040</v>
       </c>
       <c r="H60">
-        <v>12237</v>
+        <v>10362</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -1665,19 +1665,19 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="C61">
-        <v>29200</v>
-      </c>
-      <c r="F61">
-        <v>20</v>
+        <v>28500</v>
+      </c>
+      <c r="E61">
+        <v>40</v>
       </c>
       <c r="G61">
-        <v>51940</v>
+        <v>45240</v>
       </c>
       <c r="H61">
-        <v>13337</v>
+        <v>10362</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -1685,19 +1685,19 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="C62">
-        <v>29500</v>
-      </c>
-      <c r="E62">
-        <v>30</v>
+        <v>28000</v>
+      </c>
+      <c r="F62">
+        <v>20</v>
       </c>
       <c r="G62">
-        <v>55740</v>
+        <v>45240</v>
       </c>
       <c r="H62">
-        <v>13337</v>
+        <v>11262</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -1705,10 +1705,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="C63">
-        <v>29000</v>
+        <v>28700</v>
       </c>
       <c r="E63">
         <v>25</v>
@@ -1717,10 +1717,10 @@
         <v>15</v>
       </c>
       <c r="G63">
-        <v>59590</v>
+        <v>48540</v>
       </c>
       <c r="H63">
-        <v>14537</v>
+        <v>12237</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -1728,19 +1728,19 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="C64">
-        <v>29700</v>
+        <v>28500</v>
       </c>
       <c r="E64">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G64">
-        <v>63490</v>
+        <v>51940</v>
       </c>
       <c r="H64">
-        <v>14537</v>
+        <v>12237</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -1748,19 +1748,19 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="C65">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="F65">
         <v>20</v>
       </c>
       <c r="G65">
-        <v>63490</v>
+        <v>51940</v>
       </c>
       <c r="H65">
-        <v>15837</v>
+        <v>13337</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -1768,19 +1768,19 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="C66">
-        <v>29900</v>
+        <v>29500</v>
       </c>
       <c r="E66">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G66">
-        <v>67690</v>
+        <v>55740</v>
       </c>
       <c r="H66">
-        <v>15837</v>
+        <v>13337</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -1788,19 +1788,22 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="C67">
-        <v>64000</v>
-      </c>
-      <c r="D67">
-        <v>120</v>
+        <v>29000</v>
+      </c>
+      <c r="E67">
+        <v>25</v>
+      </c>
+      <c r="F67">
+        <v>15</v>
       </c>
       <c r="G67">
-        <v>67690</v>
+        <v>59590</v>
       </c>
       <c r="H67">
-        <v>15837</v>
+        <v>14537</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -1808,19 +1811,19 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="C68">
-        <v>33000</v>
+        <v>29700</v>
       </c>
       <c r="E68">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G68">
-        <v>72090</v>
+        <v>63490</v>
       </c>
       <c r="H68">
-        <v>15837</v>
+        <v>14537</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -1828,22 +1831,19 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="C69">
-        <v>33500</v>
-      </c>
-      <c r="E69">
-        <v>30</v>
+        <v>29500</v>
       </c>
       <c r="F69">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G69">
-        <v>76540</v>
+        <v>63490</v>
       </c>
       <c r="H69">
-        <v>17337</v>
+        <v>15837</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -1851,19 +1851,19 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>566</v>
+        <v>524</v>
       </c>
       <c r="C70">
-        <v>33800</v>
+        <v>29900</v>
       </c>
       <c r="E70">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G70">
-        <v>81040</v>
+        <v>67690</v>
       </c>
       <c r="H70">
-        <v>17337</v>
+        <v>15837</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -1871,22 +1871,19 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="C71">
-        <v>34500</v>
-      </c>
-      <c r="E71">
-        <v>25</v>
-      </c>
-      <c r="F71">
-        <v>20</v>
+        <v>64000</v>
+      </c>
+      <c r="D71">
+        <v>120</v>
       </c>
       <c r="G71">
-        <v>85590</v>
+        <v>67690</v>
       </c>
       <c r="H71">
-        <v>19237</v>
+        <v>15837</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -1894,19 +1891,19 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="C72">
-        <v>34200</v>
+        <v>33000</v>
       </c>
       <c r="E72">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G72">
-        <v>90190</v>
+        <v>72090</v>
       </c>
       <c r="H72">
-        <v>19237</v>
+        <v>15837</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -1914,18 +1911,104 @@
         <v>72</v>
       </c>
       <c r="B73">
+        <v>558</v>
+      </c>
+      <c r="C73">
+        <v>33500</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
+      </c>
+      <c r="F73">
+        <v>25</v>
+      </c>
+      <c r="G73">
+        <v>76540</v>
+      </c>
+      <c r="H73">
+        <v>17337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>566</v>
+      </c>
+      <c r="C74">
+        <v>33800</v>
+      </c>
+      <c r="E74">
+        <v>35</v>
+      </c>
+      <c r="G74">
+        <v>81040</v>
+      </c>
+      <c r="H74">
+        <v>17337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>576</v>
+      </c>
+      <c r="C75">
+        <v>34500</v>
+      </c>
+      <c r="E75">
+        <v>25</v>
+      </c>
+      <c r="F75">
+        <v>20</v>
+      </c>
+      <c r="G75">
+        <v>85590</v>
+      </c>
+      <c r="H75">
+        <v>19237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>584</v>
+      </c>
+      <c r="C76">
+        <v>34200</v>
+      </c>
+      <c r="E76">
+        <v>30</v>
+      </c>
+      <c r="G76">
+        <v>90190</v>
+      </c>
+      <c r="H76">
+        <v>19237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
         <v>592</v>
       </c>
-      <c r="C73">
+      <c r="C77">
         <v>35000</v>
       </c>
-      <c r="F73">
-        <v>20</v>
-      </c>
-      <c r="G73">
+      <c r="F77">
+        <v>20</v>
+      </c>
+      <c r="G77">
         <v>90190</v>
       </c>
-      <c r="H73">
+      <c r="H77">
         <v>21337</v>
       </c>
     </row>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AEB778-B011-45FA-8467-2245A335006B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5320102-54F9-45C8-BCFE-B4180FECE9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -507,7 +507,7 @@
         <v>1700</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>300</v>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5320102-54F9-45C8-BCFE-B4180FECE9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C47C83-D6C1-45EF-9C9D-E568298272F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -504,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -524,7 +524,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="F5">
         <v>20</v>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C47C83-D6C1-45EF-9C9D-E568298272F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD614B-AB84-4D76-8FF2-03D734F0C043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>level|Int</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>displayAtk|Int</t>
+  </si>
+  <si>
+    <t>requiredType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredCharacterCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredCharacterLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,1597 +430,1838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="3" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>1500</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>60</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>200</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>1200</v>
       </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
         <v>200</v>
       </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>1300</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>300</v>
       </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>1800</v>
       </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
         <v>300</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>2200</v>
       </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>450</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>2000</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>640</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>2200</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>15</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>640</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>29</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>2100</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>40</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>840</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>36</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>2400</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>30</v>
       </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10">
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
         <v>1120</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>42</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>2100</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>15</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>1120</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>46</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>2800</v>
       </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="J12">
         <v>1520</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>52</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>2600</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>15</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>1520</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>68</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>8000</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>70</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>1520</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>395</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>72</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>4300</v>
       </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15">
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
         <v>1520</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>545</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>80</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>4800</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>25</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>2070</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>86</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>4600</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>25</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>2070</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>92</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>4900</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>30</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>2740</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>745</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <v>12000</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>110</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>2740</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>745</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>114</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <v>6800</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>30</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>3440</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>745</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>120</v>
       </c>
-      <c r="C21">
+      <c r="F21">
         <v>6400</v>
       </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-      <c r="G21">
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
         <v>3440</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>995</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>130</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <v>6600</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>25</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>15</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>4240</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>1295</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>138</v>
       </c>
-      <c r="C23">
+      <c r="F23">
         <v>7000</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>30</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>5140</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>1295</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>144</v>
       </c>
-      <c r="C24">
+      <c r="F24">
         <v>6800</v>
       </c>
-      <c r="F24">
-        <v>20</v>
-      </c>
-      <c r="G24">
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
         <v>5140</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>1645</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>150</v>
       </c>
-      <c r="C25">
+      <c r="F25">
         <v>7500</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>35</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>6240</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>1645</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>166</v>
       </c>
-      <c r="C26">
+      <c r="F26">
         <v>19500</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <v>90</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>6240</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>1645</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>174</v>
       </c>
-      <c r="C27">
+      <c r="F27">
         <v>9000</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>30</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>7390</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>1645</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>180</v>
       </c>
-      <c r="C28">
+      <c r="F28">
         <v>9400</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>25</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>7390</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>2045</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>188</v>
       </c>
-      <c r="C29">
+      <c r="F29">
         <v>9200</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>25</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>8590</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>2045</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>200</v>
       </c>
-      <c r="C30">
+      <c r="F30">
         <v>9600</v>
       </c>
-      <c r="E30">
-        <v>20</v>
-      </c>
-      <c r="F30">
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="I30">
         <v>15</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>9840</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>2470</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>206</v>
       </c>
-      <c r="C31">
+      <c r="F31">
         <v>9800</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>25</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>11140</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>2470</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>214</v>
       </c>
-      <c r="C32">
+      <c r="F32">
         <v>9500</v>
       </c>
-      <c r="F32">
-        <v>20</v>
-      </c>
-      <c r="G32">
+      <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="J32">
         <v>11140</v>
       </c>
-      <c r="H32">
+      <c r="K32">
         <v>2920</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>220</v>
       </c>
-      <c r="C33">
+      <c r="F33">
         <v>9900</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>30</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>12490</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>2920</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>224</v>
       </c>
-      <c r="C34">
+      <c r="F34">
         <v>9600</v>
       </c>
-      <c r="F34">
-        <v>20</v>
-      </c>
-      <c r="G34">
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34">
         <v>12490</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>3387</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>238</v>
       </c>
-      <c r="C35">
+      <c r="F35">
         <v>28000</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <v>100</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>12490</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>3387</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>242</v>
       </c>
-      <c r="C36">
+      <c r="F36">
         <v>13500</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>35</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>13890</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>3387</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>250</v>
       </c>
-      <c r="C37">
+      <c r="F37">
         <v>13800</v>
       </c>
-      <c r="F37">
+      <c r="I37">
         <v>25</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>13890</v>
       </c>
-      <c r="H37">
+      <c r="K37">
         <v>3887</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>256</v>
       </c>
-      <c r="C38">
+      <c r="F38">
         <v>13200</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>30</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>15340</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>3887</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>266</v>
       </c>
-      <c r="C39">
+      <c r="F39">
         <v>13600</v>
       </c>
-      <c r="E39">
-        <v>20</v>
-      </c>
-      <c r="F39">
+      <c r="H39">
+        <v>20</v>
+      </c>
+      <c r="I39">
         <v>15</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>16840</v>
       </c>
-      <c r="H39">
+      <c r="K39">
         <v>4412</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>274</v>
       </c>
-      <c r="C40">
+      <c r="F40">
         <v>13400</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>30</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>18390</v>
       </c>
-      <c r="H40">
+      <c r="K40">
         <v>4412</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>278</v>
       </c>
-      <c r="C41">
+      <c r="F41">
         <v>13800</v>
       </c>
-      <c r="F41">
-        <v>20</v>
-      </c>
-      <c r="G41">
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="J41">
         <v>18390</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>4962</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>284</v>
       </c>
-      <c r="C42">
+      <c r="F42">
         <v>13600</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>30</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>19990</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>4962</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>290</v>
       </c>
-      <c r="C43">
+      <c r="F43">
         <v>13900</v>
       </c>
-      <c r="F43">
-        <v>20</v>
-      </c>
-      <c r="G43">
+      <c r="I43">
+        <v>20</v>
+      </c>
+      <c r="J43">
         <v>19990</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>5529</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
         <v>298</v>
       </c>
-      <c r="C44">
+      <c r="F44">
         <v>13700</v>
       </c>
-      <c r="E44">
+      <c r="H44">
         <v>30</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>21640</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>5529</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>316</v>
       </c>
-      <c r="C45">
+      <c r="F45">
         <v>37500</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <v>120</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>21640</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>5529</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
         <v>324</v>
       </c>
-      <c r="C46">
+      <c r="F46">
         <v>17700</v>
       </c>
-      <c r="E46">
+      <c r="H46">
         <v>35</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>23440</v>
       </c>
-      <c r="H46">
+      <c r="K46">
         <v>5529</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
         <v>330</v>
       </c>
-      <c r="C47">
+      <c r="F47">
         <v>17500</v>
       </c>
-      <c r="F47">
+      <c r="I47">
         <v>25</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>23440</v>
       </c>
-      <c r="H47">
+      <c r="K47">
         <v>6112</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
         <v>342</v>
       </c>
-      <c r="C48">
+      <c r="F48">
         <v>17900</v>
       </c>
-      <c r="E48">
+      <c r="H48">
         <v>25</v>
       </c>
-      <c r="F48">
+      <c r="I48">
         <v>15</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>25440</v>
       </c>
-      <c r="H48">
+      <c r="K48">
         <v>6712</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
         <v>350</v>
       </c>
-      <c r="C49">
+      <c r="F49">
         <v>17300</v>
       </c>
-      <c r="E49">
+      <c r="H49">
         <v>30</v>
       </c>
-      <c r="G49">
+      <c r="J49">
         <v>27540</v>
       </c>
-      <c r="H49">
+      <c r="K49">
         <v>6712</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
         <v>370</v>
       </c>
-      <c r="C50">
+      <c r="F50">
         <v>45000</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <v>100</v>
       </c>
-      <c r="G50">
+      <c r="J50">
         <v>27540</v>
       </c>
-      <c r="H50">
+      <c r="K50">
         <v>6712</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
         <v>378</v>
       </c>
-      <c r="C51">
+      <c r="F51">
         <v>22300</v>
       </c>
-      <c r="E51">
+      <c r="H51">
         <v>35</v>
       </c>
-      <c r="G51">
+      <c r="J51">
         <v>29740</v>
       </c>
-      <c r="H51">
+      <c r="K51">
         <v>6712</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
         <v>382</v>
       </c>
-      <c r="C52">
+      <c r="F52">
         <v>22800</v>
       </c>
-      <c r="F52">
+      <c r="I52">
         <v>25</v>
       </c>
-      <c r="G52">
+      <c r="J52">
         <v>29740</v>
       </c>
-      <c r="H52">
+      <c r="K52">
         <v>7362</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
         <v>392</v>
       </c>
-      <c r="C53">
+      <c r="F53">
         <v>23200</v>
       </c>
-      <c r="E53">
+      <c r="H53">
         <v>25</v>
       </c>
-      <c r="F53">
-        <v>20</v>
-      </c>
-      <c r="G53">
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
         <v>32040</v>
       </c>
-      <c r="H53">
+      <c r="K53">
         <v>8037</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
         <v>396</v>
       </c>
-      <c r="C54">
+      <c r="F54">
         <v>23000</v>
       </c>
-      <c r="E54">
+      <c r="H54">
         <v>30</v>
       </c>
-      <c r="G54">
+      <c r="J54">
         <v>34390</v>
       </c>
-      <c r="H54">
+      <c r="K54">
         <v>8037</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
         <v>402</v>
       </c>
-      <c r="C55">
+      <c r="F55">
         <v>22700</v>
       </c>
-      <c r="F55">
+      <c r="I55">
         <v>25</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>34390</v>
       </c>
-      <c r="H55">
+      <c r="K55">
         <v>8787</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
         <v>408</v>
       </c>
-      <c r="C56">
+      <c r="F56">
         <v>23200</v>
       </c>
-      <c r="E56">
+      <c r="H56">
         <v>30</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>36890</v>
       </c>
-      <c r="H56">
+      <c r="K56">
         <v>8787</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
         <v>418</v>
       </c>
-      <c r="C57">
+      <c r="F57">
         <v>24000</v>
       </c>
-      <c r="E57">
+      <c r="H57">
         <v>25</v>
       </c>
-      <c r="F57">
+      <c r="I57">
         <v>15</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>39440</v>
       </c>
-      <c r="H57">
+      <c r="K57">
         <v>9562</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
         <v>422</v>
       </c>
-      <c r="C58">
+      <c r="F58">
         <v>23500</v>
       </c>
-      <c r="E58">
+      <c r="H58">
         <v>30</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>42040</v>
       </c>
-      <c r="H58">
+      <c r="K58">
         <v>9562</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
         <v>430</v>
       </c>
-      <c r="C59">
+      <c r="F59">
         <v>23800</v>
       </c>
-      <c r="F59">
-        <v>20</v>
-      </c>
-      <c r="G59">
+      <c r="I59">
+        <v>20</v>
+      </c>
+      <c r="J59">
         <v>42040</v>
       </c>
-      <c r="H59">
+      <c r="K59">
         <v>10362</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>452</v>
       </c>
-      <c r="C60">
+      <c r="F60">
         <v>52000</v>
       </c>
-      <c r="D60">
+      <c r="G60">
         <v>150</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>42040</v>
       </c>
-      <c r="H60">
+      <c r="K60">
         <v>10362</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
         <v>460</v>
       </c>
-      <c r="C61">
+      <c r="F61">
         <v>28500</v>
       </c>
-      <c r="E61">
+      <c r="H61">
         <v>40</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>45240</v>
       </c>
-      <c r="H61">
+      <c r="K61">
         <v>10362</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
         <v>468</v>
       </c>
-      <c r="C62">
+      <c r="F62">
         <v>28000</v>
       </c>
-      <c r="F62">
-        <v>20</v>
-      </c>
-      <c r="G62">
+      <c r="I62">
+        <v>20</v>
+      </c>
+      <c r="J62">
         <v>45240</v>
       </c>
-      <c r="H62">
+      <c r="K62">
         <v>11262</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
         <v>478</v>
       </c>
-      <c r="C63">
+      <c r="F63">
         <v>28700</v>
       </c>
-      <c r="E63">
+      <c r="H63">
         <v>25</v>
       </c>
-      <c r="F63">
+      <c r="I63">
         <v>15</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>48540</v>
       </c>
-      <c r="H63">
+      <c r="K63">
         <v>12237</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
         <v>482</v>
       </c>
-      <c r="C64">
+      <c r="F64">
         <v>28500</v>
       </c>
-      <c r="E64">
+      <c r="H64">
         <v>35</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>51940</v>
       </c>
-      <c r="H64">
+      <c r="K64">
         <v>12237</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
         <v>488</v>
       </c>
-      <c r="C65">
+      <c r="F65">
         <v>29200</v>
       </c>
-      <c r="F65">
-        <v>20</v>
-      </c>
-      <c r="G65">
+      <c r="I65">
+        <v>20</v>
+      </c>
+      <c r="J65">
         <v>51940</v>
       </c>
-      <c r="H65">
+      <c r="K65">
         <v>13337</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
         <v>496</v>
       </c>
-      <c r="C66">
+      <c r="F66">
         <v>29500</v>
       </c>
-      <c r="E66">
+      <c r="H66">
         <v>30</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>55740</v>
       </c>
-      <c r="H66">
+      <c r="K66">
         <v>13337</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
         <v>506</v>
       </c>
-      <c r="C67">
+      <c r="F67">
         <v>29000</v>
       </c>
-      <c r="E67">
+      <c r="H67">
         <v>25</v>
       </c>
-      <c r="F67">
+      <c r="I67">
         <v>15</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>59590</v>
       </c>
-      <c r="H67">
+      <c r="K67">
         <v>14537</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
         <v>514</v>
       </c>
-      <c r="C68">
+      <c r="F68">
         <v>29700</v>
       </c>
-      <c r="E68">
+      <c r="H68">
         <v>30</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>63490</v>
       </c>
-      <c r="H68">
+      <c r="K68">
         <v>14537</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
         <v>518</v>
       </c>
-      <c r="C69">
+      <c r="F69">
         <v>29500</v>
       </c>
-      <c r="F69">
-        <v>20</v>
-      </c>
-      <c r="G69">
+      <c r="I69">
+        <v>20</v>
+      </c>
+      <c r="J69">
         <v>63490</v>
       </c>
-      <c r="H69">
+      <c r="K69">
         <v>15837</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
         <v>524</v>
       </c>
-      <c r="C70">
+      <c r="F70">
         <v>29900</v>
       </c>
-      <c r="E70">
+      <c r="H70">
         <v>40</v>
       </c>
-      <c r="G70">
+      <c r="J70">
         <v>67690</v>
       </c>
-      <c r="H70">
+      <c r="K70">
         <v>15837</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
         <v>540</v>
       </c>
-      <c r="C71">
+      <c r="F71">
         <v>64000</v>
       </c>
-      <c r="D71">
+      <c r="G71">
         <v>120</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>67690</v>
       </c>
-      <c r="H71">
+      <c r="K71">
         <v>15837</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
         <v>548</v>
       </c>
-      <c r="C72">
+      <c r="F72">
         <v>33000</v>
       </c>
-      <c r="E72">
+      <c r="H72">
         <v>35</v>
       </c>
-      <c r="G72">
+      <c r="J72">
         <v>72090</v>
       </c>
-      <c r="H72">
+      <c r="K72">
         <v>15837</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
         <v>558</v>
       </c>
-      <c r="C73">
+      <c r="F73">
         <v>33500</v>
       </c>
-      <c r="E73">
+      <c r="H73">
         <v>30</v>
       </c>
-      <c r="F73">
+      <c r="I73">
         <v>25</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>76540</v>
       </c>
-      <c r="H73">
+      <c r="K73">
         <v>17337</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
         <v>566</v>
       </c>
-      <c r="C74">
+      <c r="F74">
         <v>33800</v>
       </c>
-      <c r="E74">
+      <c r="H74">
         <v>35</v>
       </c>
-      <c r="G74">
+      <c r="J74">
         <v>81040</v>
       </c>
-      <c r="H74">
+      <c r="K74">
         <v>17337</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
         <v>576</v>
       </c>
-      <c r="C75">
+      <c r="F75">
         <v>34500</v>
       </c>
-      <c r="E75">
+      <c r="H75">
         <v>25</v>
       </c>
-      <c r="F75">
-        <v>20</v>
-      </c>
-      <c r="G75">
+      <c r="I75">
+        <v>20</v>
+      </c>
+      <c r="J75">
         <v>85590</v>
       </c>
-      <c r="H75">
+      <c r="K75">
         <v>19237</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
         <v>584</v>
       </c>
-      <c r="C76">
+      <c r="F76">
         <v>34200</v>
       </c>
-      <c r="E76">
+      <c r="H76">
         <v>30</v>
       </c>
-      <c r="G76">
+      <c r="J76">
         <v>90190</v>
       </c>
-      <c r="H76">
+      <c r="K76">
         <v>19237</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
         <v>592</v>
       </c>
-      <c r="C77">
+      <c r="F77">
         <v>35000</v>
       </c>
-      <c r="F77">
-        <v>20</v>
-      </c>
-      <c r="G77">
+      <c r="I77">
+        <v>20</v>
+      </c>
+      <c r="J77">
         <v>90190</v>
       </c>
-      <c r="H77">
+      <c r="K77">
         <v>21337</v>
       </c>
     </row>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD614B-AB84-4D76-8FF2-03D734F0C043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C392BD-5696-4C2C-B822-55900D30F30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
@@ -58,15 +58,12 @@
   </si>
   <si>
     <t>requiredType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requiredCharacterCount|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requiredCharacterLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -432,7 +429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -492,10 +491,10 @@
         <v>1500</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,13 +505,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1200</v>
@@ -521,7 +517,7 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K3">
         <v>20</v>
@@ -532,19 +528,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1300</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K4">
         <v>20</v>
@@ -567,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K5">
         <v>45</v>
@@ -587,13 +586,13 @@
         <v>2200</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I6">
         <v>15</v>
       </c>
       <c r="J6">
-        <v>450</v>
+        <v>620</v>
       </c>
       <c r="K6">
         <v>80</v>
@@ -604,10 +603,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
       <c r="F7">
         <v>2000</v>
@@ -616,7 +618,7 @@
         <v>30</v>
       </c>
       <c r="J7">
-        <v>640</v>
+        <v>810</v>
       </c>
       <c r="K7">
         <v>80</v>
@@ -639,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="J8">
-        <v>640</v>
+        <v>810</v>
       </c>
       <c r="K8">
         <v>125</v>
@@ -662,7 +664,7 @@
         <v>40</v>
       </c>
       <c r="J9">
-        <v>840</v>
+        <v>1010</v>
       </c>
       <c r="K9">
         <v>125</v>
@@ -673,10 +675,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
       </c>
       <c r="F10">
         <v>2400</v>
@@ -688,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>1120</v>
+        <v>1290</v>
       </c>
       <c r="K10">
         <v>195</v>
@@ -699,10 +704,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
       </c>
       <c r="F11">
         <v>2100</v>
@@ -711,7 +719,7 @@
         <v>15</v>
       </c>
       <c r="J11">
-        <v>1120</v>
+        <v>1290</v>
       </c>
       <c r="K11">
         <v>275</v>
@@ -734,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>1520</v>
+        <v>1690</v>
       </c>
       <c r="K12">
         <v>275</v>
@@ -745,10 +753,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
       </c>
       <c r="F13">
         <v>2600</v>
@@ -757,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="J13">
-        <v>1520</v>
+        <v>1690</v>
       </c>
       <c r="K13">
         <v>395</v>
@@ -780,7 +791,7 @@
         <v>70</v>
       </c>
       <c r="J14">
-        <v>1520</v>
+        <v>1690</v>
       </c>
       <c r="K14">
         <v>395</v>
@@ -791,10 +802,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
       </c>
       <c r="F15">
         <v>4300</v>
@@ -803,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="J15">
-        <v>1520</v>
+        <v>1690</v>
       </c>
       <c r="K15">
         <v>545</v>
@@ -826,7 +840,7 @@
         <v>25</v>
       </c>
       <c r="J16">
-        <v>2070</v>
+        <v>2240</v>
       </c>
       <c r="K16">
         <v>545</v>
@@ -837,10 +851,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>86</v>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
       </c>
       <c r="F17">
         <v>4600</v>
@@ -849,7 +866,7 @@
         <v>25</v>
       </c>
       <c r="J17">
-        <v>2070</v>
+        <v>2240</v>
       </c>
       <c r="K17">
         <v>745</v>
@@ -860,10 +877,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
       </c>
       <c r="F18">
         <v>4900</v>
@@ -872,7 +892,7 @@
         <v>30</v>
       </c>
       <c r="J18">
-        <v>2740</v>
+        <v>2910</v>
       </c>
       <c r="K18">
         <v>745</v>
@@ -895,7 +915,7 @@
         <v>110</v>
       </c>
       <c r="J19">
-        <v>2740</v>
+        <v>2910</v>
       </c>
       <c r="K19">
         <v>745</v>
@@ -906,10 +926,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
       </c>
       <c r="F20">
         <v>6800</v>
@@ -918,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="J20">
-        <v>3440</v>
+        <v>3610</v>
       </c>
       <c r="K20">
         <v>745</v>
@@ -929,10 +952,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
       </c>
       <c r="F21">
         <v>6400</v>
@@ -941,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="J21">
-        <v>3440</v>
+        <v>3610</v>
       </c>
       <c r="K21">
         <v>995</v>
@@ -967,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="J22">
-        <v>4240</v>
+        <v>4410</v>
       </c>
       <c r="K22">
         <v>1295</v>
@@ -978,10 +1004,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
       </c>
       <c r="F23">
         <v>7000</v>
@@ -990,7 +1019,7 @@
         <v>30</v>
       </c>
       <c r="J23">
-        <v>5140</v>
+        <v>5310</v>
       </c>
       <c r="K23">
         <v>1295</v>
@@ -1013,7 +1042,7 @@
         <v>20</v>
       </c>
       <c r="J24">
-        <v>5140</v>
+        <v>5310</v>
       </c>
       <c r="K24">
         <v>1645</v>
@@ -1024,10 +1053,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
       </c>
       <c r="F25">
         <v>7500</v>
@@ -1036,7 +1068,7 @@
         <v>35</v>
       </c>
       <c r="J25">
-        <v>6240</v>
+        <v>6410</v>
       </c>
       <c r="K25">
         <v>1645</v>
@@ -1059,7 +1091,7 @@
         <v>90</v>
       </c>
       <c r="J26">
-        <v>6240</v>
+        <v>6410</v>
       </c>
       <c r="K26">
         <v>1645</v>
@@ -1070,10 +1102,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>174</v>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
       </c>
       <c r="F27">
         <v>9000</v>
@@ -1082,7 +1117,7 @@
         <v>30</v>
       </c>
       <c r="J27">
-        <v>7390</v>
+        <v>7560</v>
       </c>
       <c r="K27">
         <v>1645</v>
@@ -1105,7 +1140,7 @@
         <v>25</v>
       </c>
       <c r="J28">
-        <v>7390</v>
+        <v>7560</v>
       </c>
       <c r="K28">
         <v>2045</v>
@@ -1128,7 +1163,7 @@
         <v>25</v>
       </c>
       <c r="J29">
-        <v>8590</v>
+        <v>8760</v>
       </c>
       <c r="K29">
         <v>2045</v>
@@ -1139,10 +1174,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
       </c>
       <c r="F30">
         <v>9600</v>
@@ -1154,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="J30">
-        <v>9840</v>
+        <v>10010</v>
       </c>
       <c r="K30">
         <v>2470</v>
@@ -1177,7 +1215,7 @@
         <v>25</v>
       </c>
       <c r="J31">
-        <v>11140</v>
+        <v>11310</v>
       </c>
       <c r="K31">
         <v>2470</v>
@@ -1200,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="J32">
-        <v>11140</v>
+        <v>11310</v>
       </c>
       <c r="K32">
         <v>2920</v>
@@ -1211,10 +1249,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>220</v>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
       </c>
       <c r="F33">
         <v>9900</v>
@@ -1223,7 +1264,7 @@
         <v>30</v>
       </c>
       <c r="J33">
-        <v>12490</v>
+        <v>12660</v>
       </c>
       <c r="K33">
         <v>2920</v>
@@ -1246,7 +1287,7 @@
         <v>20</v>
       </c>
       <c r="J34">
-        <v>12490</v>
+        <v>12660</v>
       </c>
       <c r="K34">
         <v>3387</v>
@@ -1257,10 +1298,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>238</v>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
       </c>
       <c r="F35">
         <v>28000</v>
@@ -1269,7 +1313,7 @@
         <v>100</v>
       </c>
       <c r="J35">
-        <v>12490</v>
+        <v>12660</v>
       </c>
       <c r="K35">
         <v>3387</v>
@@ -1292,7 +1336,7 @@
         <v>35</v>
       </c>
       <c r="J36">
-        <v>13890</v>
+        <v>14060</v>
       </c>
       <c r="K36">
         <v>3387</v>
@@ -1315,7 +1359,7 @@
         <v>25</v>
       </c>
       <c r="J37">
-        <v>13890</v>
+        <v>14060</v>
       </c>
       <c r="K37">
         <v>3887</v>
@@ -1338,7 +1382,7 @@
         <v>30</v>
       </c>
       <c r="J38">
-        <v>15340</v>
+        <v>15510</v>
       </c>
       <c r="K38">
         <v>3887</v>
@@ -1349,10 +1393,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>266</v>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>12</v>
       </c>
       <c r="F39">
         <v>13600</v>
@@ -1364,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="J39">
-        <v>16840</v>
+        <v>17010</v>
       </c>
       <c r="K39">
         <v>4412</v>
@@ -1387,7 +1434,7 @@
         <v>30</v>
       </c>
       <c r="J40">
-        <v>18390</v>
+        <v>18560</v>
       </c>
       <c r="K40">
         <v>4412</v>
@@ -1410,7 +1457,7 @@
         <v>20</v>
       </c>
       <c r="J41">
-        <v>18390</v>
+        <v>18560</v>
       </c>
       <c r="K41">
         <v>4962</v>
@@ -1433,7 +1480,7 @@
         <v>30</v>
       </c>
       <c r="J42">
-        <v>19990</v>
+        <v>20160</v>
       </c>
       <c r="K42">
         <v>4962</v>
@@ -1444,10 +1491,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>290</v>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>12</v>
       </c>
       <c r="F43">
         <v>13900</v>
@@ -1456,7 +1506,7 @@
         <v>20</v>
       </c>
       <c r="J43">
-        <v>19990</v>
+        <v>20160</v>
       </c>
       <c r="K43">
         <v>5529</v>
@@ -1479,7 +1529,7 @@
         <v>30</v>
       </c>
       <c r="J44">
-        <v>21640</v>
+        <v>21810</v>
       </c>
       <c r="K44">
         <v>5529</v>
@@ -1490,10 +1540,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>316</v>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
       </c>
       <c r="F45">
         <v>37500</v>
@@ -1502,7 +1555,7 @@
         <v>120</v>
       </c>
       <c r="J45">
-        <v>21640</v>
+        <v>21810</v>
       </c>
       <c r="K45">
         <v>5529</v>
@@ -1525,7 +1578,7 @@
         <v>35</v>
       </c>
       <c r="J46">
-        <v>23440</v>
+        <v>23610</v>
       </c>
       <c r="K46">
         <v>5529</v>
@@ -1548,7 +1601,7 @@
         <v>25</v>
       </c>
       <c r="J47">
-        <v>23440</v>
+        <v>23610</v>
       </c>
       <c r="K47">
         <v>6112</v>
@@ -1574,7 +1627,7 @@
         <v>15</v>
       </c>
       <c r="J48">
-        <v>25440</v>
+        <v>25610</v>
       </c>
       <c r="K48">
         <v>6712</v>
@@ -1597,7 +1650,7 @@
         <v>30</v>
       </c>
       <c r="J49">
-        <v>27540</v>
+        <v>27710</v>
       </c>
       <c r="K49">
         <v>6712</v>
@@ -1608,10 +1661,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>370</v>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
       </c>
       <c r="F50">
         <v>45000</v>
@@ -1620,7 +1676,7 @@
         <v>100</v>
       </c>
       <c r="J50">
-        <v>27540</v>
+        <v>27710</v>
       </c>
       <c r="K50">
         <v>6712</v>
@@ -1643,7 +1699,7 @@
         <v>35</v>
       </c>
       <c r="J51">
-        <v>29740</v>
+        <v>29910</v>
       </c>
       <c r="K51">
         <v>6712</v>
@@ -1666,7 +1722,7 @@
         <v>25</v>
       </c>
       <c r="J52">
-        <v>29740</v>
+        <v>29910</v>
       </c>
       <c r="K52">
         <v>7362</v>
@@ -1677,10 +1733,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>392</v>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>13</v>
       </c>
       <c r="F53">
         <v>23200</v>
@@ -1692,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="J53">
-        <v>32040</v>
+        <v>32210</v>
       </c>
       <c r="K53">
         <v>8037</v>
@@ -1715,7 +1774,7 @@
         <v>30</v>
       </c>
       <c r="J54">
-        <v>34390</v>
+        <v>34560</v>
       </c>
       <c r="K54">
         <v>8037</v>
@@ -1726,10 +1785,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>402</v>
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>14</v>
       </c>
       <c r="F55">
         <v>22700</v>
@@ -1738,7 +1800,7 @@
         <v>25</v>
       </c>
       <c r="J55">
-        <v>34390</v>
+        <v>34560</v>
       </c>
       <c r="K55">
         <v>8787</v>
@@ -1761,7 +1823,7 @@
         <v>30</v>
       </c>
       <c r="J56">
-        <v>36890</v>
+        <v>37060</v>
       </c>
       <c r="K56">
         <v>8787</v>
@@ -1772,10 +1834,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>418</v>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>14</v>
       </c>
       <c r="F57">
         <v>24000</v>
@@ -1787,7 +1852,7 @@
         <v>15</v>
       </c>
       <c r="J57">
-        <v>39440</v>
+        <v>39610</v>
       </c>
       <c r="K57">
         <v>9562</v>
@@ -1810,7 +1875,7 @@
         <v>30</v>
       </c>
       <c r="J58">
-        <v>42040</v>
+        <v>42210</v>
       </c>
       <c r="K58">
         <v>9562</v>
@@ -1833,7 +1898,7 @@
         <v>20</v>
       </c>
       <c r="J59">
-        <v>42040</v>
+        <v>42210</v>
       </c>
       <c r="K59">
         <v>10362</v>
@@ -1844,10 +1909,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>452</v>
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>15</v>
       </c>
       <c r="F60">
         <v>52000</v>
@@ -1856,7 +1924,7 @@
         <v>150</v>
       </c>
       <c r="J60">
-        <v>42040</v>
+        <v>42210</v>
       </c>
       <c r="K60">
         <v>10362</v>
@@ -1879,7 +1947,7 @@
         <v>40</v>
       </c>
       <c r="J61">
-        <v>45240</v>
+        <v>45410</v>
       </c>
       <c r="K61">
         <v>10362</v>
@@ -1902,7 +1970,7 @@
         <v>20</v>
       </c>
       <c r="J62">
-        <v>45240</v>
+        <v>45410</v>
       </c>
       <c r="K62">
         <v>11262</v>
@@ -1913,10 +1981,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>478</v>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>15</v>
       </c>
       <c r="F63">
         <v>28700</v>
@@ -1928,7 +1999,7 @@
         <v>15</v>
       </c>
       <c r="J63">
-        <v>48540</v>
+        <v>48710</v>
       </c>
       <c r="K63">
         <v>12237</v>
@@ -1951,7 +2022,7 @@
         <v>35</v>
       </c>
       <c r="J64">
-        <v>51940</v>
+        <v>52110</v>
       </c>
       <c r="K64">
         <v>12237</v>
@@ -1974,7 +2045,7 @@
         <v>20</v>
       </c>
       <c r="J65">
-        <v>51940</v>
+        <v>52110</v>
       </c>
       <c r="K65">
         <v>13337</v>
@@ -1997,7 +2068,7 @@
         <v>30</v>
       </c>
       <c r="J66">
-        <v>55740</v>
+        <v>55910</v>
       </c>
       <c r="K66">
         <v>13337</v>
@@ -2008,10 +2079,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>506</v>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
       </c>
       <c r="F67">
         <v>29000</v>
@@ -2023,7 +2097,7 @@
         <v>15</v>
       </c>
       <c r="J67">
-        <v>59590</v>
+        <v>59760</v>
       </c>
       <c r="K67">
         <v>14537</v>
@@ -2046,7 +2120,7 @@
         <v>30</v>
       </c>
       <c r="J68">
-        <v>63490</v>
+        <v>63660</v>
       </c>
       <c r="K68">
         <v>14537</v>
@@ -2069,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="J69">
-        <v>63490</v>
+        <v>63660</v>
       </c>
       <c r="K69">
         <v>15837</v>
@@ -2092,7 +2166,7 @@
         <v>40</v>
       </c>
       <c r="J70">
-        <v>67690</v>
+        <v>67860</v>
       </c>
       <c r="K70">
         <v>15837</v>
@@ -2103,10 +2177,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>540</v>
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71">
+        <v>16</v>
       </c>
       <c r="F71">
         <v>64000</v>
@@ -2115,7 +2192,7 @@
         <v>120</v>
       </c>
       <c r="J71">
-        <v>67690</v>
+        <v>67860</v>
       </c>
       <c r="K71">
         <v>15837</v>
@@ -2138,7 +2215,7 @@
         <v>35</v>
       </c>
       <c r="J72">
-        <v>72090</v>
+        <v>72260</v>
       </c>
       <c r="K72">
         <v>15837</v>
@@ -2164,7 +2241,7 @@
         <v>25</v>
       </c>
       <c r="J73">
-        <v>76540</v>
+        <v>76710</v>
       </c>
       <c r="K73">
         <v>17337</v>
@@ -2175,10 +2252,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>566</v>
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>35</v>
+      </c>
+      <c r="E74">
+        <v>16</v>
       </c>
       <c r="F74">
         <v>33800</v>
@@ -2187,7 +2267,7 @@
         <v>35</v>
       </c>
       <c r="J74">
-        <v>81040</v>
+        <v>81210</v>
       </c>
       <c r="K74">
         <v>17337</v>
@@ -2213,7 +2293,7 @@
         <v>20</v>
       </c>
       <c r="J75">
-        <v>85590</v>
+        <v>85760</v>
       </c>
       <c r="K75">
         <v>19237</v>
@@ -2236,7 +2316,7 @@
         <v>30</v>
       </c>
       <c r="J76">
-        <v>90190</v>
+        <v>90360</v>
       </c>
       <c r="K76">
         <v>19237</v>
@@ -2259,7 +2339,7 @@
         <v>20</v>
       </c>
       <c r="J77">
-        <v>90190</v>
+        <v>90360</v>
       </c>
       <c r="K77">
         <v>21337</v>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C392BD-5696-4C2C-B822-55900D30F30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B50917B-9AC8-40D5-B54E-71A85054FA33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -505,10 +505,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1200</v>
@@ -577,10 +580,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
       <c r="F6">
         <v>2200</v>
@@ -603,13 +609,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
       </c>
       <c r="F7">
         <v>2000</v>
@@ -629,10 +632,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
       </c>
       <c r="F8">
         <v>2200</v>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B50917B-9AC8-40D5-B54E-71A85054FA33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE3A6E9-D095-4F6C-9A6F-F57C2A3553CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -531,13 +531,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
       </c>
       <c r="F4">
         <v>1300</v>
@@ -560,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>1800</v>
@@ -580,13 +577,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
       </c>
       <c r="F6">
         <v>2200</v>
@@ -612,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>2000</v>
@@ -635,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>2200</v>
@@ -661,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>2100</v>
@@ -684,10 +678,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>2400</v>
@@ -710,13 +704,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
       </c>
       <c r="F11">
         <v>2100</v>
@@ -739,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>2800</v>
@@ -762,13 +753,13 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="I13">
         <v>15</v>
@@ -788,16 +779,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>8000</v>
-      </c>
-      <c r="G14">
-        <v>70</v>
+        <v>3200</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
       </c>
       <c r="J14">
-        <v>1690</v>
+        <v>2240</v>
       </c>
       <c r="K14">
         <v>395</v>
@@ -808,22 +799,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="I15">
         <v>20</v>
       </c>
       <c r="J15">
-        <v>1690</v>
+        <v>2240</v>
       </c>
       <c r="K15">
         <v>545</v>
@@ -837,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F16">
-        <v>4800</v>
-      </c>
-      <c r="H16">
-        <v>25</v>
+        <v>8000</v>
+      </c>
+      <c r="G16">
+        <v>70</v>
       </c>
       <c r="J16">
         <v>2240</v>
@@ -860,10 +848,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>4600</v>
@@ -883,13 +871,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>53</v>
       </c>
       <c r="F18">
         <v>4900</v>
@@ -912,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="F19">
-        <v>12000</v>
-      </c>
-      <c r="G19">
-        <v>110</v>
+        <v>5400</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
       </c>
       <c r="J19">
         <v>2910</v>
       </c>
       <c r="K19">
-        <v>745</v>
+        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -935,13 +920,13 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="H20">
         <v>30</v>
@@ -950,7 +935,7 @@
         <v>3610</v>
       </c>
       <c r="K20">
-        <v>745</v>
+        <v>965</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -958,13 +943,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
       </c>
       <c r="F21">
         <v>6400</v>
@@ -976,7 +958,7 @@
         <v>3610</v>
       </c>
       <c r="K21">
-        <v>995</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -987,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="F22">
         <v>6600</v>
@@ -1002,7 +984,7 @@
         <v>4410</v>
       </c>
       <c r="K22">
-        <v>1295</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1010,13 +992,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>79</v>
       </c>
       <c r="F23">
         <v>7000</v>
@@ -1028,7 +1007,7 @@
         <v>5310</v>
       </c>
       <c r="K23">
-        <v>1295</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1039,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="F24">
         <v>6800</v>
@@ -1051,7 +1030,7 @@
         <v>5310</v>
       </c>
       <c r="K24">
-        <v>1645</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1059,13 +1038,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>89</v>
       </c>
       <c r="F25">
         <v>7500</v>
@@ -1077,7 +1053,7 @@
         <v>6410</v>
       </c>
       <c r="K25">
-        <v>1645</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1088,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="F26">
         <v>19500</v>
@@ -1100,7 +1076,7 @@
         <v>6410</v>
       </c>
       <c r="K26">
-        <v>1645</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1108,13 +1084,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>17</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>104</v>
       </c>
       <c r="F27">
         <v>9000</v>
@@ -1126,7 +1099,7 @@
         <v>7560</v>
       </c>
       <c r="K27">
-        <v>1645</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1137,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="F28">
         <v>9400</v>
@@ -1149,7 +1122,7 @@
         <v>7560</v>
       </c>
       <c r="K28">
-        <v>2045</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1160,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="F29">
         <v>9200</v>
@@ -1172,7 +1145,7 @@
         <v>8760</v>
       </c>
       <c r="K29">
-        <v>2045</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1180,13 +1153,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>119</v>
       </c>
       <c r="F30">
         <v>9600</v>
@@ -1201,7 +1171,7 @@
         <v>10010</v>
       </c>
       <c r="K30">
-        <v>2470</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1212,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="F31">
         <v>9800</v>
@@ -1224,7 +1194,7 @@
         <v>11310</v>
       </c>
       <c r="K31">
-        <v>2470</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1235,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="F32">
         <v>9500</v>
@@ -1247,7 +1217,7 @@
         <v>11310</v>
       </c>
       <c r="K32">
-        <v>2920</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1255,13 +1225,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>134</v>
       </c>
       <c r="F33">
         <v>9900</v>
@@ -1273,7 +1240,7 @@
         <v>12660</v>
       </c>
       <c r="K33">
-        <v>2920</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1284,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="F34">
         <v>9600</v>
@@ -1296,7 +1263,7 @@
         <v>12660</v>
       </c>
       <c r="K34">
-        <v>3387</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1304,13 +1271,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>151</v>
       </c>
       <c r="F35">
         <v>28000</v>
@@ -1322,7 +1286,7 @@
         <v>12660</v>
       </c>
       <c r="K35">
-        <v>3387</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1333,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="F36">
         <v>13500</v>
@@ -1345,7 +1309,7 @@
         <v>14060</v>
       </c>
       <c r="K36">
-        <v>3387</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1356,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="F37">
         <v>13800</v>
@@ -1368,7 +1332,7 @@
         <v>14060</v>
       </c>
       <c r="K37">
-        <v>3887</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1379,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="F38">
         <v>13200</v>
@@ -1391,7 +1355,7 @@
         <v>15510</v>
       </c>
       <c r="K38">
-        <v>3887</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1399,13 +1363,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>172</v>
       </c>
       <c r="F39">
         <v>13600</v>
@@ -1420,7 +1381,7 @@
         <v>17010</v>
       </c>
       <c r="K39">
-        <v>4412</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1431,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="F40">
         <v>13400</v>
@@ -1443,7 +1404,7 @@
         <v>18560</v>
       </c>
       <c r="K40">
-        <v>4412</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1454,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="F41">
         <v>13800</v>
@@ -1466,7 +1427,7 @@
         <v>18560</v>
       </c>
       <c r="K41">
-        <v>4962</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -1477,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="F42">
         <v>13600</v>
@@ -1489,7 +1450,7 @@
         <v>20160</v>
       </c>
       <c r="K42">
-        <v>4962</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -1515,7 +1476,7 @@
         <v>20160</v>
       </c>
       <c r="K43">
-        <v>5529</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -1526,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="F44">
         <v>13700</v>
@@ -1538,7 +1499,7 @@
         <v>21810</v>
       </c>
       <c r="K44">
-        <v>5529</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -1564,7 +1525,7 @@
         <v>21810</v>
       </c>
       <c r="K45">
-        <v>5529</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -1575,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="F46">
         <v>17700</v>
@@ -1587,7 +1548,7 @@
         <v>23610</v>
       </c>
       <c r="K46">
-        <v>5529</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -1598,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="F47">
         <v>17500</v>
@@ -1610,7 +1571,7 @@
         <v>23610</v>
       </c>
       <c r="K47">
-        <v>6112</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -1621,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="F48">
         <v>17900</v>
@@ -1636,7 +1597,7 @@
         <v>25610</v>
       </c>
       <c r="K48">
-        <v>6712</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -1647,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="F49">
         <v>17300</v>
@@ -1659,7 +1620,7 @@
         <v>27710</v>
       </c>
       <c r="K49">
-        <v>6712</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -1685,7 +1646,7 @@
         <v>27710</v>
       </c>
       <c r="K50">
-        <v>6712</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -1696,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="F51">
         <v>22300</v>
@@ -1708,7 +1669,7 @@
         <v>29910</v>
       </c>
       <c r="K51">
-        <v>6712</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -1719,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="F52">
         <v>22800</v>
@@ -1731,7 +1692,7 @@
         <v>29910</v>
       </c>
       <c r="K52">
-        <v>7362</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -1760,7 +1721,7 @@
         <v>32210</v>
       </c>
       <c r="K53">
-        <v>8037</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -1771,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="F54">
         <v>23000</v>
@@ -1783,7 +1744,7 @@
         <v>34560</v>
       </c>
       <c r="K54">
-        <v>8037</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -1809,7 +1770,7 @@
         <v>34560</v>
       </c>
       <c r="K55">
-        <v>8787</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -1820,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>408</v>
+        <v>314</v>
       </c>
       <c r="F56">
         <v>23200</v>
@@ -1832,7 +1793,7 @@
         <v>37060</v>
       </c>
       <c r="K56">
-        <v>8787</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -1861,7 +1822,7 @@
         <v>39610</v>
       </c>
       <c r="K57">
-        <v>9562</v>
+        <v>9782</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -1872,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>422</v>
+        <v>328</v>
       </c>
       <c r="F58">
         <v>23500</v>
@@ -1884,7 +1845,7 @@
         <v>42210</v>
       </c>
       <c r="K58">
-        <v>9562</v>
+        <v>9782</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -1895,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>430</v>
+        <v>336</v>
       </c>
       <c r="F59">
         <v>23800</v>
@@ -1907,7 +1868,7 @@
         <v>42210</v>
       </c>
       <c r="K59">
-        <v>10362</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -1933,7 +1894,7 @@
         <v>42210</v>
       </c>
       <c r="K60">
-        <v>10362</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -1944,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>460</v>
+        <v>366</v>
       </c>
       <c r="F61">
         <v>28500</v>
@@ -1956,7 +1917,7 @@
         <v>45410</v>
       </c>
       <c r="K61">
-        <v>10362</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -1967,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>468</v>
+        <v>374</v>
       </c>
       <c r="F62">
         <v>28000</v>
@@ -1979,7 +1940,7 @@
         <v>45410</v>
       </c>
       <c r="K62">
-        <v>11262</v>
+        <v>11482</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2008,7 +1969,7 @@
         <v>48710</v>
       </c>
       <c r="K63">
-        <v>12237</v>
+        <v>12457</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -2019,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>482</v>
+        <v>388</v>
       </c>
       <c r="F64">
         <v>28500</v>
@@ -2031,7 +1992,7 @@
         <v>52110</v>
       </c>
       <c r="K64">
-        <v>12237</v>
+        <v>12457</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -2042,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>488</v>
+        <v>394</v>
       </c>
       <c r="F65">
         <v>29200</v>
@@ -2054,7 +2015,7 @@
         <v>52110</v>
       </c>
       <c r="K65">
-        <v>13337</v>
+        <v>13557</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -2065,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>496</v>
+        <v>402</v>
       </c>
       <c r="F66">
         <v>29500</v>
@@ -2077,7 +2038,7 @@
         <v>55910</v>
       </c>
       <c r="K66">
-        <v>13337</v>
+        <v>13557</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -2106,7 +2067,7 @@
         <v>59760</v>
       </c>
       <c r="K67">
-        <v>14537</v>
+        <v>14757</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -2117,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>514</v>
+        <v>420</v>
       </c>
       <c r="F68">
         <v>29700</v>
@@ -2129,7 +2090,7 @@
         <v>63660</v>
       </c>
       <c r="K68">
-        <v>14537</v>
+        <v>14757</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -2140,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>518</v>
+        <v>424</v>
       </c>
       <c r="F69">
         <v>29500</v>
@@ -2152,7 +2113,7 @@
         <v>63660</v>
       </c>
       <c r="K69">
-        <v>15837</v>
+        <v>16057</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -2163,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>524</v>
+        <v>430</v>
       </c>
       <c r="F70">
         <v>29900</v>
@@ -2175,7 +2136,7 @@
         <v>67860</v>
       </c>
       <c r="K70">
-        <v>15837</v>
+        <v>16057</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -2201,7 +2162,7 @@
         <v>67860</v>
       </c>
       <c r="K71">
-        <v>15837</v>
+        <v>16057</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -2212,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>548</v>
+        <v>454</v>
       </c>
       <c r="F72">
         <v>33000</v>
@@ -2224,7 +2185,7 @@
         <v>72260</v>
       </c>
       <c r="K72">
-        <v>15837</v>
+        <v>16057</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -2235,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>558</v>
+        <v>464</v>
       </c>
       <c r="F73">
         <v>33500</v>
@@ -2250,7 +2211,7 @@
         <v>76710</v>
       </c>
       <c r="K73">
-        <v>17337</v>
+        <v>17557</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -2276,7 +2237,7 @@
         <v>81210</v>
       </c>
       <c r="K74">
-        <v>17337</v>
+        <v>17557</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -2287,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>576</v>
+        <v>482</v>
       </c>
       <c r="F75">
         <v>34500</v>
@@ -2302,7 +2263,7 @@
         <v>85760</v>
       </c>
       <c r="K75">
-        <v>19237</v>
+        <v>19457</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -2313,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>584</v>
+        <v>490</v>
       </c>
       <c r="F76">
         <v>34200</v>
@@ -2325,7 +2286,7 @@
         <v>90360</v>
       </c>
       <c r="K76">
-        <v>19237</v>
+        <v>19457</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -2336,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>592</v>
+        <v>498</v>
       </c>
       <c r="F77">
         <v>35000</v>
@@ -2348,7 +2309,7 @@
         <v>90360</v>
       </c>
       <c r="K77">
-        <v>21337</v>
+        <v>21557</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE3A6E9-D095-4F6C-9A6F-F57C2A3553CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BE24BD-B7EF-4166-89CC-9844F50E2A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,14 +516,14 @@
       <c r="F3">
         <v>1200</v>
       </c>
-      <c r="I3">
+      <c r="G3">
         <v>20</v>
       </c>
       <c r="J3">
         <v>250</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>450</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -569,7 +569,7 @@
         <v>450</v>
       </c>
       <c r="K5">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>620</v>
       </c>
       <c r="K6">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -611,14 +611,14 @@
       <c r="F7">
         <v>2000</v>
       </c>
-      <c r="H7">
-        <v>30</v>
+      <c r="G7">
+        <v>35</v>
       </c>
       <c r="J7">
-        <v>810</v>
+        <v>620</v>
       </c>
       <c r="K7">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -641,10 +641,10 @@
         <v>15</v>
       </c>
       <c r="J8">
-        <v>810</v>
+        <v>620</v>
       </c>
       <c r="K8">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -664,10 +664,10 @@
         <v>40</v>
       </c>
       <c r="J9">
-        <v>1010</v>
+        <v>820</v>
       </c>
       <c r="K9">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -693,10 +693,10 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>1290</v>
+        <v>1100</v>
       </c>
       <c r="K10">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -716,10 +716,10 @@
         <v>15</v>
       </c>
       <c r="J11">
-        <v>1290</v>
+        <v>1100</v>
       </c>
       <c r="K11">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -739,10 +739,10 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>1690</v>
+        <v>1500</v>
       </c>
       <c r="K12">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -765,10 +765,10 @@
         <v>15</v>
       </c>
       <c r="J13">
-        <v>1690</v>
+        <v>1500</v>
       </c>
       <c r="K13">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -788,10 +788,10 @@
         <v>25</v>
       </c>
       <c r="J14">
-        <v>2240</v>
+        <v>2050</v>
       </c>
       <c r="K14">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -811,10 +811,10 @@
         <v>20</v>
       </c>
       <c r="J15">
-        <v>2240</v>
+        <v>2050</v>
       </c>
       <c r="K15">
-        <v>545</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -834,10 +834,10 @@
         <v>70</v>
       </c>
       <c r="J16">
-        <v>2240</v>
+        <v>2050</v>
       </c>
       <c r="K16">
-        <v>545</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -860,10 +860,10 @@
         <v>25</v>
       </c>
       <c r="J17">
-        <v>2240</v>
+        <v>2050</v>
       </c>
       <c r="K17">
-        <v>745</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -883,10 +883,10 @@
         <v>30</v>
       </c>
       <c r="J18">
-        <v>2910</v>
+        <v>2720</v>
       </c>
       <c r="K18">
-        <v>745</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -906,10 +906,10 @@
         <v>20</v>
       </c>
       <c r="J19">
-        <v>2910</v>
+        <v>2720</v>
       </c>
       <c r="K19">
-        <v>965</v>
+        <v>945</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>30</v>
       </c>
       <c r="J20">
-        <v>3610</v>
+        <v>3420</v>
       </c>
       <c r="K20">
-        <v>965</v>
+        <v>945</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -955,10 +955,10 @@
         <v>20</v>
       </c>
       <c r="J21">
-        <v>3610</v>
+        <v>3420</v>
       </c>
       <c r="K21">
-        <v>1215</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -981,10 +981,10 @@
         <v>15</v>
       </c>
       <c r="J22">
-        <v>4410</v>
+        <v>4220</v>
       </c>
       <c r="K22">
-        <v>1515</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1004,10 +1004,10 @@
         <v>30</v>
       </c>
       <c r="J23">
-        <v>5310</v>
+        <v>5120</v>
       </c>
       <c r="K23">
-        <v>1515</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1027,10 +1027,10 @@
         <v>20</v>
       </c>
       <c r="J24">
-        <v>5310</v>
+        <v>5120</v>
       </c>
       <c r="K24">
-        <v>1865</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1038,10 +1038,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
       </c>
       <c r="F25">
         <v>7500</v>
@@ -1050,10 +1053,10 @@
         <v>35</v>
       </c>
       <c r="J25">
-        <v>6410</v>
+        <v>6220</v>
       </c>
       <c r="K25">
-        <v>1865</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F26">
         <v>19500</v>
@@ -1073,10 +1076,10 @@
         <v>90</v>
       </c>
       <c r="J26">
-        <v>6410</v>
+        <v>6220</v>
       </c>
       <c r="K26">
-        <v>1865</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1087,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F27">
         <v>9000</v>
@@ -1096,10 +1099,10 @@
         <v>30</v>
       </c>
       <c r="J27">
-        <v>7560</v>
+        <v>7370</v>
       </c>
       <c r="K27">
-        <v>1865</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1107,10 +1110,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
       </c>
       <c r="F28">
         <v>9400</v>
@@ -1119,10 +1125,10 @@
         <v>25</v>
       </c>
       <c r="J28">
-        <v>7560</v>
+        <v>7370</v>
       </c>
       <c r="K28">
-        <v>2265</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1133,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F29">
         <v>9200</v>
@@ -1142,10 +1148,10 @@
         <v>25</v>
       </c>
       <c r="J29">
-        <v>8760</v>
+        <v>8570</v>
       </c>
       <c r="K29">
-        <v>2265</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1156,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F30">
         <v>9600</v>
@@ -1168,10 +1174,10 @@
         <v>15</v>
       </c>
       <c r="J30">
-        <v>10010</v>
+        <v>9820</v>
       </c>
       <c r="K30">
-        <v>2690</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1182,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31">
         <v>9800</v>
@@ -1191,10 +1197,10 @@
         <v>25</v>
       </c>
       <c r="J31">
-        <v>11310</v>
+        <v>11120</v>
       </c>
       <c r="K31">
-        <v>2690</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1202,10 +1208,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
       </c>
       <c r="F32">
         <v>9500</v>
@@ -1214,10 +1223,10 @@
         <v>20</v>
       </c>
       <c r="J32">
-        <v>11310</v>
+        <v>11120</v>
       </c>
       <c r="K32">
-        <v>3140</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1228,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F33">
         <v>9900</v>
@@ -1237,10 +1246,10 @@
         <v>30</v>
       </c>
       <c r="J33">
-        <v>12660</v>
+        <v>12470</v>
       </c>
       <c r="K33">
-        <v>3140</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1251,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34">
         <v>9600</v>
@@ -1260,10 +1269,10 @@
         <v>20</v>
       </c>
       <c r="J34">
-        <v>12660</v>
+        <v>12470</v>
       </c>
       <c r="K34">
-        <v>3607</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1274,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F35">
         <v>28000</v>
@@ -1283,10 +1292,10 @@
         <v>100</v>
       </c>
       <c r="J35">
-        <v>12660</v>
+        <v>12470</v>
       </c>
       <c r="K35">
-        <v>3607</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1294,10 +1303,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
       </c>
       <c r="F36">
         <v>13500</v>
@@ -1306,10 +1318,10 @@
         <v>35</v>
       </c>
       <c r="J36">
-        <v>14060</v>
+        <v>13870</v>
       </c>
       <c r="K36">
-        <v>3607</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1320,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F37">
         <v>13800</v>
@@ -1329,10 +1341,10 @@
         <v>25</v>
       </c>
       <c r="J37">
-        <v>14060</v>
+        <v>13870</v>
       </c>
       <c r="K37">
-        <v>4107</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1343,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F38">
         <v>13200</v>
@@ -1352,10 +1364,10 @@
         <v>30</v>
       </c>
       <c r="J38">
-        <v>15510</v>
+        <v>15320</v>
       </c>
       <c r="K38">
-        <v>4107</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1378,10 +1390,10 @@
         <v>15</v>
       </c>
       <c r="J39">
-        <v>17010</v>
+        <v>16820</v>
       </c>
       <c r="K39">
-        <v>4632</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1392,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F40">
         <v>13400</v>
@@ -1401,10 +1413,10 @@
         <v>30</v>
       </c>
       <c r="J40">
-        <v>18560</v>
+        <v>18370</v>
       </c>
       <c r="K40">
-        <v>4632</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1415,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F41">
         <v>13800</v>
@@ -1424,10 +1436,10 @@
         <v>20</v>
       </c>
       <c r="J41">
-        <v>18560</v>
+        <v>18370</v>
       </c>
       <c r="K41">
-        <v>5182</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -1438,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F42">
         <v>13600</v>
@@ -1447,10 +1459,10 @@
         <v>30</v>
       </c>
       <c r="J42">
-        <v>20160</v>
+        <v>19970</v>
       </c>
       <c r="K42">
-        <v>5182</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -1473,10 +1485,10 @@
         <v>20</v>
       </c>
       <c r="J43">
-        <v>20160</v>
+        <v>19970</v>
       </c>
       <c r="K43">
-        <v>5749</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -1487,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F44">
         <v>13700</v>
@@ -1496,10 +1508,10 @@
         <v>30</v>
       </c>
       <c r="J44">
-        <v>21810</v>
+        <v>21620</v>
       </c>
       <c r="K44">
-        <v>5749</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -1522,10 +1534,10 @@
         <v>120</v>
       </c>
       <c r="J45">
-        <v>21810</v>
+        <v>21620</v>
       </c>
       <c r="K45">
-        <v>5749</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -1536,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F46">
         <v>17700</v>
@@ -1545,10 +1557,10 @@
         <v>35</v>
       </c>
       <c r="J46">
-        <v>23610</v>
+        <v>23420</v>
       </c>
       <c r="K46">
-        <v>5749</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -1559,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F47">
         <v>17500</v>
@@ -1568,10 +1580,10 @@
         <v>25</v>
       </c>
       <c r="J47">
-        <v>23610</v>
+        <v>23420</v>
       </c>
       <c r="K47">
-        <v>6332</v>
+        <v>6312</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -1582,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F48">
         <v>17900</v>
@@ -1594,10 +1606,10 @@
         <v>15</v>
       </c>
       <c r="J48">
-        <v>25610</v>
+        <v>25420</v>
       </c>
       <c r="K48">
-        <v>6932</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -1608,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F49">
         <v>17300</v>
@@ -1617,10 +1629,10 @@
         <v>30</v>
       </c>
       <c r="J49">
-        <v>27710</v>
+        <v>27520</v>
       </c>
       <c r="K49">
-        <v>6932</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -1643,10 +1655,10 @@
         <v>100</v>
       </c>
       <c r="J50">
-        <v>27710</v>
+        <v>27520</v>
       </c>
       <c r="K50">
-        <v>6932</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -1657,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F51">
         <v>22300</v>
@@ -1666,10 +1678,10 @@
         <v>35</v>
       </c>
       <c r="J51">
-        <v>29910</v>
+        <v>29720</v>
       </c>
       <c r="K51">
-        <v>6932</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -1680,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F52">
         <v>22800</v>
@@ -1689,10 +1701,10 @@
         <v>25</v>
       </c>
       <c r="J52">
-        <v>29910</v>
+        <v>29720</v>
       </c>
       <c r="K52">
-        <v>7582</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -1718,10 +1730,10 @@
         <v>20</v>
       </c>
       <c r="J53">
-        <v>32210</v>
+        <v>32020</v>
       </c>
       <c r="K53">
-        <v>8257</v>
+        <v>8237</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -1732,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F54">
         <v>23000</v>
@@ -1741,10 +1753,10 @@
         <v>30</v>
       </c>
       <c r="J54">
-        <v>34560</v>
+        <v>34370</v>
       </c>
       <c r="K54">
-        <v>8257</v>
+        <v>8237</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -1767,10 +1779,10 @@
         <v>25</v>
       </c>
       <c r="J55">
-        <v>34560</v>
+        <v>34370</v>
       </c>
       <c r="K55">
-        <v>9007</v>
+        <v>8987</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -1781,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F56">
         <v>23200</v>
@@ -1790,10 +1802,10 @@
         <v>30</v>
       </c>
       <c r="J56">
-        <v>37060</v>
+        <v>36870</v>
       </c>
       <c r="K56">
-        <v>9007</v>
+        <v>8987</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -1819,10 +1831,10 @@
         <v>15</v>
       </c>
       <c r="J57">
-        <v>39610</v>
+        <v>39420</v>
       </c>
       <c r="K57">
-        <v>9782</v>
+        <v>9762</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -1833,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F58">
         <v>23500</v>
@@ -1842,10 +1854,10 @@
         <v>30</v>
       </c>
       <c r="J58">
-        <v>42210</v>
+        <v>42020</v>
       </c>
       <c r="K58">
-        <v>9782</v>
+        <v>9762</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -1856,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F59">
         <v>23800</v>
@@ -1865,10 +1877,10 @@
         <v>20</v>
       </c>
       <c r="J59">
-        <v>42210</v>
+        <v>42020</v>
       </c>
       <c r="K59">
-        <v>10582</v>
+        <v>10562</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -1891,10 +1903,10 @@
         <v>150</v>
       </c>
       <c r="J60">
-        <v>42210</v>
+        <v>42020</v>
       </c>
       <c r="K60">
-        <v>10582</v>
+        <v>10562</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -1905,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F61">
         <v>28500</v>
@@ -1914,10 +1926,10 @@
         <v>40</v>
       </c>
       <c r="J61">
-        <v>45410</v>
+        <v>45220</v>
       </c>
       <c r="K61">
-        <v>10582</v>
+        <v>10562</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -1928,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F62">
         <v>28000</v>
@@ -1937,10 +1949,10 @@
         <v>20</v>
       </c>
       <c r="J62">
-        <v>45410</v>
+        <v>45220</v>
       </c>
       <c r="K62">
-        <v>11482</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -1966,10 +1978,10 @@
         <v>15</v>
       </c>
       <c r="J63">
-        <v>48710</v>
+        <v>48520</v>
       </c>
       <c r="K63">
-        <v>12457</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -1980,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F64">
         <v>28500</v>
@@ -1989,10 +2001,10 @@
         <v>35</v>
       </c>
       <c r="J64">
-        <v>52110</v>
+        <v>51920</v>
       </c>
       <c r="K64">
-        <v>12457</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -2003,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F65">
         <v>29200</v>
@@ -2012,10 +2024,10 @@
         <v>20</v>
       </c>
       <c r="J65">
-        <v>52110</v>
+        <v>51920</v>
       </c>
       <c r="K65">
-        <v>13557</v>
+        <v>13537</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -2026,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F66">
         <v>29500</v>
@@ -2035,10 +2047,10 @@
         <v>30</v>
       </c>
       <c r="J66">
-        <v>55910</v>
+        <v>55720</v>
       </c>
       <c r="K66">
-        <v>13557</v>
+        <v>13537</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -2064,10 +2076,10 @@
         <v>15</v>
       </c>
       <c r="J67">
-        <v>59760</v>
+        <v>59570</v>
       </c>
       <c r="K67">
-        <v>14757</v>
+        <v>14737</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -2078,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F68">
         <v>29700</v>
@@ -2087,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="J68">
-        <v>63660</v>
+        <v>63470</v>
       </c>
       <c r="K68">
-        <v>14757</v>
+        <v>14737</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -2101,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F69">
         <v>29500</v>
@@ -2110,10 +2122,10 @@
         <v>20</v>
       </c>
       <c r="J69">
-        <v>63660</v>
+        <v>63470</v>
       </c>
       <c r="K69">
-        <v>16057</v>
+        <v>16037</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -2124,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F70">
         <v>29900</v>
@@ -2133,10 +2145,10 @@
         <v>40</v>
       </c>
       <c r="J70">
-        <v>67860</v>
+        <v>67670</v>
       </c>
       <c r="K70">
-        <v>16057</v>
+        <v>16037</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -2159,10 +2171,10 @@
         <v>120</v>
       </c>
       <c r="J71">
-        <v>67860</v>
+        <v>67670</v>
       </c>
       <c r="K71">
-        <v>16057</v>
+        <v>16037</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -2173,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F72">
         <v>33000</v>
@@ -2182,10 +2194,10 @@
         <v>35</v>
       </c>
       <c r="J72">
-        <v>72260</v>
+        <v>72070</v>
       </c>
       <c r="K72">
-        <v>16057</v>
+        <v>16037</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -2196,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F73">
         <v>33500</v>
@@ -2208,10 +2220,10 @@
         <v>25</v>
       </c>
       <c r="J73">
-        <v>76710</v>
+        <v>76520</v>
       </c>
       <c r="K73">
-        <v>17557</v>
+        <v>17537</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -2234,10 +2246,10 @@
         <v>35</v>
       </c>
       <c r="J74">
-        <v>81210</v>
+        <v>81020</v>
       </c>
       <c r="K74">
-        <v>17557</v>
+        <v>17537</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -2248,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F75">
         <v>34500</v>
@@ -2260,10 +2272,10 @@
         <v>20</v>
       </c>
       <c r="J75">
-        <v>85760</v>
+        <v>85570</v>
       </c>
       <c r="K75">
-        <v>19457</v>
+        <v>19437</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -2274,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F76">
         <v>34200</v>
@@ -2283,10 +2295,10 @@
         <v>30</v>
       </c>
       <c r="J76">
-        <v>90360</v>
+        <v>90170</v>
       </c>
       <c r="K76">
-        <v>19457</v>
+        <v>19437</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -2297,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F77">
         <v>35000</v>
@@ -2306,10 +2318,10 @@
         <v>20</v>
       </c>
       <c r="J77">
-        <v>90360</v>
+        <v>90170</v>
       </c>
       <c r="K77">
-        <v>21557</v>
+        <v>21537</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BE24BD-B7EF-4166-89CC-9844F50E2A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB15C5A-4A9C-41F1-AD1E-3070E917C29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -514,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -534,19 +534,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>1300</v>
       </c>
-      <c r="H4">
-        <v>60</v>
+      <c r="I4">
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>1800</v>
       </c>
-      <c r="I5">
-        <v>20</v>
+      <c r="H5">
+        <v>60</v>
       </c>
       <c r="J5">
         <v>450</v>
       </c>
       <c r="K5">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -577,13 +577,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -595,7 +598,7 @@
         <v>620</v>
       </c>
       <c r="K6">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -606,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G7">
         <v>35</v>
@@ -618,7 +621,7 @@
         <v>620</v>
       </c>
       <c r="K7">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -629,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -637,14 +640,14 @@
       <c r="F8">
         <v>2200</v>
       </c>
-      <c r="I8">
-        <v>15</v>
+      <c r="H8">
+        <v>40</v>
       </c>
       <c r="J8">
-        <v>620</v>
+        <v>820</v>
       </c>
       <c r="K8">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -655,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>2100</v>
       </c>
-      <c r="H9">
-        <v>40</v>
+      <c r="I9">
+        <v>15</v>
       </c>
       <c r="J9">
         <v>820</v>
@@ -675,13 +678,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
       </c>
       <c r="F10">
         <v>2400</v>
@@ -696,7 +696,7 @@
         <v>1100</v>
       </c>
       <c r="K10">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -704,22 +704,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>2100</v>
-      </c>
-      <c r="I11">
-        <v>15</v>
+        <v>5100</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
       </c>
       <c r="J11">
         <v>1100</v>
       </c>
       <c r="K11">
-        <v>255</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -730,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>2800</v>
@@ -739,10 +742,10 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>1500</v>
+        <v>1370</v>
       </c>
       <c r="K12">
-        <v>255</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -753,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -765,10 +768,10 @@
         <v>15</v>
       </c>
       <c r="J13">
-        <v>1500</v>
+        <v>1370</v>
       </c>
       <c r="K13">
-        <v>375</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>3200</v>
@@ -788,10 +791,10 @@
         <v>25</v>
       </c>
       <c r="J14">
-        <v>2050</v>
+        <v>1680</v>
       </c>
       <c r="K14">
-        <v>375</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -802,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>3500</v>
@@ -811,10 +814,10 @@
         <v>20</v>
       </c>
       <c r="J15">
-        <v>2050</v>
+        <v>1680</v>
       </c>
       <c r="K15">
-        <v>525</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -825,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F16">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="G16">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J16">
-        <v>2050</v>
+        <v>1680</v>
       </c>
       <c r="K16">
-        <v>525</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -848,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>4600</v>
@@ -860,10 +863,10 @@
         <v>25</v>
       </c>
       <c r="J17">
-        <v>2050</v>
+        <v>1680</v>
       </c>
       <c r="K17">
-        <v>725</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -874,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>4900</v>
@@ -883,10 +886,10 @@
         <v>30</v>
       </c>
       <c r="J18">
-        <v>2720</v>
+        <v>2020</v>
       </c>
       <c r="K18">
-        <v>725</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -897,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F19">
         <v>5400</v>
@@ -906,10 +909,10 @@
         <v>20</v>
       </c>
       <c r="J19">
-        <v>2720</v>
+        <v>2020</v>
       </c>
       <c r="K19">
-        <v>945</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -917,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>81</v>
       </c>
       <c r="F20">
         <v>5800</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
       </c>
       <c r="J20">
-        <v>3420</v>
+        <v>2260</v>
       </c>
       <c r="K20">
-        <v>945</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -943,22 +946,25 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>6400</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
+        <v>12500</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
       </c>
       <c r="J21">
-        <v>3420</v>
+        <v>2260</v>
       </c>
       <c r="K21">
-        <v>1195</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -969,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F22">
         <v>6600</v>
@@ -981,10 +987,10 @@
         <v>15</v>
       </c>
       <c r="J22">
-        <v>4220</v>
+        <v>2510</v>
       </c>
       <c r="K22">
-        <v>1495</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -995,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F23">
         <v>7000</v>
@@ -1004,10 +1010,10 @@
         <v>30</v>
       </c>
       <c r="J23">
-        <v>5120</v>
+        <v>2750</v>
       </c>
       <c r="K23">
-        <v>1495</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1018,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F24">
         <v>6800</v>
@@ -1027,10 +1033,10 @@
         <v>20</v>
       </c>
       <c r="J24">
-        <v>5120</v>
+        <v>2750</v>
       </c>
       <c r="K24">
-        <v>1845</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1041,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>7500</v>
@@ -1053,10 +1059,10 @@
         <v>35</v>
       </c>
       <c r="J25">
-        <v>6220</v>
+        <v>2980</v>
       </c>
       <c r="K25">
-        <v>1845</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1067,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F26">
         <v>19500</v>
       </c>
       <c r="G26">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="J26">
-        <v>6220</v>
+        <v>2980</v>
       </c>
       <c r="K26">
-        <v>1845</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1087,10 +1093,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
       </c>
       <c r="F27">
         <v>9000</v>
@@ -1099,10 +1108,10 @@
         <v>30</v>
       </c>
       <c r="J27">
-        <v>7370</v>
+        <v>3260</v>
       </c>
       <c r="K27">
-        <v>1845</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1110,13 +1119,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>131</v>
       </c>
       <c r="F28">
         <v>9400</v>
@@ -1125,10 +1131,10 @@
         <v>25</v>
       </c>
       <c r="J28">
-        <v>7370</v>
+        <v>3260</v>
       </c>
       <c r="K28">
-        <v>2245</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1139,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F29">
-        <v>9200</v>
-      </c>
-      <c r="H29">
-        <v>25</v>
+        <v>24000</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
       </c>
       <c r="J29">
-        <v>8570</v>
+        <v>3260</v>
       </c>
       <c r="K29">
-        <v>2245</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1162,22 +1168,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="F30">
-        <v>9600</v>
+        <v>10200</v>
       </c>
       <c r="H30">
-        <v>20</v>
-      </c>
-      <c r="I30">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J30">
-        <v>9820</v>
+        <v>3710</v>
       </c>
       <c r="K30">
-        <v>2670</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1188,19 +1191,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F31">
-        <v>9800</v>
+        <v>10400</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>15</v>
       </c>
       <c r="J31">
-        <v>11120</v>
+        <v>4210</v>
       </c>
       <c r="K31">
-        <v>2670</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1211,22 +1217,22 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32">
-        <v>9500</v>
+        <v>10800</v>
       </c>
       <c r="I32">
         <v>20</v>
       </c>
       <c r="J32">
-        <v>11120</v>
+        <v>4210</v>
       </c>
       <c r="K32">
-        <v>3120</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1237,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F33">
-        <v>9900</v>
+        <v>11000</v>
       </c>
       <c r="H33">
         <v>30</v>
       </c>
       <c r="J33">
-        <v>12470</v>
+        <v>4760</v>
       </c>
       <c r="K33">
-        <v>3120</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1257,22 +1263,25 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>140</v>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>9600</v>
+        <v>11200</v>
       </c>
       <c r="I34">
         <v>20</v>
       </c>
       <c r="J34">
-        <v>12470</v>
+        <v>4760</v>
       </c>
       <c r="K34">
-        <v>3587</v>
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1283,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="F35">
         <v>28000</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J35">
-        <v>12470</v>
+        <v>4760</v>
       </c>
       <c r="K35">
-        <v>3587</v>
+        <v>685</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1303,13 +1312,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>11</v>
-      </c>
-      <c r="E36">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>185</v>
       </c>
       <c r="F36">
         <v>13500</v>
@@ -1318,10 +1324,10 @@
         <v>35</v>
       </c>
       <c r="J36">
-        <v>13870</v>
+        <v>5610</v>
       </c>
       <c r="K36">
-        <v>3587</v>
+        <v>685</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1332,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="F37">
         <v>13800</v>
@@ -1341,10 +1347,10 @@
         <v>25</v>
       </c>
       <c r="J37">
-        <v>13870</v>
+        <v>5610</v>
       </c>
       <c r="K37">
-        <v>4087</v>
+        <v>835</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1352,10 +1358,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>164</v>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
       </c>
       <c r="F38">
         <v>13200</v>
@@ -1364,10 +1373,10 @@
         <v>30</v>
       </c>
       <c r="J38">
-        <v>15320</v>
+        <v>6810</v>
       </c>
       <c r="K38">
-        <v>4087</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1378,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="F39">
         <v>13600</v>
@@ -1390,10 +1399,10 @@
         <v>15</v>
       </c>
       <c r="J39">
-        <v>16820</v>
+        <v>8310</v>
       </c>
       <c r="K39">
-        <v>4612</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1401,10 +1410,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>179</v>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>19</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
       </c>
       <c r="F40">
         <v>13400</v>
@@ -1413,10 +1425,10 @@
         <v>30</v>
       </c>
       <c r="J40">
-        <v>18370</v>
+        <v>10010</v>
       </c>
       <c r="K40">
-        <v>4612</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1427,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="F41">
         <v>13800</v>
@@ -1436,10 +1448,10 @@
         <v>20</v>
       </c>
       <c r="J41">
-        <v>18370</v>
+        <v>10010</v>
       </c>
       <c r="K41">
-        <v>5162</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -1447,10 +1459,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>189</v>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
       </c>
       <c r="F42">
         <v>13600</v>
@@ -1459,10 +1474,10 @@
         <v>30</v>
       </c>
       <c r="J42">
-        <v>19970</v>
+        <v>12410</v>
       </c>
       <c r="K42">
-        <v>5162</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -1470,13 +1485,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>8</v>
-      </c>
-      <c r="E43">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>242</v>
       </c>
       <c r="F43">
         <v>13900</v>
@@ -1485,10 +1497,10 @@
         <v>20</v>
       </c>
       <c r="J43">
-        <v>19970</v>
+        <v>12410</v>
       </c>
       <c r="K43">
-        <v>5729</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -1496,10 +1508,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>203</v>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>23</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
       </c>
       <c r="F44">
         <v>13700</v>
@@ -1508,10 +1523,10 @@
         <v>30</v>
       </c>
       <c r="J44">
-        <v>21620</v>
+        <v>14910</v>
       </c>
       <c r="K44">
-        <v>5729</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -1519,25 +1534,22 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>259</v>
       </c>
       <c r="F45">
         <v>37500</v>
       </c>
       <c r="G45">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="J45">
-        <v>21620</v>
+        <v>14910</v>
       </c>
       <c r="K45">
-        <v>5729</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -1548,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="F46">
         <v>17700</v>
@@ -1557,10 +1569,10 @@
         <v>35</v>
       </c>
       <c r="J46">
-        <v>23420</v>
+        <v>17910</v>
       </c>
       <c r="K46">
-        <v>5729</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -1568,10 +1580,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>235</v>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
       </c>
       <c r="F47">
         <v>17500</v>
@@ -1580,10 +1595,10 @@
         <v>25</v>
       </c>
       <c r="J47">
-        <v>23420</v>
+        <v>17910</v>
       </c>
       <c r="K47">
-        <v>6312</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -1594,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="F48">
         <v>17900</v>
@@ -1606,10 +1621,10 @@
         <v>15</v>
       </c>
       <c r="J48">
-        <v>25420</v>
+        <v>22410</v>
       </c>
       <c r="K48">
-        <v>6912</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -1620,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="F49">
         <v>17300</v>
@@ -1629,10 +1644,10 @@
         <v>30</v>
       </c>
       <c r="J49">
-        <v>27520</v>
+        <v>27910</v>
       </c>
       <c r="K49">
-        <v>6912</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -1640,25 +1655,22 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>302</v>
       </c>
       <c r="F50">
-        <v>45000</v>
-      </c>
-      <c r="G50">
-        <v>100</v>
+        <v>18200</v>
+      </c>
+      <c r="I50">
+        <v>20</v>
       </c>
       <c r="J50">
-        <v>27520</v>
+        <v>27910</v>
       </c>
       <c r="K50">
-        <v>6912</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -1666,22 +1678,25 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>283</v>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>26</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>22300</v>
+        <v>18500</v>
       </c>
       <c r="H51">
         <v>35</v>
       </c>
       <c r="J51">
-        <v>29720</v>
+        <v>33510</v>
       </c>
       <c r="K51">
-        <v>6912</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -1692,19 +1707,19 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="F52">
-        <v>22800</v>
-      </c>
-      <c r="I52">
-        <v>25</v>
+        <v>41000</v>
+      </c>
+      <c r="G52">
+        <v>55</v>
       </c>
       <c r="J52">
-        <v>29720</v>
+        <v>33510</v>
       </c>
       <c r="K52">
-        <v>7562</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -1712,13 +1727,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>10</v>
-      </c>
-      <c r="E53">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>327</v>
       </c>
       <c r="F53">
         <v>23200</v>
@@ -1730,10 +1742,10 @@
         <v>20</v>
       </c>
       <c r="J53">
-        <v>32020</v>
+        <v>39210</v>
       </c>
       <c r="K53">
-        <v>8237</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -1744,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="F54">
         <v>23000</v>
@@ -1753,10 +1765,10 @@
         <v>30</v>
       </c>
       <c r="J54">
-        <v>34370</v>
+        <v>45110</v>
       </c>
       <c r="K54">
-        <v>8237</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -1764,13 +1776,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>15</v>
-      </c>
-      <c r="E55">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>346</v>
       </c>
       <c r="F55">
         <v>22700</v>
@@ -1779,10 +1788,10 @@
         <v>25</v>
       </c>
       <c r="J55">
-        <v>34370</v>
+        <v>45110</v>
       </c>
       <c r="K55">
-        <v>8987</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -1793,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="F56">
         <v>23200</v>
@@ -1802,10 +1811,10 @@
         <v>30</v>
       </c>
       <c r="J56">
-        <v>36870</v>
+        <v>51110</v>
       </c>
       <c r="K56">
-        <v>8987</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -1813,13 +1822,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>20</v>
-      </c>
-      <c r="E57">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>369</v>
       </c>
       <c r="F57">
         <v>24000</v>
@@ -1831,10 +1837,10 @@
         <v>15</v>
       </c>
       <c r="J57">
-        <v>39420</v>
+        <v>57210</v>
       </c>
       <c r="K57">
-        <v>9762</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -1845,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="F58">
         <v>23500</v>
@@ -1854,10 +1860,10 @@
         <v>30</v>
       </c>
       <c r="J58">
-        <v>42020</v>
+        <v>64110</v>
       </c>
       <c r="K58">
-        <v>9762</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -1868,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="F59">
         <v>23800</v>
@@ -1877,10 +1883,10 @@
         <v>20</v>
       </c>
       <c r="J59">
-        <v>42020</v>
+        <v>64110</v>
       </c>
       <c r="K59">
-        <v>10562</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -1888,25 +1894,22 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>402</v>
       </c>
       <c r="F60">
         <v>52000</v>
       </c>
       <c r="G60">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J60">
-        <v>42020</v>
+        <v>64110</v>
       </c>
       <c r="K60">
-        <v>10562</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -1917,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="F61">
         <v>28500</v>
@@ -1926,10 +1929,10 @@
         <v>40</v>
       </c>
       <c r="J61">
-        <v>45220</v>
+        <v>72010</v>
       </c>
       <c r="K61">
-        <v>10562</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -1940,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="F62">
         <v>28000</v>
@@ -1949,10 +1952,10 @@
         <v>20</v>
       </c>
       <c r="J62">
-        <v>45220</v>
+        <v>72010</v>
       </c>
       <c r="K62">
-        <v>11462</v>
+        <v>9570</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -1960,13 +1963,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>15</v>
-      </c>
-      <c r="E63">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>434</v>
       </c>
       <c r="F63">
         <v>28700</v>
@@ -1978,10 +1978,10 @@
         <v>15</v>
       </c>
       <c r="J63">
-        <v>48520</v>
+        <v>80810</v>
       </c>
       <c r="K63">
-        <v>12437</v>
+        <v>10970</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="F64">
         <v>28500</v>
@@ -2001,10 +2001,10 @@
         <v>35</v>
       </c>
       <c r="J64">
-        <v>51920</v>
+        <v>90210</v>
       </c>
       <c r="K64">
-        <v>12437</v>
+        <v>10970</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="F65">
         <v>29200</v>
@@ -2024,10 +2024,10 @@
         <v>20</v>
       </c>
       <c r="J65">
-        <v>51920</v>
+        <v>90210</v>
       </c>
       <c r="K65">
-        <v>13537</v>
+        <v>12270</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="F66">
         <v>29500</v>
@@ -2047,10 +2047,10 @@
         <v>30</v>
       </c>
       <c r="J66">
-        <v>55720</v>
+        <v>98410</v>
       </c>
       <c r="K66">
-        <v>13537</v>
+        <v>12270</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -2058,13 +2058,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>20</v>
-      </c>
-      <c r="E67">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>479</v>
       </c>
       <c r="F67">
         <v>29000</v>
@@ -2076,10 +2073,10 @@
         <v>15</v>
       </c>
       <c r="J67">
-        <v>59570</v>
+        <v>108210</v>
       </c>
       <c r="K67">
-        <v>14737</v>
+        <v>13870</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -2090,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="F68">
         <v>29700</v>
@@ -2099,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="J68">
-        <v>63470</v>
+        <v>116410</v>
       </c>
       <c r="K68">
-        <v>14737</v>
+        <v>13870</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -2113,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="F69">
         <v>29500</v>
@@ -2122,10 +2119,10 @@
         <v>20</v>
       </c>
       <c r="J69">
-        <v>63470</v>
+        <v>116410</v>
       </c>
       <c r="K69">
-        <v>16037</v>
+        <v>15570</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -2136,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>429</v>
+        <v>511</v>
       </c>
       <c r="F70">
         <v>29900</v>
@@ -2145,10 +2142,10 @@
         <v>40</v>
       </c>
       <c r="J70">
-        <v>67670</v>
+        <v>126110</v>
       </c>
       <c r="K70">
-        <v>16037</v>
+        <v>15570</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -2156,25 +2153,22 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>25</v>
-      </c>
-      <c r="E71">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>523</v>
       </c>
       <c r="F71">
         <v>64000</v>
       </c>
       <c r="G71">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J71">
-        <v>67670</v>
+        <v>126110</v>
       </c>
       <c r="K71">
-        <v>16037</v>
+        <v>15570</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -2185,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>453</v>
+        <v>534</v>
       </c>
       <c r="F72">
         <v>33000</v>
@@ -2194,10 +2188,10 @@
         <v>35</v>
       </c>
       <c r="J72">
-        <v>72070</v>
+        <v>135810</v>
       </c>
       <c r="K72">
-        <v>16037</v>
+        <v>15570</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -2208,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>463</v>
+        <v>546</v>
       </c>
       <c r="F73">
         <v>33500</v>
@@ -2220,10 +2214,10 @@
         <v>25</v>
       </c>
       <c r="J73">
-        <v>76520</v>
+        <v>145010</v>
       </c>
       <c r="K73">
-        <v>17537</v>
+        <v>17370</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -2231,13 +2225,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>35</v>
-      </c>
-      <c r="E74">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>556</v>
       </c>
       <c r="F74">
         <v>33800</v>
@@ -2246,10 +2237,10 @@
         <v>35</v>
       </c>
       <c r="J74">
-        <v>81020</v>
+        <v>154810</v>
       </c>
       <c r="K74">
-        <v>17537</v>
+        <v>17370</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -2260,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>481</v>
+        <v>568</v>
       </c>
       <c r="F75">
         <v>34500</v>
@@ -2272,10 +2263,10 @@
         <v>20</v>
       </c>
       <c r="J75">
-        <v>85570</v>
+        <v>164310</v>
       </c>
       <c r="K75">
-        <v>19437</v>
+        <v>19470</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -2286,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>489</v>
+        <v>579</v>
       </c>
       <c r="F76">
         <v>34200</v>
@@ -2295,10 +2286,10 @@
         <v>30</v>
       </c>
       <c r="J76">
-        <v>90170</v>
+        <v>174210</v>
       </c>
       <c r="K76">
-        <v>19437</v>
+        <v>19470</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -2309,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>497</v>
+        <v>592</v>
       </c>
       <c r="F77">
         <v>35000</v>
@@ -2318,10 +2309,10 @@
         <v>20</v>
       </c>
       <c r="J77">
-        <v>90170</v>
+        <v>174210</v>
       </c>
       <c r="K77">
-        <v>21537</v>
+        <v>21770</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB15C5A-4A9C-41F1-AD1E-3070E917C29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9895FE36-460F-43C8-95FF-C2490F269A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>1800</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>2100</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>2800</v>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9895FE36-460F-43C8-95FF-C2490F269A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60897021-8326-43D1-A17E-4C37A1A60DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -429,9 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -534,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>1300</v>
@@ -782,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>3200</v>
@@ -848,13 +846,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>66</v>
       </c>
       <c r="F17">
         <v>4600</v>
@@ -897,10 +892,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>77</v>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
       </c>
       <c r="F19">
         <v>5400</v>
@@ -1036,7 +1034,7 @@
         <v>2750</v>
       </c>
       <c r="K24">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1044,13 +1042,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>112</v>
       </c>
       <c r="F25">
         <v>7500</v>
@@ -1062,7 +1057,7 @@
         <v>2980</v>
       </c>
       <c r="K25">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1070,10 +1065,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
       </c>
       <c r="F26">
         <v>19500</v>
@@ -1085,7 +1083,7 @@
         <v>2980</v>
       </c>
       <c r="K26">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1093,13 +1091,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>122</v>
       </c>
       <c r="F27">
         <v>9000</v>
@@ -1111,7 +1106,7 @@
         <v>3260</v>
       </c>
       <c r="K27">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1119,10 +1114,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
       </c>
       <c r="F28">
         <v>9400</v>
@@ -1134,7 +1132,7 @@
         <v>3260</v>
       </c>
       <c r="K28">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1145,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F29">
         <v>24000</v>
@@ -1157,7 +1155,7 @@
         <v>3260</v>
       </c>
       <c r="K29">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1168,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F30">
         <v>10200</v>
@@ -1177,10 +1175,10 @@
         <v>25</v>
       </c>
       <c r="J30">
-        <v>3710</v>
+        <v>3640</v>
       </c>
       <c r="K30">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1191,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31">
         <v>10400</v>
@@ -1203,10 +1201,10 @@
         <v>15</v>
       </c>
       <c r="J31">
-        <v>4210</v>
+        <v>4040</v>
       </c>
       <c r="K31">
-        <v>500</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1214,13 +1212,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>154</v>
       </c>
       <c r="F32">
         <v>10800</v>
@@ -1229,10 +1224,10 @@
         <v>20</v>
       </c>
       <c r="J32">
-        <v>4210</v>
+        <v>4040</v>
       </c>
       <c r="K32">
-        <v>565</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1240,10 +1235,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>163</v>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
       </c>
       <c r="F33">
         <v>11000</v>
@@ -1252,10 +1250,10 @@
         <v>30</v>
       </c>
       <c r="J33">
-        <v>4760</v>
+        <v>4530</v>
       </c>
       <c r="K33">
-        <v>565</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1263,13 +1261,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>16</v>
-      </c>
-      <c r="E34">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>164</v>
       </c>
       <c r="F34">
         <v>11200</v>
@@ -1278,10 +1273,10 @@
         <v>20</v>
       </c>
       <c r="J34">
-        <v>4760</v>
+        <v>4530</v>
       </c>
       <c r="K34">
-        <v>685</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1289,10 +1284,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>178</v>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
       </c>
       <c r="F35">
         <v>28000</v>
@@ -1301,10 +1299,10 @@
         <v>40</v>
       </c>
       <c r="J35">
-        <v>4760</v>
+        <v>4530</v>
       </c>
       <c r="K35">
-        <v>685</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1315,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F36">
         <v>13500</v>
@@ -1324,10 +1322,10 @@
         <v>35</v>
       </c>
       <c r="J36">
-        <v>5610</v>
+        <v>5030</v>
       </c>
       <c r="K36">
-        <v>685</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1338,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F37">
         <v>13800</v>
@@ -1347,10 +1345,10 @@
         <v>25</v>
       </c>
       <c r="J37">
-        <v>5610</v>
+        <v>5030</v>
       </c>
       <c r="K37">
-        <v>835</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1373,10 +1371,10 @@
         <v>30</v>
       </c>
       <c r="J38">
-        <v>6810</v>
+        <v>5550</v>
       </c>
       <c r="K38">
-        <v>835</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1387,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F39">
         <v>13600</v>
@@ -1399,10 +1397,10 @@
         <v>15</v>
       </c>
       <c r="J39">
-        <v>8310</v>
+        <v>6150</v>
       </c>
       <c r="K39">
-        <v>1075</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1413,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>8</v>
@@ -1425,10 +1423,10 @@
         <v>30</v>
       </c>
       <c r="J40">
-        <v>10010</v>
+        <v>7050</v>
       </c>
       <c r="K40">
-        <v>1075</v>
+        <v>795</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1439,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F41">
         <v>13800</v>
@@ -1448,10 +1446,10 @@
         <v>20</v>
       </c>
       <c r="J41">
-        <v>10010</v>
+        <v>7050</v>
       </c>
       <c r="K41">
-        <v>1425</v>
+        <v>965</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -1459,13 +1457,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>14</v>
-      </c>
-      <c r="E42">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>225</v>
       </c>
       <c r="F42">
         <v>13600</v>
@@ -1474,10 +1469,10 @@
         <v>30</v>
       </c>
       <c r="J42">
-        <v>12410</v>
+        <v>8450</v>
       </c>
       <c r="K42">
-        <v>1425</v>
+        <v>965</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -1485,10 +1480,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>242</v>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>9</v>
       </c>
       <c r="F43">
         <v>13900</v>
@@ -1497,10 +1495,10 @@
         <v>20</v>
       </c>
       <c r="J43">
-        <v>12410</v>
+        <v>8450</v>
       </c>
       <c r="K43">
-        <v>1890</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -1508,13 +1506,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>23</v>
-      </c>
-      <c r="E44">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>244</v>
       </c>
       <c r="F44">
         <v>13700</v>
@@ -1523,10 +1518,10 @@
         <v>30</v>
       </c>
       <c r="J44">
-        <v>14910</v>
+        <v>10250</v>
       </c>
       <c r="K44">
-        <v>1890</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -1534,10 +1529,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>259</v>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>23</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
       </c>
       <c r="F45">
         <v>37500</v>
@@ -1546,10 +1544,10 @@
         <v>50</v>
       </c>
       <c r="J45">
-        <v>14910</v>
+        <v>10250</v>
       </c>
       <c r="K45">
-        <v>1890</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -1560,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F46">
         <v>17700</v>
@@ -1569,10 +1567,10 @@
         <v>35</v>
       </c>
       <c r="J46">
-        <v>17910</v>
+        <v>12150</v>
       </c>
       <c r="K46">
-        <v>1890</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -1580,13 +1578,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>16</v>
-      </c>
-      <c r="E47">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>272</v>
       </c>
       <c r="F47">
         <v>17500</v>
@@ -1595,10 +1590,10 @@
         <v>25</v>
       </c>
       <c r="J47">
-        <v>17910</v>
+        <v>12150</v>
       </c>
       <c r="K47">
-        <v>2390</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -1606,10 +1601,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>286</v>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
       </c>
       <c r="F48">
         <v>17900</v>
@@ -1621,10 +1619,10 @@
         <v>15</v>
       </c>
       <c r="J48">
-        <v>22410</v>
+        <v>14950</v>
       </c>
       <c r="K48">
-        <v>3040</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -1635,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F49">
         <v>17300</v>
@@ -1644,10 +1642,10 @@
         <v>30</v>
       </c>
       <c r="J49">
-        <v>27910</v>
+        <v>17850</v>
       </c>
       <c r="K49">
-        <v>3040</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -1667,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="J50">
-        <v>27910</v>
+        <v>17850</v>
       </c>
       <c r="K50">
-        <v>3870</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -1678,13 +1676,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>26</v>
-      </c>
-      <c r="E51">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>310</v>
       </c>
       <c r="F51">
         <v>18500</v>
@@ -1693,10 +1688,10 @@
         <v>35</v>
       </c>
       <c r="J51">
-        <v>33510</v>
+        <v>20850</v>
       </c>
       <c r="K51">
-        <v>3870</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -1704,10 +1699,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>316</v>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>26</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
       </c>
       <c r="F52">
         <v>41000</v>
@@ -1716,10 +1714,10 @@
         <v>55</v>
       </c>
       <c r="J52">
-        <v>33510</v>
+        <v>20850</v>
       </c>
       <c r="K52">
-        <v>3870</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -1730,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F53">
         <v>23200</v>
@@ -1742,10 +1740,10 @@
         <v>20</v>
       </c>
       <c r="J53">
-        <v>39210</v>
+        <v>23050</v>
       </c>
       <c r="K53">
-        <v>4870</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -1756,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F54">
         <v>23000</v>
@@ -1765,10 +1763,10 @@
         <v>30</v>
       </c>
       <c r="J54">
-        <v>45110</v>
+        <v>26100</v>
       </c>
       <c r="K54">
-        <v>4870</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -1779,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F55">
         <v>22700</v>
@@ -1788,10 +1786,10 @@
         <v>25</v>
       </c>
       <c r="J55">
-        <v>45110</v>
+        <v>26100</v>
       </c>
       <c r="K55">
-        <v>6070</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -1811,10 +1809,10 @@
         <v>30</v>
       </c>
       <c r="J56">
-        <v>51110</v>
+        <v>29200</v>
       </c>
       <c r="K56">
-        <v>6070</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -1825,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F57">
         <v>24000</v>
@@ -1837,10 +1835,10 @@
         <v>15</v>
       </c>
       <c r="J57">
-        <v>57210</v>
+        <v>31600</v>
       </c>
       <c r="K57">
-        <v>7170</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -1851,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F58">
         <v>23500</v>
@@ -1860,10 +1858,10 @@
         <v>30</v>
       </c>
       <c r="J58">
-        <v>64110</v>
+        <v>34750</v>
       </c>
       <c r="K58">
-        <v>7170</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -1874,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F59">
         <v>23800</v>
@@ -1883,10 +1881,10 @@
         <v>20</v>
       </c>
       <c r="J59">
-        <v>64110</v>
+        <v>34750</v>
       </c>
       <c r="K59">
-        <v>8370</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -1897,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F60">
         <v>52000</v>
@@ -1906,10 +1904,10 @@
         <v>50</v>
       </c>
       <c r="J60">
-        <v>64110</v>
+        <v>34750</v>
       </c>
       <c r="K60">
-        <v>8370</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -1920,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F61">
         <v>28500</v>
@@ -1929,10 +1927,10 @@
         <v>40</v>
       </c>
       <c r="J61">
-        <v>72010</v>
+        <v>39550</v>
       </c>
       <c r="K61">
-        <v>8370</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -1943,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F62">
         <v>28000</v>
@@ -1952,10 +1950,10 @@
         <v>20</v>
       </c>
       <c r="J62">
-        <v>72010</v>
+        <v>39550</v>
       </c>
       <c r="K62">
-        <v>9570</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -1966,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F63">
         <v>28700</v>
@@ -1978,10 +1976,10 @@
         <v>15</v>
       </c>
       <c r="J63">
-        <v>80810</v>
+        <v>46450</v>
       </c>
       <c r="K63">
-        <v>10970</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -1992,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F64">
         <v>28500</v>
@@ -2001,10 +1999,10 @@
         <v>35</v>
       </c>
       <c r="J64">
-        <v>90210</v>
+        <v>54350</v>
       </c>
       <c r="K64">
-        <v>10970</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -2015,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F65">
         <v>29200</v>
@@ -2024,10 +2022,10 @@
         <v>20</v>
       </c>
       <c r="J65">
-        <v>90210</v>
+        <v>54350</v>
       </c>
       <c r="K65">
-        <v>12270</v>
+        <v>7965</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -2038,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F66">
         <v>29500</v>
@@ -2047,10 +2045,10 @@
         <v>30</v>
       </c>
       <c r="J66">
-        <v>98410</v>
+        <v>63050</v>
       </c>
       <c r="K66">
-        <v>12270</v>
+        <v>7965</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -2061,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F67">
         <v>29000</v>
@@ -2073,10 +2071,10 @@
         <v>15</v>
       </c>
       <c r="J67">
-        <v>108210</v>
+        <v>71550</v>
       </c>
       <c r="K67">
-        <v>13870</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -2096,10 +2094,10 @@
         <v>30</v>
       </c>
       <c r="J68">
-        <v>116410</v>
+        <v>81550</v>
       </c>
       <c r="K68">
-        <v>13870</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -2110,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F69">
         <v>29500</v>
@@ -2119,10 +2117,10 @@
         <v>20</v>
       </c>
       <c r="J69">
-        <v>116410</v>
+        <v>81550</v>
       </c>
       <c r="K69">
-        <v>15570</v>
+        <v>11965</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -2142,10 +2140,10 @@
         <v>40</v>
       </c>
       <c r="J70">
-        <v>126110</v>
+        <v>93550</v>
       </c>
       <c r="K70">
-        <v>15570</v>
+        <v>11965</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -2165,10 +2163,10 @@
         <v>60</v>
       </c>
       <c r="J71">
-        <v>126110</v>
+        <v>93550</v>
       </c>
       <c r="K71">
-        <v>15570</v>
+        <v>11965</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -2188,10 +2186,10 @@
         <v>35</v>
       </c>
       <c r="J72">
-        <v>135810</v>
+        <v>103550</v>
       </c>
       <c r="K72">
-        <v>15570</v>
+        <v>11965</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -2214,10 +2212,10 @@
         <v>25</v>
       </c>
       <c r="J73">
-        <v>145010</v>
+        <v>116350</v>
       </c>
       <c r="K73">
-        <v>17370</v>
+        <v>14565</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -2237,10 +2235,10 @@
         <v>35</v>
       </c>
       <c r="J74">
-        <v>154810</v>
+        <v>131850</v>
       </c>
       <c r="K74">
-        <v>17370</v>
+        <v>14565</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -2263,10 +2261,10 @@
         <v>20</v>
       </c>
       <c r="J75">
-        <v>164310</v>
+        <v>149360</v>
       </c>
       <c r="K75">
-        <v>19470</v>
+        <v>17715</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -2286,10 +2284,10 @@
         <v>30</v>
       </c>
       <c r="J76">
-        <v>174210</v>
+        <v>175160</v>
       </c>
       <c r="K76">
-        <v>19470</v>
+        <v>17715</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -2309,10 +2307,10 @@
         <v>20</v>
       </c>
       <c r="J77">
-        <v>174210</v>
+        <v>175160</v>
       </c>
       <c r="K77">
-        <v>21770</v>
+        <v>21895</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60897021-8326-43D1-A17E-4C37A1A60DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F952A-A984-4C53-9D6F-283889FF7129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
@@ -429,7 +429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1593,7 +1595,7 @@
         <v>12150</v>
       </c>
       <c r="K47">
-        <v>1655</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -1619,10 +1621,10 @@
         <v>15</v>
       </c>
       <c r="J48">
-        <v>14950</v>
+        <v>13450</v>
       </c>
       <c r="K48">
-        <v>2065</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -1642,10 +1644,10 @@
         <v>30</v>
       </c>
       <c r="J49">
-        <v>17850</v>
+        <v>15250</v>
       </c>
       <c r="K49">
-        <v>2065</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -1665,10 +1667,10 @@
         <v>20</v>
       </c>
       <c r="J50">
-        <v>17850</v>
+        <v>15250</v>
       </c>
       <c r="K50">
-        <v>2515</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -1688,10 +1690,10 @@
         <v>35</v>
       </c>
       <c r="J51">
-        <v>20850</v>
+        <v>17150</v>
       </c>
       <c r="K51">
-        <v>2515</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -1714,10 +1716,10 @@
         <v>55</v>
       </c>
       <c r="J52">
-        <v>20850</v>
+        <v>17150</v>
       </c>
       <c r="K52">
-        <v>2515</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -1740,10 +1742,10 @@
         <v>20</v>
       </c>
       <c r="J53">
-        <v>23050</v>
+        <v>18750</v>
       </c>
       <c r="K53">
-        <v>2895</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -1763,10 +1765,10 @@
         <v>30</v>
       </c>
       <c r="J54">
-        <v>26100</v>
+        <v>20550</v>
       </c>
       <c r="K54">
-        <v>2895</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -1786,10 +1788,10 @@
         <v>25</v>
       </c>
       <c r="J55">
-        <v>26100</v>
+        <v>20550</v>
       </c>
       <c r="K55">
-        <v>3395</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -1809,10 +1811,10 @@
         <v>30</v>
       </c>
       <c r="J56">
-        <v>29200</v>
+        <v>22550</v>
       </c>
       <c r="K56">
-        <v>3395</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -1835,10 +1837,10 @@
         <v>15</v>
       </c>
       <c r="J57">
-        <v>31600</v>
+        <v>24350</v>
       </c>
       <c r="K57">
-        <v>3845</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -1858,10 +1860,10 @@
         <v>30</v>
       </c>
       <c r="J58">
-        <v>34750</v>
+        <v>26550</v>
       </c>
       <c r="K58">
-        <v>3845</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -1881,10 +1883,10 @@
         <v>20</v>
       </c>
       <c r="J59">
-        <v>34750</v>
+        <v>26550</v>
       </c>
       <c r="K59">
-        <v>4395</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -1904,10 +1906,10 @@
         <v>50</v>
       </c>
       <c r="J60">
-        <v>34750</v>
+        <v>26550</v>
       </c>
       <c r="K60">
-        <v>4395</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -1927,10 +1929,10 @@
         <v>40</v>
       </c>
       <c r="J61">
-        <v>39550</v>
+        <v>28950</v>
       </c>
       <c r="K61">
-        <v>4395</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -1950,10 +1952,10 @@
         <v>20</v>
       </c>
       <c r="J62">
-        <v>39550</v>
+        <v>28950</v>
       </c>
       <c r="K62">
-        <v>5175</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -1976,10 +1978,10 @@
         <v>15</v>
       </c>
       <c r="J63">
-        <v>46450</v>
+        <v>31050</v>
       </c>
       <c r="K63">
-        <v>6465</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -1999,10 +2001,10 @@
         <v>35</v>
       </c>
       <c r="J64">
-        <v>54350</v>
+        <v>34350</v>
       </c>
       <c r="K64">
-        <v>6465</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -2022,10 +2024,10 @@
         <v>20</v>
       </c>
       <c r="J65">
-        <v>54350</v>
+        <v>34350</v>
       </c>
       <c r="K65">
-        <v>7965</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -2045,10 +2047,10 @@
         <v>30</v>
       </c>
       <c r="J66">
-        <v>63050</v>
+        <v>40760</v>
       </c>
       <c r="K66">
-        <v>7965</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -2071,10 +2073,10 @@
         <v>15</v>
       </c>
       <c r="J67">
-        <v>71550</v>
+        <v>49260</v>
       </c>
       <c r="K67">
-        <v>9765</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -2094,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="J68">
-        <v>81550</v>
+        <v>58960</v>
       </c>
       <c r="K68">
-        <v>9765</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -2117,10 +2119,10 @@
         <v>20</v>
       </c>
       <c r="J69">
-        <v>81550</v>
+        <v>58960</v>
       </c>
       <c r="K69">
-        <v>11965</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -2140,10 +2142,10 @@
         <v>40</v>
       </c>
       <c r="J70">
-        <v>93550</v>
+        <v>69960</v>
       </c>
       <c r="K70">
-        <v>11965</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -2163,10 +2165,10 @@
         <v>60</v>
       </c>
       <c r="J71">
-        <v>93550</v>
+        <v>69960</v>
       </c>
       <c r="K71">
-        <v>11965</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -2186,10 +2188,10 @@
         <v>35</v>
       </c>
       <c r="J72">
-        <v>103550</v>
+        <v>81960</v>
       </c>
       <c r="K72">
-        <v>11965</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -2212,10 +2214,10 @@
         <v>25</v>
       </c>
       <c r="J73">
-        <v>116350</v>
+        <v>93460</v>
       </c>
       <c r="K73">
-        <v>14565</v>
+        <v>13365</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -2235,10 +2237,10 @@
         <v>35</v>
       </c>
       <c r="J74">
-        <v>131850</v>
+        <v>111960</v>
       </c>
       <c r="K74">
-        <v>14565</v>
+        <v>13365</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -2261,10 +2263,10 @@
         <v>20</v>
       </c>
       <c r="J75">
-        <v>149360</v>
+        <v>139360</v>
       </c>
       <c r="K75">
-        <v>17715</v>
+        <v>16715</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -2287,7 +2289,7 @@
         <v>175160</v>
       </c>
       <c r="K76">
-        <v>17715</v>
+        <v>16715</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F952A-A984-4C53-9D6F-283889FF7129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD47F95-7FD0-4517-A055-9FF639281ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -427,11 +427,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1358,13 +1356,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>12</v>
-      </c>
-      <c r="E38">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>196</v>
       </c>
       <c r="F38">
         <v>13200</v>
@@ -1410,13 +1405,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>20</v>
-      </c>
-      <c r="E40">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>209</v>
       </c>
       <c r="F40">
         <v>13400</v>
@@ -1482,13 +1474,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>14</v>
-      </c>
-      <c r="E43">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>234</v>
       </c>
       <c r="F43">
         <v>13900</v>
@@ -1531,13 +1520,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>23</v>
-      </c>
-      <c r="E45">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>253</v>
       </c>
       <c r="F45">
         <v>37500</v>
@@ -1573,746 +1559,6 @@
       </c>
       <c r="K46">
         <v>1275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>272</v>
-      </c>
-      <c r="F47">
-        <v>17500</v>
-      </c>
-      <c r="I47">
-        <v>25</v>
-      </c>
-      <c r="J47">
-        <v>12150</v>
-      </c>
-      <c r="K47">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>16</v>
-      </c>
-      <c r="E48">
-        <v>10</v>
-      </c>
-      <c r="F48">
-        <v>17900</v>
-      </c>
-      <c r="H48">
-        <v>25</v>
-      </c>
-      <c r="I48">
-        <v>15</v>
-      </c>
-      <c r="J48">
-        <v>13450</v>
-      </c>
-      <c r="K48">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>295</v>
-      </c>
-      <c r="F49">
-        <v>17300</v>
-      </c>
-      <c r="H49">
-        <v>30</v>
-      </c>
-      <c r="J49">
-        <v>15250</v>
-      </c>
-      <c r="K49">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>302</v>
-      </c>
-      <c r="F50">
-        <v>18200</v>
-      </c>
-      <c r="I50">
-        <v>20</v>
-      </c>
-      <c r="J50">
-        <v>15250</v>
-      </c>
-      <c r="K50">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>310</v>
-      </c>
-      <c r="F51">
-        <v>18500</v>
-      </c>
-      <c r="H51">
-        <v>35</v>
-      </c>
-      <c r="J51">
-        <v>17150</v>
-      </c>
-      <c r="K51">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>26</v>
-      </c>
-      <c r="E52">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>41000</v>
-      </c>
-      <c r="G52">
-        <v>55</v>
-      </c>
-      <c r="J52">
-        <v>17150</v>
-      </c>
-      <c r="K52">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>329</v>
-      </c>
-      <c r="F53">
-        <v>23200</v>
-      </c>
-      <c r="H53">
-        <v>25</v>
-      </c>
-      <c r="I53">
-        <v>20</v>
-      </c>
-      <c r="J53">
-        <v>18750</v>
-      </c>
-      <c r="K53">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>338</v>
-      </c>
-      <c r="F54">
-        <v>23000</v>
-      </c>
-      <c r="H54">
-        <v>30</v>
-      </c>
-      <c r="J54">
-        <v>20550</v>
-      </c>
-      <c r="K54">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>348</v>
-      </c>
-      <c r="F55">
-        <v>22700</v>
-      </c>
-      <c r="I55">
-        <v>25</v>
-      </c>
-      <c r="J55">
-        <v>20550</v>
-      </c>
-      <c r="K55">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>357</v>
-      </c>
-      <c r="F56">
-        <v>23200</v>
-      </c>
-      <c r="H56">
-        <v>30</v>
-      </c>
-      <c r="J56">
-        <v>22550</v>
-      </c>
-      <c r="K56">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>368</v>
-      </c>
-      <c r="F57">
-        <v>24000</v>
-      </c>
-      <c r="H57">
-        <v>25</v>
-      </c>
-      <c r="I57">
-        <v>15</v>
-      </c>
-      <c r="J57">
-        <v>24350</v>
-      </c>
-      <c r="K57">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>378</v>
-      </c>
-      <c r="F58">
-        <v>23500</v>
-      </c>
-      <c r="H58">
-        <v>30</v>
-      </c>
-      <c r="J58">
-        <v>26550</v>
-      </c>
-      <c r="K58">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>389</v>
-      </c>
-      <c r="F59">
-        <v>23800</v>
-      </c>
-      <c r="I59">
-        <v>20</v>
-      </c>
-      <c r="J59">
-        <v>26550</v>
-      </c>
-      <c r="K59">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>399</v>
-      </c>
-      <c r="F60">
-        <v>52000</v>
-      </c>
-      <c r="G60">
-        <v>50</v>
-      </c>
-      <c r="J60">
-        <v>26550</v>
-      </c>
-      <c r="K60">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>411</v>
-      </c>
-      <c r="F61">
-        <v>28500</v>
-      </c>
-      <c r="H61">
-        <v>40</v>
-      </c>
-      <c r="J61">
-        <v>28950</v>
-      </c>
-      <c r="K61">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>422</v>
-      </c>
-      <c r="F62">
-        <v>28000</v>
-      </c>
-      <c r="I62">
-        <v>20</v>
-      </c>
-      <c r="J62">
-        <v>28950</v>
-      </c>
-      <c r="K62">
-        <v>3485</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>432</v>
-      </c>
-      <c r="F63">
-        <v>28700</v>
-      </c>
-      <c r="H63">
-        <v>25</v>
-      </c>
-      <c r="I63">
-        <v>15</v>
-      </c>
-      <c r="J63">
-        <v>31050</v>
-      </c>
-      <c r="K63">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>443</v>
-      </c>
-      <c r="F64">
-        <v>28500</v>
-      </c>
-      <c r="H64">
-        <v>35</v>
-      </c>
-      <c r="J64">
-        <v>34350</v>
-      </c>
-      <c r="K64">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>455</v>
-      </c>
-      <c r="F65">
-        <v>29200</v>
-      </c>
-      <c r="I65">
-        <v>20</v>
-      </c>
-      <c r="J65">
-        <v>34350</v>
-      </c>
-      <c r="K65">
-        <v>5765</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>465</v>
-      </c>
-      <c r="F66">
-        <v>29500</v>
-      </c>
-      <c r="H66">
-        <v>30</v>
-      </c>
-      <c r="J66">
-        <v>40760</v>
-      </c>
-      <c r="K66">
-        <v>5765</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>477</v>
-      </c>
-      <c r="F67">
-        <v>29000</v>
-      </c>
-      <c r="H67">
-        <v>25</v>
-      </c>
-      <c r="I67">
-        <v>15</v>
-      </c>
-      <c r="J67">
-        <v>49260</v>
-      </c>
-      <c r="K67">
-        <v>7665</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>488</v>
-      </c>
-      <c r="F68">
-        <v>29700</v>
-      </c>
-      <c r="H68">
-        <v>30</v>
-      </c>
-      <c r="J68">
-        <v>58960</v>
-      </c>
-      <c r="K68">
-        <v>7665</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>500</v>
-      </c>
-      <c r="F69">
-        <v>29500</v>
-      </c>
-      <c r="I69">
-        <v>20</v>
-      </c>
-      <c r="J69">
-        <v>58960</v>
-      </c>
-      <c r="K69">
-        <v>10365</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>511</v>
-      </c>
-      <c r="F70">
-        <v>29900</v>
-      </c>
-      <c r="H70">
-        <v>40</v>
-      </c>
-      <c r="J70">
-        <v>69960</v>
-      </c>
-      <c r="K70">
-        <v>10365</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>523</v>
-      </c>
-      <c r="F71">
-        <v>64000</v>
-      </c>
-      <c r="G71">
-        <v>60</v>
-      </c>
-      <c r="J71">
-        <v>69960</v>
-      </c>
-      <c r="K71">
-        <v>10365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>534</v>
-      </c>
-      <c r="F72">
-        <v>33000</v>
-      </c>
-      <c r="H72">
-        <v>35</v>
-      </c>
-      <c r="J72">
-        <v>81960</v>
-      </c>
-      <c r="K72">
-        <v>10365</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>546</v>
-      </c>
-      <c r="F73">
-        <v>33500</v>
-      </c>
-      <c r="H73">
-        <v>30</v>
-      </c>
-      <c r="I73">
-        <v>25</v>
-      </c>
-      <c r="J73">
-        <v>93460</v>
-      </c>
-      <c r="K73">
-        <v>13365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>556</v>
-      </c>
-      <c r="F74">
-        <v>33800</v>
-      </c>
-      <c r="H74">
-        <v>35</v>
-      </c>
-      <c r="J74">
-        <v>111960</v>
-      </c>
-      <c r="K74">
-        <v>13365</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>568</v>
-      </c>
-      <c r="F75">
-        <v>34500</v>
-      </c>
-      <c r="H75">
-        <v>25</v>
-      </c>
-      <c r="I75">
-        <v>20</v>
-      </c>
-      <c r="J75">
-        <v>139360</v>
-      </c>
-      <c r="K75">
-        <v>16715</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>579</v>
-      </c>
-      <c r="F76">
-        <v>34200</v>
-      </c>
-      <c r="H76">
-        <v>30</v>
-      </c>
-      <c r="J76">
-        <v>175160</v>
-      </c>
-      <c r="K76">
-        <v>16715</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>592</v>
-      </c>
-      <c r="F77">
-        <v>35000</v>
-      </c>
-      <c r="I77">
-        <v>20</v>
-      </c>
-      <c r="J77">
-        <v>175160</v>
-      </c>
-      <c r="K77">
-        <v>21895</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD47F95-7FD0-4517-A055-9FF639281ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65280C61-DDC6-4C44-B8CA-5FFBDBA86AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="J31">
-        <v>4040</v>
+        <v>4090</v>
       </c>
       <c r="K31">
         <v>475</v>
@@ -1224,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="J32">
-        <v>4040</v>
+        <v>4090</v>
       </c>
       <c r="K32">
         <v>525</v>
@@ -1250,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="J33">
-        <v>4530</v>
+        <v>4700</v>
       </c>
       <c r="K33">
         <v>525</v>
@@ -1273,7 +1273,7 @@
         <v>20</v>
       </c>
       <c r="J34">
-        <v>4530</v>
+        <v>4700</v>
       </c>
       <c r="K34">
         <v>585</v>
@@ -1299,7 +1299,7 @@
         <v>40</v>
       </c>
       <c r="J35">
-        <v>4530</v>
+        <v>4700</v>
       </c>
       <c r="K35">
         <v>585</v>
@@ -1322,7 +1322,7 @@
         <v>35</v>
       </c>
       <c r="J36">
-        <v>5030</v>
+        <v>5400</v>
       </c>
       <c r="K36">
         <v>585</v>
@@ -1345,7 +1345,7 @@
         <v>25</v>
       </c>
       <c r="J37">
-        <v>5030</v>
+        <v>5400</v>
       </c>
       <c r="K37">
         <v>665</v>
@@ -1368,7 +1368,7 @@
         <v>30</v>
       </c>
       <c r="J38">
-        <v>5550</v>
+        <v>6150</v>
       </c>
       <c r="K38">
         <v>665</v>
@@ -1394,7 +1394,7 @@
         <v>15</v>
       </c>
       <c r="J39">
-        <v>6150</v>
+        <v>6750</v>
       </c>
       <c r="K39">
         <v>795</v>
@@ -1417,7 +1417,7 @@
         <v>30</v>
       </c>
       <c r="J40">
-        <v>7050</v>
+        <v>7650</v>
       </c>
       <c r="K40">
         <v>795</v>
@@ -1440,7 +1440,7 @@
         <v>20</v>
       </c>
       <c r="J41">
-        <v>7050</v>
+        <v>7650</v>
       </c>
       <c r="K41">
         <v>965</v>
@@ -1463,7 +1463,7 @@
         <v>30</v>
       </c>
       <c r="J42">
-        <v>8450</v>
+        <v>8650</v>
       </c>
       <c r="K42">
         <v>965</v>
@@ -1486,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="J43">
-        <v>8450</v>
+        <v>8650</v>
       </c>
       <c r="K43">
         <v>1275</v>
@@ -1509,7 +1509,7 @@
         <v>30</v>
       </c>
       <c r="J44">
-        <v>10250</v>
+        <v>10050</v>
       </c>
       <c r="K44">
         <v>1275</v>
@@ -1532,7 +1532,7 @@
         <v>50</v>
       </c>
       <c r="J45">
-        <v>10250</v>
+        <v>10050</v>
       </c>
       <c r="K45">
         <v>1275</v>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65280C61-DDC6-4C44-B8CA-5FFBDBA86AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AF555-BFF6-4EB2-BA83-FDEF919B91DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
+    <sheet name="AnalysisTable" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>level|Int</t>
   </si>
@@ -64,6 +65,42 @@
   </si>
   <si>
     <t>requiredCharacterLevel|Int</t>
+  </si>
+  <si>
+    <t>level|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredTime|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredAccumulatedTime|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTime|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldBonus|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originPeriod|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipPeriod|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamondPeriod|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyPeriod|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -429,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1565,4 +1602,3416 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <f>3*24*60</f>
+        <v>4320</v>
+      </c>
+      <c r="G2">
+        <f>4*24*60</f>
+        <v>5760</v>
+      </c>
+      <c r="H2">
+        <f>7*24*60</f>
+        <v>10080</v>
+      </c>
+      <c r="I2">
+        <f>2*24*60</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f>C2+B3</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">3*24*60</f>
+        <v>4320</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">4*24*60</f>
+        <v>5760</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">7*24*60</f>
+        <v>10080</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="3">2*24*60</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f>C3+B4</f>
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f>C4+B5</f>
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <f>C5+B6</f>
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>110</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <f>C6+B7</f>
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>130</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <f>C7+B8</f>
+        <v>155</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <f>C8+B9</f>
+        <v>215</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>170</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <f>C9+B10</f>
+        <v>285</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>190</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <f>C10+B11</f>
+        <v>365</v>
+      </c>
+      <c r="D11">
+        <f>2*60</f>
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>210</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <f>C11+B12</f>
+        <v>455</v>
+      </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+      <c r="E12">
+        <v>230</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f>C12+B13</f>
+        <v>555</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>250</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <f>C13+B14</f>
+        <v>665</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>270</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <f>C14+B15</f>
+        <v>785</v>
+      </c>
+      <c r="D15">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>290</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>130</v>
+      </c>
+      <c r="C16">
+        <f>C15+B16</f>
+        <v>915</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>310</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <f>C16+B17</f>
+        <v>1055</v>
+      </c>
+      <c r="D17">
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <v>330</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <f>C17+B18</f>
+        <v>1205</v>
+      </c>
+      <c r="D18">
+        <v>120</v>
+      </c>
+      <c r="E18">
+        <v>350</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>160</v>
+      </c>
+      <c r="C19">
+        <f>C18+B19</f>
+        <v>1365</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>370</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>170</v>
+      </c>
+      <c r="C20">
+        <f>C19+B20</f>
+        <v>1535</v>
+      </c>
+      <c r="D20">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>390</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>180</v>
+      </c>
+      <c r="C21">
+        <f>C20+B21</f>
+        <v>1715</v>
+      </c>
+      <c r="D21">
+        <f>3*60</f>
+        <v>180</v>
+      </c>
+      <c r="E21">
+        <v>410</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>190</v>
+      </c>
+      <c r="C22">
+        <f>C21+B22</f>
+        <v>1905</v>
+      </c>
+      <c r="D22">
+        <v>180</v>
+      </c>
+      <c r="E22">
+        <v>430</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+      <c r="C23">
+        <f>C22+B23</f>
+        <v>2105</v>
+      </c>
+      <c r="D23">
+        <v>180</v>
+      </c>
+      <c r="E23">
+        <v>450</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>210</v>
+      </c>
+      <c r="C24">
+        <f>C23+B24</f>
+        <v>2315</v>
+      </c>
+      <c r="D24">
+        <v>180</v>
+      </c>
+      <c r="E24">
+        <v>470</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>220</v>
+      </c>
+      <c r="C25">
+        <f>C24+B25</f>
+        <v>2535</v>
+      </c>
+      <c r="D25">
+        <v>180</v>
+      </c>
+      <c r="E25">
+        <v>490</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>230</v>
+      </c>
+      <c r="C26">
+        <f>C25+B26</f>
+        <v>2765</v>
+      </c>
+      <c r="D26">
+        <v>180</v>
+      </c>
+      <c r="E26">
+        <v>510</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>240</v>
+      </c>
+      <c r="C27">
+        <f>C26+B27</f>
+        <v>3005</v>
+      </c>
+      <c r="D27">
+        <v>180</v>
+      </c>
+      <c r="E27">
+        <v>530</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>250</v>
+      </c>
+      <c r="C28">
+        <f>C27+B28</f>
+        <v>3255</v>
+      </c>
+      <c r="D28">
+        <v>180</v>
+      </c>
+      <c r="E28">
+        <v>550</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>260</v>
+      </c>
+      <c r="C29">
+        <f>C28+B29</f>
+        <v>3515</v>
+      </c>
+      <c r="D29">
+        <v>180</v>
+      </c>
+      <c r="E29">
+        <v>570</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>270</v>
+      </c>
+      <c r="C30">
+        <f>C29+B30</f>
+        <v>3785</v>
+      </c>
+      <c r="D30">
+        <v>180</v>
+      </c>
+      <c r="E30">
+        <v>590</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>280</v>
+      </c>
+      <c r="C31">
+        <f>C30+B31</f>
+        <v>4065</v>
+      </c>
+      <c r="D31">
+        <f>4*60</f>
+        <v>240</v>
+      </c>
+      <c r="E31">
+        <v>610</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>290</v>
+      </c>
+      <c r="C32">
+        <f>C31+B32</f>
+        <v>4355</v>
+      </c>
+      <c r="D32">
+        <v>240</v>
+      </c>
+      <c r="E32">
+        <v>630</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>300</v>
+      </c>
+      <c r="C33">
+        <f>C32+B33</f>
+        <v>4655</v>
+      </c>
+      <c r="D33">
+        <v>240</v>
+      </c>
+      <c r="E33">
+        <v>650</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>310</v>
+      </c>
+      <c r="C34">
+        <f>C33+B34</f>
+        <v>4965</v>
+      </c>
+      <c r="D34">
+        <v>240</v>
+      </c>
+      <c r="E34">
+        <v>670</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>320</v>
+      </c>
+      <c r="C35">
+        <f>C34+B35</f>
+        <v>5285</v>
+      </c>
+      <c r="D35">
+        <v>240</v>
+      </c>
+      <c r="E35">
+        <v>690</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>330</v>
+      </c>
+      <c r="C36">
+        <f>C35+B36</f>
+        <v>5615</v>
+      </c>
+      <c r="D36">
+        <v>240</v>
+      </c>
+      <c r="E36">
+        <v>710</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>340</v>
+      </c>
+      <c r="C37">
+        <f>C36+B37</f>
+        <v>5955</v>
+      </c>
+      <c r="D37">
+        <v>240</v>
+      </c>
+      <c r="E37">
+        <v>730</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>350</v>
+      </c>
+      <c r="C38">
+        <f>C37+B38</f>
+        <v>6305</v>
+      </c>
+      <c r="D38">
+        <v>240</v>
+      </c>
+      <c r="E38">
+        <v>750</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>360</v>
+      </c>
+      <c r="C39">
+        <f>C38+B39</f>
+        <v>6665</v>
+      </c>
+      <c r="D39">
+        <v>240</v>
+      </c>
+      <c r="E39">
+        <v>770</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>370</v>
+      </c>
+      <c r="C40">
+        <f>C39+B40</f>
+        <v>7035</v>
+      </c>
+      <c r="D40">
+        <v>240</v>
+      </c>
+      <c r="E40">
+        <v>790</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>380</v>
+      </c>
+      <c r="C41">
+        <f>C40+B41</f>
+        <v>7415</v>
+      </c>
+      <c r="D41">
+        <v>360</v>
+      </c>
+      <c r="E41">
+        <v>810</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>390</v>
+      </c>
+      <c r="C42">
+        <f>C41+B42</f>
+        <v>7805</v>
+      </c>
+      <c r="D42">
+        <v>360</v>
+      </c>
+      <c r="E42">
+        <v>830</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>400</v>
+      </c>
+      <c r="C43">
+        <f>C42+B43</f>
+        <v>8205</v>
+      </c>
+      <c r="D43">
+        <v>360</v>
+      </c>
+      <c r="E43">
+        <v>850</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>410</v>
+      </c>
+      <c r="C44">
+        <f>C43+B44</f>
+        <v>8615</v>
+      </c>
+      <c r="D44">
+        <v>360</v>
+      </c>
+      <c r="E44">
+        <v>870</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>420</v>
+      </c>
+      <c r="C45">
+        <f>C44+B45</f>
+        <v>9035</v>
+      </c>
+      <c r="D45">
+        <v>360</v>
+      </c>
+      <c r="E45">
+        <v>890</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>430</v>
+      </c>
+      <c r="C46">
+        <f>C45+B46</f>
+        <v>9465</v>
+      </c>
+      <c r="D46">
+        <v>360</v>
+      </c>
+      <c r="E46">
+        <v>910</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>440</v>
+      </c>
+      <c r="C47">
+        <f>C46+B47</f>
+        <v>9905</v>
+      </c>
+      <c r="D47">
+        <v>360</v>
+      </c>
+      <c r="E47">
+        <v>930</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>450</v>
+      </c>
+      <c r="C48">
+        <f>C47+B48</f>
+        <v>10355</v>
+      </c>
+      <c r="D48">
+        <v>360</v>
+      </c>
+      <c r="E48">
+        <v>950</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>460</v>
+      </c>
+      <c r="C49">
+        <f>C48+B49</f>
+        <v>10815</v>
+      </c>
+      <c r="D49">
+        <v>360</v>
+      </c>
+      <c r="E49">
+        <v>970</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>470</v>
+      </c>
+      <c r="C50">
+        <f>C49+B50</f>
+        <v>11285</v>
+      </c>
+      <c r="D50">
+        <v>360</v>
+      </c>
+      <c r="E50">
+        <v>990</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>480</v>
+      </c>
+      <c r="C51">
+        <f>C50+B51</f>
+        <v>11765</v>
+      </c>
+      <c r="D51">
+        <v>480</v>
+      </c>
+      <c r="E51">
+        <v>1010</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>490</v>
+      </c>
+      <c r="C52">
+        <f>C51+B52</f>
+        <v>12255</v>
+      </c>
+      <c r="D52">
+        <v>480</v>
+      </c>
+      <c r="E52">
+        <v>1030</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>500</v>
+      </c>
+      <c r="C53">
+        <f>C52+B53</f>
+        <v>12755</v>
+      </c>
+      <c r="D53">
+        <v>480</v>
+      </c>
+      <c r="E53">
+        <v>1050</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>510</v>
+      </c>
+      <c r="C54">
+        <f>C53+B54</f>
+        <v>13265</v>
+      </c>
+      <c r="D54">
+        <v>480</v>
+      </c>
+      <c r="E54">
+        <v>1070</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>520</v>
+      </c>
+      <c r="C55">
+        <f>C54+B55</f>
+        <v>13785</v>
+      </c>
+      <c r="D55">
+        <v>480</v>
+      </c>
+      <c r="E55">
+        <v>1090</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>530</v>
+      </c>
+      <c r="C56">
+        <f>C55+B56</f>
+        <v>14315</v>
+      </c>
+      <c r="D56">
+        <v>480</v>
+      </c>
+      <c r="E56">
+        <v>1110</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>540</v>
+      </c>
+      <c r="C57">
+        <f>C56+B57</f>
+        <v>14855</v>
+      </c>
+      <c r="D57">
+        <v>480</v>
+      </c>
+      <c r="E57">
+        <v>1130</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>550</v>
+      </c>
+      <c r="C58">
+        <f>C57+B58</f>
+        <v>15405</v>
+      </c>
+      <c r="D58">
+        <v>480</v>
+      </c>
+      <c r="E58">
+        <v>1150</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>560</v>
+      </c>
+      <c r="C59">
+        <f>C58+B59</f>
+        <v>15965</v>
+      </c>
+      <c r="D59">
+        <v>480</v>
+      </c>
+      <c r="E59">
+        <v>1170</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>570</v>
+      </c>
+      <c r="C60">
+        <f>C59+B60</f>
+        <v>16535</v>
+      </c>
+      <c r="D60">
+        <v>480</v>
+      </c>
+      <c r="E60">
+        <v>1190</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>580</v>
+      </c>
+      <c r="C61">
+        <f>C60+B61</f>
+        <v>17115</v>
+      </c>
+      <c r="D61">
+        <v>600</v>
+      </c>
+      <c r="E61">
+        <v>1210</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>590</v>
+      </c>
+      <c r="C62">
+        <f>C61+B62</f>
+        <v>17705</v>
+      </c>
+      <c r="D62">
+        <v>600</v>
+      </c>
+      <c r="E62">
+        <v>1230</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>600</v>
+      </c>
+      <c r="C63">
+        <f>C62+B63</f>
+        <v>18305</v>
+      </c>
+      <c r="D63">
+        <v>600</v>
+      </c>
+      <c r="E63">
+        <v>1250</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>610</v>
+      </c>
+      <c r="C64">
+        <f>C63+B64</f>
+        <v>18915</v>
+      </c>
+      <c r="D64">
+        <v>600</v>
+      </c>
+      <c r="E64">
+        <v>1270</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>620</v>
+      </c>
+      <c r="C65">
+        <f>C64+B65</f>
+        <v>19535</v>
+      </c>
+      <c r="D65">
+        <v>600</v>
+      </c>
+      <c r="E65">
+        <v>1290</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>630</v>
+      </c>
+      <c r="C66">
+        <f>C65+B66</f>
+        <v>20165</v>
+      </c>
+      <c r="D66">
+        <v>600</v>
+      </c>
+      <c r="E66">
+        <v>1310</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>640</v>
+      </c>
+      <c r="C67">
+        <f>C66+B67</f>
+        <v>20805</v>
+      </c>
+      <c r="D67">
+        <v>600</v>
+      </c>
+      <c r="E67">
+        <v>1330</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F100" si="4">3*24*60</f>
+        <v>4320</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G100" si="5">4*24*60</f>
+        <v>5760</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H100" si="6">7*24*60</f>
+        <v>10080</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I100" si="7">2*24*60</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>650</v>
+      </c>
+      <c r="C68">
+        <f>C67+B68</f>
+        <v>21455</v>
+      </c>
+      <c r="D68">
+        <v>600</v>
+      </c>
+      <c r="E68">
+        <v>1350</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>660</v>
+      </c>
+      <c r="C69">
+        <f>C68+B69</f>
+        <v>22115</v>
+      </c>
+      <c r="D69">
+        <v>600</v>
+      </c>
+      <c r="E69">
+        <v>1370</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>670</v>
+      </c>
+      <c r="C70">
+        <f>C69+B70</f>
+        <v>22785</v>
+      </c>
+      <c r="D70">
+        <v>600</v>
+      </c>
+      <c r="E70">
+        <v>1390</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>680</v>
+      </c>
+      <c r="C71">
+        <f>C70+B71</f>
+        <v>23465</v>
+      </c>
+      <c r="D71">
+        <v>720</v>
+      </c>
+      <c r="E71">
+        <v>1410</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>690</v>
+      </c>
+      <c r="C72">
+        <f>C71+B72</f>
+        <v>24155</v>
+      </c>
+      <c r="D72">
+        <v>720</v>
+      </c>
+      <c r="E72">
+        <v>1430</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>700</v>
+      </c>
+      <c r="C73">
+        <f>C72+B73</f>
+        <v>24855</v>
+      </c>
+      <c r="D73">
+        <v>720</v>
+      </c>
+      <c r="E73">
+        <v>1450</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>710</v>
+      </c>
+      <c r="C74">
+        <f>C73+B74</f>
+        <v>25565</v>
+      </c>
+      <c r="D74">
+        <v>720</v>
+      </c>
+      <c r="E74">
+        <v>1470</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>720</v>
+      </c>
+      <c r="C75">
+        <f>C74+B75</f>
+        <v>26285</v>
+      </c>
+      <c r="D75">
+        <v>720</v>
+      </c>
+      <c r="E75">
+        <v>1490</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>730</v>
+      </c>
+      <c r="C76">
+        <f>C75+B76</f>
+        <v>27015</v>
+      </c>
+      <c r="D76">
+        <v>720</v>
+      </c>
+      <c r="E76">
+        <v>1510</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>740</v>
+      </c>
+      <c r="C77">
+        <f>C76+B77</f>
+        <v>27755</v>
+      </c>
+      <c r="D77">
+        <v>720</v>
+      </c>
+      <c r="E77">
+        <v>1530</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>750</v>
+      </c>
+      <c r="C78">
+        <f>C77+B78</f>
+        <v>28505</v>
+      </c>
+      <c r="D78">
+        <v>720</v>
+      </c>
+      <c r="E78">
+        <v>1550</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>760</v>
+      </c>
+      <c r="C79">
+        <f>C78+B79</f>
+        <v>29265</v>
+      </c>
+      <c r="D79">
+        <v>720</v>
+      </c>
+      <c r="E79">
+        <v>1570</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>770</v>
+      </c>
+      <c r="C80">
+        <f>C79+B80</f>
+        <v>30035</v>
+      </c>
+      <c r="D80">
+        <v>720</v>
+      </c>
+      <c r="E80">
+        <v>1590</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>780</v>
+      </c>
+      <c r="C81">
+        <f>C80+B81</f>
+        <v>30815</v>
+      </c>
+      <c r="D81">
+        <v>840</v>
+      </c>
+      <c r="E81">
+        <v>1610</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>790</v>
+      </c>
+      <c r="C82">
+        <f>C81+B82</f>
+        <v>31605</v>
+      </c>
+      <c r="D82">
+        <v>840</v>
+      </c>
+      <c r="E82">
+        <v>1630</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>800</v>
+      </c>
+      <c r="C83">
+        <f>C82+B83</f>
+        <v>32405</v>
+      </c>
+      <c r="D83">
+        <v>840</v>
+      </c>
+      <c r="E83">
+        <v>1650</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>810</v>
+      </c>
+      <c r="C84">
+        <f>C83+B84</f>
+        <v>33215</v>
+      </c>
+      <c r="D84">
+        <v>840</v>
+      </c>
+      <c r="E84">
+        <v>1670</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>820</v>
+      </c>
+      <c r="C85">
+        <f>C84+B85</f>
+        <v>34035</v>
+      </c>
+      <c r="D85">
+        <v>840</v>
+      </c>
+      <c r="E85">
+        <v>1690</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>830</v>
+      </c>
+      <c r="C86">
+        <f>C85+B86</f>
+        <v>34865</v>
+      </c>
+      <c r="D86">
+        <v>840</v>
+      </c>
+      <c r="E86">
+        <v>1710</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>840</v>
+      </c>
+      <c r="C87">
+        <f>C86+B87</f>
+        <v>35705</v>
+      </c>
+      <c r="D87">
+        <v>840</v>
+      </c>
+      <c r="E87">
+        <v>1730</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>850</v>
+      </c>
+      <c r="C88">
+        <f>C87+B88</f>
+        <v>36555</v>
+      </c>
+      <c r="D88">
+        <v>840</v>
+      </c>
+      <c r="E88">
+        <v>1750</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>860</v>
+      </c>
+      <c r="C89">
+        <f>C88+B89</f>
+        <v>37415</v>
+      </c>
+      <c r="D89">
+        <v>840</v>
+      </c>
+      <c r="E89">
+        <v>1770</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>870</v>
+      </c>
+      <c r="C90">
+        <f>C89+B90</f>
+        <v>38285</v>
+      </c>
+      <c r="D90">
+        <v>840</v>
+      </c>
+      <c r="E90">
+        <v>1790</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>880</v>
+      </c>
+      <c r="C91">
+        <f>C90+B91</f>
+        <v>39165</v>
+      </c>
+      <c r="D91">
+        <v>960</v>
+      </c>
+      <c r="E91">
+        <v>1810</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>890</v>
+      </c>
+      <c r="C92">
+        <f>C91+B92</f>
+        <v>40055</v>
+      </c>
+      <c r="D92">
+        <v>960</v>
+      </c>
+      <c r="E92">
+        <v>1830</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>900</v>
+      </c>
+      <c r="C93">
+        <f>C92+B93</f>
+        <v>40955</v>
+      </c>
+      <c r="D93">
+        <v>960</v>
+      </c>
+      <c r="E93">
+        <v>1850</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>910</v>
+      </c>
+      <c r="C94">
+        <f>C93+B94</f>
+        <v>41865</v>
+      </c>
+      <c r="D94">
+        <v>960</v>
+      </c>
+      <c r="E94">
+        <v>1870</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>920</v>
+      </c>
+      <c r="C95">
+        <f>C94+B95</f>
+        <v>42785</v>
+      </c>
+      <c r="D95">
+        <v>960</v>
+      </c>
+      <c r="E95">
+        <v>1890</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>930</v>
+      </c>
+      <c r="C96">
+        <f>C95+B96</f>
+        <v>43715</v>
+      </c>
+      <c r="D96">
+        <v>960</v>
+      </c>
+      <c r="E96">
+        <v>1910</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>940</v>
+      </c>
+      <c r="C97">
+        <f>C96+B97</f>
+        <v>44655</v>
+      </c>
+      <c r="D97">
+        <v>960</v>
+      </c>
+      <c r="E97">
+        <v>1930</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>950</v>
+      </c>
+      <c r="C98">
+        <f>C97+B98</f>
+        <v>45605</v>
+      </c>
+      <c r="D98">
+        <v>960</v>
+      </c>
+      <c r="E98">
+        <v>1950</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>960</v>
+      </c>
+      <c r="C99">
+        <f>C98+B99</f>
+        <v>46565</v>
+      </c>
+      <c r="D99">
+        <v>960</v>
+      </c>
+      <c r="E99">
+        <v>1970</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>970</v>
+      </c>
+      <c r="C100">
+        <f>C99+B100</f>
+        <v>47535</v>
+      </c>
+      <c r="D100">
+        <v>960</v>
+      </c>
+      <c r="E100">
+        <v>1990</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>5760</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="7"/>
+        <v>2880</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AF555-BFF6-4EB2-BA83-FDEF919B91DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CDEE99-FEF6-4DB9-B510-8DF18DDFBC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>level|Int</t>
   </si>
@@ -67,40 +67,31 @@
     <t>requiredCharacterLevel|Int</t>
   </si>
   <si>
-    <t>level|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>requiredTime|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requiredAccumulatedTime|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxTime|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goldBonus|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>goldPerTime|Float</t>
   </si>
   <si>
     <t>originPeriod|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>equipPeriod|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>diamondPeriod|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldPeriod|Int</t>
   </si>
   <si>
     <t>energyPeriod|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1606,42 +1597,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1649,3365 +1645,3164 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>B2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>62.5</v>
       </c>
       <c r="F2">
-        <f>3*24*60</f>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G2">
-        <f>4*24*60</f>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H2">
-        <f>7*24*60</f>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I2">
-        <f>2*24*60</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J2">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="C3">
-        <f>C2+B3</f>
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>64.5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">3*24*60</f>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">4*24*60</f>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">7*24*60</f>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="3">2*24*60</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J3">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="C4">
-        <f>C3+B4</f>
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>66.5</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J4">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="C5">
-        <f>C4+B5</f>
-        <v>35</v>
+        <v>2100</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>2700</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>68.5</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J5">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="C6">
-        <f>C5+B6</f>
-        <v>65</v>
+        <v>3900</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="E6">
-        <v>110</v>
+        <v>70.5</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J6">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>2400</v>
       </c>
       <c r="C7">
-        <f>C6+B7</f>
-        <v>105</v>
+        <v>6300</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="E7">
-        <v>130</v>
+        <v>72.5</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J7">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="C8">
-        <f>C7+B8</f>
-        <v>155</v>
+        <v>9300</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>3600</v>
       </c>
       <c r="E8">
-        <v>150</v>
+        <v>74.5</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J8">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="C9">
-        <f>C8+B9</f>
-        <v>215</v>
+        <v>12900</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>3600</v>
       </c>
       <c r="E9">
-        <v>170</v>
+        <v>76.5</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J9">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>4200</v>
       </c>
       <c r="C10">
-        <f>C9+B10</f>
-        <v>285</v>
+        <v>17100</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>3600</v>
       </c>
       <c r="E10">
-        <v>190</v>
+        <v>78.5</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J10">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>4800</v>
       </c>
       <c r="C11">
-        <f>C10+B11</f>
-        <v>365</v>
+        <v>21900</v>
       </c>
       <c r="D11">
-        <f>2*60</f>
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E11">
-        <v>210</v>
+        <v>80.5</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J11">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>5400</v>
       </c>
       <c r="C12">
-        <f>C11+B12</f>
-        <v>455</v>
+        <v>27300</v>
       </c>
       <c r="D12">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E12">
-        <v>230</v>
+        <v>82.5</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J12">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="C13">
-        <f>C12+B13</f>
-        <v>555</v>
+        <v>33300</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E13">
-        <v>250</v>
+        <v>84.5</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J13">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>110</v>
+        <v>6600</v>
       </c>
       <c r="C14">
-        <f>C13+B14</f>
-        <v>665</v>
+        <v>39900</v>
       </c>
       <c r="D14">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E14">
-        <v>270</v>
+        <v>86.5</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J14">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="C15">
-        <f>C14+B15</f>
-        <v>785</v>
+        <v>47100</v>
       </c>
       <c r="D15">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E15">
-        <v>290</v>
+        <v>88.5</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J15">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>7800</v>
       </c>
       <c r="C16">
-        <f>C15+B16</f>
-        <v>915</v>
+        <v>54900</v>
       </c>
       <c r="D16">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E16">
-        <v>310</v>
+        <v>90.5</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J16">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>140</v>
+        <v>8400</v>
       </c>
       <c r="C17">
-        <f>C16+B17</f>
-        <v>1055</v>
+        <v>63300</v>
       </c>
       <c r="D17">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E17">
-        <v>330</v>
+        <v>92.5</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J17">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="C18">
-        <f>C17+B18</f>
-        <v>1205</v>
+        <v>72300</v>
       </c>
       <c r="D18">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E18">
-        <v>350</v>
+        <v>94.5</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J18">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>160</v>
+        <v>9600</v>
       </c>
       <c r="C19">
-        <f>C18+B19</f>
-        <v>1365</v>
+        <v>81900</v>
       </c>
       <c r="D19">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E19">
-        <v>370</v>
+        <v>96.5</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J19">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>170</v>
+        <v>10200</v>
       </c>
       <c r="C20">
-        <f>C19+B20</f>
-        <v>1535</v>
+        <v>92100</v>
       </c>
       <c r="D20">
-        <v>120</v>
+        <v>7200</v>
       </c>
       <c r="E20">
-        <v>390</v>
+        <v>98.5</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J20">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="C21">
-        <f>C20+B21</f>
-        <v>1715</v>
+        <v>102900</v>
       </c>
       <c r="D21">
-        <f>3*60</f>
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E21">
-        <v>410</v>
+        <v>100.5</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J21">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>190</v>
+        <v>11400</v>
       </c>
       <c r="C22">
-        <f>C21+B22</f>
-        <v>1905</v>
+        <v>114300</v>
       </c>
       <c r="D22">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E22">
-        <v>430</v>
+        <v>102.5</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J22">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="C23">
-        <f>C22+B23</f>
-        <v>2105</v>
+        <v>126300</v>
       </c>
       <c r="D23">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E23">
-        <v>450</v>
+        <v>104.5</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J23">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>210</v>
+        <v>12600</v>
       </c>
       <c r="C24">
-        <f>C23+B24</f>
-        <v>2315</v>
+        <v>138900</v>
       </c>
       <c r="D24">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E24">
-        <v>470</v>
+        <v>106.5</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J24">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>220</v>
+        <v>13200</v>
       </c>
       <c r="C25">
-        <f>C24+B25</f>
-        <v>2535</v>
+        <v>152100</v>
       </c>
       <c r="D25">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E25">
-        <v>490</v>
+        <v>108.5</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J25">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>230</v>
+        <v>13800</v>
       </c>
       <c r="C26">
-        <f>C25+B26</f>
-        <v>2765</v>
+        <v>165900</v>
       </c>
       <c r="D26">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E26">
-        <v>510</v>
+        <v>110.5</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J26">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="C27">
-        <f>C26+B27</f>
-        <v>3005</v>
+        <v>180300</v>
       </c>
       <c r="D27">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E27">
-        <v>530</v>
+        <v>112.5</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J27">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="C28">
-        <f>C27+B28</f>
-        <v>3255</v>
+        <v>195300</v>
       </c>
       <c r="D28">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E28">
-        <v>550</v>
+        <v>114.5</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J28">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>260</v>
+        <v>15600</v>
       </c>
       <c r="C29">
-        <f>C28+B29</f>
-        <v>3515</v>
+        <v>210900</v>
       </c>
       <c r="D29">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E29">
-        <v>570</v>
+        <v>116.5</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J29">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>270</v>
+        <v>16200</v>
       </c>
       <c r="C30">
-        <f>C29+B30</f>
-        <v>3785</v>
+        <v>227100</v>
       </c>
       <c r="D30">
-        <v>180</v>
+        <v>10800</v>
       </c>
       <c r="E30">
-        <v>590</v>
+        <v>118.5</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J30">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>280</v>
+        <v>16800</v>
       </c>
       <c r="C31">
-        <f>C30+B31</f>
-        <v>4065</v>
+        <v>243900</v>
       </c>
       <c r="D31">
-        <f>4*60</f>
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E31">
-        <v>610</v>
+        <v>120.5</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J31">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>290</v>
+        <v>17400</v>
       </c>
       <c r="C32">
-        <f>C31+B32</f>
-        <v>4355</v>
+        <v>261300</v>
       </c>
       <c r="D32">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E32">
-        <v>630</v>
+        <v>122.5</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J32">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="C33">
-        <f>C32+B33</f>
-        <v>4655</v>
+        <v>279300</v>
       </c>
       <c r="D33">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E33">
-        <v>650</v>
+        <v>124.5</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J33">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>310</v>
+        <v>18600</v>
       </c>
       <c r="C34">
-        <f>C33+B34</f>
-        <v>4965</v>
+        <v>297900</v>
       </c>
       <c r="D34">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E34">
-        <v>670</v>
+        <v>126.5</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J34">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>320</v>
+        <v>19200</v>
       </c>
       <c r="C35">
-        <f>C34+B35</f>
-        <v>5285</v>
+        <v>317100</v>
       </c>
       <c r="D35">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E35">
-        <v>690</v>
+        <v>128.5</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J35">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>330</v>
+        <v>19800</v>
       </c>
       <c r="C36">
-        <f>C35+B36</f>
-        <v>5615</v>
+        <v>336900</v>
       </c>
       <c r="D36">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E36">
-        <v>710</v>
+        <v>130.5</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J36">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>340</v>
+        <v>20400</v>
       </c>
       <c r="C37">
-        <f>C36+B37</f>
-        <v>5955</v>
+        <v>357300</v>
       </c>
       <c r="D37">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E37">
-        <v>730</v>
+        <v>132.5</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J37">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>350</v>
+        <v>21000</v>
       </c>
       <c r="C38">
-        <f>C37+B38</f>
-        <v>6305</v>
+        <v>378300</v>
       </c>
       <c r="D38">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E38">
-        <v>750</v>
+        <v>134.5</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J38">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="C39">
-        <f>C38+B39</f>
-        <v>6665</v>
+        <v>399900</v>
       </c>
       <c r="D39">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E39">
-        <v>770</v>
+        <v>136.5</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J39">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>370</v>
+        <v>22200</v>
       </c>
       <c r="C40">
-        <f>C39+B40</f>
-        <v>7035</v>
+        <v>422100</v>
       </c>
       <c r="D40">
-        <v>240</v>
+        <v>14400</v>
       </c>
       <c r="E40">
-        <v>790</v>
+        <v>138.5</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J40">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>380</v>
+        <v>22800</v>
       </c>
       <c r="C41">
-        <f>C40+B41</f>
-        <v>7415</v>
+        <v>444900</v>
       </c>
       <c r="D41">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E41">
-        <v>810</v>
+        <v>140.5</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J41">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>390</v>
+        <v>23400</v>
       </c>
       <c r="C42">
-        <f>C41+B42</f>
-        <v>7805</v>
+        <v>468300</v>
       </c>
       <c r="D42">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E42">
-        <v>830</v>
+        <v>142.5</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J42">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>400</v>
+        <v>24000</v>
       </c>
       <c r="C43">
-        <f>C42+B43</f>
-        <v>8205</v>
+        <v>492300</v>
       </c>
       <c r="D43">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E43">
-        <v>850</v>
+        <v>144.5</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J43">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>410</v>
+        <v>24600</v>
       </c>
       <c r="C44">
-        <f>C43+B44</f>
-        <v>8615</v>
+        <v>516900</v>
       </c>
       <c r="D44">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E44">
-        <v>870</v>
+        <v>146.5</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J44">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>420</v>
+        <v>25200</v>
       </c>
       <c r="C45">
-        <f>C44+B45</f>
-        <v>9035</v>
+        <v>542100</v>
       </c>
       <c r="D45">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E45">
-        <v>890</v>
+        <v>148.5</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J45">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>430</v>
+        <v>25800</v>
       </c>
       <c r="C46">
-        <f>C45+B46</f>
-        <v>9465</v>
+        <v>567900</v>
       </c>
       <c r="D46">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E46">
-        <v>910</v>
+        <v>150.5</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J46">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>440</v>
+        <v>26400</v>
       </c>
       <c r="C47">
-        <f>C46+B47</f>
-        <v>9905</v>
+        <v>594300</v>
       </c>
       <c r="D47">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E47">
-        <v>930</v>
+        <v>152.5</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J47">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>450</v>
+        <v>27000</v>
       </c>
       <c r="C48">
-        <f>C47+B48</f>
-        <v>10355</v>
+        <v>621300</v>
       </c>
       <c r="D48">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E48">
-        <v>950</v>
+        <v>154.5</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J48">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>460</v>
+        <v>27600</v>
       </c>
       <c r="C49">
-        <f>C48+B49</f>
-        <v>10815</v>
+        <v>648900</v>
       </c>
       <c r="D49">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E49">
-        <v>970</v>
+        <v>156.5</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J49">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>470</v>
+        <v>28200</v>
       </c>
       <c r="C50">
-        <f>C49+B50</f>
-        <v>11285</v>
+        <v>677100</v>
       </c>
       <c r="D50">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="E50">
-        <v>990</v>
+        <v>158.5</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J50">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="C51">
-        <f>C50+B51</f>
-        <v>11765</v>
+        <v>705900</v>
       </c>
       <c r="D51">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E51">
-        <v>1010</v>
+        <v>160.5</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J51">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>490</v>
+        <v>29400</v>
       </c>
       <c r="C52">
-        <f>C51+B52</f>
-        <v>12255</v>
+        <v>735300</v>
       </c>
       <c r="D52">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E52">
-        <v>1030</v>
+        <v>162.5</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J52">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>500</v>
+        <v>30000</v>
       </c>
       <c r="C53">
-        <f>C52+B53</f>
-        <v>12755</v>
+        <v>765300</v>
       </c>
       <c r="D53">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E53">
-        <v>1050</v>
+        <v>164.5</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J53">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>510</v>
+        <v>30600</v>
       </c>
       <c r="C54">
-        <f>C53+B54</f>
-        <v>13265</v>
+        <v>795900</v>
       </c>
       <c r="D54">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E54">
-        <v>1070</v>
+        <v>166.5</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I54">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J54">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>520</v>
+        <v>31200</v>
       </c>
       <c r="C55">
-        <f>C54+B55</f>
-        <v>13785</v>
+        <v>827100</v>
       </c>
       <c r="D55">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E55">
-        <v>1090</v>
+        <v>168.5</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I55">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J55">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>530</v>
+        <v>31800</v>
       </c>
       <c r="C56">
-        <f>C55+B56</f>
-        <v>14315</v>
+        <v>858900</v>
       </c>
       <c r="D56">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E56">
-        <v>1110</v>
+        <v>170.5</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I56">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J56">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>540</v>
+        <v>32400</v>
       </c>
       <c r="C57">
-        <f>C56+B57</f>
-        <v>14855</v>
+        <v>891300</v>
       </c>
       <c r="D57">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E57">
-        <v>1130</v>
+        <v>172.5</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I57">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J57">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>550</v>
+        <v>33000</v>
       </c>
       <c r="C58">
-        <f>C57+B58</f>
-        <v>15405</v>
+        <v>924300</v>
       </c>
       <c r="D58">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E58">
-        <v>1150</v>
+        <v>174.5</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I58">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J58">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>560</v>
+        <v>33600</v>
       </c>
       <c r="C59">
-        <f>C58+B59</f>
-        <v>15965</v>
+        <v>957900</v>
       </c>
       <c r="D59">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E59">
-        <v>1170</v>
+        <v>176.5</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I59">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J59">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>570</v>
+        <v>34200</v>
       </c>
       <c r="C60">
-        <f>C59+B60</f>
-        <v>16535</v>
+        <v>992100</v>
       </c>
       <c r="D60">
-        <v>480</v>
+        <v>28800</v>
       </c>
       <c r="E60">
-        <v>1190</v>
+        <v>178.5</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I60">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J60">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>580</v>
+        <v>34800</v>
       </c>
       <c r="C61">
-        <f>C60+B61</f>
-        <v>17115</v>
+        <v>1026900</v>
       </c>
       <c r="D61">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E61">
-        <v>1210</v>
+        <v>180.5</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H61">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I61">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J61">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>590</v>
+        <v>35400</v>
       </c>
       <c r="C62">
-        <f>C61+B62</f>
-        <v>17705</v>
+        <v>1062300</v>
       </c>
       <c r="D62">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E62">
-        <v>1230</v>
+        <v>182.5</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J62">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="C63">
-        <f>C62+B63</f>
-        <v>18305</v>
+        <v>1098300</v>
       </c>
       <c r="D63">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E63">
-        <v>1250</v>
+        <v>184.5</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I63">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J63">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>610</v>
+        <v>36600</v>
       </c>
       <c r="C64">
-        <f>C63+B64</f>
-        <v>18915</v>
+        <v>1134900</v>
       </c>
       <c r="D64">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E64">
-        <v>1270</v>
+        <v>186.5</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J64">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>620</v>
+        <v>37200</v>
       </c>
       <c r="C65">
-        <f>C64+B65</f>
-        <v>19535</v>
+        <v>1172100</v>
       </c>
       <c r="D65">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E65">
-        <v>1290</v>
+        <v>188.5</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J65">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>630</v>
+        <v>37800</v>
       </c>
       <c r="C66">
-        <f>C65+B66</f>
-        <v>20165</v>
+        <v>1209900</v>
       </c>
       <c r="D66">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E66">
-        <v>1310</v>
+        <v>190.5</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I66">
-        <f t="shared" si="3"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J66">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>640</v>
+        <v>38400</v>
       </c>
       <c r="C67">
-        <f>C66+B67</f>
-        <v>20805</v>
+        <v>1248300</v>
       </c>
       <c r="D67">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E67">
-        <v>1330</v>
+        <v>192.5</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F100" si="4">3*24*60</f>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G100" si="5">4*24*60</f>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H100" si="6">7*24*60</f>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I100" si="7">2*24*60</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J67">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>650</v>
+        <v>39000</v>
       </c>
       <c r="C68">
-        <f>C67+B68</f>
-        <v>21455</v>
+        <v>1287300</v>
       </c>
       <c r="D68">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E68">
-        <v>1350</v>
+        <v>194.5</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G68">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H68">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I68">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J68">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>660</v>
+        <v>39600</v>
       </c>
       <c r="C69">
-        <f>C68+B69</f>
-        <v>22115</v>
+        <v>1326900</v>
       </c>
       <c r="D69">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E69">
-        <v>1370</v>
+        <v>196.5</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H69">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I69">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J69">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>670</v>
+        <v>40200</v>
       </c>
       <c r="C70">
-        <f>C69+B70</f>
-        <v>22785</v>
+        <v>1367100</v>
       </c>
       <c r="D70">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="E70">
-        <v>1390</v>
+        <v>198.5</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H70">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I70">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J70">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>680</v>
+        <v>40800</v>
       </c>
       <c r="C71">
-        <f>C70+B71</f>
-        <v>23465</v>
+        <v>1407900</v>
       </c>
       <c r="D71">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E71">
-        <v>1410</v>
+        <v>200.5</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H71">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I71">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J71">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>690</v>
+        <v>41400</v>
       </c>
       <c r="C72">
-        <f>C71+B72</f>
-        <v>24155</v>
+        <v>1449300</v>
       </c>
       <c r="D72">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E72">
-        <v>1430</v>
+        <v>202.5</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H72">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I72">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J72">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>700</v>
+        <v>42000</v>
       </c>
       <c r="C73">
-        <f>C72+B73</f>
-        <v>24855</v>
+        <v>1491300</v>
       </c>
       <c r="D73">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E73">
-        <v>1450</v>
+        <v>204.5</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H73">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I73">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J73">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>710</v>
+        <v>42600</v>
       </c>
       <c r="C74">
-        <f>C73+B74</f>
-        <v>25565</v>
+        <v>1533900</v>
       </c>
       <c r="D74">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E74">
-        <v>1470</v>
+        <v>206.5</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H74">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I74">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J74">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="C75">
-        <f>C74+B75</f>
-        <v>26285</v>
+        <v>1577100</v>
       </c>
       <c r="D75">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E75">
-        <v>1490</v>
+        <v>208.5</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H75">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I75">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J75">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>730</v>
+        <v>43800</v>
       </c>
       <c r="C76">
-        <f>C75+B76</f>
-        <v>27015</v>
+        <v>1620900</v>
       </c>
       <c r="D76">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E76">
-        <v>1510</v>
+        <v>210.5</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H76">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I76">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J76">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>740</v>
+        <v>44400</v>
       </c>
       <c r="C77">
-        <f>C76+B77</f>
-        <v>27755</v>
+        <v>1665300</v>
       </c>
       <c r="D77">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E77">
-        <v>1530</v>
+        <v>212.5</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H77">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I77">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J77">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>750</v>
+        <v>45000</v>
       </c>
       <c r="C78">
-        <f>C77+B78</f>
-        <v>28505</v>
+        <v>1710300</v>
       </c>
       <c r="D78">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E78">
-        <v>1550</v>
+        <v>214.5</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H78">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I78">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J78">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>760</v>
+        <v>45600</v>
       </c>
       <c r="C79">
-        <f>C78+B79</f>
-        <v>29265</v>
+        <v>1755900</v>
       </c>
       <c r="D79">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E79">
-        <v>1570</v>
+        <v>216.5</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H79">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I79">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J79">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>770</v>
+        <v>46200</v>
       </c>
       <c r="C80">
-        <f>C79+B80</f>
-        <v>30035</v>
+        <v>1802100</v>
       </c>
       <c r="D80">
-        <v>720</v>
+        <v>43200</v>
       </c>
       <c r="E80">
-        <v>1590</v>
+        <v>218.5</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H80">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I80">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J80">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>780</v>
+        <v>46800</v>
       </c>
       <c r="C81">
-        <f>C80+B81</f>
-        <v>30815</v>
+        <v>1848900</v>
       </c>
       <c r="D81">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E81">
-        <v>1610</v>
+        <v>220.5</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G81">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H81">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I81">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J81">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>790</v>
+        <v>47400</v>
       </c>
       <c r="C82">
-        <f>C81+B82</f>
-        <v>31605</v>
+        <v>1896300</v>
       </c>
       <c r="D82">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E82">
-        <v>1630</v>
+        <v>222.5</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H82">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I82">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J82">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>800</v>
+        <v>48000</v>
       </c>
       <c r="C83">
-        <f>C82+B83</f>
-        <v>32405</v>
+        <v>1944300</v>
       </c>
       <c r="D83">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E83">
-        <v>1650</v>
+        <v>224.5</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H83">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I83">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J83">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>810</v>
+        <v>48600</v>
       </c>
       <c r="C84">
-        <f>C83+B84</f>
-        <v>33215</v>
+        <v>1992900</v>
       </c>
       <c r="D84">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E84">
-        <v>1670</v>
+        <v>226.5</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H84">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I84">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J84">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>820</v>
+        <v>49200</v>
       </c>
       <c r="C85">
-        <f>C84+B85</f>
-        <v>34035</v>
+        <v>2042100</v>
       </c>
       <c r="D85">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E85">
-        <v>1690</v>
+        <v>228.5</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H85">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I85">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J85">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>830</v>
+        <v>49800</v>
       </c>
       <c r="C86">
-        <f>C85+B86</f>
-        <v>34865</v>
+        <v>2091900</v>
       </c>
       <c r="D86">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E86">
-        <v>1710</v>
+        <v>230.5</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H86">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I86">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J86">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="C87">
-        <f>C86+B87</f>
-        <v>35705</v>
+        <v>2142300</v>
       </c>
       <c r="D87">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E87">
-        <v>1730</v>
+        <v>232.5</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H87">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I87">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J87">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>850</v>
+        <v>51000</v>
       </c>
       <c r="C88">
-        <f>C87+B88</f>
-        <v>36555</v>
+        <v>2193300</v>
       </c>
       <c r="D88">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E88">
-        <v>1750</v>
+        <v>234.5</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H88">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I88">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J88">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>860</v>
+        <v>51600</v>
       </c>
       <c r="C89">
-        <f>C88+B89</f>
-        <v>37415</v>
+        <v>2244900</v>
       </c>
       <c r="D89">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E89">
-        <v>1770</v>
+        <v>236.5</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H89">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I89">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J89">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>870</v>
+        <v>52200</v>
       </c>
       <c r="C90">
-        <f>C89+B90</f>
-        <v>38285</v>
+        <v>2297100</v>
       </c>
       <c r="D90">
-        <v>840</v>
+        <v>50400</v>
       </c>
       <c r="E90">
-        <v>1790</v>
+        <v>238.5</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H90">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I90">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J90">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>880</v>
+        <v>52800</v>
       </c>
       <c r="C91">
-        <f>C90+B91</f>
-        <v>39165</v>
+        <v>2349900</v>
       </c>
       <c r="D91">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E91">
-        <v>1810</v>
+        <v>240.5</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H91">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I91">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J91">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>890</v>
+        <v>53400</v>
       </c>
       <c r="C92">
-        <f>C91+B92</f>
-        <v>40055</v>
+        <v>2403300</v>
       </c>
       <c r="D92">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E92">
-        <v>1830</v>
+        <v>242.5</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H92">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I92">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J92">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>900</v>
+        <v>54000</v>
       </c>
       <c r="C93">
-        <f>C92+B93</f>
-        <v>40955</v>
+        <v>2457300</v>
       </c>
       <c r="D93">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E93">
-        <v>1850</v>
+        <v>244.5</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G93">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H93">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I93">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J93">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>910</v>
+        <v>54600</v>
       </c>
       <c r="C94">
-        <f>C93+B94</f>
-        <v>41865</v>
+        <v>2511900</v>
       </c>
       <c r="D94">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E94">
-        <v>1870</v>
+        <v>246.5</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H94">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I94">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J94">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>920</v>
+        <v>55200</v>
       </c>
       <c r="C95">
-        <f>C94+B95</f>
-        <v>42785</v>
+        <v>2567100</v>
       </c>
       <c r="D95">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E95">
-        <v>1890</v>
+        <v>248.5</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H95">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I95">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J95">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>930</v>
+        <v>55800</v>
       </c>
       <c r="C96">
-        <f>C95+B96</f>
-        <v>43715</v>
+        <v>2622900</v>
       </c>
       <c r="D96">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E96">
-        <v>1910</v>
+        <v>250.5</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H96">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I96">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J96">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>940</v>
+        <v>56400</v>
       </c>
       <c r="C97">
-        <f>C96+B97</f>
-        <v>44655</v>
+        <v>2679300</v>
       </c>
       <c r="D97">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E97">
-        <v>1930</v>
+        <v>252.5</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H97">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I97">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J97">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>950</v>
+        <v>57000</v>
       </c>
       <c r="C98">
-        <f>C97+B98</f>
-        <v>45605</v>
+        <v>2736300</v>
       </c>
       <c r="D98">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E98">
-        <v>1950</v>
+        <v>254.5</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H98">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I98">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J98">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="C99">
-        <f>C98+B99</f>
-        <v>46565</v>
+        <v>2793900</v>
       </c>
       <c r="D99">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E99">
-        <v>1970</v>
+        <v>256.5</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H99">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I99">
-        <f t="shared" si="7"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129600</v>
+      </c>
+      <c r="J99">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>970</v>
+        <v>58200</v>
       </c>
       <c r="C100">
-        <f>C99+B100</f>
-        <v>47535</v>
+        <v>2852100</v>
       </c>
       <c r="D100">
-        <v>960</v>
+        <v>57600</v>
       </c>
       <c r="E100">
-        <v>1990</v>
+        <v>258.5</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
-        <v>4320</v>
+        <v>259200</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
-        <v>5760</v>
+        <v>345600</v>
       </c>
       <c r="H100">
-        <f t="shared" si="6"/>
-        <v>10080</v>
+        <v>604800</v>
       </c>
       <c r="I100">
-        <f t="shared" si="7"/>
-        <v>2880</v>
+        <v>129600</v>
+      </c>
+      <c r="J100">
+        <v>172800</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CDEE99-FEF6-4DB9-B510-8DF18DDFBC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867A2914-A43D-4D3E-958C-AEC2DE4E0A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>originPeriod|Int</t>
   </si>
   <si>
-    <t>equipPeriod|Int</t>
-  </si>
-  <si>
     <t>diamondPeriod|Int</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>energyPeriod|Int</t>
+  </si>
+  <si>
+    <t>forceLeveling|Int</t>
   </si>
 </sst>
 </file>
@@ -1599,9 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1619,22 +1617,22 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1651,22 +1649,22 @@
         <v>300</v>
       </c>
       <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>62.5</v>
       </c>
-      <c r="F2">
-        <v>259200</v>
-      </c>
       <c r="G2">
-        <v>345600</v>
+        <v>300</v>
       </c>
       <c r="H2">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I2">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J2">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1683,22 +1681,22 @@
         <v>600</v>
       </c>
       <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>64.5</v>
       </c>
-      <c r="F3">
-        <v>259200</v>
-      </c>
       <c r="G3">
-        <v>345600</v>
+        <v>600</v>
       </c>
       <c r="H3">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I3">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J3">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1715,22 +1713,22 @@
         <v>1800</v>
       </c>
       <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>66.5</v>
       </c>
-      <c r="F4">
-        <v>259200</v>
-      </c>
       <c r="G4">
-        <v>345600</v>
+        <v>1800</v>
       </c>
       <c r="H4">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I4">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J4">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1747,22 +1745,22 @@
         <v>2700</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
         <v>68.5</v>
       </c>
-      <c r="F5">
-        <v>259200</v>
-      </c>
       <c r="G5">
-        <v>345600</v>
+        <v>2700</v>
       </c>
       <c r="H5">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I5">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J5">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1779,22 +1777,22 @@
         <v>3600</v>
       </c>
       <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>70.5</v>
       </c>
-      <c r="F6">
-        <v>259200</v>
-      </c>
       <c r="G6">
-        <v>345600</v>
+        <v>3600</v>
       </c>
       <c r="H6">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I6">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J6">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1811,22 +1809,22 @@
         <v>3600</v>
       </c>
       <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
         <v>72.5</v>
       </c>
-      <c r="F7">
-        <v>259200</v>
-      </c>
       <c r="G7">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H7">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I7">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J7">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1840,25 +1838,25 @@
         <v>9300</v>
       </c>
       <c r="D8">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
         <v>74.5</v>
       </c>
-      <c r="F8">
-        <v>259200</v>
-      </c>
       <c r="G8">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H8">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I8">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J8">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1875,22 +1873,22 @@
         <v>3600</v>
       </c>
       <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
         <v>76.5</v>
       </c>
-      <c r="F9">
-        <v>259200</v>
-      </c>
       <c r="G9">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H9">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I9">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J9">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1907,22 +1905,22 @@
         <v>3600</v>
       </c>
       <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>78.5</v>
       </c>
-      <c r="F10">
-        <v>259200</v>
-      </c>
       <c r="G10">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H10">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I10">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J10">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1939,22 +1937,22 @@
         <v>7200</v>
       </c>
       <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
         <v>80.5</v>
       </c>
-      <c r="F11">
-        <v>259200</v>
-      </c>
       <c r="G11">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H11">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I11">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J11">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1971,22 +1969,22 @@
         <v>7200</v>
       </c>
       <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
         <v>82.5</v>
       </c>
-      <c r="F12">
-        <v>259200</v>
-      </c>
       <c r="G12">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H12">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I12">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J12">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2003,22 +2001,22 @@
         <v>7200</v>
       </c>
       <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>84.5</v>
       </c>
-      <c r="F13">
-        <v>259200</v>
-      </c>
       <c r="G13">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H13">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I13">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J13">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2035,22 +2033,22 @@
         <v>7200</v>
       </c>
       <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
         <v>86.5</v>
       </c>
-      <c r="F14">
-        <v>259200</v>
-      </c>
       <c r="G14">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H14">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I14">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J14">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2067,22 +2065,22 @@
         <v>7200</v>
       </c>
       <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
         <v>88.5</v>
       </c>
-      <c r="F15">
-        <v>259200</v>
-      </c>
       <c r="G15">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H15">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I15">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J15">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2099,22 +2097,22 @@
         <v>7200</v>
       </c>
       <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
         <v>90.5</v>
       </c>
-      <c r="F16">
-        <v>259200</v>
-      </c>
       <c r="G16">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H16">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I16">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J16">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2131,22 +2129,22 @@
         <v>7200</v>
       </c>
       <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
         <v>92.5</v>
       </c>
-      <c r="F17">
-        <v>259200</v>
-      </c>
       <c r="G17">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H17">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I17">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J17">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2163,22 +2161,22 @@
         <v>7200</v>
       </c>
       <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
         <v>94.5</v>
       </c>
-      <c r="F18">
-        <v>259200</v>
-      </c>
       <c r="G18">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H18">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I18">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J18">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2195,22 +2193,22 @@
         <v>7200</v>
       </c>
       <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
         <v>96.5</v>
       </c>
-      <c r="F19">
-        <v>259200</v>
-      </c>
       <c r="G19">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H19">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I19">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J19">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2227,22 +2225,22 @@
         <v>7200</v>
       </c>
       <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
         <v>98.5</v>
       </c>
-      <c r="F20">
-        <v>259200</v>
-      </c>
       <c r="G20">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H20">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I20">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J20">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2259,22 +2257,22 @@
         <v>10800</v>
       </c>
       <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
         <v>100.5</v>
       </c>
-      <c r="F21">
-        <v>259200</v>
-      </c>
       <c r="G21">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H21">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I21">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J21">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2291,22 +2289,22 @@
         <v>10800</v>
       </c>
       <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
         <v>102.5</v>
       </c>
-      <c r="F22">
-        <v>259200</v>
-      </c>
       <c r="G22">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H22">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I22">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J22">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2323,22 +2321,22 @@
         <v>10800</v>
       </c>
       <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
         <v>104.5</v>
       </c>
-      <c r="F23">
-        <v>259200</v>
-      </c>
       <c r="G23">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H23">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I23">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J23">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2355,22 +2353,22 @@
         <v>10800</v>
       </c>
       <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
         <v>106.5</v>
       </c>
-      <c r="F24">
-        <v>259200</v>
-      </c>
       <c r="G24">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H24">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I24">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J24">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2387,22 +2385,22 @@
         <v>10800</v>
       </c>
       <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
         <v>108.5</v>
       </c>
-      <c r="F25">
-        <v>259200</v>
-      </c>
       <c r="G25">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H25">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I25">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J25">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2419,22 +2417,22 @@
         <v>10800</v>
       </c>
       <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <v>110.5</v>
       </c>
-      <c r="F26">
-        <v>259200</v>
-      </c>
       <c r="G26">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H26">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I26">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J26">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2451,22 +2449,22 @@
         <v>10800</v>
       </c>
       <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>112.5</v>
       </c>
-      <c r="F27">
-        <v>259200</v>
-      </c>
       <c r="G27">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H27">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I27">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J27">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2483,22 +2481,22 @@
         <v>10800</v>
       </c>
       <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
         <v>114.5</v>
       </c>
-      <c r="F28">
-        <v>259200</v>
-      </c>
       <c r="G28">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H28">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I28">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J28">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2515,22 +2513,22 @@
         <v>10800</v>
       </c>
       <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
         <v>116.5</v>
       </c>
-      <c r="F29">
-        <v>259200</v>
-      </c>
       <c r="G29">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H29">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I29">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J29">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2547,22 +2545,22 @@
         <v>10800</v>
       </c>
       <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
         <v>118.5</v>
       </c>
-      <c r="F30">
-        <v>259200</v>
-      </c>
       <c r="G30">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H30">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I30">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J30">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2579,22 +2577,22 @@
         <v>14400</v>
       </c>
       <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
         <v>120.5</v>
       </c>
-      <c r="F31">
-        <v>259200</v>
-      </c>
       <c r="G31">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H31">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I31">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J31">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2611,22 +2609,22 @@
         <v>14400</v>
       </c>
       <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
         <v>122.5</v>
       </c>
-      <c r="F32">
-        <v>259200</v>
-      </c>
       <c r="G32">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H32">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I32">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J32">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2643,22 +2641,22 @@
         <v>14400</v>
       </c>
       <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
         <v>124.5</v>
       </c>
-      <c r="F33">
-        <v>259200</v>
-      </c>
       <c r="G33">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H33">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I33">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J33">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2675,22 +2673,22 @@
         <v>14400</v>
       </c>
       <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
         <v>126.5</v>
       </c>
-      <c r="F34">
-        <v>259200</v>
-      </c>
       <c r="G34">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H34">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I34">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J34">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2707,22 +2705,22 @@
         <v>14400</v>
       </c>
       <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
         <v>128.5</v>
       </c>
-      <c r="F35">
-        <v>259200</v>
-      </c>
       <c r="G35">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H35">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I35">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J35">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2739,22 +2737,22 @@
         <v>14400</v>
       </c>
       <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
         <v>130.5</v>
       </c>
-      <c r="F36">
-        <v>259200</v>
-      </c>
       <c r="G36">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H36">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I36">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J36">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2771,22 +2769,22 @@
         <v>14400</v>
       </c>
       <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
         <v>132.5</v>
       </c>
-      <c r="F37">
-        <v>259200</v>
-      </c>
       <c r="G37">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H37">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I37">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J37">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2803,22 +2801,22 @@
         <v>14400</v>
       </c>
       <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
         <v>134.5</v>
       </c>
-      <c r="F38">
-        <v>259200</v>
-      </c>
       <c r="G38">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H38">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I38">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J38">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2835,22 +2833,22 @@
         <v>14400</v>
       </c>
       <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
         <v>136.5</v>
       </c>
-      <c r="F39">
-        <v>259200</v>
-      </c>
       <c r="G39">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H39">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I39">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J39">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2867,22 +2865,22 @@
         <v>14400</v>
       </c>
       <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
         <v>138.5</v>
       </c>
-      <c r="F40">
-        <v>259200</v>
-      </c>
       <c r="G40">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H40">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I40">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J40">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2899,22 +2897,22 @@
         <v>21600</v>
       </c>
       <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
         <v>140.5</v>
       </c>
-      <c r="F41">
-        <v>259200</v>
-      </c>
       <c r="G41">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H41">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I41">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J41">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2931,22 +2929,22 @@
         <v>21600</v>
       </c>
       <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
         <v>142.5</v>
       </c>
-      <c r="F42">
-        <v>259200</v>
-      </c>
       <c r="G42">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H42">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I42">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J42">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2963,22 +2961,22 @@
         <v>21600</v>
       </c>
       <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
         <v>144.5</v>
       </c>
-      <c r="F43">
-        <v>259200</v>
-      </c>
       <c r="G43">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H43">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I43">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J43">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2995,22 +2993,22 @@
         <v>21600</v>
       </c>
       <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
         <v>146.5</v>
       </c>
-      <c r="F44">
-        <v>259200</v>
-      </c>
       <c r="G44">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H44">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I44">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J44">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -3027,22 +3025,22 @@
         <v>21600</v>
       </c>
       <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
         <v>148.5</v>
       </c>
-      <c r="F45">
-        <v>259200</v>
-      </c>
       <c r="G45">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H45">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I45">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J45">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -3059,22 +3057,22 @@
         <v>21600</v>
       </c>
       <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
         <v>150.5</v>
       </c>
-      <c r="F46">
-        <v>259200</v>
-      </c>
       <c r="G46">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H46">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I46">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J46">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -3091,22 +3089,22 @@
         <v>21600</v>
       </c>
       <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
         <v>152.5</v>
       </c>
-      <c r="F47">
-        <v>259200</v>
-      </c>
       <c r="G47">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H47">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I47">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J47">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -3123,22 +3121,22 @@
         <v>21600</v>
       </c>
       <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
         <v>154.5</v>
       </c>
-      <c r="F48">
-        <v>259200</v>
-      </c>
       <c r="G48">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H48">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I48">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J48">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -3155,22 +3153,22 @@
         <v>21600</v>
       </c>
       <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
         <v>156.5</v>
       </c>
-      <c r="F49">
-        <v>259200</v>
-      </c>
       <c r="G49">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H49">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I49">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J49">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -3187,22 +3185,22 @@
         <v>21600</v>
       </c>
       <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
         <v>158.5</v>
       </c>
-      <c r="F50">
-        <v>259200</v>
-      </c>
       <c r="G50">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H50">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I50">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J50">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -3219,22 +3217,22 @@
         <v>28800</v>
       </c>
       <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
         <v>160.5</v>
       </c>
-      <c r="F51">
-        <v>259200</v>
-      </c>
       <c r="G51">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H51">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I51">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J51">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -3251,22 +3249,22 @@
         <v>28800</v>
       </c>
       <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
         <v>162.5</v>
       </c>
-      <c r="F52">
-        <v>259200</v>
-      </c>
       <c r="G52">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H52">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I52">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J52">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -3283,22 +3281,22 @@
         <v>28800</v>
       </c>
       <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
         <v>164.5</v>
       </c>
-      <c r="F53">
-        <v>259200</v>
-      </c>
       <c r="G53">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H53">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I53">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J53">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3315,22 +3313,22 @@
         <v>28800</v>
       </c>
       <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
         <v>166.5</v>
       </c>
-      <c r="F54">
-        <v>259200</v>
-      </c>
       <c r="G54">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H54">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I54">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J54">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3347,22 +3345,22 @@
         <v>28800</v>
       </c>
       <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
         <v>168.5</v>
       </c>
-      <c r="F55">
-        <v>259200</v>
-      </c>
       <c r="G55">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H55">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I55">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J55">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3379,22 +3377,22 @@
         <v>28800</v>
       </c>
       <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
         <v>170.5</v>
       </c>
-      <c r="F56">
-        <v>259200</v>
-      </c>
       <c r="G56">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H56">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I56">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J56">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3411,22 +3409,22 @@
         <v>28800</v>
       </c>
       <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
         <v>172.5</v>
       </c>
-      <c r="F57">
-        <v>259200</v>
-      </c>
       <c r="G57">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H57">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I57">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J57">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3443,22 +3441,22 @@
         <v>28800</v>
       </c>
       <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58">
         <v>174.5</v>
       </c>
-      <c r="F58">
-        <v>259200</v>
-      </c>
       <c r="G58">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H58">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I58">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J58">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3475,22 +3473,22 @@
         <v>28800</v>
       </c>
       <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
         <v>176.5</v>
       </c>
-      <c r="F59">
-        <v>259200</v>
-      </c>
       <c r="G59">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H59">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I59">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J59">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3507,22 +3505,22 @@
         <v>28800</v>
       </c>
       <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
         <v>178.5</v>
       </c>
-      <c r="F60">
-        <v>259200</v>
-      </c>
       <c r="G60">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H60">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I60">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J60">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3539,22 +3537,22 @@
         <v>36000</v>
       </c>
       <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
         <v>180.5</v>
       </c>
-      <c r="F61">
-        <v>259200</v>
-      </c>
       <c r="G61">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H61">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I61">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J61">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3571,22 +3569,22 @@
         <v>36000</v>
       </c>
       <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
         <v>182.5</v>
       </c>
-      <c r="F62">
-        <v>259200</v>
-      </c>
       <c r="G62">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H62">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I62">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J62">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3603,22 +3601,22 @@
         <v>36000</v>
       </c>
       <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63">
         <v>184.5</v>
       </c>
-      <c r="F63">
-        <v>259200</v>
-      </c>
       <c r="G63">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H63">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I63">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J63">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3635,22 +3633,22 @@
         <v>36000</v>
       </c>
       <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
         <v>186.5</v>
       </c>
-      <c r="F64">
-        <v>259200</v>
-      </c>
       <c r="G64">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H64">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I64">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J64">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3667,22 +3665,22 @@
         <v>36000</v>
       </c>
       <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
         <v>188.5</v>
       </c>
-      <c r="F65">
-        <v>259200</v>
-      </c>
       <c r="G65">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H65">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I65">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J65">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3699,22 +3697,22 @@
         <v>36000</v>
       </c>
       <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
         <v>190.5</v>
       </c>
-      <c r="F66">
-        <v>259200</v>
-      </c>
       <c r="G66">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H66">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I66">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J66">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3731,22 +3729,22 @@
         <v>36000</v>
       </c>
       <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
         <v>192.5</v>
       </c>
-      <c r="F67">
-        <v>259200</v>
-      </c>
       <c r="G67">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H67">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I67">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J67">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3763,22 +3761,22 @@
         <v>36000</v>
       </c>
       <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
         <v>194.5</v>
       </c>
-      <c r="F68">
-        <v>259200</v>
-      </c>
       <c r="G68">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H68">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I68">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J68">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3795,22 +3793,22 @@
         <v>36000</v>
       </c>
       <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
         <v>196.5</v>
       </c>
-      <c r="F69">
-        <v>259200</v>
-      </c>
       <c r="G69">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H69">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I69">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J69">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3827,22 +3825,22 @@
         <v>36000</v>
       </c>
       <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
         <v>198.5</v>
       </c>
-      <c r="F70">
-        <v>259200</v>
-      </c>
       <c r="G70">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H70">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I70">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J70">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3859,22 +3857,22 @@
         <v>43200</v>
       </c>
       <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
         <v>200.5</v>
       </c>
-      <c r="F71">
-        <v>259200</v>
-      </c>
       <c r="G71">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H71">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I71">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J71">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3891,22 +3889,22 @@
         <v>43200</v>
       </c>
       <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
         <v>202.5</v>
       </c>
-      <c r="F72">
-        <v>259200</v>
-      </c>
       <c r="G72">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H72">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I72">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J72">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3923,22 +3921,22 @@
         <v>43200</v>
       </c>
       <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
         <v>204.5</v>
       </c>
-      <c r="F73">
-        <v>259200</v>
-      </c>
       <c r="G73">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H73">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I73">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J73">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3955,22 +3953,22 @@
         <v>43200</v>
       </c>
       <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
         <v>206.5</v>
       </c>
-      <c r="F74">
-        <v>259200</v>
-      </c>
       <c r="G74">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H74">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I74">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J74">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3987,22 +3985,22 @@
         <v>43200</v>
       </c>
       <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75">
         <v>208.5</v>
       </c>
-      <c r="F75">
-        <v>259200</v>
-      </c>
       <c r="G75">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H75">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I75">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J75">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -4019,22 +4017,22 @@
         <v>43200</v>
       </c>
       <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
         <v>210.5</v>
       </c>
-      <c r="F76">
-        <v>259200</v>
-      </c>
       <c r="G76">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H76">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I76">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J76">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -4051,22 +4049,22 @@
         <v>43200</v>
       </c>
       <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
         <v>212.5</v>
       </c>
-      <c r="F77">
-        <v>259200</v>
-      </c>
       <c r="G77">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H77">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I77">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J77">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4083,22 +4081,22 @@
         <v>43200</v>
       </c>
       <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
         <v>214.5</v>
       </c>
-      <c r="F78">
-        <v>259200</v>
-      </c>
       <c r="G78">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H78">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I78">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J78">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -4115,22 +4113,22 @@
         <v>43200</v>
       </c>
       <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
         <v>216.5</v>
       </c>
-      <c r="F79">
-        <v>259200</v>
-      </c>
       <c r="G79">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H79">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I79">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J79">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -4147,22 +4145,22 @@
         <v>43200</v>
       </c>
       <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
         <v>218.5</v>
       </c>
-      <c r="F80">
-        <v>259200</v>
-      </c>
       <c r="G80">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H80">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I80">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J80">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -4179,22 +4177,22 @@
         <v>50400</v>
       </c>
       <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
         <v>220.5</v>
       </c>
-      <c r="F81">
-        <v>259200</v>
-      </c>
       <c r="G81">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H81">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I81">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J81">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -4211,22 +4209,22 @@
         <v>50400</v>
       </c>
       <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
         <v>222.5</v>
       </c>
-      <c r="F82">
-        <v>259200</v>
-      </c>
       <c r="G82">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H82">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I82">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J82">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -4243,22 +4241,22 @@
         <v>50400</v>
       </c>
       <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
         <v>224.5</v>
       </c>
-      <c r="F83">
-        <v>259200</v>
-      </c>
       <c r="G83">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H83">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I83">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J83">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -4275,22 +4273,22 @@
         <v>50400</v>
       </c>
       <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
         <v>226.5</v>
       </c>
-      <c r="F84">
-        <v>259200</v>
-      </c>
       <c r="G84">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H84">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I84">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J84">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -4307,22 +4305,22 @@
         <v>50400</v>
       </c>
       <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85">
         <v>228.5</v>
       </c>
-      <c r="F85">
-        <v>259200</v>
-      </c>
       <c r="G85">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H85">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I85">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J85">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -4339,22 +4337,22 @@
         <v>50400</v>
       </c>
       <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
         <v>230.5</v>
       </c>
-      <c r="F86">
-        <v>259200</v>
-      </c>
       <c r="G86">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H86">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I86">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J86">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -4371,22 +4369,22 @@
         <v>50400</v>
       </c>
       <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
         <v>232.5</v>
       </c>
-      <c r="F87">
-        <v>259200</v>
-      </c>
       <c r="G87">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H87">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I87">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J87">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -4403,22 +4401,22 @@
         <v>50400</v>
       </c>
       <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
         <v>234.5</v>
       </c>
-      <c r="F88">
-        <v>259200</v>
-      </c>
       <c r="G88">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H88">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I88">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J88">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -4435,22 +4433,22 @@
         <v>50400</v>
       </c>
       <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89">
         <v>236.5</v>
       </c>
-      <c r="F89">
-        <v>259200</v>
-      </c>
       <c r="G89">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H89">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I89">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J89">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -4467,22 +4465,22 @@
         <v>50400</v>
       </c>
       <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90">
         <v>238.5</v>
       </c>
-      <c r="F90">
-        <v>259200</v>
-      </c>
       <c r="G90">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H90">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I90">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J90">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -4499,22 +4497,22 @@
         <v>57600</v>
       </c>
       <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
         <v>240.5</v>
       </c>
-      <c r="F91">
-        <v>259200</v>
-      </c>
       <c r="G91">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H91">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I91">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J91">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4531,22 +4529,22 @@
         <v>57600</v>
       </c>
       <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
         <v>242.5</v>
       </c>
-      <c r="F92">
-        <v>259200</v>
-      </c>
       <c r="G92">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H92">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I92">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J92">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4563,22 +4561,22 @@
         <v>57600</v>
       </c>
       <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
         <v>244.5</v>
       </c>
-      <c r="F93">
-        <v>259200</v>
-      </c>
       <c r="G93">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H93">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I93">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J93">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4595,22 +4593,22 @@
         <v>57600</v>
       </c>
       <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
         <v>246.5</v>
       </c>
-      <c r="F94">
-        <v>259200</v>
-      </c>
       <c r="G94">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H94">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I94">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J94">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4627,22 +4625,22 @@
         <v>57600</v>
       </c>
       <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
         <v>248.5</v>
       </c>
-      <c r="F95">
-        <v>259200</v>
-      </c>
       <c r="G95">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H95">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I95">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J95">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4659,22 +4657,22 @@
         <v>57600</v>
       </c>
       <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
         <v>250.5</v>
       </c>
-      <c r="F96">
-        <v>259200</v>
-      </c>
       <c r="G96">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H96">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I96">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J96">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4691,22 +4689,22 @@
         <v>57600</v>
       </c>
       <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
         <v>252.5</v>
       </c>
-      <c r="F97">
-        <v>259200</v>
-      </c>
       <c r="G97">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H97">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I97">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J97">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4723,22 +4721,22 @@
         <v>57600</v>
       </c>
       <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
         <v>254.5</v>
       </c>
-      <c r="F98">
-        <v>259200</v>
-      </c>
       <c r="G98">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H98">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I98">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J98">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4755,22 +4753,22 @@
         <v>57600</v>
       </c>
       <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99">
         <v>256.5</v>
       </c>
-      <c r="F99">
-        <v>259200</v>
-      </c>
       <c r="G99">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H99">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I99">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J99">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4787,22 +4785,22 @@
         <v>57600</v>
       </c>
       <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
         <v>258.5</v>
       </c>
-      <c r="F100">
-        <v>259200</v>
-      </c>
       <c r="G100">
-        <v>345600</v>
+        <v>172800</v>
       </c>
       <c r="H100">
-        <v>604800</v>
+        <v>259200</v>
       </c>
       <c r="I100">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="J100">
-        <v>172800</v>
+        <v>14400</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867A2914-A43D-4D3E-958C-AEC2DE4E0A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8950836-2007-45FA-8E27-B1530B18F740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -1599,7 +1599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1649,7 +1651,7 @@
         <v>300</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>62.5</v>
@@ -1658,10 +1660,10 @@
         <v>300</v>
       </c>
       <c r="H2">
-        <v>259200</v>
+        <v>216000</v>
       </c>
       <c r="I2">
-        <v>259200</v>
+        <v>216000</v>
       </c>
       <c r="J2">
         <v>14400</v>
@@ -1678,10 +1680,10 @@
         <v>300</v>
       </c>
       <c r="D3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>64.5</v>
@@ -1690,13 +1692,13 @@
         <v>600</v>
       </c>
       <c r="H3">
-        <v>259200</v>
+        <v>213840</v>
       </c>
       <c r="I3">
-        <v>259200</v>
+        <v>213840</v>
       </c>
       <c r="J3">
-        <v>14400</v>
+        <v>14256</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1704,16 +1706,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="C4">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D4">
         <v>1800</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>66.5</v>
@@ -1722,13 +1724,13 @@
         <v>1800</v>
       </c>
       <c r="H4">
-        <v>259200</v>
+        <v>211701</v>
       </c>
       <c r="I4">
-        <v>259200</v>
+        <v>211701</v>
       </c>
       <c r="J4">
-        <v>14400</v>
+        <v>14113</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1736,16 +1738,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="C5">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="D5">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>68.5</v>
@@ -1754,13 +1756,13 @@
         <v>2700</v>
       </c>
       <c r="H5">
-        <v>259200</v>
+        <v>209584</v>
       </c>
       <c r="I5">
-        <v>259200</v>
+        <v>209584</v>
       </c>
       <c r="J5">
-        <v>14400</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1768,16 +1770,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="C6">
-        <v>3900</v>
+        <v>6600</v>
       </c>
       <c r="D6">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>70.5</v>
@@ -1786,13 +1788,13 @@
         <v>3600</v>
       </c>
       <c r="H6">
-        <v>259200</v>
+        <v>207488</v>
       </c>
       <c r="I6">
-        <v>259200</v>
+        <v>207488</v>
       </c>
       <c r="J6">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1800,31 +1802,31 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2400</v>
+        <v>7200</v>
       </c>
       <c r="C7">
-        <v>6300</v>
+        <v>13800</v>
       </c>
       <c r="D7">
-        <v>3600</v>
+        <v>10800</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>72.5</v>
       </c>
       <c r="G7">
-        <v>172800</v>
+        <v>166836</v>
       </c>
       <c r="H7">
-        <v>259200</v>
+        <v>205413</v>
       </c>
       <c r="I7">
-        <v>259200</v>
+        <v>205413</v>
       </c>
       <c r="J7">
-        <v>14400</v>
+        <v>13694</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1832,31 +1834,31 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3000</v>
+        <v>10800</v>
       </c>
       <c r="C8">
-        <v>9300</v>
+        <v>24600</v>
       </c>
       <c r="D8">
-        <v>4200</v>
+        <v>14400</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>74.5</v>
       </c>
       <c r="G8">
-        <v>172800</v>
+        <v>165668</v>
       </c>
       <c r="H8">
-        <v>259200</v>
+        <v>203359</v>
       </c>
       <c r="I8">
-        <v>259200</v>
+        <v>203359</v>
       </c>
       <c r="J8">
-        <v>14400</v>
+        <v>13557</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1864,31 +1866,31 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3600</v>
+        <v>14400</v>
       </c>
       <c r="C9">
-        <v>12900</v>
+        <v>39000</v>
       </c>
       <c r="D9">
-        <v>3600</v>
+        <v>18000</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>76.5</v>
       </c>
       <c r="G9">
-        <v>172800</v>
+        <v>164508</v>
       </c>
       <c r="H9">
-        <v>259200</v>
+        <v>201326</v>
       </c>
       <c r="I9">
-        <v>259200</v>
+        <v>201326</v>
       </c>
       <c r="J9">
-        <v>14400</v>
+        <v>13421</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1896,31 +1898,31 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4200</v>
+        <v>18000</v>
       </c>
       <c r="C10">
-        <v>17100</v>
+        <v>57000</v>
       </c>
       <c r="D10">
-        <v>3600</v>
+        <v>21600</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>78.5</v>
       </c>
       <c r="G10">
-        <v>172800</v>
+        <v>163356</v>
       </c>
       <c r="H10">
-        <v>259200</v>
+        <v>199312</v>
       </c>
       <c r="I10">
-        <v>259200</v>
+        <v>199312</v>
       </c>
       <c r="J10">
-        <v>14400</v>
+        <v>13287</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1928,31 +1930,31 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4800</v>
+        <v>21600</v>
       </c>
       <c r="C11">
-        <v>21900</v>
+        <v>78600</v>
       </c>
       <c r="D11">
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>80.5</v>
       </c>
       <c r="G11">
-        <v>172800</v>
+        <v>162213</v>
       </c>
       <c r="H11">
-        <v>259200</v>
+        <v>197319</v>
       </c>
       <c r="I11">
-        <v>259200</v>
+        <v>197319</v>
       </c>
       <c r="J11">
-        <v>14400</v>
+        <v>13154</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1960,31 +1962,31 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5400</v>
+        <v>28800</v>
       </c>
       <c r="C12">
-        <v>27300</v>
+        <v>107400</v>
       </c>
       <c r="D12">
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>82.5</v>
       </c>
       <c r="G12">
-        <v>172800</v>
+        <v>161077</v>
       </c>
       <c r="H12">
-        <v>259200</v>
+        <v>195346</v>
       </c>
       <c r="I12">
-        <v>259200</v>
+        <v>195346</v>
       </c>
       <c r="J12">
-        <v>14400</v>
+        <v>13023</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1992,31 +1994,31 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6000</v>
+        <v>39600</v>
       </c>
       <c r="C13">
-        <v>33300</v>
+        <v>147000</v>
       </c>
       <c r="D13">
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>84.5</v>
       </c>
       <c r="G13">
-        <v>172800</v>
+        <v>159950</v>
       </c>
       <c r="H13">
-        <v>259200</v>
+        <v>193393</v>
       </c>
       <c r="I13">
-        <v>259200</v>
+        <v>193393</v>
       </c>
       <c r="J13">
-        <v>14400</v>
+        <v>12892</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2024,31 +2026,31 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6600</v>
+        <v>50400</v>
       </c>
       <c r="C14">
-        <v>39900</v>
+        <v>197400</v>
       </c>
       <c r="D14">
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>86.5</v>
       </c>
       <c r="G14">
-        <v>172800</v>
+        <v>158830</v>
       </c>
       <c r="H14">
-        <v>259200</v>
+        <v>191459</v>
       </c>
       <c r="I14">
-        <v>259200</v>
+        <v>191459</v>
       </c>
       <c r="J14">
-        <v>14400</v>
+        <v>12763</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2056,31 +2058,31 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7200</v>
+        <v>61200</v>
       </c>
       <c r="C15">
-        <v>47100</v>
+        <v>258600</v>
       </c>
       <c r="D15">
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>88.5</v>
       </c>
       <c r="G15">
-        <v>172800</v>
+        <v>157718</v>
       </c>
       <c r="H15">
-        <v>259200</v>
+        <v>189544</v>
       </c>
       <c r="I15">
-        <v>259200</v>
+        <v>189544</v>
       </c>
       <c r="J15">
-        <v>14400</v>
+        <v>12636</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2088,31 +2090,31 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7800</v>
+        <v>72000</v>
       </c>
       <c r="C16">
-        <v>54900</v>
+        <v>330600</v>
       </c>
       <c r="D16">
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>90.5</v>
       </c>
       <c r="G16">
-        <v>172800</v>
+        <v>156614</v>
       </c>
       <c r="H16">
-        <v>259200</v>
+        <v>187649</v>
       </c>
       <c r="I16">
-        <v>259200</v>
+        <v>187649</v>
       </c>
       <c r="J16">
-        <v>14400</v>
+        <v>12509</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2120,31 +2122,31 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8400</v>
+        <v>82800</v>
       </c>
       <c r="C17">
-        <v>63300</v>
+        <v>413400</v>
       </c>
       <c r="D17">
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>92.5</v>
       </c>
       <c r="G17">
-        <v>172800</v>
+        <v>155518</v>
       </c>
       <c r="H17">
-        <v>259200</v>
+        <v>185772</v>
       </c>
       <c r="I17">
-        <v>259200</v>
+        <v>185772</v>
       </c>
       <c r="J17">
-        <v>14400</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2152,31 +2154,31 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9000</v>
+        <v>93600</v>
       </c>
       <c r="C18">
-        <v>72300</v>
+        <v>507000</v>
       </c>
       <c r="D18">
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <v>94.5</v>
       </c>
       <c r="G18">
-        <v>172800</v>
+        <v>154430</v>
       </c>
       <c r="H18">
-        <v>259200</v>
+        <v>183914</v>
       </c>
       <c r="I18">
-        <v>259200</v>
+        <v>183914</v>
       </c>
       <c r="J18">
-        <v>14400</v>
+        <v>12260</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2184,31 +2186,31 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>9600</v>
+        <v>104400</v>
       </c>
       <c r="C19">
-        <v>81900</v>
+        <v>611400</v>
       </c>
       <c r="D19">
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>96.5</v>
       </c>
       <c r="G19">
-        <v>172800</v>
+        <v>153349</v>
       </c>
       <c r="H19">
-        <v>259200</v>
+        <v>182075</v>
       </c>
       <c r="I19">
-        <v>259200</v>
+        <v>182075</v>
       </c>
       <c r="J19">
-        <v>14400</v>
+        <v>12138</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2216,31 +2218,31 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>10200</v>
+        <v>115200</v>
       </c>
       <c r="C20">
-        <v>92100</v>
+        <v>726600</v>
       </c>
       <c r="D20">
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F20">
         <v>98.5</v>
       </c>
       <c r="G20">
-        <v>172800</v>
+        <v>152275</v>
       </c>
       <c r="H20">
-        <v>259200</v>
+        <v>180254</v>
       </c>
       <c r="I20">
-        <v>259200</v>
+        <v>180254</v>
       </c>
       <c r="J20">
-        <v>14400</v>
+        <v>12016</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2248,31 +2250,31 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10800</v>
+        <v>136800</v>
       </c>
       <c r="C21">
-        <v>102900</v>
+        <v>863400</v>
       </c>
       <c r="D21">
-        <v>10800</v>
+        <v>36000</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <v>100.5</v>
       </c>
       <c r="G21">
-        <v>172800</v>
+        <v>151209</v>
       </c>
       <c r="H21">
-        <v>259200</v>
+        <v>178452</v>
       </c>
       <c r="I21">
-        <v>259200</v>
+        <v>178452</v>
       </c>
       <c r="J21">
-        <v>14400</v>
+        <v>11896</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2280,31 +2282,31 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>11400</v>
+        <v>158400</v>
       </c>
       <c r="C22">
-        <v>114300</v>
+        <v>1021800</v>
       </c>
       <c r="D22">
-        <v>10800</v>
+        <v>36000</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F22">
         <v>102.5</v>
       </c>
       <c r="G22">
-        <v>172800</v>
+        <v>150151</v>
       </c>
       <c r="H22">
-        <v>259200</v>
+        <v>176667</v>
       </c>
       <c r="I22">
-        <v>259200</v>
+        <v>176667</v>
       </c>
       <c r="J22">
-        <v>14400</v>
+        <v>11777</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2312,31 +2314,31 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="C23">
-        <v>126300</v>
+        <v>1201800</v>
       </c>
       <c r="D23">
-        <v>10800</v>
+        <v>36000</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F23">
         <v>104.5</v>
       </c>
       <c r="G23">
-        <v>172800</v>
+        <v>149100</v>
       </c>
       <c r="H23">
-        <v>259200</v>
+        <v>174901</v>
       </c>
       <c r="I23">
-        <v>259200</v>
+        <v>174901</v>
       </c>
       <c r="J23">
-        <v>14400</v>
+        <v>11660</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2344,31 +2346,31 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>12600</v>
+        <v>201600</v>
       </c>
       <c r="C24">
-        <v>138900</v>
+        <v>1403400</v>
       </c>
       <c r="D24">
-        <v>10800</v>
+        <v>36000</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <v>106.5</v>
       </c>
       <c r="G24">
-        <v>172800</v>
+        <v>148056</v>
       </c>
       <c r="H24">
-        <v>259200</v>
+        <v>173152</v>
       </c>
       <c r="I24">
-        <v>259200</v>
+        <v>173152</v>
       </c>
       <c r="J24">
-        <v>14400</v>
+        <v>11543</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2376,31 +2378,31 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>13200</v>
+        <v>223200</v>
       </c>
       <c r="C25">
-        <v>152100</v>
+        <v>1626600</v>
       </c>
       <c r="D25">
-        <v>10800</v>
+        <v>36000</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F25">
         <v>108.5</v>
       </c>
       <c r="G25">
-        <v>172800</v>
+        <v>147020</v>
       </c>
       <c r="H25">
-        <v>259200</v>
+        <v>171420</v>
       </c>
       <c r="I25">
-        <v>259200</v>
+        <v>171420</v>
       </c>
       <c r="J25">
-        <v>14400</v>
+        <v>11428</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2408,31 +2410,31 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>13800</v>
+        <v>244800</v>
       </c>
       <c r="C26">
-        <v>165900</v>
+        <v>1871400</v>
       </c>
       <c r="D26">
-        <v>10800</v>
+        <v>36000</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F26">
         <v>110.5</v>
       </c>
       <c r="G26">
-        <v>172800</v>
+        <v>145990</v>
       </c>
       <c r="H26">
-        <v>259200</v>
+        <v>169706</v>
       </c>
       <c r="I26">
-        <v>259200</v>
+        <v>169706</v>
       </c>
       <c r="J26">
-        <v>14400</v>
+        <v>11313</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2440,31 +2442,31 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>14400</v>
+        <v>266400</v>
       </c>
       <c r="C27">
-        <v>180300</v>
+        <v>2137800</v>
       </c>
       <c r="D27">
-        <v>10800</v>
+        <v>36000</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <v>112.5</v>
       </c>
       <c r="G27">
-        <v>172800</v>
+        <v>144968</v>
       </c>
       <c r="H27">
-        <v>259200</v>
+        <v>168009</v>
       </c>
       <c r="I27">
-        <v>259200</v>
+        <v>168009</v>
       </c>
       <c r="J27">
-        <v>14400</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2472,31 +2474,31 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>15000</v>
+        <v>288000</v>
       </c>
       <c r="C28">
-        <v>195300</v>
+        <v>2425800</v>
       </c>
       <c r="D28">
-        <v>10800</v>
+        <v>36000</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F28">
         <v>114.5</v>
       </c>
       <c r="G28">
-        <v>172800</v>
+        <v>143954</v>
       </c>
       <c r="H28">
-        <v>259200</v>
+        <v>166329</v>
       </c>
       <c r="I28">
-        <v>259200</v>
+        <v>166329</v>
       </c>
       <c r="J28">
-        <v>14400</v>
+        <v>11088</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2504,31 +2506,31 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>15600</v>
+        <v>309600</v>
       </c>
       <c r="C29">
-        <v>210900</v>
+        <v>2735400</v>
       </c>
       <c r="D29">
-        <v>10800</v>
+        <v>36000</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F29">
         <v>116.5</v>
       </c>
       <c r="G29">
-        <v>172800</v>
+        <v>142946</v>
       </c>
       <c r="H29">
-        <v>259200</v>
+        <v>164666</v>
       </c>
       <c r="I29">
-        <v>259200</v>
+        <v>164666</v>
       </c>
       <c r="J29">
-        <v>14400</v>
+        <v>10977</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2536,31 +2538,31 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>16200</v>
+        <v>331200</v>
       </c>
       <c r="C30">
-        <v>227100</v>
+        <v>3066600</v>
       </c>
       <c r="D30">
-        <v>10800</v>
+        <v>36000</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F30">
         <v>118.5</v>
       </c>
       <c r="G30">
-        <v>172800</v>
+        <v>141945</v>
       </c>
       <c r="H30">
-        <v>259200</v>
+        <v>163019</v>
       </c>
       <c r="I30">
-        <v>259200</v>
+        <v>163019</v>
       </c>
       <c r="J30">
-        <v>14400</v>
+        <v>10867</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2568,31 +2570,31 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>16800</v>
+        <v>374400</v>
       </c>
       <c r="C31">
-        <v>243900</v>
+        <v>3441000</v>
       </c>
       <c r="D31">
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F31">
         <v>120.5</v>
       </c>
       <c r="G31">
-        <v>172800</v>
+        <v>140952</v>
       </c>
       <c r="H31">
-        <v>259200</v>
+        <v>161389</v>
       </c>
       <c r="I31">
-        <v>259200</v>
+        <v>161389</v>
       </c>
       <c r="J31">
-        <v>14400</v>
+        <v>10759</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2600,31 +2602,31 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>17400</v>
+        <v>417600</v>
       </c>
       <c r="C32">
-        <v>261300</v>
+        <v>3858600</v>
       </c>
       <c r="D32">
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F32">
         <v>122.5</v>
       </c>
       <c r="G32">
-        <v>172800</v>
+        <v>139965</v>
       </c>
       <c r="H32">
-        <v>259200</v>
+        <v>159775</v>
       </c>
       <c r="I32">
-        <v>259200</v>
+        <v>159775</v>
       </c>
       <c r="J32">
-        <v>14400</v>
+        <v>10651</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2632,31 +2634,31 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>18000</v>
+        <v>460800</v>
       </c>
       <c r="C33">
-        <v>279300</v>
+        <v>4319400</v>
       </c>
       <c r="D33">
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F33">
         <v>124.5</v>
       </c>
       <c r="G33">
-        <v>172800</v>
+        <v>138985</v>
       </c>
       <c r="H33">
-        <v>259200</v>
+        <v>158177</v>
       </c>
       <c r="I33">
-        <v>259200</v>
+        <v>158177</v>
       </c>
       <c r="J33">
-        <v>14400</v>
+        <v>10545</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2664,31 +2666,31 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>18600</v>
+        <v>504000</v>
       </c>
       <c r="C34">
-        <v>297900</v>
+        <v>4823400</v>
       </c>
       <c r="D34">
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F34">
         <v>126.5</v>
       </c>
       <c r="G34">
-        <v>172800</v>
+        <v>138012</v>
       </c>
       <c r="H34">
-        <v>259200</v>
+        <v>156595</v>
       </c>
       <c r="I34">
-        <v>259200</v>
+        <v>156595</v>
       </c>
       <c r="J34">
-        <v>14400</v>
+        <v>10439</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2696,31 +2698,31 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>19200</v>
+        <v>547200</v>
       </c>
       <c r="C35">
-        <v>317100</v>
+        <v>5370600</v>
       </c>
       <c r="D35">
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F35">
         <v>128.5</v>
       </c>
       <c r="G35">
-        <v>172800</v>
+        <v>137046</v>
       </c>
       <c r="H35">
-        <v>259200</v>
+        <v>155029</v>
       </c>
       <c r="I35">
-        <v>259200</v>
+        <v>155029</v>
       </c>
       <c r="J35">
-        <v>14400</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2728,31 +2730,31 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>19800</v>
+        <v>590400</v>
       </c>
       <c r="C36">
-        <v>336900</v>
+        <v>5961000</v>
       </c>
       <c r="D36">
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F36">
         <v>130.5</v>
       </c>
       <c r="G36">
-        <v>172800</v>
+        <v>136087</v>
       </c>
       <c r="H36">
-        <v>259200</v>
+        <v>153479</v>
       </c>
       <c r="I36">
-        <v>259200</v>
+        <v>153479</v>
       </c>
       <c r="J36">
-        <v>14400</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2760,31 +2762,31 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>20400</v>
+        <v>633600</v>
       </c>
       <c r="C37">
-        <v>357300</v>
+        <v>6594600</v>
       </c>
       <c r="D37">
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>132.5</v>
       </c>
       <c r="G37">
-        <v>172800</v>
+        <v>135134</v>
       </c>
       <c r="H37">
-        <v>259200</v>
+        <v>151944</v>
       </c>
       <c r="I37">
-        <v>259200</v>
+        <v>151944</v>
       </c>
       <c r="J37">
-        <v>14400</v>
+        <v>10129</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2792,31 +2794,31 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>21000</v>
+        <v>676800</v>
       </c>
       <c r="C38">
-        <v>378300</v>
+        <v>7271400</v>
       </c>
       <c r="D38">
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F38">
         <v>134.5</v>
       </c>
       <c r="G38">
-        <v>172800</v>
+        <v>134188</v>
       </c>
       <c r="H38">
-        <v>259200</v>
+        <v>150425</v>
       </c>
       <c r="I38">
-        <v>259200</v>
+        <v>150425</v>
       </c>
       <c r="J38">
-        <v>14400</v>
+        <v>10028</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2824,31 +2826,31 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>21600</v>
+        <v>720000</v>
       </c>
       <c r="C39">
-        <v>399900</v>
+        <v>7991400</v>
       </c>
       <c r="D39">
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F39">
         <v>136.5</v>
       </c>
       <c r="G39">
-        <v>172800</v>
+        <v>133249</v>
       </c>
       <c r="H39">
-        <v>259200</v>
+        <v>148921</v>
       </c>
       <c r="I39">
-        <v>259200</v>
+        <v>148921</v>
       </c>
       <c r="J39">
-        <v>14400</v>
+        <v>9928</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2856,31 +2858,31 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>22200</v>
+        <v>763200</v>
       </c>
       <c r="C40">
-        <v>422100</v>
+        <v>8754600</v>
       </c>
       <c r="D40">
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F40">
         <v>138.5</v>
       </c>
       <c r="G40">
-        <v>172800</v>
+        <v>132316</v>
       </c>
       <c r="H40">
-        <v>259200</v>
+        <v>147431</v>
       </c>
       <c r="I40">
-        <v>259200</v>
+        <v>147431</v>
       </c>
       <c r="J40">
-        <v>14400</v>
+        <v>9828</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2888,31 +2890,31 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>22800</v>
+        <v>849600</v>
       </c>
       <c r="C41">
-        <v>444900</v>
+        <v>9604200</v>
       </c>
       <c r="D41">
-        <v>21600</v>
+        <v>57600</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F41">
         <v>140.5</v>
       </c>
       <c r="G41">
-        <v>172800</v>
+        <v>131390</v>
       </c>
       <c r="H41">
-        <v>259200</v>
+        <v>145957</v>
       </c>
       <c r="I41">
-        <v>259200</v>
+        <v>145957</v>
       </c>
       <c r="J41">
-        <v>14400</v>
+        <v>9730</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2920,31 +2922,31 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>23400</v>
+        <v>936000</v>
       </c>
       <c r="C42">
-        <v>468300</v>
+        <v>10540200</v>
       </c>
       <c r="D42">
-        <v>21600</v>
+        <v>57600</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F42">
         <v>142.5</v>
       </c>
       <c r="G42">
-        <v>172800</v>
+        <v>130470</v>
       </c>
       <c r="H42">
-        <v>259200</v>
+        <v>144497</v>
       </c>
       <c r="I42">
-        <v>259200</v>
+        <v>144497</v>
       </c>
       <c r="J42">
-        <v>14400</v>
+        <v>9633</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2952,31 +2954,31 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>24000</v>
+        <v>1022400</v>
       </c>
       <c r="C43">
-        <v>492300</v>
+        <v>11562600</v>
       </c>
       <c r="D43">
-        <v>21600</v>
+        <v>57600</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F43">
         <v>144.5</v>
       </c>
       <c r="G43">
-        <v>172800</v>
+        <v>129557</v>
       </c>
       <c r="H43">
-        <v>259200</v>
+        <v>143052</v>
       </c>
       <c r="I43">
-        <v>259200</v>
+        <v>143052</v>
       </c>
       <c r="J43">
-        <v>14400</v>
+        <v>9536</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2984,31 +2986,31 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>24600</v>
+        <v>1108800</v>
       </c>
       <c r="C44">
-        <v>516900</v>
+        <v>12671400</v>
       </c>
       <c r="D44">
-        <v>21600</v>
+        <v>57600</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F44">
         <v>146.5</v>
       </c>
       <c r="G44">
-        <v>172800</v>
+        <v>128650</v>
       </c>
       <c r="H44">
-        <v>259200</v>
+        <v>141622</v>
       </c>
       <c r="I44">
-        <v>259200</v>
+        <v>141622</v>
       </c>
       <c r="J44">
-        <v>14400</v>
+        <v>9441</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -3016,31 +3018,31 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>25200</v>
+        <v>1195200</v>
       </c>
       <c r="C45">
-        <v>542100</v>
+        <v>13866600</v>
       </c>
       <c r="D45">
-        <v>21600</v>
+        <v>57600</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F45">
         <v>148.5</v>
       </c>
       <c r="G45">
-        <v>172800</v>
+        <v>127750</v>
       </c>
       <c r="H45">
-        <v>259200</v>
+        <v>140206</v>
       </c>
       <c r="I45">
-        <v>259200</v>
+        <v>140206</v>
       </c>
       <c r="J45">
-        <v>14400</v>
+        <v>9347</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -3048,31 +3050,31 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>25800</v>
+        <v>1281600</v>
       </c>
       <c r="C46">
-        <v>567900</v>
+        <v>15148200</v>
       </c>
       <c r="D46">
-        <v>21600</v>
+        <v>57600</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F46">
         <v>150.5</v>
       </c>
       <c r="G46">
-        <v>172800</v>
+        <v>126855</v>
       </c>
       <c r="H46">
-        <v>259200</v>
+        <v>138804</v>
       </c>
       <c r="I46">
-        <v>259200</v>
+        <v>138804</v>
       </c>
       <c r="J46">
-        <v>14400</v>
+        <v>9253</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -3080,31 +3082,31 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>26400</v>
+        <v>1368000</v>
       </c>
       <c r="C47">
-        <v>594300</v>
+        <v>16516200</v>
       </c>
       <c r="D47">
-        <v>21600</v>
+        <v>57600</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F47">
         <v>152.5</v>
       </c>
       <c r="G47">
-        <v>172800</v>
+        <v>125967</v>
       </c>
       <c r="H47">
-        <v>259200</v>
+        <v>137416</v>
       </c>
       <c r="I47">
-        <v>259200</v>
+        <v>137416</v>
       </c>
       <c r="J47">
-        <v>14400</v>
+        <v>9161</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -3112,31 +3114,31 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>27000</v>
+        <v>1454400</v>
       </c>
       <c r="C48">
-        <v>621300</v>
+        <v>17970600</v>
       </c>
       <c r="D48">
-        <v>21600</v>
+        <v>57600</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F48">
         <v>154.5</v>
       </c>
       <c r="G48">
-        <v>172800</v>
+        <v>125086</v>
       </c>
       <c r="H48">
-        <v>259200</v>
+        <v>136041</v>
       </c>
       <c r="I48">
-        <v>259200</v>
+        <v>136041</v>
       </c>
       <c r="J48">
-        <v>14400</v>
+        <v>9069</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -3144,31 +3146,31 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>27600</v>
+        <v>1540800</v>
       </c>
       <c r="C49">
-        <v>648900</v>
+        <v>19511400</v>
       </c>
       <c r="D49">
-        <v>21600</v>
+        <v>57600</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F49">
         <v>156.5</v>
       </c>
       <c r="G49">
-        <v>172800</v>
+        <v>124210</v>
       </c>
       <c r="H49">
-        <v>259200</v>
+        <v>134681</v>
       </c>
       <c r="I49">
-        <v>259200</v>
+        <v>134681</v>
       </c>
       <c r="J49">
-        <v>14400</v>
+        <v>8978</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -3176,31 +3178,31 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>28200</v>
+        <v>1627200</v>
       </c>
       <c r="C50">
-        <v>677100</v>
+        <v>21138600</v>
       </c>
       <c r="D50">
-        <v>21600</v>
+        <v>57600</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F50">
         <v>158.5</v>
       </c>
       <c r="G50">
-        <v>172800</v>
+        <v>123341</v>
       </c>
       <c r="H50">
-        <v>259200</v>
+        <v>133334</v>
       </c>
       <c r="I50">
-        <v>259200</v>
+        <v>133334</v>
       </c>
       <c r="J50">
-        <v>14400</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -3208,31 +3210,31 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>28800</v>
+        <v>10267200</v>
       </c>
       <c r="C51">
-        <v>705900</v>
+        <v>31405800</v>
       </c>
       <c r="D51">
-        <v>28800</v>
+        <v>172800</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="F51">
         <v>160.5</v>
       </c>
       <c r="G51">
-        <v>172800</v>
+        <v>122477</v>
       </c>
       <c r="H51">
-        <v>259200</v>
+        <v>132001</v>
       </c>
       <c r="I51">
-        <v>259200</v>
+        <v>132001</v>
       </c>
       <c r="J51">
-        <v>14400</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -3240,31 +3242,31 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>29400</v>
+        <v>1627200</v>
       </c>
       <c r="C52">
-        <v>735300</v>
+        <v>33033000</v>
       </c>
       <c r="D52">
-        <v>28800</v>
+        <v>172800</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F52">
         <v>162.5</v>
       </c>
       <c r="G52">
-        <v>172800</v>
+        <v>121620</v>
       </c>
       <c r="H52">
-        <v>259200</v>
+        <v>130681</v>
       </c>
       <c r="I52">
-        <v>259200</v>
+        <v>130681</v>
       </c>
       <c r="J52">
-        <v>14400</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -3272,31 +3274,31 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>30000</v>
+        <v>1630800</v>
       </c>
       <c r="C53">
-        <v>765300</v>
+        <v>34663800</v>
       </c>
       <c r="D53">
-        <v>28800</v>
+        <v>172800</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F53">
         <v>164.5</v>
       </c>
       <c r="G53">
-        <v>172800</v>
+        <v>120768</v>
       </c>
       <c r="H53">
-        <v>259200</v>
+        <v>129374</v>
       </c>
       <c r="I53">
-        <v>259200</v>
+        <v>129374</v>
       </c>
       <c r="J53">
-        <v>14400</v>
+        <v>8624</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3304,31 +3306,31 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>30600</v>
+        <v>1634400</v>
       </c>
       <c r="C54">
-        <v>795900</v>
+        <v>36298200</v>
       </c>
       <c r="D54">
-        <v>28800</v>
+        <v>172800</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F54">
         <v>166.5</v>
       </c>
       <c r="G54">
-        <v>172800</v>
+        <v>119923</v>
       </c>
       <c r="H54">
-        <v>259200</v>
+        <v>128080</v>
       </c>
       <c r="I54">
-        <v>259200</v>
+        <v>128080</v>
       </c>
       <c r="J54">
-        <v>14400</v>
+        <v>8538</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3336,31 +3338,31 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>31200</v>
+        <v>1638000</v>
       </c>
       <c r="C55">
-        <v>827100</v>
+        <v>37936200</v>
       </c>
       <c r="D55">
-        <v>28800</v>
+        <v>172800</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F55">
         <v>168.5</v>
       </c>
       <c r="G55">
-        <v>172800</v>
+        <v>119084</v>
       </c>
       <c r="H55">
-        <v>259200</v>
+        <v>126799</v>
       </c>
       <c r="I55">
-        <v>259200</v>
+        <v>126799</v>
       </c>
       <c r="J55">
-        <v>14400</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3368,31 +3370,31 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>31800</v>
+        <v>1645200</v>
       </c>
       <c r="C56">
-        <v>858900</v>
+        <v>39581400</v>
       </c>
       <c r="D56">
-        <v>28800</v>
+        <v>259200</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F56">
         <v>170.5</v>
       </c>
       <c r="G56">
-        <v>172800</v>
+        <v>118250</v>
       </c>
       <c r="H56">
-        <v>259200</v>
+        <v>125531</v>
       </c>
       <c r="I56">
-        <v>259200</v>
+        <v>125531</v>
       </c>
       <c r="J56">
-        <v>14400</v>
+        <v>8368</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3400,31 +3402,31 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>32400</v>
+        <v>1652400</v>
       </c>
       <c r="C57">
-        <v>891300</v>
+        <v>41233800</v>
       </c>
       <c r="D57">
-        <v>28800</v>
+        <v>259200</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F57">
         <v>172.5</v>
       </c>
       <c r="G57">
-        <v>172800</v>
+        <v>117422</v>
       </c>
       <c r="H57">
-        <v>259200</v>
+        <v>124276</v>
       </c>
       <c r="I57">
-        <v>259200</v>
+        <v>124276</v>
       </c>
       <c r="J57">
-        <v>14400</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3432,31 +3434,31 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>33000</v>
+        <v>1659600</v>
       </c>
       <c r="C58">
-        <v>924300</v>
+        <v>42893400</v>
       </c>
       <c r="D58">
-        <v>28800</v>
+        <v>259200</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F58">
         <v>174.5</v>
       </c>
       <c r="G58">
-        <v>172800</v>
+        <v>116600</v>
       </c>
       <c r="H58">
-        <v>259200</v>
+        <v>123033</v>
       </c>
       <c r="I58">
-        <v>259200</v>
+        <v>123033</v>
       </c>
       <c r="J58">
-        <v>14400</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3464,31 +3466,31 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>33600</v>
+        <v>1666800</v>
       </c>
       <c r="C59">
-        <v>957900</v>
+        <v>44560200</v>
       </c>
       <c r="D59">
-        <v>28800</v>
+        <v>259200</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F59">
         <v>176.5</v>
       </c>
       <c r="G59">
-        <v>172800</v>
+        <v>115784</v>
       </c>
       <c r="H59">
-        <v>259200</v>
+        <v>121803</v>
       </c>
       <c r="I59">
-        <v>259200</v>
+        <v>121803</v>
       </c>
       <c r="J59">
-        <v>14400</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3496,31 +3498,31 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>34200</v>
+        <v>1674000</v>
       </c>
       <c r="C60">
-        <v>992100</v>
+        <v>46234200</v>
       </c>
       <c r="D60">
-        <v>28800</v>
+        <v>259200</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F60">
         <v>178.5</v>
       </c>
       <c r="G60">
-        <v>172800</v>
+        <v>114974</v>
       </c>
       <c r="H60">
-        <v>259200</v>
+        <v>120585</v>
       </c>
       <c r="I60">
-        <v>259200</v>
+        <v>120585</v>
       </c>
       <c r="J60">
-        <v>14400</v>
+        <v>8039</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3528,31 +3530,31 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>34800</v>
+        <v>1688400</v>
       </c>
       <c r="C61">
-        <v>1026900</v>
+        <v>47922600</v>
       </c>
       <c r="D61">
-        <v>36000</v>
+        <v>345600</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F61">
         <v>180.5</v>
       </c>
       <c r="G61">
-        <v>172800</v>
+        <v>114169</v>
       </c>
       <c r="H61">
-        <v>259200</v>
+        <v>119379</v>
       </c>
       <c r="I61">
-        <v>259200</v>
+        <v>119379</v>
       </c>
       <c r="J61">
-        <v>14400</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3560,31 +3562,31 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>35400</v>
+        <v>1702800</v>
       </c>
       <c r="C62">
-        <v>1062300</v>
+        <v>49625400</v>
       </c>
       <c r="D62">
-        <v>36000</v>
+        <v>345600</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F62">
         <v>182.5</v>
       </c>
       <c r="G62">
-        <v>172800</v>
+        <v>113370</v>
       </c>
       <c r="H62">
-        <v>259200</v>
+        <v>118185</v>
       </c>
       <c r="I62">
-        <v>259200</v>
+        <v>118185</v>
       </c>
       <c r="J62">
-        <v>14400</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3592,31 +3594,31 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>36000</v>
+        <v>1717200</v>
       </c>
       <c r="C63">
-        <v>1098300</v>
+        <v>51342600</v>
       </c>
       <c r="D63">
-        <v>36000</v>
+        <v>345600</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F63">
         <v>184.5</v>
       </c>
       <c r="G63">
-        <v>172800</v>
+        <v>112576</v>
       </c>
       <c r="H63">
-        <v>259200</v>
+        <v>117003</v>
       </c>
       <c r="I63">
-        <v>259200</v>
+        <v>117003</v>
       </c>
       <c r="J63">
-        <v>14400</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3624,31 +3626,31 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>36600</v>
+        <v>1731600</v>
       </c>
       <c r="C64">
-        <v>1134900</v>
+        <v>53074200</v>
       </c>
       <c r="D64">
-        <v>36000</v>
+        <v>345600</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F64">
         <v>186.5</v>
       </c>
       <c r="G64">
-        <v>172800</v>
+        <v>111788</v>
       </c>
       <c r="H64">
-        <v>259200</v>
+        <v>115833</v>
       </c>
       <c r="I64">
-        <v>259200</v>
+        <v>115833</v>
       </c>
       <c r="J64">
-        <v>14400</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3656,31 +3658,31 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>37200</v>
+        <v>1746000</v>
       </c>
       <c r="C65">
-        <v>1172100</v>
+        <v>54820200</v>
       </c>
       <c r="D65">
-        <v>36000</v>
+        <v>345600</v>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F65">
         <v>188.5</v>
       </c>
       <c r="G65">
-        <v>172800</v>
+        <v>111005</v>
       </c>
       <c r="H65">
-        <v>259200</v>
+        <v>114675</v>
       </c>
       <c r="I65">
-        <v>259200</v>
+        <v>114675</v>
       </c>
       <c r="J65">
-        <v>14400</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3688,31 +3690,31 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>37800</v>
+        <v>1760400</v>
       </c>
       <c r="C66">
-        <v>1209900</v>
+        <v>56580600</v>
       </c>
       <c r="D66">
-        <v>36000</v>
+        <v>345600</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F66">
         <v>190.5</v>
       </c>
       <c r="G66">
-        <v>172800</v>
+        <v>110228</v>
       </c>
       <c r="H66">
-        <v>259200</v>
+        <v>113528</v>
       </c>
       <c r="I66">
-        <v>259200</v>
+        <v>113528</v>
       </c>
       <c r="J66">
-        <v>14400</v>
+        <v>7568</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3720,31 +3722,31 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>38400</v>
+        <v>1774800</v>
       </c>
       <c r="C67">
-        <v>1248300</v>
+        <v>58355400</v>
       </c>
       <c r="D67">
-        <v>36000</v>
+        <v>345600</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F67">
         <v>192.5</v>
       </c>
       <c r="G67">
-        <v>172800</v>
+        <v>109457</v>
       </c>
       <c r="H67">
-        <v>259200</v>
+        <v>112393</v>
       </c>
       <c r="I67">
-        <v>259200</v>
+        <v>112393</v>
       </c>
       <c r="J67">
-        <v>14400</v>
+        <v>7492</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3752,31 +3754,31 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>39000</v>
+        <v>1789200</v>
       </c>
       <c r="C68">
-        <v>1287300</v>
+        <v>60144600</v>
       </c>
       <c r="D68">
-        <v>36000</v>
+        <v>345600</v>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F68">
         <v>194.5</v>
       </c>
       <c r="G68">
-        <v>172800</v>
+        <v>108691</v>
       </c>
       <c r="H68">
-        <v>259200</v>
+        <v>111269</v>
       </c>
       <c r="I68">
-        <v>259200</v>
+        <v>111269</v>
       </c>
       <c r="J68">
-        <v>14400</v>
+        <v>7417</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3784,31 +3786,31 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>39600</v>
+        <v>1803600</v>
       </c>
       <c r="C69">
-        <v>1326900</v>
+        <v>61948200</v>
       </c>
       <c r="D69">
-        <v>36000</v>
+        <v>345600</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F69">
         <v>196.5</v>
       </c>
       <c r="G69">
-        <v>172800</v>
+        <v>107930</v>
       </c>
       <c r="H69">
-        <v>259200</v>
+        <v>110156</v>
       </c>
       <c r="I69">
-        <v>259200</v>
+        <v>110156</v>
       </c>
       <c r="J69">
-        <v>14400</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3816,31 +3818,31 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>40200</v>
+        <v>1818000</v>
       </c>
       <c r="C70">
-        <v>1367100</v>
+        <v>63766200</v>
       </c>
       <c r="D70">
-        <v>36000</v>
+        <v>345600</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F70">
         <v>198.5</v>
       </c>
       <c r="G70">
-        <v>172800</v>
+        <v>107174</v>
       </c>
       <c r="H70">
-        <v>259200</v>
+        <v>109055</v>
       </c>
       <c r="I70">
-        <v>259200</v>
+        <v>109055</v>
       </c>
       <c r="J70">
-        <v>14400</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3848,31 +3850,31 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>40800</v>
+        <v>1846800</v>
       </c>
       <c r="C71">
-        <v>1407900</v>
+        <v>65613000</v>
       </c>
       <c r="D71">
-        <v>43200</v>
+        <v>432000</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F71">
         <v>200.5</v>
       </c>
       <c r="G71">
-        <v>172800</v>
+        <v>106424</v>
       </c>
       <c r="H71">
-        <v>259200</v>
+        <v>107964</v>
       </c>
       <c r="I71">
-        <v>259200</v>
+        <v>107964</v>
       </c>
       <c r="J71">
-        <v>14400</v>
+        <v>7197</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3880,31 +3882,31 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>41400</v>
+        <v>1846800</v>
       </c>
       <c r="C72">
-        <v>1449300</v>
+        <v>67459800</v>
       </c>
       <c r="D72">
-        <v>43200</v>
+        <v>432000</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F72">
         <v>202.5</v>
       </c>
       <c r="G72">
-        <v>172800</v>
+        <v>105679</v>
       </c>
       <c r="H72">
-        <v>259200</v>
+        <v>106885</v>
       </c>
       <c r="I72">
-        <v>259200</v>
+        <v>106885</v>
       </c>
       <c r="J72">
-        <v>14400</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3912,31 +3914,31 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>42000</v>
+        <v>1846800</v>
       </c>
       <c r="C73">
-        <v>1491300</v>
+        <v>69306600</v>
       </c>
       <c r="D73">
-        <v>43200</v>
+        <v>432000</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F73">
         <v>204.5</v>
       </c>
       <c r="G73">
-        <v>172800</v>
+        <v>104939</v>
       </c>
       <c r="H73">
-        <v>259200</v>
+        <v>105816</v>
       </c>
       <c r="I73">
-        <v>259200</v>
+        <v>105816</v>
       </c>
       <c r="J73">
-        <v>14400</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3944,31 +3946,31 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>42600</v>
+        <v>1846800</v>
       </c>
       <c r="C74">
-        <v>1533900</v>
+        <v>71153400</v>
       </c>
       <c r="D74">
-        <v>43200</v>
+        <v>432000</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F74">
         <v>206.5</v>
       </c>
       <c r="G74">
-        <v>172800</v>
+        <v>104205</v>
       </c>
       <c r="H74">
-        <v>259200</v>
+        <v>104758</v>
       </c>
       <c r="I74">
-        <v>259200</v>
+        <v>104758</v>
       </c>
       <c r="J74">
-        <v>14400</v>
+        <v>6983</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3976,31 +3978,31 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>43200</v>
+        <v>1846800</v>
       </c>
       <c r="C75">
-        <v>1577100</v>
+        <v>73000200</v>
       </c>
       <c r="D75">
-        <v>43200</v>
+        <v>432000</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F75">
         <v>208.5</v>
       </c>
       <c r="G75">
-        <v>172800</v>
+        <v>103475</v>
       </c>
       <c r="H75">
-        <v>259200</v>
+        <v>103710</v>
       </c>
       <c r="I75">
-        <v>259200</v>
+        <v>103710</v>
       </c>
       <c r="J75">
-        <v>14400</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -4008,31 +4010,31 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>43800</v>
+        <v>1846800</v>
       </c>
       <c r="C76">
-        <v>1620900</v>
+        <v>74847000</v>
       </c>
       <c r="D76">
-        <v>43200</v>
+        <v>432000</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F76">
         <v>210.5</v>
       </c>
       <c r="G76">
-        <v>172800</v>
+        <v>102751</v>
       </c>
       <c r="H76">
-        <v>259200</v>
+        <v>102673</v>
       </c>
       <c r="I76">
-        <v>259200</v>
+        <v>102673</v>
       </c>
       <c r="J76">
-        <v>14400</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -4040,31 +4042,31 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>44400</v>
+        <v>1846800</v>
       </c>
       <c r="C77">
-        <v>1665300</v>
+        <v>76693800</v>
       </c>
       <c r="D77">
-        <v>43200</v>
+        <v>432000</v>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F77">
         <v>212.5</v>
       </c>
       <c r="G77">
-        <v>172800</v>
+        <v>102032</v>
       </c>
       <c r="H77">
-        <v>259200</v>
+        <v>101646</v>
       </c>
       <c r="I77">
-        <v>259200</v>
+        <v>101646</v>
       </c>
       <c r="J77">
-        <v>14400</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4072,31 +4074,31 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>45000</v>
+        <v>1846800</v>
       </c>
       <c r="C78">
-        <v>1710300</v>
+        <v>78540600</v>
       </c>
       <c r="D78">
-        <v>43200</v>
+        <v>432000</v>
       </c>
       <c r="E78">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F78">
         <v>214.5</v>
       </c>
       <c r="G78">
-        <v>172800</v>
+        <v>101318</v>
       </c>
       <c r="H78">
-        <v>259200</v>
+        <v>100630</v>
       </c>
       <c r="I78">
-        <v>259200</v>
+        <v>100630</v>
       </c>
       <c r="J78">
-        <v>14400</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -4104,31 +4106,31 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>45600</v>
+        <v>1846800</v>
       </c>
       <c r="C79">
-        <v>1755900</v>
+        <v>80387400</v>
       </c>
       <c r="D79">
-        <v>43200</v>
+        <v>432000</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F79">
         <v>216.5</v>
       </c>
       <c r="G79">
-        <v>172800</v>
+        <v>100608</v>
       </c>
       <c r="H79">
-        <v>259200</v>
+        <v>99623</v>
       </c>
       <c r="I79">
-        <v>259200</v>
+        <v>99623</v>
       </c>
       <c r="J79">
-        <v>14400</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -4136,31 +4138,31 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>46200</v>
+        <v>1846800</v>
       </c>
       <c r="C80">
-        <v>1802100</v>
+        <v>82234200</v>
       </c>
       <c r="D80">
-        <v>43200</v>
+        <v>432000</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F80">
         <v>218.5</v>
       </c>
       <c r="G80">
-        <v>172800</v>
+        <v>99904</v>
       </c>
       <c r="H80">
-        <v>259200</v>
+        <v>98627</v>
       </c>
       <c r="I80">
-        <v>259200</v>
+        <v>98627</v>
       </c>
       <c r="J80">
-        <v>14400</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -4168,31 +4170,31 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>46800</v>
+        <v>1846800</v>
       </c>
       <c r="C81">
-        <v>1848900</v>
+        <v>84081000</v>
       </c>
       <c r="D81">
-        <v>50400</v>
+        <v>518400</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F81">
         <v>220.5</v>
       </c>
       <c r="G81">
-        <v>172800</v>
+        <v>99205</v>
       </c>
       <c r="H81">
-        <v>259200</v>
+        <v>97641</v>
       </c>
       <c r="I81">
-        <v>259200</v>
+        <v>97641</v>
       </c>
       <c r="J81">
-        <v>14400</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -4200,31 +4202,31 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>47400</v>
+        <v>1846800</v>
       </c>
       <c r="C82">
-        <v>1896300</v>
+        <v>85927800</v>
       </c>
       <c r="D82">
-        <v>50400</v>
+        <v>518400</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F82">
         <v>222.5</v>
       </c>
       <c r="G82">
-        <v>172800</v>
+        <v>98510</v>
       </c>
       <c r="H82">
-        <v>259200</v>
+        <v>96665</v>
       </c>
       <c r="I82">
-        <v>259200</v>
+        <v>96665</v>
       </c>
       <c r="J82">
-        <v>14400</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -4232,31 +4234,31 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>48000</v>
+        <v>1846800</v>
       </c>
       <c r="C83">
-        <v>1944300</v>
+        <v>87774600</v>
       </c>
       <c r="D83">
-        <v>50400</v>
+        <v>518400</v>
       </c>
       <c r="E83">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F83">
         <v>224.5</v>
       </c>
       <c r="G83">
-        <v>172800</v>
+        <v>97821</v>
       </c>
       <c r="H83">
-        <v>259200</v>
+        <v>95698</v>
       </c>
       <c r="I83">
-        <v>259200</v>
+        <v>95698</v>
       </c>
       <c r="J83">
-        <v>14400</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -4264,31 +4266,31 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>48600</v>
+        <v>1846800</v>
       </c>
       <c r="C84">
-        <v>1992900</v>
+        <v>89621400</v>
       </c>
       <c r="D84">
-        <v>50400</v>
+        <v>518400</v>
       </c>
       <c r="E84">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F84">
         <v>226.5</v>
       </c>
       <c r="G84">
-        <v>172800</v>
+        <v>97136</v>
       </c>
       <c r="H84">
-        <v>259200</v>
+        <v>94741</v>
       </c>
       <c r="I84">
-        <v>259200</v>
+        <v>94741</v>
       </c>
       <c r="J84">
-        <v>14400</v>
+        <v>6316</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -4296,31 +4298,31 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>49200</v>
+        <v>1846800</v>
       </c>
       <c r="C85">
-        <v>2042100</v>
+        <v>91468200</v>
       </c>
       <c r="D85">
-        <v>50400</v>
+        <v>518400</v>
       </c>
       <c r="E85">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F85">
         <v>228.5</v>
       </c>
       <c r="G85">
-        <v>172800</v>
+        <v>96456</v>
       </c>
       <c r="H85">
-        <v>259200</v>
+        <v>93793</v>
       </c>
       <c r="I85">
-        <v>259200</v>
+        <v>93793</v>
       </c>
       <c r="J85">
-        <v>14400</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -4328,31 +4330,31 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>49800</v>
+        <v>1846800</v>
       </c>
       <c r="C86">
-        <v>2091900</v>
+        <v>93315000</v>
       </c>
       <c r="D86">
-        <v>50400</v>
+        <v>518400</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F86">
         <v>230.5</v>
       </c>
       <c r="G86">
-        <v>172800</v>
+        <v>95781</v>
       </c>
       <c r="H86">
-        <v>259200</v>
+        <v>92856</v>
       </c>
       <c r="I86">
-        <v>259200</v>
+        <v>92856</v>
       </c>
       <c r="J86">
-        <v>14400</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -4360,31 +4362,31 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>50400</v>
+        <v>1846800</v>
       </c>
       <c r="C87">
-        <v>2142300</v>
+        <v>95161800</v>
       </c>
       <c r="D87">
-        <v>50400</v>
+        <v>518400</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F87">
         <v>232.5</v>
       </c>
       <c r="G87">
-        <v>172800</v>
+        <v>95110</v>
       </c>
       <c r="H87">
-        <v>259200</v>
+        <v>91927</v>
       </c>
       <c r="I87">
-        <v>259200</v>
+        <v>91927</v>
       </c>
       <c r="J87">
-        <v>14400</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -4392,31 +4394,31 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>51000</v>
+        <v>1846800</v>
       </c>
       <c r="C88">
-        <v>2193300</v>
+        <v>97008600</v>
       </c>
       <c r="D88">
-        <v>50400</v>
+        <v>518400</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F88">
         <v>234.5</v>
       </c>
       <c r="G88">
-        <v>172800</v>
+        <v>94445</v>
       </c>
       <c r="H88">
-        <v>259200</v>
+        <v>91008</v>
       </c>
       <c r="I88">
-        <v>259200</v>
+        <v>91008</v>
       </c>
       <c r="J88">
-        <v>14400</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -4424,31 +4426,31 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>51600</v>
+        <v>1846800</v>
       </c>
       <c r="C89">
-        <v>2244900</v>
+        <v>98855400</v>
       </c>
       <c r="D89">
-        <v>50400</v>
+        <v>518400</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F89">
         <v>236.5</v>
       </c>
       <c r="G89">
-        <v>172800</v>
+        <v>93783</v>
       </c>
       <c r="H89">
-        <v>259200</v>
+        <v>90098</v>
       </c>
       <c r="I89">
-        <v>259200</v>
+        <v>90098</v>
       </c>
       <c r="J89">
-        <v>14400</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -4456,31 +4458,31 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>52200</v>
+        <v>1846800</v>
       </c>
       <c r="C90">
-        <v>2297100</v>
+        <v>100702200</v>
       </c>
       <c r="D90">
-        <v>50400</v>
+        <v>518400</v>
       </c>
       <c r="E90">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F90">
         <v>238.5</v>
       </c>
       <c r="G90">
-        <v>172800</v>
+        <v>93127</v>
       </c>
       <c r="H90">
-        <v>259200</v>
+        <v>89197</v>
       </c>
       <c r="I90">
-        <v>259200</v>
+        <v>89197</v>
       </c>
       <c r="J90">
-        <v>14400</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -4488,31 +4490,31 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>52800</v>
+        <v>1846800</v>
       </c>
       <c r="C91">
-        <v>2349900</v>
+        <v>102549000</v>
       </c>
       <c r="D91">
-        <v>57600</v>
+        <v>518400</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F91">
         <v>240.5</v>
       </c>
       <c r="G91">
-        <v>172800</v>
+        <v>92475</v>
       </c>
       <c r="H91">
-        <v>259200</v>
+        <v>88305</v>
       </c>
       <c r="I91">
-        <v>259200</v>
+        <v>88305</v>
       </c>
       <c r="J91">
-        <v>14400</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4520,31 +4522,31 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>53400</v>
+        <v>1846800</v>
       </c>
       <c r="C92">
-        <v>2403300</v>
+        <v>104395800</v>
       </c>
       <c r="D92">
-        <v>57600</v>
+        <v>518400</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F92">
         <v>242.5</v>
       </c>
       <c r="G92">
-        <v>172800</v>
+        <v>91828</v>
       </c>
       <c r="H92">
-        <v>259200</v>
+        <v>87422</v>
       </c>
       <c r="I92">
-        <v>259200</v>
+        <v>87422</v>
       </c>
       <c r="J92">
-        <v>14400</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4552,31 +4554,31 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>54000</v>
+        <v>1846800</v>
       </c>
       <c r="C93">
-        <v>2457300</v>
+        <v>106242600</v>
       </c>
       <c r="D93">
-        <v>57600</v>
+        <v>518400</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F93">
         <v>244.5</v>
       </c>
       <c r="G93">
-        <v>172800</v>
+        <v>91185</v>
       </c>
       <c r="H93">
-        <v>259200</v>
+        <v>86547</v>
       </c>
       <c r="I93">
-        <v>259200</v>
+        <v>86547</v>
       </c>
       <c r="J93">
-        <v>14400</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4584,31 +4586,31 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>54600</v>
+        <v>1846800</v>
       </c>
       <c r="C94">
-        <v>2511900</v>
+        <v>108089400</v>
       </c>
       <c r="D94">
-        <v>57600</v>
+        <v>518400</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F94">
         <v>246.5</v>
       </c>
       <c r="G94">
-        <v>172800</v>
+        <v>90547</v>
       </c>
       <c r="H94">
-        <v>259200</v>
+        <v>85682</v>
       </c>
       <c r="I94">
-        <v>259200</v>
+        <v>85682</v>
       </c>
       <c r="J94">
-        <v>14400</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4616,31 +4618,31 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>55200</v>
+        <v>1846800</v>
       </c>
       <c r="C95">
-        <v>2567100</v>
+        <v>109936200</v>
       </c>
       <c r="D95">
-        <v>57600</v>
+        <v>518400</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F95">
         <v>248.5</v>
       </c>
       <c r="G95">
-        <v>172800</v>
+        <v>89913</v>
       </c>
       <c r="H95">
-        <v>259200</v>
+        <v>84825</v>
       </c>
       <c r="I95">
-        <v>259200</v>
+        <v>84825</v>
       </c>
       <c r="J95">
-        <v>14400</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4648,31 +4650,31 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>55800</v>
+        <v>1846800</v>
       </c>
       <c r="C96">
-        <v>2622900</v>
+        <v>111783000</v>
       </c>
       <c r="D96">
-        <v>57600</v>
+        <v>518400</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F96">
         <v>250.5</v>
       </c>
       <c r="G96">
-        <v>172800</v>
+        <v>89283</v>
       </c>
       <c r="H96">
-        <v>259200</v>
+        <v>83977</v>
       </c>
       <c r="I96">
-        <v>259200</v>
+        <v>83977</v>
       </c>
       <c r="J96">
-        <v>14400</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4680,31 +4682,31 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>56400</v>
+        <v>1846800</v>
       </c>
       <c r="C97">
-        <v>2679300</v>
+        <v>113629800</v>
       </c>
       <c r="D97">
-        <v>57600</v>
+        <v>518400</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F97">
         <v>252.5</v>
       </c>
       <c r="G97">
-        <v>172800</v>
+        <v>88658</v>
       </c>
       <c r="H97">
-        <v>259200</v>
+        <v>83137</v>
       </c>
       <c r="I97">
-        <v>259200</v>
+        <v>83137</v>
       </c>
       <c r="J97">
-        <v>14400</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4712,31 +4714,31 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>57000</v>
+        <v>1846800</v>
       </c>
       <c r="C98">
-        <v>2736300</v>
+        <v>115476600</v>
       </c>
       <c r="D98">
-        <v>57600</v>
+        <v>518400</v>
       </c>
       <c r="E98">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F98">
         <v>254.5</v>
       </c>
       <c r="G98">
-        <v>172800</v>
+        <v>88038</v>
       </c>
       <c r="H98">
-        <v>259200</v>
+        <v>82306</v>
       </c>
       <c r="I98">
-        <v>259200</v>
+        <v>82306</v>
       </c>
       <c r="J98">
-        <v>14400</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4744,31 +4746,31 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>57600</v>
+        <v>1846800</v>
       </c>
       <c r="C99">
-        <v>2793900</v>
+        <v>117323400</v>
       </c>
       <c r="D99">
-        <v>57600</v>
+        <v>518400</v>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F99">
         <v>256.5</v>
       </c>
       <c r="G99">
-        <v>172800</v>
+        <v>87422</v>
       </c>
       <c r="H99">
-        <v>259200</v>
+        <v>81483</v>
       </c>
       <c r="I99">
-        <v>259200</v>
+        <v>81483</v>
       </c>
       <c r="J99">
-        <v>14400</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4776,31 +4778,31 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>58200</v>
+        <v>1846800</v>
       </c>
       <c r="C100">
-        <v>2852100</v>
+        <v>119170200</v>
       </c>
       <c r="D100">
-        <v>57600</v>
+        <v>604800</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F100">
         <v>258.5</v>
       </c>
       <c r="G100">
-        <v>172800</v>
+        <v>86810</v>
       </c>
       <c r="H100">
-        <v>259200</v>
+        <v>80668</v>
       </c>
       <c r="I100">
-        <v>259200</v>
+        <v>80668</v>
       </c>
       <c r="J100">
-        <v>14400</v>
+        <v>5377</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8950836-2007-45FA-8E27-B1530B18F740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B09A68-46A2-437B-8A4E-20D3C00C6CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
     <sheet name="AnalysisTable" sheetId="3" r:id="rId2"/>
+    <sheet name="AnalysisKeyTable" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>level|Int</t>
   </si>
@@ -92,6 +93,12 @@
   </si>
   <si>
     <t>forceLeveling|Int</t>
+  </si>
+  <si>
+    <t>remainMin|Int</t>
+  </si>
+  <si>
+    <t>adjustWeight|Float</t>
   </si>
 </sst>
 </file>
@@ -1599,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1657,7 +1664,7 @@
         <v>62.5</v>
       </c>
       <c r="G2">
-        <v>300</v>
+        <v>259200</v>
       </c>
       <c r="H2">
         <v>216000</v>
@@ -1689,7 +1696,7 @@
         <v>64.5</v>
       </c>
       <c r="G3">
-        <v>600</v>
+        <v>258163</v>
       </c>
       <c r="H3">
         <v>213840</v>
@@ -1721,7 +1728,7 @@
         <v>66.5</v>
       </c>
       <c r="G4">
-        <v>1800</v>
+        <v>257130</v>
       </c>
       <c r="H4">
         <v>211701</v>
@@ -1753,7 +1760,7 @@
         <v>68.5</v>
       </c>
       <c r="G5">
-        <v>2700</v>
+        <v>256102</v>
       </c>
       <c r="H5">
         <v>209584</v>
@@ -1785,7 +1792,7 @@
         <v>70.5</v>
       </c>
       <c r="G6">
-        <v>3600</v>
+        <v>255077</v>
       </c>
       <c r="H6">
         <v>207488</v>
@@ -1817,7 +1824,7 @@
         <v>72.5</v>
       </c>
       <c r="G7">
-        <v>166836</v>
+        <v>254057</v>
       </c>
       <c r="H7">
         <v>205413</v>
@@ -1849,7 +1856,7 @@
         <v>74.5</v>
       </c>
       <c r="G8">
-        <v>165668</v>
+        <v>253041</v>
       </c>
       <c r="H8">
         <v>203359</v>
@@ -1881,7 +1888,7 @@
         <v>76.5</v>
       </c>
       <c r="G9">
-        <v>164508</v>
+        <v>252028</v>
       </c>
       <c r="H9">
         <v>201326</v>
@@ -1913,7 +1920,7 @@
         <v>78.5</v>
       </c>
       <c r="G10">
-        <v>163356</v>
+        <v>251020</v>
       </c>
       <c r="H10">
         <v>199312</v>
@@ -1945,7 +1952,7 @@
         <v>80.5</v>
       </c>
       <c r="G11">
-        <v>162213</v>
+        <v>250016</v>
       </c>
       <c r="H11">
         <v>197319</v>
@@ -1977,7 +1984,7 @@
         <v>82.5</v>
       </c>
       <c r="G12">
-        <v>161077</v>
+        <v>249016</v>
       </c>
       <c r="H12">
         <v>195346</v>
@@ -2009,7 +2016,7 @@
         <v>84.5</v>
       </c>
       <c r="G13">
-        <v>159950</v>
+        <v>248020</v>
       </c>
       <c r="H13">
         <v>193393</v>
@@ -2041,7 +2048,7 @@
         <v>86.5</v>
       </c>
       <c r="G14">
-        <v>158830</v>
+        <v>247028</v>
       </c>
       <c r="H14">
         <v>191459</v>
@@ -2073,7 +2080,7 @@
         <v>88.5</v>
       </c>
       <c r="G15">
-        <v>157718</v>
+        <v>246040</v>
       </c>
       <c r="H15">
         <v>189544</v>
@@ -2105,7 +2112,7 @@
         <v>90.5</v>
       </c>
       <c r="G16">
-        <v>156614</v>
+        <v>245056</v>
       </c>
       <c r="H16">
         <v>187649</v>
@@ -2137,7 +2144,7 @@
         <v>92.5</v>
       </c>
       <c r="G17">
-        <v>155518</v>
+        <v>244075</v>
       </c>
       <c r="H17">
         <v>185772</v>
@@ -2169,7 +2176,7 @@
         <v>94.5</v>
       </c>
       <c r="G18">
-        <v>154430</v>
+        <v>243099</v>
       </c>
       <c r="H18">
         <v>183914</v>
@@ -2201,7 +2208,7 @@
         <v>96.5</v>
       </c>
       <c r="G19">
-        <v>153349</v>
+        <v>242127</v>
       </c>
       <c r="H19">
         <v>182075</v>
@@ -2233,7 +2240,7 @@
         <v>98.5</v>
       </c>
       <c r="G20">
-        <v>152275</v>
+        <v>241158</v>
       </c>
       <c r="H20">
         <v>180254</v>
@@ -2265,7 +2272,7 @@
         <v>100.5</v>
       </c>
       <c r="G21">
-        <v>151209</v>
+        <v>240194</v>
       </c>
       <c r="H21">
         <v>178452</v>
@@ -2297,7 +2304,7 @@
         <v>102.5</v>
       </c>
       <c r="G22">
-        <v>150151</v>
+        <v>239233</v>
       </c>
       <c r="H22">
         <v>176667</v>
@@ -2329,7 +2336,7 @@
         <v>104.5</v>
       </c>
       <c r="G23">
-        <v>149100</v>
+        <v>238276</v>
       </c>
       <c r="H23">
         <v>174901</v>
@@ -2361,7 +2368,7 @@
         <v>106.5</v>
       </c>
       <c r="G24">
-        <v>148056</v>
+        <v>237323</v>
       </c>
       <c r="H24">
         <v>173152</v>
@@ -2393,7 +2400,7 @@
         <v>108.5</v>
       </c>
       <c r="G25">
-        <v>147020</v>
+        <v>236374</v>
       </c>
       <c r="H25">
         <v>171420</v>
@@ -2425,7 +2432,7 @@
         <v>110.5</v>
       </c>
       <c r="G26">
-        <v>145990</v>
+        <v>235428</v>
       </c>
       <c r="H26">
         <v>169706</v>
@@ -2457,7 +2464,7 @@
         <v>112.5</v>
       </c>
       <c r="G27">
-        <v>144968</v>
+        <v>234486</v>
       </c>
       <c r="H27">
         <v>168009</v>
@@ -2489,7 +2496,7 @@
         <v>114.5</v>
       </c>
       <c r="G28">
-        <v>143954</v>
+        <v>233548</v>
       </c>
       <c r="H28">
         <v>166329</v>
@@ -2521,7 +2528,7 @@
         <v>116.5</v>
       </c>
       <c r="G29">
-        <v>142946</v>
+        <v>232614</v>
       </c>
       <c r="H29">
         <v>164666</v>
@@ -2553,7 +2560,7 @@
         <v>118.5</v>
       </c>
       <c r="G30">
-        <v>141945</v>
+        <v>231684</v>
       </c>
       <c r="H30">
         <v>163019</v>
@@ -2585,7 +2592,7 @@
         <v>120.5</v>
       </c>
       <c r="G31">
-        <v>140952</v>
+        <v>230757</v>
       </c>
       <c r="H31">
         <v>161389</v>
@@ -2617,7 +2624,7 @@
         <v>122.5</v>
       </c>
       <c r="G32">
-        <v>139965</v>
+        <v>229834</v>
       </c>
       <c r="H32">
         <v>159775</v>
@@ -2649,7 +2656,7 @@
         <v>124.5</v>
       </c>
       <c r="G33">
-        <v>138985</v>
+        <v>228915</v>
       </c>
       <c r="H33">
         <v>158177</v>
@@ -2681,7 +2688,7 @@
         <v>126.5</v>
       </c>
       <c r="G34">
-        <v>138012</v>
+        <v>227999</v>
       </c>
       <c r="H34">
         <v>156595</v>
@@ -2713,7 +2720,7 @@
         <v>128.5</v>
       </c>
       <c r="G35">
-        <v>137046</v>
+        <v>227087</v>
       </c>
       <c r="H35">
         <v>155029</v>
@@ -2745,7 +2752,7 @@
         <v>130.5</v>
       </c>
       <c r="G36">
-        <v>136087</v>
+        <v>226179</v>
       </c>
       <c r="H36">
         <v>153479</v>
@@ -2777,7 +2784,7 @@
         <v>132.5</v>
       </c>
       <c r="G37">
-        <v>135134</v>
+        <v>225274</v>
       </c>
       <c r="H37">
         <v>151944</v>
@@ -2809,7 +2816,7 @@
         <v>134.5</v>
       </c>
       <c r="G38">
-        <v>134188</v>
+        <v>224373</v>
       </c>
       <c r="H38">
         <v>150425</v>
@@ -2841,7 +2848,7 @@
         <v>136.5</v>
       </c>
       <c r="G39">
-        <v>133249</v>
+        <v>223475</v>
       </c>
       <c r="H39">
         <v>148921</v>
@@ -2873,7 +2880,7 @@
         <v>138.5</v>
       </c>
       <c r="G40">
-        <v>132316</v>
+        <v>222581</v>
       </c>
       <c r="H40">
         <v>147431</v>
@@ -2905,7 +2912,7 @@
         <v>140.5</v>
       </c>
       <c r="G41">
-        <v>131390</v>
+        <v>221691</v>
       </c>
       <c r="H41">
         <v>145957</v>
@@ -2937,7 +2944,7 @@
         <v>142.5</v>
       </c>
       <c r="G42">
-        <v>130470</v>
+        <v>220804</v>
       </c>
       <c r="H42">
         <v>144497</v>
@@ -2969,7 +2976,7 @@
         <v>144.5</v>
       </c>
       <c r="G43">
-        <v>129557</v>
+        <v>219921</v>
       </c>
       <c r="H43">
         <v>143052</v>
@@ -3001,7 +3008,7 @@
         <v>146.5</v>
       </c>
       <c r="G44">
-        <v>128650</v>
+        <v>219041</v>
       </c>
       <c r="H44">
         <v>141622</v>
@@ -3033,7 +3040,7 @@
         <v>148.5</v>
       </c>
       <c r="G45">
-        <v>127750</v>
+        <v>218165</v>
       </c>
       <c r="H45">
         <v>140206</v>
@@ -3065,7 +3072,7 @@
         <v>150.5</v>
       </c>
       <c r="G46">
-        <v>126855</v>
+        <v>217293</v>
       </c>
       <c r="H46">
         <v>138804</v>
@@ -3097,7 +3104,7 @@
         <v>152.5</v>
       </c>
       <c r="G47">
-        <v>125967</v>
+        <v>216423</v>
       </c>
       <c r="H47">
         <v>137416</v>
@@ -3129,7 +3136,7 @@
         <v>154.5</v>
       </c>
       <c r="G48">
-        <v>125086</v>
+        <v>215558</v>
       </c>
       <c r="H48">
         <v>136041</v>
@@ -3161,7 +3168,7 @@
         <v>156.5</v>
       </c>
       <c r="G49">
-        <v>124210</v>
+        <v>214695</v>
       </c>
       <c r="H49">
         <v>134681</v>
@@ -3193,7 +3200,7 @@
         <v>158.5</v>
       </c>
       <c r="G50">
-        <v>123341</v>
+        <v>213837</v>
       </c>
       <c r="H50">
         <v>133334</v>
@@ -3225,7 +3232,7 @@
         <v>160.5</v>
       </c>
       <c r="G51">
-        <v>122477</v>
+        <v>212981</v>
       </c>
       <c r="H51">
         <v>132001</v>
@@ -3257,7 +3264,7 @@
         <v>162.5</v>
       </c>
       <c r="G52">
-        <v>121620</v>
+        <v>212129</v>
       </c>
       <c r="H52">
         <v>130681</v>
@@ -3289,7 +3296,7 @@
         <v>164.5</v>
       </c>
       <c r="G53">
-        <v>120768</v>
+        <v>211281</v>
       </c>
       <c r="H53">
         <v>129374</v>
@@ -3321,7 +3328,7 @@
         <v>166.5</v>
       </c>
       <c r="G54">
-        <v>119923</v>
+        <v>210436</v>
       </c>
       <c r="H54">
         <v>128080</v>
@@ -3353,7 +3360,7 @@
         <v>168.5</v>
       </c>
       <c r="G55">
-        <v>119084</v>
+        <v>209594</v>
       </c>
       <c r="H55">
         <v>126799</v>
@@ -3385,7 +3392,7 @@
         <v>170.5</v>
       </c>
       <c r="G56">
-        <v>118250</v>
+        <v>208756</v>
       </c>
       <c r="H56">
         <v>125531</v>
@@ -3417,7 +3424,7 @@
         <v>172.5</v>
       </c>
       <c r="G57">
-        <v>117422</v>
+        <v>207921</v>
       </c>
       <c r="H57">
         <v>124276</v>
@@ -3449,7 +3456,7 @@
         <v>174.5</v>
       </c>
       <c r="G58">
-        <v>116600</v>
+        <v>207089</v>
       </c>
       <c r="H58">
         <v>123033</v>
@@ -3481,7 +3488,7 @@
         <v>176.5</v>
       </c>
       <c r="G59">
-        <v>115784</v>
+        <v>206261</v>
       </c>
       <c r="H59">
         <v>121803</v>
@@ -3513,7 +3520,7 @@
         <v>178.5</v>
       </c>
       <c r="G60">
-        <v>114974</v>
+        <v>205436</v>
       </c>
       <c r="H60">
         <v>120585</v>
@@ -3545,7 +3552,7 @@
         <v>180.5</v>
       </c>
       <c r="G61">
-        <v>114169</v>
+        <v>204614</v>
       </c>
       <c r="H61">
         <v>119379</v>
@@ -3577,7 +3584,7 @@
         <v>182.5</v>
       </c>
       <c r="G62">
-        <v>113370</v>
+        <v>203795</v>
       </c>
       <c r="H62">
         <v>118185</v>
@@ -3609,7 +3616,7 @@
         <v>184.5</v>
       </c>
       <c r="G63">
-        <v>112576</v>
+        <v>202980</v>
       </c>
       <c r="H63">
         <v>117003</v>
@@ -3641,7 +3648,7 @@
         <v>186.5</v>
       </c>
       <c r="G64">
-        <v>111788</v>
+        <v>202168</v>
       </c>
       <c r="H64">
         <v>115833</v>
@@ -3673,7 +3680,7 @@
         <v>188.5</v>
       </c>
       <c r="G65">
-        <v>111005</v>
+        <v>201360</v>
       </c>
       <c r="H65">
         <v>114675</v>
@@ -3705,7 +3712,7 @@
         <v>190.5</v>
       </c>
       <c r="G66">
-        <v>110228</v>
+        <v>200554</v>
       </c>
       <c r="H66">
         <v>113528</v>
@@ -3737,7 +3744,7 @@
         <v>192.5</v>
       </c>
       <c r="G67">
-        <v>109457</v>
+        <v>199752</v>
       </c>
       <c r="H67">
         <v>112393</v>
@@ -3769,7 +3776,7 @@
         <v>194.5</v>
       </c>
       <c r="G68">
-        <v>108691</v>
+        <v>198953</v>
       </c>
       <c r="H68">
         <v>111269</v>
@@ -3801,7 +3808,7 @@
         <v>196.5</v>
       </c>
       <c r="G69">
-        <v>107930</v>
+        <v>198157</v>
       </c>
       <c r="H69">
         <v>110156</v>
@@ -3833,7 +3840,7 @@
         <v>198.5</v>
       </c>
       <c r="G70">
-        <v>107174</v>
+        <v>197364</v>
       </c>
       <c r="H70">
         <v>109055</v>
@@ -3865,7 +3872,7 @@
         <v>200.5</v>
       </c>
       <c r="G71">
-        <v>106424</v>
+        <v>196575</v>
       </c>
       <c r="H71">
         <v>107964</v>
@@ -3897,7 +3904,7 @@
         <v>202.5</v>
       </c>
       <c r="G72">
-        <v>105679</v>
+        <v>195789</v>
       </c>
       <c r="H72">
         <v>106885</v>
@@ -3929,7 +3936,7 @@
         <v>204.5</v>
       </c>
       <c r="G73">
-        <v>104939</v>
+        <v>195006</v>
       </c>
       <c r="H73">
         <v>105816</v>
@@ -3961,7 +3968,7 @@
         <v>206.5</v>
       </c>
       <c r="G74">
-        <v>104205</v>
+        <v>194225</v>
       </c>
       <c r="H74">
         <v>104758</v>
@@ -3993,7 +4000,7 @@
         <v>208.5</v>
       </c>
       <c r="G75">
-        <v>103475</v>
+        <v>193449</v>
       </c>
       <c r="H75">
         <v>103710</v>
@@ -4025,7 +4032,7 @@
         <v>210.5</v>
       </c>
       <c r="G76">
-        <v>102751</v>
+        <v>192675</v>
       </c>
       <c r="H76">
         <v>102673</v>
@@ -4057,7 +4064,7 @@
         <v>212.5</v>
       </c>
       <c r="G77">
-        <v>102032</v>
+        <v>191904</v>
       </c>
       <c r="H77">
         <v>101646</v>
@@ -4089,7 +4096,7 @@
         <v>214.5</v>
       </c>
       <c r="G78">
-        <v>101318</v>
+        <v>191136</v>
       </c>
       <c r="H78">
         <v>100630</v>
@@ -4121,7 +4128,7 @@
         <v>216.5</v>
       </c>
       <c r="G79">
-        <v>100608</v>
+        <v>190372</v>
       </c>
       <c r="H79">
         <v>99623</v>
@@ -4153,7 +4160,7 @@
         <v>218.5</v>
       </c>
       <c r="G80">
-        <v>99904</v>
+        <v>189610</v>
       </c>
       <c r="H80">
         <v>98627</v>
@@ -4185,7 +4192,7 @@
         <v>220.5</v>
       </c>
       <c r="G81">
-        <v>99205</v>
+        <v>188852</v>
       </c>
       <c r="H81">
         <v>97641</v>
@@ -4217,7 +4224,7 @@
         <v>222.5</v>
       </c>
       <c r="G82">
-        <v>98510</v>
+        <v>188097</v>
       </c>
       <c r="H82">
         <v>96665</v>
@@ -4249,7 +4256,7 @@
         <v>224.5</v>
       </c>
       <c r="G83">
-        <v>97821</v>
+        <v>187344</v>
       </c>
       <c r="H83">
         <v>95698</v>
@@ -4281,7 +4288,7 @@
         <v>226.5</v>
       </c>
       <c r="G84">
-        <v>97136</v>
+        <v>186595</v>
       </c>
       <c r="H84">
         <v>94741</v>
@@ -4313,7 +4320,7 @@
         <v>228.5</v>
       </c>
       <c r="G85">
-        <v>96456</v>
+        <v>185848</v>
       </c>
       <c r="H85">
         <v>93793</v>
@@ -4345,7 +4352,7 @@
         <v>230.5</v>
       </c>
       <c r="G86">
-        <v>95781</v>
+        <v>185105</v>
       </c>
       <c r="H86">
         <v>92856</v>
@@ -4377,7 +4384,7 @@
         <v>232.5</v>
       </c>
       <c r="G87">
-        <v>95110</v>
+        <v>184365</v>
       </c>
       <c r="H87">
         <v>91927</v>
@@ -4409,7 +4416,7 @@
         <v>234.5</v>
       </c>
       <c r="G88">
-        <v>94445</v>
+        <v>183627</v>
       </c>
       <c r="H88">
         <v>91008</v>
@@ -4441,7 +4448,7 @@
         <v>236.5</v>
       </c>
       <c r="G89">
-        <v>93783</v>
+        <v>182893</v>
       </c>
       <c r="H89">
         <v>90098</v>
@@ -4473,7 +4480,7 @@
         <v>238.5</v>
       </c>
       <c r="G90">
-        <v>93127</v>
+        <v>182161</v>
       </c>
       <c r="H90">
         <v>89197</v>
@@ -4505,7 +4512,7 @@
         <v>240.5</v>
       </c>
       <c r="G91">
-        <v>92475</v>
+        <v>181432</v>
       </c>
       <c r="H91">
         <v>88305</v>
@@ -4537,7 +4544,7 @@
         <v>242.5</v>
       </c>
       <c r="G92">
-        <v>91828</v>
+        <v>180707</v>
       </c>
       <c r="H92">
         <v>87422</v>
@@ -4569,7 +4576,7 @@
         <v>244.5</v>
       </c>
       <c r="G93">
-        <v>91185</v>
+        <v>179984</v>
       </c>
       <c r="H93">
         <v>86547</v>
@@ -4601,7 +4608,7 @@
         <v>246.5</v>
       </c>
       <c r="G94">
-        <v>90547</v>
+        <v>179264</v>
       </c>
       <c r="H94">
         <v>85682</v>
@@ -4633,7 +4640,7 @@
         <v>248.5</v>
       </c>
       <c r="G95">
-        <v>89913</v>
+        <v>178547</v>
       </c>
       <c r="H95">
         <v>84825</v>
@@ -4665,7 +4672,7 @@
         <v>250.5</v>
       </c>
       <c r="G96">
-        <v>89283</v>
+        <v>177833</v>
       </c>
       <c r="H96">
         <v>83977</v>
@@ -4697,7 +4704,7 @@
         <v>252.5</v>
       </c>
       <c r="G97">
-        <v>88658</v>
+        <v>177121</v>
       </c>
       <c r="H97">
         <v>83137</v>
@@ -4729,7 +4736,7 @@
         <v>254.5</v>
       </c>
       <c r="G98">
-        <v>88038</v>
+        <v>176413</v>
       </c>
       <c r="H98">
         <v>82306</v>
@@ -4761,7 +4768,7 @@
         <v>256.5</v>
       </c>
       <c r="G99">
-        <v>87422</v>
+        <v>175707</v>
       </c>
       <c r="H99">
         <v>81483</v>
@@ -4793,7 +4800,7 @@
         <v>258.5</v>
       </c>
       <c r="G100">
-        <v>86810</v>
+        <v>175004</v>
       </c>
       <c r="H100">
         <v>80668</v>
@@ -4803,6 +4810,1236 @@
       </c>
       <c r="J100">
         <v>5377</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D881156-AFB9-49A7-9635-2EF4A17D82DB}">
+  <dimension ref="A1:B152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>150</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>149</v>
+      </c>
+      <c r="B3">
+        <v>0.9819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>148</v>
+      </c>
+      <c r="B4">
+        <v>0.96419999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>147</v>
+      </c>
+      <c r="B5">
+        <v>0.94679999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>146</v>
+      </c>
+      <c r="B6">
+        <v>0.92969999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>145</v>
+      </c>
+      <c r="B7">
+        <v>0.91290000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>144</v>
+      </c>
+      <c r="B8">
+        <v>0.89639999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>143</v>
+      </c>
+      <c r="B9">
+        <v>0.88019999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>142</v>
+      </c>
+      <c r="B10">
+        <v>0.86429999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>141</v>
+      </c>
+      <c r="B11">
+        <v>0.84870000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>140</v>
+      </c>
+      <c r="B12">
+        <v>0.83330000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>139</v>
+      </c>
+      <c r="B13">
+        <v>0.81830000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>138</v>
+      </c>
+      <c r="B14">
+        <v>0.80349999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>137</v>
+      </c>
+      <c r="B15">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>136</v>
+      </c>
+      <c r="B16">
+        <v>0.77470000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>135</v>
+      </c>
+      <c r="B17">
+        <v>0.76070000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>134</v>
+      </c>
+      <c r="B18">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>133</v>
+      </c>
+      <c r="B19">
+        <v>0.73350000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>132</v>
+      </c>
+      <c r="B20">
+        <v>0.72019999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>131</v>
+      </c>
+      <c r="B21">
+        <v>0.70720000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>130</v>
+      </c>
+      <c r="B22">
+        <v>0.69440000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>129</v>
+      </c>
+      <c r="B23">
+        <v>0.68189999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>128</v>
+      </c>
+      <c r="B24">
+        <v>0.66959999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>127</v>
+      </c>
+      <c r="B25">
+        <v>0.65749999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>126</v>
+      </c>
+      <c r="B26">
+        <v>0.64559999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>125</v>
+      </c>
+      <c r="B27">
+        <v>0.63390000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>124</v>
+      </c>
+      <c r="B28">
+        <v>0.62250000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>123</v>
+      </c>
+      <c r="B29">
+        <v>0.61119999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>122</v>
+      </c>
+      <c r="B30">
+        <v>0.60019999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>121</v>
+      </c>
+      <c r="B31">
+        <v>0.58940000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>120</v>
+      </c>
+      <c r="B32">
+        <v>0.57869999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>119</v>
+      </c>
+      <c r="B33">
+        <v>0.56820000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>118</v>
+      </c>
+      <c r="B34">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>117</v>
+      </c>
+      <c r="B35">
+        <v>0.54790000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>116</v>
+      </c>
+      <c r="B36">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>115</v>
+      </c>
+      <c r="B37">
+        <v>0.52829999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>114</v>
+      </c>
+      <c r="B38">
+        <v>0.51870000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>113</v>
+      </c>
+      <c r="B39">
+        <v>0.50939999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>112</v>
+      </c>
+      <c r="B40">
+        <v>0.50019999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>111</v>
+      </c>
+      <c r="B41">
+        <v>0.49109999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>110</v>
+      </c>
+      <c r="B42">
+        <v>0.48230000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>109</v>
+      </c>
+      <c r="B43">
+        <v>0.47349999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>108</v>
+      </c>
+      <c r="B44">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>107</v>
+      </c>
+      <c r="B45">
+        <v>0.45660000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>106</v>
+      </c>
+      <c r="B46">
+        <v>0.44829999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>105</v>
+      </c>
+      <c r="B47">
+        <v>0.44019999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>104</v>
+      </c>
+      <c r="B48">
+        <v>0.43230000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>103</v>
+      </c>
+      <c r="B49">
+        <v>0.42449999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>102</v>
+      </c>
+      <c r="B50">
+        <v>0.4168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>101</v>
+      </c>
+      <c r="B51">
+        <v>0.4093</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>100</v>
+      </c>
+      <c r="B52">
+        <v>0.40189999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>99</v>
+      </c>
+      <c r="B53">
+        <v>0.39460000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>98</v>
+      </c>
+      <c r="B54">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>97</v>
+      </c>
+      <c r="B55">
+        <v>0.3805</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>96</v>
+      </c>
+      <c r="B56">
+        <v>0.37359999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>95</v>
+      </c>
+      <c r="B57">
+        <v>0.3669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>94</v>
+      </c>
+      <c r="B58">
+        <v>0.36020000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>93</v>
+      </c>
+      <c r="B59">
+        <v>0.35370000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>92</v>
+      </c>
+      <c r="B60">
+        <v>0.3473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>91</v>
+      </c>
+      <c r="B61">
+        <v>0.34110000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>90</v>
+      </c>
+      <c r="B62">
+        <v>0.33489999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>89</v>
+      </c>
+      <c r="B63">
+        <v>0.32879999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>88</v>
+      </c>
+      <c r="B64">
+        <v>0.32290000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>87</v>
+      </c>
+      <c r="B65">
+        <v>0.31709999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>86</v>
+      </c>
+      <c r="B66">
+        <v>0.31130000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>85</v>
+      </c>
+      <c r="B67">
+        <v>0.30570000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>84</v>
+      </c>
+      <c r="B68">
+        <v>0.30020000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>83</v>
+      </c>
+      <c r="B69">
+        <v>0.29480000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>82</v>
+      </c>
+      <c r="B70">
+        <v>0.28939999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>81</v>
+      </c>
+      <c r="B71">
+        <v>0.28420000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>0.27910000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>0.26910000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>0.26419999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>0.25950000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.25480000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <v>0.25019999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>73</v>
+      </c>
+      <c r="B79">
+        <v>0.24560000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>72</v>
+      </c>
+      <c r="B80">
+        <v>0.2412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>71</v>
+      </c>
+      <c r="B81">
+        <v>0.23680000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>70</v>
+      </c>
+      <c r="B82">
+        <v>0.2326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>69</v>
+      </c>
+      <c r="B83">
+        <v>0.22839999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>68</v>
+      </c>
+      <c r="B84">
+        <v>0.22420000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>67</v>
+      </c>
+      <c r="B85">
+        <v>0.22020000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>66</v>
+      </c>
+      <c r="B86">
+        <v>0.2162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>65</v>
+      </c>
+      <c r="B87">
+        <v>0.21229999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>64</v>
+      </c>
+      <c r="B88">
+        <v>0.20849999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>63</v>
+      </c>
+      <c r="B89">
+        <v>0.20469999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>62</v>
+      </c>
+      <c r="B90">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>61</v>
+      </c>
+      <c r="B91">
+        <v>0.19739999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>60</v>
+      </c>
+      <c r="B92">
+        <v>0.1938</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>59</v>
+      </c>
+      <c r="B93">
+        <v>0.1903</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>58</v>
+      </c>
+      <c r="B94">
+        <v>0.18690000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>57</v>
+      </c>
+      <c r="B95">
+        <v>0.1835</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>56</v>
+      </c>
+      <c r="B96">
+        <v>0.1802</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>55</v>
+      </c>
+      <c r="B97">
+        <v>0.1769</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>54</v>
+      </c>
+      <c r="B98">
+        <v>0.17369999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>53</v>
+      </c>
+      <c r="B99">
+        <v>0.1706</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>52</v>
+      </c>
+      <c r="B100">
+        <v>0.16750000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>51</v>
+      </c>
+      <c r="B101">
+        <v>0.16450000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>50</v>
+      </c>
+      <c r="B102">
+        <v>0.1615</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>49</v>
+      </c>
+      <c r="B103">
+        <v>0.15859999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>48</v>
+      </c>
+      <c r="B104">
+        <v>0.15570000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>47</v>
+      </c>
+      <c r="B105">
+        <v>0.15290000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>46</v>
+      </c>
+      <c r="B106">
+        <v>0.15010000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>45</v>
+      </c>
+      <c r="B107">
+        <v>0.1474</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>44</v>
+      </c>
+      <c r="B108">
+        <v>0.14480000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>43</v>
+      </c>
+      <c r="B109">
+        <v>0.14219999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>42</v>
+      </c>
+      <c r="B110">
+        <v>0.1396</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>41</v>
+      </c>
+      <c r="B111">
+        <v>0.1371</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>40</v>
+      </c>
+      <c r="B112">
+        <v>0.1346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>39</v>
+      </c>
+      <c r="B113">
+        <v>0.13220000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>38</v>
+      </c>
+      <c r="B114">
+        <v>0.1298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>37</v>
+      </c>
+      <c r="B115">
+        <v>0.12740000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>36</v>
+      </c>
+      <c r="B116">
+        <v>0.12509999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>35</v>
+      </c>
+      <c r="B117">
+        <v>0.1229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>34</v>
+      </c>
+      <c r="B118">
+        <v>0.1206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>33</v>
+      </c>
+      <c r="B119">
+        <v>0.11849999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>32</v>
+      </c>
+      <c r="B120">
+        <v>0.1163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>31</v>
+      </c>
+      <c r="B121">
+        <v>0.1142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>30</v>
+      </c>
+      <c r="B122">
+        <v>0.11219999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>29</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>28</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>27</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>26</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>25</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>24</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>23</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>22</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>21</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>20</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>19</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>18</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>17</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>16</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>15</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>14</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>13</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>12</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>11</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>10</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>9</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>8</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>7</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>4</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B09A68-46A2-437B-8A4E-20D3C00C6CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F058493D-6D34-4FA5-B5E7-4701C05BB61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>level|Int</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>adjustWeight|Float</t>
+  </si>
+  <si>
+    <t>keySubtract|Int</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1612,7 +1615,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1635,16 +1638,19 @@
         <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1667,16 +1673,19 @@
         <v>259200</v>
       </c>
       <c r="H2">
-        <v>216000</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>216000</v>
       </c>
       <c r="J2">
+        <v>216000</v>
+      </c>
+      <c r="K2">
         <v>14400</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1699,16 +1708,19 @@
         <v>258163</v>
       </c>
       <c r="H3">
-        <v>213840</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>213840</v>
       </c>
       <c r="J3">
+        <v>213840</v>
+      </c>
+      <c r="K3">
         <v>14256</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1731,16 +1743,19 @@
         <v>257130</v>
       </c>
       <c r="H4">
-        <v>211701</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>211701</v>
       </c>
       <c r="J4">
+        <v>211701</v>
+      </c>
+      <c r="K4">
         <v>14113</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1763,16 +1778,19 @@
         <v>256102</v>
       </c>
       <c r="H5">
-        <v>209584</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>209584</v>
       </c>
       <c r="J5">
+        <v>209584</v>
+      </c>
+      <c r="K5">
         <v>13972</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1795,16 +1813,19 @@
         <v>255077</v>
       </c>
       <c r="H6">
-        <v>207488</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>207488</v>
       </c>
       <c r="J6">
+        <v>207488</v>
+      </c>
+      <c r="K6">
         <v>13832</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1827,16 +1848,19 @@
         <v>254057</v>
       </c>
       <c r="H7">
-        <v>205413</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>205413</v>
       </c>
       <c r="J7">
+        <v>205413</v>
+      </c>
+      <c r="K7">
         <v>13694</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1859,16 +1883,19 @@
         <v>253041</v>
       </c>
       <c r="H8">
-        <v>203359</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>203359</v>
       </c>
       <c r="J8">
+        <v>203359</v>
+      </c>
+      <c r="K8">
         <v>13557</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1891,16 +1918,19 @@
         <v>252028</v>
       </c>
       <c r="H9">
-        <v>201326</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <v>201326</v>
       </c>
       <c r="J9">
+        <v>201326</v>
+      </c>
+      <c r="K9">
         <v>13421</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1923,16 +1953,19 @@
         <v>251020</v>
       </c>
       <c r="H10">
-        <v>199312</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>199312</v>
       </c>
       <c r="J10">
+        <v>199312</v>
+      </c>
+      <c r="K10">
         <v>13287</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1955,16 +1988,19 @@
         <v>250016</v>
       </c>
       <c r="H11">
-        <v>197319</v>
+        <v>30</v>
       </c>
       <c r="I11">
         <v>197319</v>
       </c>
       <c r="J11">
+        <v>197319</v>
+      </c>
+      <c r="K11">
         <v>13154</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1987,16 +2023,19 @@
         <v>249016</v>
       </c>
       <c r="H12">
-        <v>195346</v>
+        <v>30</v>
       </c>
       <c r="I12">
         <v>195346</v>
       </c>
       <c r="J12">
+        <v>195346</v>
+      </c>
+      <c r="K12">
         <v>13023</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2019,16 +2058,19 @@
         <v>248020</v>
       </c>
       <c r="H13">
-        <v>193393</v>
+        <v>30</v>
       </c>
       <c r="I13">
         <v>193393</v>
       </c>
       <c r="J13">
+        <v>193393</v>
+      </c>
+      <c r="K13">
         <v>12892</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2051,16 +2093,19 @@
         <v>247028</v>
       </c>
       <c r="H14">
-        <v>191459</v>
+        <v>30</v>
       </c>
       <c r="I14">
         <v>191459</v>
       </c>
       <c r="J14">
+        <v>191459</v>
+      </c>
+      <c r="K14">
         <v>12763</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2083,16 +2128,19 @@
         <v>246040</v>
       </c>
       <c r="H15">
-        <v>189544</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <v>189544</v>
       </c>
       <c r="J15">
+        <v>189544</v>
+      </c>
+      <c r="K15">
         <v>12636</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2115,16 +2163,19 @@
         <v>245056</v>
       </c>
       <c r="H16">
-        <v>187649</v>
+        <v>30</v>
       </c>
       <c r="I16">
         <v>187649</v>
       </c>
       <c r="J16">
+        <v>187649</v>
+      </c>
+      <c r="K16">
         <v>12509</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2147,16 +2198,19 @@
         <v>244075</v>
       </c>
       <c r="H17">
-        <v>185772</v>
+        <v>30</v>
       </c>
       <c r="I17">
         <v>185772</v>
       </c>
       <c r="J17">
+        <v>185772</v>
+      </c>
+      <c r="K17">
         <v>12384</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2179,16 +2233,19 @@
         <v>243099</v>
       </c>
       <c r="H18">
-        <v>183914</v>
+        <v>30</v>
       </c>
       <c r="I18">
         <v>183914</v>
       </c>
       <c r="J18">
+        <v>183914</v>
+      </c>
+      <c r="K18">
         <v>12260</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2211,16 +2268,19 @@
         <v>242127</v>
       </c>
       <c r="H19">
-        <v>182075</v>
+        <v>30</v>
       </c>
       <c r="I19">
         <v>182075</v>
       </c>
       <c r="J19">
+        <v>182075</v>
+      </c>
+      <c r="K19">
         <v>12138</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2243,16 +2303,19 @@
         <v>241158</v>
       </c>
       <c r="H20">
-        <v>180254</v>
+        <v>30</v>
       </c>
       <c r="I20">
         <v>180254</v>
       </c>
       <c r="J20">
+        <v>180254</v>
+      </c>
+      <c r="K20">
         <v>12016</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2275,16 +2338,19 @@
         <v>240194</v>
       </c>
       <c r="H21">
-        <v>178452</v>
+        <v>30</v>
       </c>
       <c r="I21">
         <v>178452</v>
       </c>
       <c r="J21">
+        <v>178452</v>
+      </c>
+      <c r="K21">
         <v>11896</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2307,16 +2373,19 @@
         <v>239233</v>
       </c>
       <c r="H22">
-        <v>176667</v>
+        <v>30</v>
       </c>
       <c r="I22">
         <v>176667</v>
       </c>
       <c r="J22">
+        <v>176667</v>
+      </c>
+      <c r="K22">
         <v>11777</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2339,16 +2408,19 @@
         <v>238276</v>
       </c>
       <c r="H23">
-        <v>174901</v>
+        <v>30</v>
       </c>
       <c r="I23">
         <v>174901</v>
       </c>
       <c r="J23">
+        <v>174901</v>
+      </c>
+      <c r="K23">
         <v>11660</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2371,16 +2443,19 @@
         <v>237323</v>
       </c>
       <c r="H24">
-        <v>173152</v>
+        <v>30</v>
       </c>
       <c r="I24">
         <v>173152</v>
       </c>
       <c r="J24">
+        <v>173152</v>
+      </c>
+      <c r="K24">
         <v>11543</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2403,16 +2478,19 @@
         <v>236374</v>
       </c>
       <c r="H25">
-        <v>171420</v>
+        <v>30</v>
       </c>
       <c r="I25">
         <v>171420</v>
       </c>
       <c r="J25">
+        <v>171420</v>
+      </c>
+      <c r="K25">
         <v>11428</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2435,16 +2513,19 @@
         <v>235428</v>
       </c>
       <c r="H26">
-        <v>169706</v>
+        <v>30</v>
       </c>
       <c r="I26">
         <v>169706</v>
       </c>
       <c r="J26">
+        <v>169706</v>
+      </c>
+      <c r="K26">
         <v>11313</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2467,16 +2548,19 @@
         <v>234486</v>
       </c>
       <c r="H27">
-        <v>168009</v>
+        <v>30</v>
       </c>
       <c r="I27">
         <v>168009</v>
       </c>
       <c r="J27">
+        <v>168009</v>
+      </c>
+      <c r="K27">
         <v>11200</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2499,16 +2583,19 @@
         <v>233548</v>
       </c>
       <c r="H28">
-        <v>166329</v>
+        <v>30</v>
       </c>
       <c r="I28">
         <v>166329</v>
       </c>
       <c r="J28">
+        <v>166329</v>
+      </c>
+      <c r="K28">
         <v>11088</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2531,16 +2618,19 @@
         <v>232614</v>
       </c>
       <c r="H29">
-        <v>164666</v>
+        <v>30</v>
       </c>
       <c r="I29">
         <v>164666</v>
       </c>
       <c r="J29">
+        <v>164666</v>
+      </c>
+      <c r="K29">
         <v>10977</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2563,16 +2653,19 @@
         <v>231684</v>
       </c>
       <c r="H30">
-        <v>163019</v>
+        <v>30</v>
       </c>
       <c r="I30">
         <v>163019</v>
       </c>
       <c r="J30">
+        <v>163019</v>
+      </c>
+      <c r="K30">
         <v>10867</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2595,16 +2688,19 @@
         <v>230757</v>
       </c>
       <c r="H31">
-        <v>161389</v>
+        <v>30</v>
       </c>
       <c r="I31">
         <v>161389</v>
       </c>
       <c r="J31">
+        <v>161389</v>
+      </c>
+      <c r="K31">
         <v>10759</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2627,16 +2723,19 @@
         <v>229834</v>
       </c>
       <c r="H32">
-        <v>159775</v>
+        <v>30</v>
       </c>
       <c r="I32">
         <v>159775</v>
       </c>
       <c r="J32">
+        <v>159775</v>
+      </c>
+      <c r="K32">
         <v>10651</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2659,16 +2758,19 @@
         <v>228915</v>
       </c>
       <c r="H33">
-        <v>158177</v>
+        <v>30</v>
       </c>
       <c r="I33">
         <v>158177</v>
       </c>
       <c r="J33">
+        <v>158177</v>
+      </c>
+      <c r="K33">
         <v>10545</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2691,16 +2793,19 @@
         <v>227999</v>
       </c>
       <c r="H34">
-        <v>156595</v>
+        <v>30</v>
       </c>
       <c r="I34">
         <v>156595</v>
       </c>
       <c r="J34">
+        <v>156595</v>
+      </c>
+      <c r="K34">
         <v>10439</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2723,16 +2828,19 @@
         <v>227087</v>
       </c>
       <c r="H35">
-        <v>155029</v>
+        <v>30</v>
       </c>
       <c r="I35">
         <v>155029</v>
       </c>
       <c r="J35">
+        <v>155029</v>
+      </c>
+      <c r="K35">
         <v>10335</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2755,16 +2863,19 @@
         <v>226179</v>
       </c>
       <c r="H36">
-        <v>153479</v>
+        <v>30</v>
       </c>
       <c r="I36">
         <v>153479</v>
       </c>
       <c r="J36">
+        <v>153479</v>
+      </c>
+      <c r="K36">
         <v>10231</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2787,16 +2898,19 @@
         <v>225274</v>
       </c>
       <c r="H37">
-        <v>151944</v>
+        <v>30</v>
       </c>
       <c r="I37">
         <v>151944</v>
       </c>
       <c r="J37">
+        <v>151944</v>
+      </c>
+      <c r="K37">
         <v>10129</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2819,16 +2933,19 @@
         <v>224373</v>
       </c>
       <c r="H38">
-        <v>150425</v>
+        <v>30</v>
       </c>
       <c r="I38">
         <v>150425</v>
       </c>
       <c r="J38">
+        <v>150425</v>
+      </c>
+      <c r="K38">
         <v>10028</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2851,16 +2968,19 @@
         <v>223475</v>
       </c>
       <c r="H39">
-        <v>148921</v>
+        <v>30</v>
       </c>
       <c r="I39">
         <v>148921</v>
       </c>
       <c r="J39">
+        <v>148921</v>
+      </c>
+      <c r="K39">
         <v>9928</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2883,16 +3003,19 @@
         <v>222581</v>
       </c>
       <c r="H40">
-        <v>147431</v>
+        <v>30</v>
       </c>
       <c r="I40">
         <v>147431</v>
       </c>
       <c r="J40">
+        <v>147431</v>
+      </c>
+      <c r="K40">
         <v>9828</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2915,16 +3038,19 @@
         <v>221691</v>
       </c>
       <c r="H41">
-        <v>145957</v>
+        <v>30</v>
       </c>
       <c r="I41">
         <v>145957</v>
       </c>
       <c r="J41">
+        <v>145957</v>
+      </c>
+      <c r="K41">
         <v>9730</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2947,16 +3073,19 @@
         <v>220804</v>
       </c>
       <c r="H42">
-        <v>144497</v>
+        <v>30</v>
       </c>
       <c r="I42">
         <v>144497</v>
       </c>
       <c r="J42">
+        <v>144497</v>
+      </c>
+      <c r="K42">
         <v>9633</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2979,16 +3108,19 @@
         <v>219921</v>
       </c>
       <c r="H43">
-        <v>143052</v>
+        <v>30</v>
       </c>
       <c r="I43">
         <v>143052</v>
       </c>
       <c r="J43">
+        <v>143052</v>
+      </c>
+      <c r="K43">
         <v>9536</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3011,16 +3143,19 @@
         <v>219041</v>
       </c>
       <c r="H44">
-        <v>141622</v>
+        <v>30</v>
       </c>
       <c r="I44">
         <v>141622</v>
       </c>
       <c r="J44">
+        <v>141622</v>
+      </c>
+      <c r="K44">
         <v>9441</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3043,16 +3178,19 @@
         <v>218165</v>
       </c>
       <c r="H45">
-        <v>140206</v>
+        <v>30</v>
       </c>
       <c r="I45">
         <v>140206</v>
       </c>
       <c r="J45">
+        <v>140206</v>
+      </c>
+      <c r="K45">
         <v>9347</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3075,16 +3213,19 @@
         <v>217293</v>
       </c>
       <c r="H46">
-        <v>138804</v>
+        <v>30</v>
       </c>
       <c r="I46">
         <v>138804</v>
       </c>
       <c r="J46">
+        <v>138804</v>
+      </c>
+      <c r="K46">
         <v>9253</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3107,16 +3248,19 @@
         <v>216423</v>
       </c>
       <c r="H47">
-        <v>137416</v>
+        <v>30</v>
       </c>
       <c r="I47">
         <v>137416</v>
       </c>
       <c r="J47">
+        <v>137416</v>
+      </c>
+      <c r="K47">
         <v>9161</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3139,16 +3283,19 @@
         <v>215558</v>
       </c>
       <c r="H48">
-        <v>136041</v>
+        <v>30</v>
       </c>
       <c r="I48">
         <v>136041</v>
       </c>
       <c r="J48">
+        <v>136041</v>
+      </c>
+      <c r="K48">
         <v>9069</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3171,16 +3318,19 @@
         <v>214695</v>
       </c>
       <c r="H49">
-        <v>134681</v>
+        <v>30</v>
       </c>
       <c r="I49">
         <v>134681</v>
       </c>
       <c r="J49">
+        <v>134681</v>
+      </c>
+      <c r="K49">
         <v>8978</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3203,16 +3353,19 @@
         <v>213837</v>
       </c>
       <c r="H50">
-        <v>133334</v>
+        <v>30</v>
       </c>
       <c r="I50">
         <v>133334</v>
       </c>
       <c r="J50">
+        <v>133334</v>
+      </c>
+      <c r="K50">
         <v>8888</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3235,16 +3388,19 @@
         <v>212981</v>
       </c>
       <c r="H51">
-        <v>132001</v>
+        <v>25</v>
       </c>
       <c r="I51">
         <v>132001</v>
       </c>
       <c r="J51">
+        <v>132001</v>
+      </c>
+      <c r="K51">
         <v>8800</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3267,16 +3423,19 @@
         <v>212129</v>
       </c>
       <c r="H52">
-        <v>130681</v>
+        <v>25</v>
       </c>
       <c r="I52">
         <v>130681</v>
       </c>
       <c r="J52">
+        <v>130681</v>
+      </c>
+      <c r="K52">
         <v>8712</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3299,16 +3458,19 @@
         <v>211281</v>
       </c>
       <c r="H53">
-        <v>129374</v>
+        <v>25</v>
       </c>
       <c r="I53">
         <v>129374</v>
       </c>
       <c r="J53">
+        <v>129374</v>
+      </c>
+      <c r="K53">
         <v>8624</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3331,16 +3493,19 @@
         <v>210436</v>
       </c>
       <c r="H54">
-        <v>128080</v>
+        <v>25</v>
       </c>
       <c r="I54">
         <v>128080</v>
       </c>
       <c r="J54">
+        <v>128080</v>
+      </c>
+      <c r="K54">
         <v>8538</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3363,16 +3528,19 @@
         <v>209594</v>
       </c>
       <c r="H55">
-        <v>126799</v>
+        <v>25</v>
       </c>
       <c r="I55">
         <v>126799</v>
       </c>
       <c r="J55">
+        <v>126799</v>
+      </c>
+      <c r="K55">
         <v>8453</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3395,16 +3563,19 @@
         <v>208756</v>
       </c>
       <c r="H56">
-        <v>125531</v>
+        <v>25</v>
       </c>
       <c r="I56">
         <v>125531</v>
       </c>
       <c r="J56">
+        <v>125531</v>
+      </c>
+      <c r="K56">
         <v>8368</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3427,16 +3598,19 @@
         <v>207921</v>
       </c>
       <c r="H57">
-        <v>124276</v>
+        <v>25</v>
       </c>
       <c r="I57">
         <v>124276</v>
       </c>
       <c r="J57">
+        <v>124276</v>
+      </c>
+      <c r="K57">
         <v>8285</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3459,16 +3633,19 @@
         <v>207089</v>
       </c>
       <c r="H58">
-        <v>123033</v>
+        <v>25</v>
       </c>
       <c r="I58">
         <v>123033</v>
       </c>
       <c r="J58">
+        <v>123033</v>
+      </c>
+      <c r="K58">
         <v>8202</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3491,16 +3668,19 @@
         <v>206261</v>
       </c>
       <c r="H59">
-        <v>121803</v>
+        <v>25</v>
       </c>
       <c r="I59">
         <v>121803</v>
       </c>
       <c r="J59">
+        <v>121803</v>
+      </c>
+      <c r="K59">
         <v>8120</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3523,16 +3703,19 @@
         <v>205436</v>
       </c>
       <c r="H60">
-        <v>120585</v>
+        <v>25</v>
       </c>
       <c r="I60">
         <v>120585</v>
       </c>
       <c r="J60">
+        <v>120585</v>
+      </c>
+      <c r="K60">
         <v>8039</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3555,16 +3738,19 @@
         <v>204614</v>
       </c>
       <c r="H61">
-        <v>119379</v>
+        <v>24</v>
       </c>
       <c r="I61">
         <v>119379</v>
       </c>
       <c r="J61">
+        <v>119379</v>
+      </c>
+      <c r="K61">
         <v>7958</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3587,16 +3773,19 @@
         <v>203795</v>
       </c>
       <c r="H62">
-        <v>118185</v>
+        <v>24</v>
       </c>
       <c r="I62">
         <v>118185</v>
       </c>
       <c r="J62">
+        <v>118185</v>
+      </c>
+      <c r="K62">
         <v>7879</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3619,16 +3808,19 @@
         <v>202980</v>
       </c>
       <c r="H63">
-        <v>117003</v>
+        <v>24</v>
       </c>
       <c r="I63">
         <v>117003</v>
       </c>
       <c r="J63">
+        <v>117003</v>
+      </c>
+      <c r="K63">
         <v>7800</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3651,16 +3843,19 @@
         <v>202168</v>
       </c>
       <c r="H64">
-        <v>115833</v>
+        <v>24</v>
       </c>
       <c r="I64">
         <v>115833</v>
       </c>
       <c r="J64">
+        <v>115833</v>
+      </c>
+      <c r="K64">
         <v>7722</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3683,16 +3878,19 @@
         <v>201360</v>
       </c>
       <c r="H65">
-        <v>114675</v>
+        <v>24</v>
       </c>
       <c r="I65">
         <v>114675</v>
       </c>
       <c r="J65">
+        <v>114675</v>
+      </c>
+      <c r="K65">
         <v>7645</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3715,16 +3913,19 @@
         <v>200554</v>
       </c>
       <c r="H66">
-        <v>113528</v>
+        <v>24</v>
       </c>
       <c r="I66">
         <v>113528</v>
       </c>
       <c r="J66">
+        <v>113528</v>
+      </c>
+      <c r="K66">
         <v>7568</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3747,16 +3948,19 @@
         <v>199752</v>
       </c>
       <c r="H67">
-        <v>112393</v>
+        <v>24</v>
       </c>
       <c r="I67">
         <v>112393</v>
       </c>
       <c r="J67">
+        <v>112393</v>
+      </c>
+      <c r="K67">
         <v>7492</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3779,16 +3983,19 @@
         <v>198953</v>
       </c>
       <c r="H68">
-        <v>111269</v>
+        <v>24</v>
       </c>
       <c r="I68">
         <v>111269</v>
       </c>
       <c r="J68">
+        <v>111269</v>
+      </c>
+      <c r="K68">
         <v>7417</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3811,16 +4018,19 @@
         <v>198157</v>
       </c>
       <c r="H69">
-        <v>110156</v>
+        <v>24</v>
       </c>
       <c r="I69">
         <v>110156</v>
       </c>
       <c r="J69">
+        <v>110156</v>
+      </c>
+      <c r="K69">
         <v>7343</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3843,16 +4053,19 @@
         <v>197364</v>
       </c>
       <c r="H70">
-        <v>109055</v>
+        <v>24</v>
       </c>
       <c r="I70">
         <v>109055</v>
       </c>
       <c r="J70">
+        <v>109055</v>
+      </c>
+      <c r="K70">
         <v>7270</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3875,16 +4088,19 @@
         <v>196575</v>
       </c>
       <c r="H71">
-        <v>107964</v>
+        <v>23</v>
       </c>
       <c r="I71">
         <v>107964</v>
       </c>
       <c r="J71">
+        <v>107964</v>
+      </c>
+      <c r="K71">
         <v>7197</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3907,16 +4123,19 @@
         <v>195789</v>
       </c>
       <c r="H72">
-        <v>106885</v>
+        <v>23</v>
       </c>
       <c r="I72">
         <v>106885</v>
       </c>
       <c r="J72">
+        <v>106885</v>
+      </c>
+      <c r="K72">
         <v>7125</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3939,16 +4158,19 @@
         <v>195006</v>
       </c>
       <c r="H73">
-        <v>105816</v>
+        <v>23</v>
       </c>
       <c r="I73">
         <v>105816</v>
       </c>
       <c r="J73">
+        <v>105816</v>
+      </c>
+      <c r="K73">
         <v>7054</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3971,16 +4193,19 @@
         <v>194225</v>
       </c>
       <c r="H74">
-        <v>104758</v>
+        <v>23</v>
       </c>
       <c r="I74">
         <v>104758</v>
       </c>
       <c r="J74">
+        <v>104758</v>
+      </c>
+      <c r="K74">
         <v>6983</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4003,16 +4228,19 @@
         <v>193449</v>
       </c>
       <c r="H75">
-        <v>103710</v>
+        <v>23</v>
       </c>
       <c r="I75">
         <v>103710</v>
       </c>
       <c r="J75">
+        <v>103710</v>
+      </c>
+      <c r="K75">
         <v>6914</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4035,16 +4263,19 @@
         <v>192675</v>
       </c>
       <c r="H76">
-        <v>102673</v>
+        <v>23</v>
       </c>
       <c r="I76">
         <v>102673</v>
       </c>
       <c r="J76">
+        <v>102673</v>
+      </c>
+      <c r="K76">
         <v>6844</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4067,16 +4298,19 @@
         <v>191904</v>
       </c>
       <c r="H77">
-        <v>101646</v>
+        <v>23</v>
       </c>
       <c r="I77">
         <v>101646</v>
       </c>
       <c r="J77">
+        <v>101646</v>
+      </c>
+      <c r="K77">
         <v>6776</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4099,16 +4333,19 @@
         <v>191136</v>
       </c>
       <c r="H78">
-        <v>100630</v>
+        <v>23</v>
       </c>
       <c r="I78">
         <v>100630</v>
       </c>
       <c r="J78">
+        <v>100630</v>
+      </c>
+      <c r="K78">
         <v>6708</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4131,16 +4368,19 @@
         <v>190372</v>
       </c>
       <c r="H79">
-        <v>99623</v>
+        <v>23</v>
       </c>
       <c r="I79">
         <v>99623</v>
       </c>
       <c r="J79">
+        <v>99623</v>
+      </c>
+      <c r="K79">
         <v>6641</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4163,16 +4403,19 @@
         <v>189610</v>
       </c>
       <c r="H80">
-        <v>98627</v>
+        <v>23</v>
       </c>
       <c r="I80">
         <v>98627</v>
       </c>
       <c r="J80">
+        <v>98627</v>
+      </c>
+      <c r="K80">
         <v>6575</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4195,16 +4438,19 @@
         <v>188852</v>
       </c>
       <c r="H81">
-        <v>97641</v>
+        <v>22</v>
       </c>
       <c r="I81">
         <v>97641</v>
       </c>
       <c r="J81">
+        <v>97641</v>
+      </c>
+      <c r="K81">
         <v>6509</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4227,16 +4473,19 @@
         <v>188097</v>
       </c>
       <c r="H82">
-        <v>96665</v>
+        <v>22</v>
       </c>
       <c r="I82">
         <v>96665</v>
       </c>
       <c r="J82">
+        <v>96665</v>
+      </c>
+      <c r="K82">
         <v>6444</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4259,16 +4508,19 @@
         <v>187344</v>
       </c>
       <c r="H83">
-        <v>95698</v>
+        <v>22</v>
       </c>
       <c r="I83">
         <v>95698</v>
       </c>
       <c r="J83">
+        <v>95698</v>
+      </c>
+      <c r="K83">
         <v>6379</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4291,16 +4543,19 @@
         <v>186595</v>
       </c>
       <c r="H84">
-        <v>94741</v>
+        <v>22</v>
       </c>
       <c r="I84">
         <v>94741</v>
       </c>
       <c r="J84">
+        <v>94741</v>
+      </c>
+      <c r="K84">
         <v>6316</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4323,16 +4578,19 @@
         <v>185848</v>
       </c>
       <c r="H85">
-        <v>93793</v>
+        <v>22</v>
       </c>
       <c r="I85">
         <v>93793</v>
       </c>
       <c r="J85">
+        <v>93793</v>
+      </c>
+      <c r="K85">
         <v>6252</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4355,16 +4613,19 @@
         <v>185105</v>
       </c>
       <c r="H86">
-        <v>92856</v>
+        <v>22</v>
       </c>
       <c r="I86">
         <v>92856</v>
       </c>
       <c r="J86">
+        <v>92856</v>
+      </c>
+      <c r="K86">
         <v>6190</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4387,16 +4648,19 @@
         <v>184365</v>
       </c>
       <c r="H87">
-        <v>91927</v>
+        <v>22</v>
       </c>
       <c r="I87">
         <v>91927</v>
       </c>
       <c r="J87">
+        <v>91927</v>
+      </c>
+      <c r="K87">
         <v>6128</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4419,16 +4683,19 @@
         <v>183627</v>
       </c>
       <c r="H88">
-        <v>91008</v>
+        <v>22</v>
       </c>
       <c r="I88">
         <v>91008</v>
       </c>
       <c r="J88">
+        <v>91008</v>
+      </c>
+      <c r="K88">
         <v>6067</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4451,16 +4718,19 @@
         <v>182893</v>
       </c>
       <c r="H89">
-        <v>90098</v>
+        <v>22</v>
       </c>
       <c r="I89">
         <v>90098</v>
       </c>
       <c r="J89">
+        <v>90098</v>
+      </c>
+      <c r="K89">
         <v>6006</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4483,16 +4753,19 @@
         <v>182161</v>
       </c>
       <c r="H90">
-        <v>89197</v>
+        <v>22</v>
       </c>
       <c r="I90">
         <v>89197</v>
       </c>
       <c r="J90">
+        <v>89197</v>
+      </c>
+      <c r="K90">
         <v>5946</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4515,16 +4788,19 @@
         <v>181432</v>
       </c>
       <c r="H91">
-        <v>88305</v>
+        <v>21</v>
       </c>
       <c r="I91">
         <v>88305</v>
       </c>
       <c r="J91">
+        <v>88305</v>
+      </c>
+      <c r="K91">
         <v>5887</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4547,16 +4823,19 @@
         <v>180707</v>
       </c>
       <c r="H92">
-        <v>87422</v>
+        <v>21</v>
       </c>
       <c r="I92">
         <v>87422</v>
       </c>
       <c r="J92">
+        <v>87422</v>
+      </c>
+      <c r="K92">
         <v>5828</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4579,16 +4858,19 @@
         <v>179984</v>
       </c>
       <c r="H93">
-        <v>86547</v>
+        <v>21</v>
       </c>
       <c r="I93">
         <v>86547</v>
       </c>
       <c r="J93">
+        <v>86547</v>
+      </c>
+      <c r="K93">
         <v>5769</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4611,16 +4893,19 @@
         <v>179264</v>
       </c>
       <c r="H94">
-        <v>85682</v>
+        <v>21</v>
       </c>
       <c r="I94">
         <v>85682</v>
       </c>
       <c r="J94">
+        <v>85682</v>
+      </c>
+      <c r="K94">
         <v>5712</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4643,16 +4928,19 @@
         <v>178547</v>
       </c>
       <c r="H95">
-        <v>84825</v>
+        <v>21</v>
       </c>
       <c r="I95">
         <v>84825</v>
       </c>
       <c r="J95">
+        <v>84825</v>
+      </c>
+      <c r="K95">
         <v>5655</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4675,16 +4963,19 @@
         <v>177833</v>
       </c>
       <c r="H96">
-        <v>83977</v>
+        <v>21</v>
       </c>
       <c r="I96">
         <v>83977</v>
       </c>
       <c r="J96">
+        <v>83977</v>
+      </c>
+      <c r="K96">
         <v>5598</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4707,16 +4998,19 @@
         <v>177121</v>
       </c>
       <c r="H97">
-        <v>83137</v>
+        <v>21</v>
       </c>
       <c r="I97">
         <v>83137</v>
       </c>
       <c r="J97">
+        <v>83137</v>
+      </c>
+      <c r="K97">
         <v>5542</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4739,16 +5033,19 @@
         <v>176413</v>
       </c>
       <c r="H98">
-        <v>82306</v>
+        <v>21</v>
       </c>
       <c r="I98">
         <v>82306</v>
       </c>
       <c r="J98">
+        <v>82306</v>
+      </c>
+      <c r="K98">
         <v>5487</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4771,16 +5068,19 @@
         <v>175707</v>
       </c>
       <c r="H99">
-        <v>81483</v>
+        <v>21</v>
       </c>
       <c r="I99">
         <v>81483</v>
       </c>
       <c r="J99">
+        <v>81483</v>
+      </c>
+      <c r="K99">
         <v>5432</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4803,12 +5103,15 @@
         <v>175004</v>
       </c>
       <c r="H100">
-        <v>80668</v>
+        <v>20</v>
       </c>
       <c r="I100">
         <v>80668</v>
       </c>
       <c r="J100">
+        <v>80668</v>
+      </c>
+      <c r="K100">
         <v>5377</v>
       </c>
     </row>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F058493D-6D34-4FA5-B5E7-4701C05BB61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D3BE2-3FB7-4054-AB1C-AB58116A37FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -1670,7 +1670,7 @@
         <v>62.5</v>
       </c>
       <c r="G2">
-        <v>259200</v>
+        <v>86400</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -1705,7 +1705,7 @@
         <v>64.5</v>
       </c>
       <c r="G3">
-        <v>258163</v>
+        <v>85795</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -1740,7 +1740,7 @@
         <v>66.5</v>
       </c>
       <c r="G4">
-        <v>257130</v>
+        <v>85194</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -1769,13 +1769,13 @@
         <v>3600</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>68.5</v>
       </c>
       <c r="G5">
-        <v>256102</v>
+        <v>84598</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -1804,13 +1804,13 @@
         <v>7200</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>70.5</v>
       </c>
       <c r="G6">
-        <v>255077</v>
+        <v>84006</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -1839,13 +1839,13 @@
         <v>10800</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>72.5</v>
       </c>
       <c r="G7">
-        <v>254057</v>
+        <v>83418</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -1874,13 +1874,13 @@
         <v>14400</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>74.5</v>
       </c>
       <c r="G8">
-        <v>253041</v>
+        <v>82834</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -1909,13 +1909,13 @@
         <v>18000</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>76.5</v>
       </c>
       <c r="G9">
-        <v>252028</v>
+        <v>82254</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -1944,13 +1944,13 @@
         <v>21600</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>78.5</v>
       </c>
       <c r="G10">
-        <v>251020</v>
+        <v>81678</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -1979,13 +1979,13 @@
         <v>28800</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>80.5</v>
       </c>
       <c r="G11">
-        <v>250016</v>
+        <v>81106</v>
       </c>
       <c r="H11">
         <v>30</v>
@@ -2014,13 +2014,13 @@
         <v>28800</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>82.5</v>
       </c>
       <c r="G12">
-        <v>249016</v>
+        <v>80538</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -2049,13 +2049,13 @@
         <v>28800</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>84.5</v>
       </c>
       <c r="G13">
-        <v>248020</v>
+        <v>79975</v>
       </c>
       <c r="H13">
         <v>30</v>
@@ -2084,13 +2084,13 @@
         <v>28800</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>86.5</v>
       </c>
       <c r="G14">
-        <v>247028</v>
+        <v>79415</v>
       </c>
       <c r="H14">
         <v>30</v>
@@ -2119,13 +2119,13 @@
         <v>28800</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>88.5</v>
       </c>
       <c r="G15">
-        <v>246040</v>
+        <v>78859</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -2154,13 +2154,13 @@
         <v>28800</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>90.5</v>
       </c>
       <c r="G16">
-        <v>245056</v>
+        <v>78307</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -2189,13 +2189,13 @@
         <v>28800</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>92.5</v>
       </c>
       <c r="G17">
-        <v>244075</v>
+        <v>77759</v>
       </c>
       <c r="H17">
         <v>30</v>
@@ -2224,13 +2224,13 @@
         <v>28800</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>94.5</v>
       </c>
       <c r="G18">
-        <v>243099</v>
+        <v>77215</v>
       </c>
       <c r="H18">
         <v>30</v>
@@ -2259,13 +2259,13 @@
         <v>28800</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>96.5</v>
       </c>
       <c r="G19">
-        <v>242127</v>
+        <v>76674</v>
       </c>
       <c r="H19">
         <v>30</v>
@@ -2294,13 +2294,13 @@
         <v>28800</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>98.5</v>
       </c>
       <c r="G20">
-        <v>241158</v>
+        <v>76137</v>
       </c>
       <c r="H20">
         <v>30</v>
@@ -2329,13 +2329,13 @@
         <v>36000</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>100.5</v>
       </c>
       <c r="G21">
-        <v>240194</v>
+        <v>75604</v>
       </c>
       <c r="H21">
         <v>30</v>
@@ -2364,13 +2364,13 @@
         <v>36000</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>102.5</v>
       </c>
       <c r="G22">
-        <v>239233</v>
+        <v>75075</v>
       </c>
       <c r="H22">
         <v>30</v>
@@ -2399,13 +2399,13 @@
         <v>36000</v>
       </c>
       <c r="E23">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>104.5</v>
       </c>
       <c r="G23">
-        <v>238276</v>
+        <v>74550</v>
       </c>
       <c r="H23">
         <v>30</v>
@@ -2434,13 +2434,13 @@
         <v>36000</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F24">
         <v>106.5</v>
       </c>
       <c r="G24">
-        <v>237323</v>
+        <v>74028</v>
       </c>
       <c r="H24">
         <v>30</v>
@@ -2469,13 +2469,13 @@
         <v>36000</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>108.5</v>
       </c>
       <c r="G25">
-        <v>236374</v>
+        <v>73510</v>
       </c>
       <c r="H25">
         <v>30</v>
@@ -2504,13 +2504,13 @@
         <v>36000</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>110.5</v>
       </c>
       <c r="G26">
-        <v>235428</v>
+        <v>72995</v>
       </c>
       <c r="H26">
         <v>30</v>
@@ -2539,13 +2539,13 @@
         <v>36000</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>112.5</v>
       </c>
       <c r="G27">
-        <v>234486</v>
+        <v>72484</v>
       </c>
       <c r="H27">
         <v>30</v>
@@ -2574,13 +2574,13 @@
         <v>36000</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>114.5</v>
       </c>
       <c r="G28">
-        <v>233548</v>
+        <v>71977</v>
       </c>
       <c r="H28">
         <v>30</v>
@@ -2609,13 +2609,13 @@
         <v>36000</v>
       </c>
       <c r="E29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>116.5</v>
       </c>
       <c r="G29">
-        <v>232614</v>
+        <v>71473</v>
       </c>
       <c r="H29">
         <v>30</v>
@@ -2644,13 +2644,13 @@
         <v>36000</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>118.5</v>
       </c>
       <c r="G30">
-        <v>231684</v>
+        <v>70972</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -2679,13 +2679,13 @@
         <v>43200</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>120.5</v>
       </c>
       <c r="G31">
-        <v>230757</v>
+        <v>70476</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -2714,13 +2714,13 @@
         <v>43200</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F32">
         <v>122.5</v>
       </c>
       <c r="G32">
-        <v>229834</v>
+        <v>69982</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -2749,13 +2749,13 @@
         <v>43200</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F33">
         <v>124.5</v>
       </c>
       <c r="G33">
-        <v>228915</v>
+        <v>69492</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -2784,13 +2784,13 @@
         <v>43200</v>
       </c>
       <c r="E34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F34">
         <v>126.5</v>
       </c>
       <c r="G34">
-        <v>227999</v>
+        <v>69006</v>
       </c>
       <c r="H34">
         <v>30</v>
@@ -2819,13 +2819,13 @@
         <v>43200</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F35">
         <v>128.5</v>
       </c>
       <c r="G35">
-        <v>227087</v>
+        <v>68523</v>
       </c>
       <c r="H35">
         <v>30</v>
@@ -2854,13 +2854,13 @@
         <v>43200</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36">
         <v>130.5</v>
       </c>
       <c r="G36">
-        <v>226179</v>
+        <v>68043</v>
       </c>
       <c r="H36">
         <v>30</v>
@@ -2895,7 +2895,7 @@
         <v>132.5</v>
       </c>
       <c r="G37">
-        <v>225274</v>
+        <v>67567</v>
       </c>
       <c r="H37">
         <v>30</v>
@@ -2930,7 +2930,7 @@
         <v>134.5</v>
       </c>
       <c r="G38">
-        <v>224373</v>
+        <v>67094</v>
       </c>
       <c r="H38">
         <v>30</v>
@@ -2959,13 +2959,13 @@
         <v>43200</v>
       </c>
       <c r="E39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39">
         <v>136.5</v>
       </c>
       <c r="G39">
-        <v>223475</v>
+        <v>66624</v>
       </c>
       <c r="H39">
         <v>30</v>
@@ -2994,13 +2994,13 @@
         <v>43200</v>
       </c>
       <c r="E40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>138.5</v>
       </c>
       <c r="G40">
-        <v>222581</v>
+        <v>66158</v>
       </c>
       <c r="H40">
         <v>30</v>
@@ -3029,13 +3029,13 @@
         <v>57600</v>
       </c>
       <c r="E41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F41">
         <v>140.5</v>
       </c>
       <c r="G41">
-        <v>221691</v>
+        <v>65695</v>
       </c>
       <c r="H41">
         <v>30</v>
@@ -3064,13 +3064,13 @@
         <v>57600</v>
       </c>
       <c r="E42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F42">
         <v>142.5</v>
       </c>
       <c r="G42">
-        <v>220804</v>
+        <v>65235</v>
       </c>
       <c r="H42">
         <v>30</v>
@@ -3099,13 +3099,13 @@
         <v>57600</v>
       </c>
       <c r="E43">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F43">
         <v>144.5</v>
       </c>
       <c r="G43">
-        <v>219921</v>
+        <v>64778</v>
       </c>
       <c r="H43">
         <v>30</v>
@@ -3134,13 +3134,13 @@
         <v>57600</v>
       </c>
       <c r="E44">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F44">
         <v>146.5</v>
       </c>
       <c r="G44">
-        <v>219041</v>
+        <v>64325</v>
       </c>
       <c r="H44">
         <v>30</v>
@@ -3169,13 +3169,13 @@
         <v>57600</v>
       </c>
       <c r="E45">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F45">
         <v>148.5</v>
       </c>
       <c r="G45">
-        <v>218165</v>
+        <v>63875</v>
       </c>
       <c r="H45">
         <v>30</v>
@@ -3204,13 +3204,13 @@
         <v>57600</v>
       </c>
       <c r="E46">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F46">
         <v>150.5</v>
       </c>
       <c r="G46">
-        <v>217293</v>
+        <v>63427</v>
       </c>
       <c r="H46">
         <v>30</v>
@@ -3239,13 +3239,13 @@
         <v>57600</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F47">
         <v>152.5</v>
       </c>
       <c r="G47">
-        <v>216423</v>
+        <v>62983</v>
       </c>
       <c r="H47">
         <v>30</v>
@@ -3274,13 +3274,13 @@
         <v>57600</v>
       </c>
       <c r="E48">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F48">
         <v>154.5</v>
       </c>
       <c r="G48">
-        <v>215558</v>
+        <v>62543</v>
       </c>
       <c r="H48">
         <v>30</v>
@@ -3309,13 +3309,13 @@
         <v>57600</v>
       </c>
       <c r="E49">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F49">
         <v>156.5</v>
       </c>
       <c r="G49">
-        <v>214695</v>
+        <v>62105</v>
       </c>
       <c r="H49">
         <v>30</v>
@@ -3344,13 +3344,13 @@
         <v>57600</v>
       </c>
       <c r="E50">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F50">
         <v>158.5</v>
       </c>
       <c r="G50">
-        <v>213837</v>
+        <v>61670</v>
       </c>
       <c r="H50">
         <v>30</v>
@@ -3379,13 +3379,13 @@
         <v>172800</v>
       </c>
       <c r="E51">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F51">
         <v>160.5</v>
       </c>
       <c r="G51">
-        <v>212981</v>
+        <v>61238</v>
       </c>
       <c r="H51">
         <v>25</v>
@@ -3414,13 +3414,13 @@
         <v>172800</v>
       </c>
       <c r="E52">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F52">
         <v>162.5</v>
       </c>
       <c r="G52">
-        <v>212129</v>
+        <v>60810</v>
       </c>
       <c r="H52">
         <v>25</v>
@@ -3449,13 +3449,13 @@
         <v>172800</v>
       </c>
       <c r="E53">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F53">
         <v>164.5</v>
       </c>
       <c r="G53">
-        <v>211281</v>
+        <v>60384</v>
       </c>
       <c r="H53">
         <v>25</v>
@@ -3484,13 +3484,13 @@
         <v>172800</v>
       </c>
       <c r="E54">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F54">
         <v>166.5</v>
       </c>
       <c r="G54">
-        <v>210436</v>
+        <v>59961</v>
       </c>
       <c r="H54">
         <v>25</v>
@@ -3519,13 +3519,13 @@
         <v>172800</v>
       </c>
       <c r="E55">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F55">
         <v>168.5</v>
       </c>
       <c r="G55">
-        <v>209594</v>
+        <v>59542</v>
       </c>
       <c r="H55">
         <v>25</v>
@@ -3554,13 +3554,13 @@
         <v>259200</v>
       </c>
       <c r="E56">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F56">
         <v>170.5</v>
       </c>
       <c r="G56">
-        <v>208756</v>
+        <v>59125</v>
       </c>
       <c r="H56">
         <v>25</v>
@@ -3589,13 +3589,13 @@
         <v>259200</v>
       </c>
       <c r="E57">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F57">
         <v>172.5</v>
       </c>
       <c r="G57">
-        <v>207921</v>
+        <v>58711</v>
       </c>
       <c r="H57">
         <v>25</v>
@@ -3624,13 +3624,13 @@
         <v>259200</v>
       </c>
       <c r="E58">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F58">
         <v>174.5</v>
       </c>
       <c r="G58">
-        <v>207089</v>
+        <v>58300</v>
       </c>
       <c r="H58">
         <v>25</v>
@@ -3659,13 +3659,13 @@
         <v>259200</v>
       </c>
       <c r="E59">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F59">
         <v>176.5</v>
       </c>
       <c r="G59">
-        <v>206261</v>
+        <v>57892</v>
       </c>
       <c r="H59">
         <v>25</v>
@@ -3694,13 +3694,13 @@
         <v>259200</v>
       </c>
       <c r="E60">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F60">
         <v>178.5</v>
       </c>
       <c r="G60">
-        <v>205436</v>
+        <v>57487</v>
       </c>
       <c r="H60">
         <v>25</v>
@@ -3729,13 +3729,13 @@
         <v>345600</v>
       </c>
       <c r="E61">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F61">
         <v>180.5</v>
       </c>
       <c r="G61">
-        <v>204614</v>
+        <v>57084</v>
       </c>
       <c r="H61">
         <v>24</v>
@@ -3764,13 +3764,13 @@
         <v>345600</v>
       </c>
       <c r="E62">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F62">
         <v>182.5</v>
       </c>
       <c r="G62">
-        <v>203795</v>
+        <v>56685</v>
       </c>
       <c r="H62">
         <v>24</v>
@@ -3799,13 +3799,13 @@
         <v>345600</v>
       </c>
       <c r="E63">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F63">
         <v>184.5</v>
       </c>
       <c r="G63">
-        <v>202980</v>
+        <v>56288</v>
       </c>
       <c r="H63">
         <v>24</v>
@@ -3834,13 +3834,13 @@
         <v>345600</v>
       </c>
       <c r="E64">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F64">
         <v>186.5</v>
       </c>
       <c r="G64">
-        <v>202168</v>
+        <v>55894</v>
       </c>
       <c r="H64">
         <v>24</v>
@@ -3869,13 +3869,13 @@
         <v>345600</v>
       </c>
       <c r="E65">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F65">
         <v>188.5</v>
       </c>
       <c r="G65">
-        <v>201360</v>
+        <v>55502</v>
       </c>
       <c r="H65">
         <v>24</v>
@@ -3904,13 +3904,13 @@
         <v>345600</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F66">
         <v>190.5</v>
       </c>
       <c r="G66">
-        <v>200554</v>
+        <v>55114</v>
       </c>
       <c r="H66">
         <v>24</v>
@@ -3939,13 +3939,13 @@
         <v>345600</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F67">
         <v>192.5</v>
       </c>
       <c r="G67">
-        <v>199752</v>
+        <v>54728</v>
       </c>
       <c r="H67">
         <v>24</v>
@@ -3974,13 +3974,13 @@
         <v>345600</v>
       </c>
       <c r="E68">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F68">
         <v>194.5</v>
       </c>
       <c r="G68">
-        <v>198953</v>
+        <v>54345</v>
       </c>
       <c r="H68">
         <v>24</v>
@@ -4009,13 +4009,13 @@
         <v>345600</v>
       </c>
       <c r="E69">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F69">
         <v>196.5</v>
       </c>
       <c r="G69">
-        <v>198157</v>
+        <v>53965</v>
       </c>
       <c r="H69">
         <v>24</v>
@@ -4044,13 +4044,13 @@
         <v>345600</v>
       </c>
       <c r="E70">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F70">
         <v>198.5</v>
       </c>
       <c r="G70">
-        <v>197364</v>
+        <v>53587</v>
       </c>
       <c r="H70">
         <v>24</v>
@@ -4079,13 +4079,13 @@
         <v>432000</v>
       </c>
       <c r="E71">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F71">
         <v>200.5</v>
       </c>
       <c r="G71">
-        <v>196575</v>
+        <v>53212</v>
       </c>
       <c r="H71">
         <v>23</v>
@@ -4114,13 +4114,13 @@
         <v>432000</v>
       </c>
       <c r="E72">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F72">
         <v>202.5</v>
       </c>
       <c r="G72">
-        <v>195789</v>
+        <v>52839</v>
       </c>
       <c r="H72">
         <v>23</v>
@@ -4149,13 +4149,13 @@
         <v>432000</v>
       </c>
       <c r="E73">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F73">
         <v>204.5</v>
       </c>
       <c r="G73">
-        <v>195006</v>
+        <v>52469</v>
       </c>
       <c r="H73">
         <v>23</v>
@@ -4184,13 +4184,13 @@
         <v>432000</v>
       </c>
       <c r="E74">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F74">
         <v>206.5</v>
       </c>
       <c r="G74">
-        <v>194225</v>
+        <v>52102</v>
       </c>
       <c r="H74">
         <v>23</v>
@@ -4219,13 +4219,13 @@
         <v>432000</v>
       </c>
       <c r="E75">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F75">
         <v>208.5</v>
       </c>
       <c r="G75">
-        <v>193449</v>
+        <v>51737</v>
       </c>
       <c r="H75">
         <v>23</v>
@@ -4254,13 +4254,13 @@
         <v>432000</v>
       </c>
       <c r="E76">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F76">
         <v>210.5</v>
       </c>
       <c r="G76">
-        <v>192675</v>
+        <v>51375</v>
       </c>
       <c r="H76">
         <v>23</v>
@@ -4289,13 +4289,13 @@
         <v>432000</v>
       </c>
       <c r="E77">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F77">
         <v>212.5</v>
       </c>
       <c r="G77">
-        <v>191904</v>
+        <v>51016</v>
       </c>
       <c r="H77">
         <v>23</v>
@@ -4324,13 +4324,13 @@
         <v>432000</v>
       </c>
       <c r="E78">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F78">
         <v>214.5</v>
       </c>
       <c r="G78">
-        <v>191136</v>
+        <v>50659</v>
       </c>
       <c r="H78">
         <v>23</v>
@@ -4359,13 +4359,13 @@
         <v>432000</v>
       </c>
       <c r="E79">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F79">
         <v>216.5</v>
       </c>
       <c r="G79">
-        <v>190372</v>
+        <v>50304</v>
       </c>
       <c r="H79">
         <v>23</v>
@@ -4394,13 +4394,13 @@
         <v>432000</v>
       </c>
       <c r="E80">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F80">
         <v>218.5</v>
       </c>
       <c r="G80">
-        <v>189610</v>
+        <v>49952</v>
       </c>
       <c r="H80">
         <v>23</v>
@@ -4429,13 +4429,13 @@
         <v>518400</v>
       </c>
       <c r="E81">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F81">
         <v>220.5</v>
       </c>
       <c r="G81">
-        <v>188852</v>
+        <v>49602</v>
       </c>
       <c r="H81">
         <v>22</v>
@@ -4464,13 +4464,13 @@
         <v>518400</v>
       </c>
       <c r="E82">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F82">
         <v>222.5</v>
       </c>
       <c r="G82">
-        <v>188097</v>
+        <v>49255</v>
       </c>
       <c r="H82">
         <v>22</v>
@@ -4499,13 +4499,13 @@
         <v>518400</v>
       </c>
       <c r="E83">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F83">
         <v>224.5</v>
       </c>
       <c r="G83">
-        <v>187344</v>
+        <v>48910</v>
       </c>
       <c r="H83">
         <v>22</v>
@@ -4534,13 +4534,13 @@
         <v>518400</v>
       </c>
       <c r="E84">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F84">
         <v>226.5</v>
       </c>
       <c r="G84">
-        <v>186595</v>
+        <v>48568</v>
       </c>
       <c r="H84">
         <v>22</v>
@@ -4569,13 +4569,13 @@
         <v>518400</v>
       </c>
       <c r="E85">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F85">
         <v>228.5</v>
       </c>
       <c r="G85">
-        <v>185848</v>
+        <v>48228</v>
       </c>
       <c r="H85">
         <v>22</v>
@@ -4604,13 +4604,13 @@
         <v>518400</v>
       </c>
       <c r="E86">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F86">
         <v>230.5</v>
       </c>
       <c r="G86">
-        <v>185105</v>
+        <v>47890</v>
       </c>
       <c r="H86">
         <v>22</v>
@@ -4639,13 +4639,13 @@
         <v>518400</v>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F87">
         <v>232.5</v>
       </c>
       <c r="G87">
-        <v>184365</v>
+        <v>47555</v>
       </c>
       <c r="H87">
         <v>22</v>
@@ -4674,13 +4674,13 @@
         <v>518400</v>
       </c>
       <c r="E88">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F88">
         <v>234.5</v>
       </c>
       <c r="G88">
-        <v>183627</v>
+        <v>47222</v>
       </c>
       <c r="H88">
         <v>22</v>
@@ -4709,13 +4709,13 @@
         <v>518400</v>
       </c>
       <c r="E89">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F89">
         <v>236.5</v>
       </c>
       <c r="G89">
-        <v>182893</v>
+        <v>46891</v>
       </c>
       <c r="H89">
         <v>22</v>
@@ -4744,13 +4744,13 @@
         <v>518400</v>
       </c>
       <c r="E90">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F90">
         <v>238.5</v>
       </c>
       <c r="G90">
-        <v>182161</v>
+        <v>46563</v>
       </c>
       <c r="H90">
         <v>22</v>
@@ -4779,13 +4779,13 @@
         <v>518400</v>
       </c>
       <c r="E91">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F91">
         <v>240.5</v>
       </c>
       <c r="G91">
-        <v>181432</v>
+        <v>46237</v>
       </c>
       <c r="H91">
         <v>21</v>
@@ -4814,13 +4814,13 @@
         <v>518400</v>
       </c>
       <c r="E92">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F92">
         <v>242.5</v>
       </c>
       <c r="G92">
-        <v>180707</v>
+        <v>45914</v>
       </c>
       <c r="H92">
         <v>21</v>
@@ -4849,13 +4849,13 @@
         <v>518400</v>
       </c>
       <c r="E93">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F93">
         <v>244.5</v>
       </c>
       <c r="G93">
-        <v>179984</v>
+        <v>45592</v>
       </c>
       <c r="H93">
         <v>21</v>
@@ -4884,13 +4884,13 @@
         <v>518400</v>
       </c>
       <c r="E94">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F94">
         <v>246.5</v>
       </c>
       <c r="G94">
-        <v>179264</v>
+        <v>45273</v>
       </c>
       <c r="H94">
         <v>21</v>
@@ -4919,13 +4919,13 @@
         <v>518400</v>
       </c>
       <c r="E95">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F95">
         <v>248.5</v>
       </c>
       <c r="G95">
-        <v>178547</v>
+        <v>44956</v>
       </c>
       <c r="H95">
         <v>21</v>
@@ -4954,13 +4954,13 @@
         <v>518400</v>
       </c>
       <c r="E96">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F96">
         <v>250.5</v>
       </c>
       <c r="G96">
-        <v>177833</v>
+        <v>44641</v>
       </c>
       <c r="H96">
         <v>21</v>
@@ -4989,13 +4989,13 @@
         <v>518400</v>
       </c>
       <c r="E97">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F97">
         <v>252.5</v>
       </c>
       <c r="G97">
-        <v>177121</v>
+        <v>44329</v>
       </c>
       <c r="H97">
         <v>21</v>
@@ -5024,13 +5024,13 @@
         <v>518400</v>
       </c>
       <c r="E98">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F98">
         <v>254.5</v>
       </c>
       <c r="G98">
-        <v>176413</v>
+        <v>44019</v>
       </c>
       <c r="H98">
         <v>21</v>
@@ -5059,13 +5059,13 @@
         <v>518400</v>
       </c>
       <c r="E99">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F99">
         <v>256.5</v>
       </c>
       <c r="G99">
-        <v>175707</v>
+        <v>43711</v>
       </c>
       <c r="H99">
         <v>21</v>
@@ -5094,13 +5094,13 @@
         <v>604800</v>
       </c>
       <c r="E100">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F100">
         <v>258.5</v>
       </c>
       <c r="G100">
-        <v>175004</v>
+        <v>43405</v>
       </c>
       <c r="H100">
         <v>20</v>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D3BE2-3FB7-4054-AB1C-AB58116A37FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ED4501-FB01-4B86-B61E-4987963994CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -1607,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1705,7 +1705,7 @@
         <v>64.5</v>
       </c>
       <c r="G3">
-        <v>85795</v>
+        <v>85536</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -1740,7 +1740,7 @@
         <v>66.5</v>
       </c>
       <c r="G4">
-        <v>85194</v>
+        <v>84680</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -1775,7 +1775,7 @@
         <v>68.5</v>
       </c>
       <c r="G5">
-        <v>84598</v>
+        <v>83833</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -1810,7 +1810,7 @@
         <v>70.5</v>
       </c>
       <c r="G6">
-        <v>84006</v>
+        <v>82995</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         <v>72.5</v>
       </c>
       <c r="G7">
-        <v>83418</v>
+        <v>82165</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -1880,7 +1880,7 @@
         <v>74.5</v>
       </c>
       <c r="G8">
-        <v>82834</v>
+        <v>81343</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -1915,7 +1915,7 @@
         <v>76.5</v>
       </c>
       <c r="G9">
-        <v>82254</v>
+        <v>80530</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -1950,7 +1950,7 @@
         <v>78.5</v>
       </c>
       <c r="G10">
-        <v>81678</v>
+        <v>79725</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -1985,10 +1985,10 @@
         <v>80.5</v>
       </c>
       <c r="G11">
-        <v>81106</v>
+        <v>78927</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>197319</v>
@@ -2020,10 +2020,10 @@
         <v>82.5</v>
       </c>
       <c r="G12">
-        <v>80538</v>
+        <v>78138</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12">
         <v>195346</v>
@@ -2055,10 +2055,10 @@
         <v>84.5</v>
       </c>
       <c r="G13">
-        <v>79975</v>
+        <v>77357</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>193393</v>
@@ -2090,10 +2090,10 @@
         <v>86.5</v>
       </c>
       <c r="G14">
-        <v>79415</v>
+        <v>76583</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14">
         <v>191459</v>
@@ -2125,10 +2125,10 @@
         <v>88.5</v>
       </c>
       <c r="G15">
-        <v>78859</v>
+        <v>75817</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15">
         <v>189544</v>
@@ -2160,10 +2160,10 @@
         <v>90.5</v>
       </c>
       <c r="G16">
-        <v>78307</v>
+        <v>75059</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16">
         <v>187649</v>
@@ -2195,10 +2195,10 @@
         <v>92.5</v>
       </c>
       <c r="G17">
-        <v>77759</v>
+        <v>74309</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17">
         <v>185772</v>
@@ -2230,10 +2230,10 @@
         <v>94.5</v>
       </c>
       <c r="G18">
-        <v>77215</v>
+        <v>73565</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18">
         <v>183914</v>
@@ -2265,10 +2265,10 @@
         <v>96.5</v>
       </c>
       <c r="G19">
-        <v>76674</v>
+        <v>72830</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19">
         <v>182075</v>
@@ -2300,10 +2300,10 @@
         <v>98.5</v>
       </c>
       <c r="G20">
-        <v>76137</v>
+        <v>72101</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20">
         <v>180254</v>
@@ -2335,10 +2335,10 @@
         <v>100.5</v>
       </c>
       <c r="G21">
-        <v>75604</v>
+        <v>71380</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I21">
         <v>178452</v>
@@ -2370,10 +2370,10 @@
         <v>102.5</v>
       </c>
       <c r="G22">
-        <v>75075</v>
+        <v>70667</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I22">
         <v>176667</v>
@@ -2405,10 +2405,10 @@
         <v>104.5</v>
       </c>
       <c r="G23">
-        <v>74550</v>
+        <v>69960</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I23">
         <v>174901</v>
@@ -2440,10 +2440,10 @@
         <v>106.5</v>
       </c>
       <c r="G24">
-        <v>74028</v>
+        <v>69260</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I24">
         <v>173152</v>
@@ -2475,10 +2475,10 @@
         <v>108.5</v>
       </c>
       <c r="G25">
-        <v>73510</v>
+        <v>68568</v>
       </c>
       <c r="H25">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I25">
         <v>171420</v>
@@ -2510,10 +2510,10 @@
         <v>110.5</v>
       </c>
       <c r="G26">
-        <v>72995</v>
+        <v>67882</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I26">
         <v>169706</v>
@@ -2545,10 +2545,10 @@
         <v>112.5</v>
       </c>
       <c r="G27">
-        <v>72484</v>
+        <v>67203</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I27">
         <v>168009</v>
@@ -2580,10 +2580,10 @@
         <v>114.5</v>
       </c>
       <c r="G28">
-        <v>71977</v>
+        <v>66531</v>
       </c>
       <c r="H28">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I28">
         <v>166329</v>
@@ -2615,10 +2615,10 @@
         <v>116.5</v>
       </c>
       <c r="G29">
-        <v>71473</v>
+        <v>65866</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I29">
         <v>164666</v>
@@ -2650,10 +2650,10 @@
         <v>118.5</v>
       </c>
       <c r="G30">
-        <v>70972</v>
+        <v>65207</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I30">
         <v>163019</v>
@@ -2685,10 +2685,10 @@
         <v>120.5</v>
       </c>
       <c r="G31">
-        <v>70476</v>
+        <v>64555</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I31">
         <v>161389</v>
@@ -2720,10 +2720,10 @@
         <v>122.5</v>
       </c>
       <c r="G32">
-        <v>69982</v>
+        <v>63910</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I32">
         <v>159775</v>
@@ -2755,10 +2755,10 @@
         <v>124.5</v>
       </c>
       <c r="G33">
-        <v>69492</v>
+        <v>63271</v>
       </c>
       <c r="H33">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I33">
         <v>158177</v>
@@ -2790,10 +2790,10 @@
         <v>126.5</v>
       </c>
       <c r="G34">
-        <v>69006</v>
+        <v>62638</v>
       </c>
       <c r="H34">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I34">
         <v>156595</v>
@@ -2825,10 +2825,10 @@
         <v>128.5</v>
       </c>
       <c r="G35">
-        <v>68523</v>
+        <v>62011</v>
       </c>
       <c r="H35">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I35">
         <v>155029</v>
@@ -2860,10 +2860,10 @@
         <v>130.5</v>
       </c>
       <c r="G36">
-        <v>68043</v>
+        <v>61391</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I36">
         <v>153479</v>
@@ -2895,10 +2895,10 @@
         <v>132.5</v>
       </c>
       <c r="G37">
-        <v>67567</v>
+        <v>60777</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I37">
         <v>151944</v>
@@ -2930,10 +2930,10 @@
         <v>134.5</v>
       </c>
       <c r="G38">
-        <v>67094</v>
+        <v>60170</v>
       </c>
       <c r="H38">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I38">
         <v>150425</v>
@@ -2965,10 +2965,10 @@
         <v>136.5</v>
       </c>
       <c r="G39">
-        <v>66624</v>
+        <v>59568</v>
       </c>
       <c r="H39">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I39">
         <v>148921</v>
@@ -3000,10 +3000,10 @@
         <v>138.5</v>
       </c>
       <c r="G40">
-        <v>66158</v>
+        <v>58972</v>
       </c>
       <c r="H40">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I40">
         <v>147431</v>
@@ -3035,10 +3035,10 @@
         <v>140.5</v>
       </c>
       <c r="G41">
-        <v>65695</v>
+        <v>58382</v>
       </c>
       <c r="H41">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I41">
         <v>145957</v>
@@ -3070,10 +3070,10 @@
         <v>142.5</v>
       </c>
       <c r="G42">
-        <v>65235</v>
+        <v>57799</v>
       </c>
       <c r="H42">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I42">
         <v>144497</v>
@@ -3105,10 +3105,10 @@
         <v>144.5</v>
       </c>
       <c r="G43">
-        <v>64778</v>
+        <v>57221</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I43">
         <v>143052</v>
@@ -3140,10 +3140,10 @@
         <v>146.5</v>
       </c>
       <c r="G44">
-        <v>64325</v>
+        <v>56648</v>
       </c>
       <c r="H44">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I44">
         <v>141622</v>
@@ -3175,10 +3175,10 @@
         <v>148.5</v>
       </c>
       <c r="G45">
-        <v>63875</v>
+        <v>56082</v>
       </c>
       <c r="H45">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I45">
         <v>140206</v>
@@ -3210,10 +3210,10 @@
         <v>150.5</v>
       </c>
       <c r="G46">
-        <v>63427</v>
+        <v>55521</v>
       </c>
       <c r="H46">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I46">
         <v>138804</v>
@@ -3245,10 +3245,10 @@
         <v>152.5</v>
       </c>
       <c r="G47">
-        <v>62983</v>
+        <v>54966</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I47">
         <v>137416</v>
@@ -3280,10 +3280,10 @@
         <v>154.5</v>
       </c>
       <c r="G48">
-        <v>62543</v>
+        <v>54416</v>
       </c>
       <c r="H48">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I48">
         <v>136041</v>
@@ -3315,10 +3315,10 @@
         <v>156.5</v>
       </c>
       <c r="G49">
-        <v>62105</v>
+        <v>53872</v>
       </c>
       <c r="H49">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I49">
         <v>134681</v>
@@ -3350,10 +3350,10 @@
         <v>158.5</v>
       </c>
       <c r="G50">
-        <v>61670</v>
+        <v>53333</v>
       </c>
       <c r="H50">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I50">
         <v>133334</v>
@@ -3385,10 +3385,10 @@
         <v>160.5</v>
       </c>
       <c r="G51">
-        <v>61238</v>
+        <v>52800</v>
       </c>
       <c r="H51">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I51">
         <v>132001</v>
@@ -3420,10 +3420,10 @@
         <v>162.5</v>
       </c>
       <c r="G52">
-        <v>60810</v>
+        <v>52272</v>
       </c>
       <c r="H52">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I52">
         <v>130681</v>
@@ -3455,10 +3455,10 @@
         <v>164.5</v>
       </c>
       <c r="G53">
-        <v>60384</v>
+        <v>51749</v>
       </c>
       <c r="H53">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I53">
         <v>129374</v>
@@ -3490,10 +3490,10 @@
         <v>166.5</v>
       </c>
       <c r="G54">
-        <v>59961</v>
+        <v>51232</v>
       </c>
       <c r="H54">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I54">
         <v>128080</v>
@@ -3525,10 +3525,10 @@
         <v>168.5</v>
       </c>
       <c r="G55">
-        <v>59542</v>
+        <v>50719</v>
       </c>
       <c r="H55">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I55">
         <v>126799</v>
@@ -3560,10 +3560,10 @@
         <v>170.5</v>
       </c>
       <c r="G56">
-        <v>59125</v>
+        <v>50212</v>
       </c>
       <c r="H56">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I56">
         <v>125531</v>
@@ -3595,10 +3595,10 @@
         <v>172.5</v>
       </c>
       <c r="G57">
-        <v>58711</v>
+        <v>49710</v>
       </c>
       <c r="H57">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I57">
         <v>124276</v>
@@ -3630,10 +3630,10 @@
         <v>174.5</v>
       </c>
       <c r="G58">
-        <v>58300</v>
+        <v>49213</v>
       </c>
       <c r="H58">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I58">
         <v>123033</v>
@@ -3665,10 +3665,10 @@
         <v>176.5</v>
       </c>
       <c r="G59">
-        <v>57892</v>
+        <v>48721</v>
       </c>
       <c r="H59">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I59">
         <v>121803</v>
@@ -3700,10 +3700,10 @@
         <v>178.5</v>
       </c>
       <c r="G60">
-        <v>57487</v>
+        <v>48234</v>
       </c>
       <c r="H60">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I60">
         <v>120585</v>
@@ -3735,10 +3735,10 @@
         <v>180.5</v>
       </c>
       <c r="G61">
-        <v>57084</v>
+        <v>47751</v>
       </c>
       <c r="H61">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I61">
         <v>119379</v>
@@ -3770,10 +3770,10 @@
         <v>182.5</v>
       </c>
       <c r="G62">
-        <v>56685</v>
+        <v>47274</v>
       </c>
       <c r="H62">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I62">
         <v>118185</v>
@@ -3805,10 +3805,10 @@
         <v>184.5</v>
       </c>
       <c r="G63">
-        <v>56288</v>
+        <v>46801</v>
       </c>
       <c r="H63">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I63">
         <v>117003</v>
@@ -3840,10 +3840,10 @@
         <v>186.5</v>
       </c>
       <c r="G64">
-        <v>55894</v>
+        <v>46333</v>
       </c>
       <c r="H64">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I64">
         <v>115833</v>
@@ -3875,10 +3875,10 @@
         <v>188.5</v>
       </c>
       <c r="G65">
-        <v>55502</v>
+        <v>45870</v>
       </c>
       <c r="H65">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I65">
         <v>114675</v>
@@ -3910,10 +3910,10 @@
         <v>190.5</v>
       </c>
       <c r="G66">
-        <v>55114</v>
+        <v>45411</v>
       </c>
       <c r="H66">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I66">
         <v>113528</v>
@@ -3945,10 +3945,10 @@
         <v>192.5</v>
       </c>
       <c r="G67">
-        <v>54728</v>
+        <v>44957</v>
       </c>
       <c r="H67">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I67">
         <v>112393</v>
@@ -3980,10 +3980,10 @@
         <v>194.5</v>
       </c>
       <c r="G68">
-        <v>54345</v>
+        <v>44507</v>
       </c>
       <c r="H68">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I68">
         <v>111269</v>
@@ -4015,10 +4015,10 @@
         <v>196.5</v>
       </c>
       <c r="G69">
-        <v>53965</v>
+        <v>44062</v>
       </c>
       <c r="H69">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I69">
         <v>110156</v>
@@ -4050,10 +4050,10 @@
         <v>198.5</v>
       </c>
       <c r="G70">
-        <v>53587</v>
+        <v>43622</v>
       </c>
       <c r="H70">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I70">
         <v>109055</v>
@@ -4085,10 +4085,10 @@
         <v>200.5</v>
       </c>
       <c r="G71">
-        <v>53212</v>
+        <v>43185</v>
       </c>
       <c r="H71">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I71">
         <v>107964</v>
@@ -4120,10 +4120,10 @@
         <v>202.5</v>
       </c>
       <c r="G72">
-        <v>52839</v>
+        <v>42754</v>
       </c>
       <c r="H72">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I72">
         <v>106885</v>
@@ -4155,10 +4155,10 @@
         <v>204.5</v>
       </c>
       <c r="G73">
-        <v>52469</v>
+        <v>42326</v>
       </c>
       <c r="H73">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I73">
         <v>105816</v>
@@ -4190,10 +4190,10 @@
         <v>206.5</v>
       </c>
       <c r="G74">
-        <v>52102</v>
+        <v>41903</v>
       </c>
       <c r="H74">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I74">
         <v>104758</v>
@@ -4225,10 +4225,10 @@
         <v>208.5</v>
       </c>
       <c r="G75">
-        <v>51737</v>
+        <v>41484</v>
       </c>
       <c r="H75">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I75">
         <v>103710</v>
@@ -4260,10 +4260,10 @@
         <v>210.5</v>
       </c>
       <c r="G76">
-        <v>51375</v>
+        <v>41069</v>
       </c>
       <c r="H76">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I76">
         <v>102673</v>
@@ -4295,10 +4295,10 @@
         <v>212.5</v>
       </c>
       <c r="G77">
-        <v>51016</v>
+        <v>40658</v>
       </c>
       <c r="H77">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I77">
         <v>101646</v>
@@ -4330,10 +4330,10 @@
         <v>214.5</v>
       </c>
       <c r="G78">
-        <v>50659</v>
+        <v>40252</v>
       </c>
       <c r="H78">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I78">
         <v>100630</v>
@@ -4365,10 +4365,10 @@
         <v>216.5</v>
       </c>
       <c r="G79">
-        <v>50304</v>
+        <v>39849</v>
       </c>
       <c r="H79">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I79">
         <v>99623</v>
@@ -4400,10 +4400,10 @@
         <v>218.5</v>
       </c>
       <c r="G80">
-        <v>49952</v>
+        <v>39451</v>
       </c>
       <c r="H80">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I80">
         <v>98627</v>
@@ -4435,10 +4435,10 @@
         <v>220.5</v>
       </c>
       <c r="G81">
-        <v>49602</v>
+        <v>39056</v>
       </c>
       <c r="H81">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I81">
         <v>97641</v>
@@ -4470,10 +4470,10 @@
         <v>222.5</v>
       </c>
       <c r="G82">
-        <v>49255</v>
+        <v>38666</v>
       </c>
       <c r="H82">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I82">
         <v>96665</v>
@@ -4505,10 +4505,10 @@
         <v>224.5</v>
       </c>
       <c r="G83">
-        <v>48910</v>
+        <v>38279</v>
       </c>
       <c r="H83">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I83">
         <v>95698</v>
@@ -4540,10 +4540,10 @@
         <v>226.5</v>
       </c>
       <c r="G84">
-        <v>48568</v>
+        <v>37896</v>
       </c>
       <c r="H84">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I84">
         <v>94741</v>
@@ -4575,10 +4575,10 @@
         <v>228.5</v>
       </c>
       <c r="G85">
-        <v>48228</v>
+        <v>37517</v>
       </c>
       <c r="H85">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I85">
         <v>93793</v>
@@ -4610,10 +4610,10 @@
         <v>230.5</v>
       </c>
       <c r="G86">
-        <v>47890</v>
+        <v>37142</v>
       </c>
       <c r="H86">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I86">
         <v>92856</v>
@@ -4645,10 +4645,10 @@
         <v>232.5</v>
       </c>
       <c r="G87">
-        <v>47555</v>
+        <v>36770</v>
       </c>
       <c r="H87">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I87">
         <v>91927</v>
@@ -4680,10 +4680,10 @@
         <v>234.5</v>
       </c>
       <c r="G88">
-        <v>47222</v>
+        <v>36403</v>
       </c>
       <c r="H88">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I88">
         <v>91008</v>
@@ -4715,10 +4715,10 @@
         <v>236.5</v>
       </c>
       <c r="G89">
-        <v>46891</v>
+        <v>36039</v>
       </c>
       <c r="H89">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I89">
         <v>90098</v>
@@ -4750,10 +4750,10 @@
         <v>238.5</v>
       </c>
       <c r="G90">
-        <v>46563</v>
+        <v>35678</v>
       </c>
       <c r="H90">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I90">
         <v>89197</v>
@@ -4785,10 +4785,10 @@
         <v>240.5</v>
       </c>
       <c r="G91">
-        <v>46237</v>
+        <v>35322</v>
       </c>
       <c r="H91">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I91">
         <v>88305</v>
@@ -4820,10 +4820,10 @@
         <v>242.5</v>
       </c>
       <c r="G92">
-        <v>45914</v>
+        <v>34968</v>
       </c>
       <c r="H92">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I92">
         <v>87422</v>
@@ -4855,10 +4855,10 @@
         <v>244.5</v>
       </c>
       <c r="G93">
-        <v>45592</v>
+        <v>34619</v>
       </c>
       <c r="H93">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I93">
         <v>86547</v>
@@ -4890,10 +4890,10 @@
         <v>246.5</v>
       </c>
       <c r="G94">
-        <v>45273</v>
+        <v>34272</v>
       </c>
       <c r="H94">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I94">
         <v>85682</v>
@@ -4925,10 +4925,10 @@
         <v>248.5</v>
       </c>
       <c r="G95">
-        <v>44956</v>
+        <v>33930</v>
       </c>
       <c r="H95">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I95">
         <v>84825</v>
@@ -4960,10 +4960,10 @@
         <v>250.5</v>
       </c>
       <c r="G96">
-        <v>44641</v>
+        <v>33590</v>
       </c>
       <c r="H96">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I96">
         <v>83977</v>
@@ -4995,10 +4995,10 @@
         <v>252.5</v>
       </c>
       <c r="G97">
-        <v>44329</v>
+        <v>33255</v>
       </c>
       <c r="H97">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I97">
         <v>83137</v>
@@ -5030,10 +5030,10 @@
         <v>254.5</v>
       </c>
       <c r="G98">
-        <v>44019</v>
+        <v>32922</v>
       </c>
       <c r="H98">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I98">
         <v>82306</v>
@@ -5065,10 +5065,10 @@
         <v>256.5</v>
       </c>
       <c r="G99">
-        <v>43711</v>
+        <v>32593</v>
       </c>
       <c r="H99">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I99">
         <v>81483</v>
@@ -5091,7 +5091,7 @@
         <v>119170200</v>
       </c>
       <c r="D100">
-        <v>604800</v>
+        <v>518400</v>
       </c>
       <c r="E100">
         <v>30</v>
@@ -5100,10 +5100,10 @@
         <v>258.5</v>
       </c>
       <c r="G100">
-        <v>43405</v>
+        <v>32267</v>
       </c>
       <c r="H100">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I100">
         <v>80668</v>
@@ -5113,6 +5113,41 @@
       </c>
       <c r="K100">
         <v>5377</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1846800</v>
+      </c>
+      <c r="C101">
+        <v>121017000</v>
+      </c>
+      <c r="D101">
+        <v>604800</v>
+      </c>
+      <c r="E101">
+        <v>30</v>
+      </c>
+      <c r="F101">
+        <v>260.5</v>
+      </c>
+      <c r="G101">
+        <v>31944</v>
+      </c>
+      <c r="H101">
+        <v>15</v>
+      </c>
+      <c r="I101">
+        <v>79861</v>
+      </c>
+      <c r="J101">
+        <v>79861</v>
+      </c>
+      <c r="K101">
+        <v>5324</v>
       </c>
     </row>
   </sheetData>
@@ -5150,7 +5185,7 @@
         <v>149</v>
       </c>
       <c r="B3">
-        <v>0.9819</v>
+        <v>0.99050000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5158,7 +5193,7 @@
         <v>148</v>
       </c>
       <c r="B4">
-        <v>0.96419999999999995</v>
+        <v>0.98109999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5166,7 +5201,7 @@
         <v>147</v>
       </c>
       <c r="B5">
-        <v>0.94679999999999997</v>
+        <v>0.9718</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5174,7 +5209,7 @@
         <v>146</v>
       </c>
       <c r="B6">
-        <v>0.92969999999999997</v>
+        <v>0.96260000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5182,7 +5217,7 @@
         <v>145</v>
       </c>
       <c r="B7">
-        <v>0.91290000000000004</v>
+        <v>0.95350000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5190,7 +5225,7 @@
         <v>144</v>
       </c>
       <c r="B8">
-        <v>0.89639999999999997</v>
+        <v>0.94440000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5198,7 +5233,7 @@
         <v>143</v>
       </c>
       <c r="B9">
-        <v>0.88019999999999998</v>
+        <v>0.9355</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5206,7 +5241,7 @@
         <v>142</v>
       </c>
       <c r="B10">
-        <v>0.86429999999999996</v>
+        <v>0.92659999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5214,7 +5249,7 @@
         <v>141</v>
       </c>
       <c r="B11">
-        <v>0.84870000000000001</v>
+        <v>0.91779999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5222,7 +5257,7 @@
         <v>140</v>
       </c>
       <c r="B12">
-        <v>0.83330000000000004</v>
+        <v>0.90910000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5230,7 +5265,7 @@
         <v>139</v>
       </c>
       <c r="B13">
-        <v>0.81830000000000003</v>
+        <v>0.90049999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5238,7 +5273,7 @@
         <v>138</v>
       </c>
       <c r="B14">
-        <v>0.80349999999999999</v>
+        <v>0.89190000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5246,7 +5281,7 @@
         <v>137</v>
       </c>
       <c r="B15">
-        <v>0.78900000000000003</v>
+        <v>0.88349999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5254,7 +5289,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>0.77470000000000006</v>
+        <v>0.87509999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5262,7 +5297,7 @@
         <v>135</v>
       </c>
       <c r="B17">
-        <v>0.76070000000000004</v>
+        <v>0.86680000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -5270,7 +5305,7 @@
         <v>134</v>
       </c>
       <c r="B18">
-        <v>0.747</v>
+        <v>0.85860000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5278,7 +5313,7 @@
         <v>133</v>
       </c>
       <c r="B19">
-        <v>0.73350000000000004</v>
+        <v>0.85040000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5286,7 +5321,7 @@
         <v>132</v>
       </c>
       <c r="B20">
-        <v>0.72019999999999995</v>
+        <v>0.84240000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5294,7 +5329,7 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>0.70720000000000005</v>
+        <v>0.83440000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5302,7 +5337,7 @@
         <v>130</v>
       </c>
       <c r="B22">
-        <v>0.69440000000000002</v>
+        <v>0.82640000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5310,7 +5345,7 @@
         <v>129</v>
       </c>
       <c r="B23">
-        <v>0.68189999999999995</v>
+        <v>0.81859999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -5318,7 +5353,7 @@
         <v>128</v>
       </c>
       <c r="B24">
-        <v>0.66959999999999997</v>
+        <v>0.81079999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5326,7 +5361,7 @@
         <v>127</v>
       </c>
       <c r="B25">
-        <v>0.65749999999999997</v>
+        <v>0.80320000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5334,7 +5369,7 @@
         <v>126</v>
       </c>
       <c r="B26">
-        <v>0.64559999999999995</v>
+        <v>0.79549999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -5342,7 +5377,7 @@
         <v>125</v>
       </c>
       <c r="B27">
-        <v>0.63390000000000002</v>
+        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -5350,7 +5385,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>0.62250000000000005</v>
+        <v>0.78049999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5358,7 +5393,7 @@
         <v>123</v>
       </c>
       <c r="B29">
-        <v>0.61119999999999997</v>
+        <v>0.77310000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5366,7 +5401,7 @@
         <v>122</v>
       </c>
       <c r="B30">
-        <v>0.60019999999999996</v>
+        <v>0.76580000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5374,7 +5409,7 @@
         <v>121</v>
       </c>
       <c r="B31">
-        <v>0.58940000000000003</v>
+        <v>0.75849999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -5382,7 +5417,7 @@
         <v>120</v>
       </c>
       <c r="B32">
-        <v>0.57869999999999999</v>
+        <v>0.75129999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5390,7 +5425,7 @@
         <v>119</v>
       </c>
       <c r="B33">
-        <v>0.56820000000000004</v>
+        <v>0.74419999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -5398,7 +5433,7 @@
         <v>118</v>
       </c>
       <c r="B34">
-        <v>0.55800000000000005</v>
+        <v>0.73709999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -5406,7 +5441,7 @@
         <v>117</v>
       </c>
       <c r="B35">
-        <v>0.54790000000000005</v>
+        <v>0.73009999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5414,7 +5449,7 @@
         <v>116</v>
       </c>
       <c r="B36">
-        <v>0.53800000000000003</v>
+        <v>0.72319999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5422,7 +5457,7 @@
         <v>115</v>
       </c>
       <c r="B37">
-        <v>0.52829999999999999</v>
+        <v>0.71640000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -5430,7 +5465,7 @@
         <v>114</v>
       </c>
       <c r="B38">
-        <v>0.51870000000000005</v>
+        <v>0.70960000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5438,7 +5473,7 @@
         <v>113</v>
       </c>
       <c r="B39">
-        <v>0.50939999999999996</v>
+        <v>0.70279999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5446,7 +5481,7 @@
         <v>112</v>
       </c>
       <c r="B40">
-        <v>0.50019999999999998</v>
+        <v>0.69620000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -5454,7 +5489,7 @@
         <v>111</v>
       </c>
       <c r="B41">
-        <v>0.49109999999999998</v>
+        <v>0.68959999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5462,7 +5497,7 @@
         <v>110</v>
       </c>
       <c r="B42">
-        <v>0.48230000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -5470,7 +5505,7 @@
         <v>109</v>
       </c>
       <c r="B43">
-        <v>0.47349999999999998</v>
+        <v>0.67649999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5478,7 +5513,7 @@
         <v>108</v>
       </c>
       <c r="B44">
-        <v>0.46500000000000002</v>
+        <v>0.67010000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5486,7 +5521,7 @@
         <v>107</v>
       </c>
       <c r="B45">
-        <v>0.45660000000000001</v>
+        <v>0.66379999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5494,7 +5529,7 @@
         <v>106</v>
       </c>
       <c r="B46">
-        <v>0.44829999999999998</v>
+        <v>0.65749999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5502,7 +5537,7 @@
         <v>105</v>
       </c>
       <c r="B47">
-        <v>0.44019999999999998</v>
+        <v>0.6512</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -5510,7 +5545,7 @@
         <v>104</v>
       </c>
       <c r="B48">
-        <v>0.43230000000000002</v>
+        <v>0.64510000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -5518,7 +5553,7 @@
         <v>103</v>
       </c>
       <c r="B49">
-        <v>0.42449999999999999</v>
+        <v>0.63890000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -5526,7 +5561,7 @@
         <v>102</v>
       </c>
       <c r="B50">
-        <v>0.4168</v>
+        <v>0.63290000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -5534,7 +5569,7 @@
         <v>101</v>
       </c>
       <c r="B51">
-        <v>0.4093</v>
+        <v>0.62690000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -5542,7 +5577,7 @@
         <v>100</v>
       </c>
       <c r="B52">
-        <v>0.40189999999999998</v>
+        <v>0.62090000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5550,7 +5585,7 @@
         <v>99</v>
       </c>
       <c r="B53">
-        <v>0.39460000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -5558,7 +5593,7 @@
         <v>98</v>
       </c>
       <c r="B54">
-        <v>0.38750000000000001</v>
+        <v>0.60919999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -5566,7 +5601,7 @@
         <v>97</v>
       </c>
       <c r="B55">
-        <v>0.3805</v>
+        <v>0.60340000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -5574,7 +5609,7 @@
         <v>96</v>
       </c>
       <c r="B56">
-        <v>0.37359999999999999</v>
+        <v>0.59770000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -5582,7 +5617,7 @@
         <v>95</v>
       </c>
       <c r="B57">
-        <v>0.3669</v>
+        <v>0.59199999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5590,7 +5625,7 @@
         <v>94</v>
       </c>
       <c r="B58">
-        <v>0.36020000000000002</v>
+        <v>0.58640000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -5598,7 +5633,7 @@
         <v>93</v>
       </c>
       <c r="B59">
-        <v>0.35370000000000001</v>
+        <v>0.58079999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -5606,7 +5641,7 @@
         <v>92</v>
       </c>
       <c r="B60">
-        <v>0.3473</v>
+        <v>0.57530000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -5614,7 +5649,7 @@
         <v>91</v>
       </c>
       <c r="B61">
-        <v>0.34110000000000001</v>
+        <v>0.56989999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -5622,7 +5657,7 @@
         <v>90</v>
       </c>
       <c r="B62">
-        <v>0.33489999999999998</v>
+        <v>0.5645</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -5630,7 +5665,7 @@
         <v>89</v>
       </c>
       <c r="B63">
-        <v>0.32879999999999998</v>
+        <v>0.55910000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -5638,7 +5673,7 @@
         <v>88</v>
       </c>
       <c r="B64">
-        <v>0.32290000000000002</v>
+        <v>0.55379999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -5646,7 +5681,7 @@
         <v>87</v>
       </c>
       <c r="B65">
-        <v>0.31709999999999999</v>
+        <v>0.54859999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -5654,7 +5689,7 @@
         <v>86</v>
       </c>
       <c r="B66">
-        <v>0.31130000000000002</v>
+        <v>0.54339999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -5662,7 +5697,7 @@
         <v>85</v>
       </c>
       <c r="B67">
-        <v>0.30570000000000003</v>
+        <v>0.53820000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -5670,7 +5705,7 @@
         <v>84</v>
       </c>
       <c r="B68">
-        <v>0.30020000000000002</v>
+        <v>0.53310000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -5678,7 +5713,7 @@
         <v>83</v>
       </c>
       <c r="B69">
-        <v>0.29480000000000001</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -5686,7 +5721,7 @@
         <v>82</v>
       </c>
       <c r="B70">
-        <v>0.28939999999999999</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -5694,7 +5729,7 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>0.28420000000000001</v>
+        <v>0.5181</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -5702,7 +5737,7 @@
         <v>80</v>
       </c>
       <c r="B72">
-        <v>0.27910000000000001</v>
+        <v>0.51319999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -5710,7 +5745,7 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.27400000000000002</v>
+        <v>0.50829999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -5718,7 +5753,7 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>0.26910000000000001</v>
+        <v>0.50349999999999995</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -5726,7 +5761,7 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.26419999999999999</v>
+        <v>0.49869999999999998</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -5734,7 +5769,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.25950000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -5742,7 +5777,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.25480000000000003</v>
+        <v>0.48930000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -5750,7 +5785,7 @@
         <v>74</v>
       </c>
       <c r="B78">
-        <v>0.25019999999999998</v>
+        <v>0.48459999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -5758,7 +5793,7 @@
         <v>73</v>
       </c>
       <c r="B79">
-        <v>0.24560000000000001</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -5766,7 +5801,7 @@
         <v>72</v>
       </c>
       <c r="B80">
-        <v>0.2412</v>
+        <v>0.47549999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -5774,7 +5809,7 @@
         <v>71</v>
       </c>
       <c r="B81">
-        <v>0.23680000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -5782,7 +5817,7 @@
         <v>70</v>
       </c>
       <c r="B82">
-        <v>0.2326</v>
+        <v>0.46650000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -5790,7 +5825,7 @@
         <v>69</v>
       </c>
       <c r="B83">
-        <v>0.22839999999999999</v>
+        <v>0.46210000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -5798,7 +5833,7 @@
         <v>68</v>
       </c>
       <c r="B84">
-        <v>0.22420000000000001</v>
+        <v>0.4577</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -5806,7 +5841,7 @@
         <v>67</v>
       </c>
       <c r="B85">
-        <v>0.22020000000000001</v>
+        <v>0.45340000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -5814,7 +5849,7 @@
         <v>66</v>
       </c>
       <c r="B86">
-        <v>0.2162</v>
+        <v>0.4491</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -5822,7 +5857,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>0.21229999999999999</v>
+        <v>0.44479999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -5830,7 +5865,7 @@
         <v>64</v>
       </c>
       <c r="B88">
-        <v>0.20849999999999999</v>
+        <v>0.44059999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -5838,7 +5873,7 @@
         <v>63</v>
       </c>
       <c r="B89">
-        <v>0.20469999999999999</v>
+        <v>0.43640000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -5846,7 +5881,7 @@
         <v>62</v>
       </c>
       <c r="B90">
-        <v>0.20100000000000001</v>
+        <v>0.43230000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -5854,7 +5889,7 @@
         <v>61</v>
       </c>
       <c r="B91">
-        <v>0.19739999999999999</v>
+        <v>0.42820000000000003</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -5862,7 +5897,7 @@
         <v>60</v>
       </c>
       <c r="B92">
-        <v>0.1938</v>
+        <v>0.42409999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -5870,7 +5905,7 @@
         <v>59</v>
       </c>
       <c r="B93">
-        <v>0.1903</v>
+        <v>0.42009999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -5878,7 +5913,7 @@
         <v>58</v>
       </c>
       <c r="B94">
-        <v>0.18690000000000001</v>
+        <v>0.41610000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -5886,7 +5921,7 @@
         <v>57</v>
       </c>
       <c r="B95">
-        <v>0.1835</v>
+        <v>0.41210000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -5894,7 +5929,7 @@
         <v>56</v>
       </c>
       <c r="B96">
-        <v>0.1802</v>
+        <v>0.40820000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -5902,7 +5937,7 @@
         <v>55</v>
       </c>
       <c r="B97">
-        <v>0.1769</v>
+        <v>0.40439999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -5910,7 +5945,7 @@
         <v>54</v>
       </c>
       <c r="B98">
-        <v>0.17369999999999999</v>
+        <v>0.40050000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -5918,7 +5953,7 @@
         <v>53</v>
       </c>
       <c r="B99">
-        <v>0.1706</v>
+        <v>0.3967</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -5926,7 +5961,7 @@
         <v>52</v>
       </c>
       <c r="B100">
-        <v>0.16750000000000001</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -5934,7 +5969,7 @@
         <v>51</v>
       </c>
       <c r="B101">
-        <v>0.16450000000000001</v>
+        <v>0.38919999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -5942,7 +5977,7 @@
         <v>50</v>
       </c>
       <c r="B102">
-        <v>0.1615</v>
+        <v>0.38550000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -5950,7 +5985,7 @@
         <v>49</v>
       </c>
       <c r="B103">
-        <v>0.15859999999999999</v>
+        <v>0.38190000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -5958,7 +5993,7 @@
         <v>48</v>
       </c>
       <c r="B104">
-        <v>0.15570000000000001</v>
+        <v>0.37830000000000003</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -5966,7 +6001,7 @@
         <v>47</v>
       </c>
       <c r="B105">
-        <v>0.15290000000000001</v>
+        <v>0.37469999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -5974,7 +6009,7 @@
         <v>46</v>
       </c>
       <c r="B106">
-        <v>0.15010000000000001</v>
+        <v>0.37109999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -5982,7 +6017,7 @@
         <v>45</v>
       </c>
       <c r="B107">
-        <v>0.1474</v>
+        <v>0.36759999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -5990,7 +6025,7 @@
         <v>44</v>
       </c>
       <c r="B108">
-        <v>0.14480000000000001</v>
+        <v>0.36409999999999998</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -5998,7 +6033,7 @@
         <v>43</v>
       </c>
       <c r="B109">
-        <v>0.14219999999999999</v>
+        <v>0.36070000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -6006,7 +6041,7 @@
         <v>42</v>
       </c>
       <c r="B110">
-        <v>0.1396</v>
+        <v>0.35720000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -6014,7 +6049,7 @@
         <v>41</v>
       </c>
       <c r="B111">
-        <v>0.1371</v>
+        <v>0.35389999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -6022,7 +6057,7 @@
         <v>40</v>
       </c>
       <c r="B112">
-        <v>0.1346</v>
+        <v>0.35049999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -6030,7 +6065,7 @@
         <v>39</v>
       </c>
       <c r="B113">
-        <v>0.13220000000000001</v>
+        <v>0.34720000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -6038,7 +6073,7 @@
         <v>38</v>
       </c>
       <c r="B114">
-        <v>0.1298</v>
+        <v>0.34389999999999998</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -6046,7 +6081,7 @@
         <v>37</v>
       </c>
       <c r="B115">
-        <v>0.12740000000000001</v>
+        <v>0.34060000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -6054,7 +6089,7 @@
         <v>36</v>
       </c>
       <c r="B116">
-        <v>0.12509999999999999</v>
+        <v>0.33739999999999998</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -6062,7 +6097,7 @@
         <v>35</v>
       </c>
       <c r="B117">
-        <v>0.1229</v>
+        <v>0.3342</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -6070,7 +6105,7 @@
         <v>34</v>
       </c>
       <c r="B118">
-        <v>0.1206</v>
+        <v>0.33100000000000002</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -6078,7 +6113,7 @@
         <v>33</v>
       </c>
       <c r="B119">
-        <v>0.11849999999999999</v>
+        <v>0.32790000000000002</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -6086,7 +6121,7 @@
         <v>32</v>
       </c>
       <c r="B120">
-        <v>0.1163</v>
+        <v>0.32479999999999998</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -6094,7 +6129,7 @@
         <v>31</v>
       </c>
       <c r="B121">
-        <v>0.1142</v>
+        <v>0.32169999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -6102,7 +6137,7 @@
         <v>30</v>
       </c>
       <c r="B122">
-        <v>0.11219999999999999</v>
+        <v>0.31859999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ED4501-FB01-4B86-B61E-4987963994CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F226660-55ED-405D-BDE4-61D83DD29EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -1609,9 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1717,7 +1715,7 @@
         <v>213840</v>
       </c>
       <c r="K3">
-        <v>14256</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1752,7 +1750,7 @@
         <v>211701</v>
       </c>
       <c r="K4">
-        <v>14113</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1787,7 +1785,7 @@
         <v>209584</v>
       </c>
       <c r="K5">
-        <v>13972</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1822,7 +1820,7 @@
         <v>207488</v>
       </c>
       <c r="K6">
-        <v>13832</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1857,7 +1855,7 @@
         <v>205413</v>
       </c>
       <c r="K7">
-        <v>13694</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1892,7 +1890,7 @@
         <v>203359</v>
       </c>
       <c r="K8">
-        <v>13557</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1927,7 +1925,7 @@
         <v>201326</v>
       </c>
       <c r="K9">
-        <v>13421</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1962,7 +1960,7 @@
         <v>199312</v>
       </c>
       <c r="K10">
-        <v>13287</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1997,7 +1995,7 @@
         <v>197319</v>
       </c>
       <c r="K11">
-        <v>13154</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2032,7 +2030,7 @@
         <v>195346</v>
       </c>
       <c r="K12">
-        <v>13023</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2067,7 +2065,7 @@
         <v>193393</v>
       </c>
       <c r="K13">
-        <v>12892</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2102,7 +2100,7 @@
         <v>191459</v>
       </c>
       <c r="K14">
-        <v>12763</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2137,7 +2135,7 @@
         <v>189544</v>
       </c>
       <c r="K15">
-        <v>12636</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2172,7 +2170,7 @@
         <v>187649</v>
       </c>
       <c r="K16">
-        <v>12509</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2207,7 +2205,7 @@
         <v>185772</v>
       </c>
       <c r="K17">
-        <v>12384</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2242,7 +2240,7 @@
         <v>183914</v>
       </c>
       <c r="K18">
-        <v>12260</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2277,7 +2275,7 @@
         <v>182075</v>
       </c>
       <c r="K19">
-        <v>12138</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2312,7 +2310,7 @@
         <v>180254</v>
       </c>
       <c r="K20">
-        <v>12016</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2347,7 +2345,7 @@
         <v>178452</v>
       </c>
       <c r="K21">
-        <v>11896</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2382,7 +2380,7 @@
         <v>176667</v>
       </c>
       <c r="K22">
-        <v>11777</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2417,7 +2415,7 @@
         <v>174901</v>
       </c>
       <c r="K23">
-        <v>11660</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2452,7 +2450,7 @@
         <v>173152</v>
       </c>
       <c r="K24">
-        <v>11543</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2487,7 +2485,7 @@
         <v>171420</v>
       </c>
       <c r="K25">
-        <v>11428</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2522,7 +2520,7 @@
         <v>169706</v>
       </c>
       <c r="K26">
-        <v>11313</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2557,7 +2555,7 @@
         <v>168009</v>
       </c>
       <c r="K27">
-        <v>11200</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2592,7 +2590,7 @@
         <v>166329</v>
       </c>
       <c r="K28">
-        <v>11088</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2627,7 +2625,7 @@
         <v>164666</v>
       </c>
       <c r="K29">
-        <v>10977</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2662,7 +2660,7 @@
         <v>163019</v>
       </c>
       <c r="K30">
-        <v>10867</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2697,7 +2695,7 @@
         <v>161389</v>
       </c>
       <c r="K31">
-        <v>10759</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2732,7 +2730,7 @@
         <v>159775</v>
       </c>
       <c r="K32">
-        <v>10651</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2767,7 +2765,7 @@
         <v>158177</v>
       </c>
       <c r="K33">
-        <v>10545</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2802,7 +2800,7 @@
         <v>156595</v>
       </c>
       <c r="K34">
-        <v>10439</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2837,7 +2835,7 @@
         <v>155029</v>
       </c>
       <c r="K35">
-        <v>10335</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2872,7 +2870,7 @@
         <v>153479</v>
       </c>
       <c r="K36">
-        <v>10231</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2907,7 +2905,7 @@
         <v>151944</v>
       </c>
       <c r="K37">
-        <v>10129</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2942,7 +2940,7 @@
         <v>150425</v>
       </c>
       <c r="K38">
-        <v>10028</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2977,7 +2975,7 @@
         <v>148921</v>
       </c>
       <c r="K39">
-        <v>9928</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3012,7 +3010,7 @@
         <v>147431</v>
       </c>
       <c r="K40">
-        <v>9828</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3047,7 +3045,7 @@
         <v>145957</v>
       </c>
       <c r="K41">
-        <v>9730</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3082,7 +3080,7 @@
         <v>144497</v>
       </c>
       <c r="K42">
-        <v>9633</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3117,7 +3115,7 @@
         <v>143052</v>
       </c>
       <c r="K43">
-        <v>9536</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3152,7 +3150,7 @@
         <v>141622</v>
       </c>
       <c r="K44">
-        <v>9441</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3187,7 +3185,7 @@
         <v>140206</v>
       </c>
       <c r="K45">
-        <v>9347</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3222,7 +3220,7 @@
         <v>138804</v>
       </c>
       <c r="K46">
-        <v>9253</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3257,7 +3255,7 @@
         <v>137416</v>
       </c>
       <c r="K47">
-        <v>9161</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3292,7 +3290,7 @@
         <v>136041</v>
       </c>
       <c r="K48">
-        <v>9069</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3327,7 +3325,7 @@
         <v>134681</v>
       </c>
       <c r="K49">
-        <v>8978</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3362,7 +3360,7 @@
         <v>133334</v>
       </c>
       <c r="K50">
-        <v>8888</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3397,7 +3395,7 @@
         <v>132001</v>
       </c>
       <c r="K51">
-        <v>8800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3432,7 +3430,7 @@
         <v>130681</v>
       </c>
       <c r="K52">
-        <v>8712</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3467,7 +3465,7 @@
         <v>129374</v>
       </c>
       <c r="K53">
-        <v>8624</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3502,7 +3500,7 @@
         <v>128080</v>
       </c>
       <c r="K54">
-        <v>8538</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3537,7 +3535,7 @@
         <v>126799</v>
       </c>
       <c r="K55">
-        <v>8453</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3572,7 +3570,7 @@
         <v>125531</v>
       </c>
       <c r="K56">
-        <v>8368</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3607,7 +3605,7 @@
         <v>124276</v>
       </c>
       <c r="K57">
-        <v>8285</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3642,7 +3640,7 @@
         <v>123033</v>
       </c>
       <c r="K58">
-        <v>8202</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3677,7 +3675,7 @@
         <v>121803</v>
       </c>
       <c r="K59">
-        <v>8120</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3712,7 +3710,7 @@
         <v>120585</v>
       </c>
       <c r="K60">
-        <v>8039</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3747,7 +3745,7 @@
         <v>119379</v>
       </c>
       <c r="K61">
-        <v>7958</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3782,7 +3780,7 @@
         <v>118185</v>
       </c>
       <c r="K62">
-        <v>7879</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3817,7 +3815,7 @@
         <v>117003</v>
       </c>
       <c r="K63">
-        <v>7800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3852,7 +3850,7 @@
         <v>115833</v>
       </c>
       <c r="K64">
-        <v>7722</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3887,7 +3885,7 @@
         <v>114675</v>
       </c>
       <c r="K65">
-        <v>7645</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3922,7 +3920,7 @@
         <v>113528</v>
       </c>
       <c r="K66">
-        <v>7568</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3957,7 +3955,7 @@
         <v>112393</v>
       </c>
       <c r="K67">
-        <v>7492</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3992,7 +3990,7 @@
         <v>111269</v>
       </c>
       <c r="K68">
-        <v>7417</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4027,7 +4025,7 @@
         <v>110156</v>
       </c>
       <c r="K69">
-        <v>7343</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4062,7 +4060,7 @@
         <v>109055</v>
       </c>
       <c r="K70">
-        <v>7270</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4097,7 +4095,7 @@
         <v>107964</v>
       </c>
       <c r="K71">
-        <v>7197</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4132,7 +4130,7 @@
         <v>106885</v>
       </c>
       <c r="K72">
-        <v>7125</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4167,7 +4165,7 @@
         <v>105816</v>
       </c>
       <c r="K73">
-        <v>7054</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4202,7 +4200,7 @@
         <v>104758</v>
       </c>
       <c r="K74">
-        <v>6983</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4237,7 +4235,7 @@
         <v>103710</v>
       </c>
       <c r="K75">
-        <v>6914</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4272,7 +4270,7 @@
         <v>102673</v>
       </c>
       <c r="K76">
-        <v>6844</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4307,7 +4305,7 @@
         <v>101646</v>
       </c>
       <c r="K77">
-        <v>6776</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4342,7 +4340,7 @@
         <v>100630</v>
       </c>
       <c r="K78">
-        <v>6708</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4377,7 +4375,7 @@
         <v>99623</v>
       </c>
       <c r="K79">
-        <v>6641</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4412,7 +4410,7 @@
         <v>98627</v>
       </c>
       <c r="K80">
-        <v>6575</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4447,7 +4445,7 @@
         <v>97641</v>
       </c>
       <c r="K81">
-        <v>6509</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4482,7 +4480,7 @@
         <v>96665</v>
       </c>
       <c r="K82">
-        <v>6444</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4517,7 +4515,7 @@
         <v>95698</v>
       </c>
       <c r="K83">
-        <v>6379</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4552,7 +4550,7 @@
         <v>94741</v>
       </c>
       <c r="K84">
-        <v>6316</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4587,7 +4585,7 @@
         <v>93793</v>
       </c>
       <c r="K85">
-        <v>6252</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4622,7 +4620,7 @@
         <v>92856</v>
       </c>
       <c r="K86">
-        <v>6190</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4657,7 +4655,7 @@
         <v>91927</v>
       </c>
       <c r="K87">
-        <v>6128</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4692,7 +4690,7 @@
         <v>91008</v>
       </c>
       <c r="K88">
-        <v>6067</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4727,7 +4725,7 @@
         <v>90098</v>
       </c>
       <c r="K89">
-        <v>6006</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4762,7 +4760,7 @@
         <v>89197</v>
       </c>
       <c r="K90">
-        <v>5946</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -4797,7 +4795,7 @@
         <v>88305</v>
       </c>
       <c r="K91">
-        <v>5887</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4832,7 +4830,7 @@
         <v>87422</v>
       </c>
       <c r="K92">
-        <v>5828</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4867,7 +4865,7 @@
         <v>86547</v>
       </c>
       <c r="K93">
-        <v>5769</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -4902,7 +4900,7 @@
         <v>85682</v>
       </c>
       <c r="K94">
-        <v>5712</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4937,7 +4935,7 @@
         <v>84825</v>
       </c>
       <c r="K95">
-        <v>5655</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4972,7 +4970,7 @@
         <v>83977</v>
       </c>
       <c r="K96">
-        <v>5598</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5007,7 +5005,7 @@
         <v>83137</v>
       </c>
       <c r="K97">
-        <v>5542</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5042,7 +5040,7 @@
         <v>82306</v>
       </c>
       <c r="K98">
-        <v>5487</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5077,7 +5075,7 @@
         <v>81483</v>
       </c>
       <c r="K99">
-        <v>5432</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5112,7 +5110,7 @@
         <v>80668</v>
       </c>
       <c r="K100">
-        <v>5377</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5147,7 +5145,7 @@
         <v>79861</v>
       </c>
       <c r="K101">
-        <v>5324</v>
+        <v>14400</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F226660-55ED-405D-BDE4-61D83DD29EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1F9877-2708-4CEC-82B9-A87A35E115C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -1609,7 +1609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1665,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>62.5</v>
+        <v>750</v>
       </c>
       <c r="G2">
         <v>86400</v>
@@ -1680,7 +1682,7 @@
         <v>216000</v>
       </c>
       <c r="K2">
-        <v>14400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1700,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>64.5</v>
+        <v>258</v>
       </c>
       <c r="G3">
         <v>85536</v>
@@ -1715,7 +1717,7 @@
         <v>213840</v>
       </c>
       <c r="K3">
-        <v>14400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1735,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>66.5</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>84680</v>
@@ -1750,7 +1752,7 @@
         <v>211701</v>
       </c>
       <c r="K4">
-        <v>14400</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1785,7 +1787,7 @@
         <v>209584</v>
       </c>
       <c r="K5">
-        <v>14400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1820,7 +1822,7 @@
         <v>207488</v>
       </c>
       <c r="K6">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1855,7 +1857,7 @@
         <v>205413</v>
       </c>
       <c r="K7">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1890,7 +1892,7 @@
         <v>203359</v>
       </c>
       <c r="K8">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1925,7 +1927,7 @@
         <v>201326</v>
       </c>
       <c r="K9">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1960,7 +1962,7 @@
         <v>199312</v>
       </c>
       <c r="K10">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1995,7 +1997,7 @@
         <v>197319</v>
       </c>
       <c r="K11">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2030,7 +2032,7 @@
         <v>195346</v>
       </c>
       <c r="K12">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2065,7 +2067,7 @@
         <v>193393</v>
       </c>
       <c r="K13">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2100,7 +2102,7 @@
         <v>191459</v>
       </c>
       <c r="K14">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2135,7 +2137,7 @@
         <v>189544</v>
       </c>
       <c r="K15">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2170,7 +2172,7 @@
         <v>187649</v>
       </c>
       <c r="K16">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2205,7 +2207,7 @@
         <v>185772</v>
       </c>
       <c r="K17">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2240,7 +2242,7 @@
         <v>183914</v>
       </c>
       <c r="K18">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2275,7 +2277,7 @@
         <v>182075</v>
       </c>
       <c r="K19">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2310,7 +2312,7 @@
         <v>180254</v>
       </c>
       <c r="K20">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2345,7 +2347,7 @@
         <v>178452</v>
       </c>
       <c r="K21">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2380,7 +2382,7 @@
         <v>176667</v>
       </c>
       <c r="K22">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2415,7 +2417,7 @@
         <v>174901</v>
       </c>
       <c r="K23">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2450,7 +2452,7 @@
         <v>173152</v>
       </c>
       <c r="K24">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2485,7 +2487,7 @@
         <v>171420</v>
       </c>
       <c r="K25">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2520,7 +2522,7 @@
         <v>169706</v>
       </c>
       <c r="K26">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2555,7 +2557,7 @@
         <v>168009</v>
       </c>
       <c r="K27">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2590,7 +2592,7 @@
         <v>166329</v>
       </c>
       <c r="K28">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2625,7 +2627,7 @@
         <v>164666</v>
       </c>
       <c r="K29">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2660,7 +2662,7 @@
         <v>163019</v>
       </c>
       <c r="K30">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2695,7 +2697,7 @@
         <v>161389</v>
       </c>
       <c r="K31">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2730,7 +2732,7 @@
         <v>159775</v>
       </c>
       <c r="K32">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2765,7 +2767,7 @@
         <v>158177</v>
       </c>
       <c r="K33">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2800,7 +2802,7 @@
         <v>156595</v>
       </c>
       <c r="K34">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2835,7 +2837,7 @@
         <v>155029</v>
       </c>
       <c r="K35">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2870,7 +2872,7 @@
         <v>153479</v>
       </c>
       <c r="K36">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2905,7 +2907,7 @@
         <v>151944</v>
       </c>
       <c r="K37">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2940,7 +2942,7 @@
         <v>150425</v>
       </c>
       <c r="K38">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2975,7 +2977,7 @@
         <v>148921</v>
       </c>
       <c r="K39">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3010,7 +3012,7 @@
         <v>147431</v>
       </c>
       <c r="K40">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3045,7 +3047,7 @@
         <v>145957</v>
       </c>
       <c r="K41">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3080,7 +3082,7 @@
         <v>144497</v>
       </c>
       <c r="K42">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3115,7 +3117,7 @@
         <v>143052</v>
       </c>
       <c r="K43">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3150,7 +3152,7 @@
         <v>141622</v>
       </c>
       <c r="K44">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3185,7 +3187,7 @@
         <v>140206</v>
       </c>
       <c r="K45">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3220,7 +3222,7 @@
         <v>138804</v>
       </c>
       <c r="K46">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3255,7 +3257,7 @@
         <v>137416</v>
       </c>
       <c r="K47">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3290,7 +3292,7 @@
         <v>136041</v>
       </c>
       <c r="K48">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3325,7 +3327,7 @@
         <v>134681</v>
       </c>
       <c r="K49">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3360,7 +3362,7 @@
         <v>133334</v>
       </c>
       <c r="K50">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3395,7 +3397,7 @@
         <v>132001</v>
       </c>
       <c r="K51">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3430,7 +3432,7 @@
         <v>130681</v>
       </c>
       <c r="K52">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3465,7 +3467,7 @@
         <v>129374</v>
       </c>
       <c r="K53">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3500,7 +3502,7 @@
         <v>128080</v>
       </c>
       <c r="K54">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3535,7 +3537,7 @@
         <v>126799</v>
       </c>
       <c r="K55">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3570,7 +3572,7 @@
         <v>125531</v>
       </c>
       <c r="K56">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3605,7 +3607,7 @@
         <v>124276</v>
       </c>
       <c r="K57">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3640,7 +3642,7 @@
         <v>123033</v>
       </c>
       <c r="K58">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3675,7 +3677,7 @@
         <v>121803</v>
       </c>
       <c r="K59">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3710,7 +3712,7 @@
         <v>120585</v>
       </c>
       <c r="K60">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3745,7 +3747,7 @@
         <v>119379</v>
       </c>
       <c r="K61">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3780,7 +3782,7 @@
         <v>118185</v>
       </c>
       <c r="K62">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3815,7 +3817,7 @@
         <v>117003</v>
       </c>
       <c r="K63">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3850,7 +3852,7 @@
         <v>115833</v>
       </c>
       <c r="K64">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3885,7 +3887,7 @@
         <v>114675</v>
       </c>
       <c r="K65">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3920,7 +3922,7 @@
         <v>113528</v>
       </c>
       <c r="K66">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3955,7 +3957,7 @@
         <v>112393</v>
       </c>
       <c r="K67">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3990,7 +3992,7 @@
         <v>111269</v>
       </c>
       <c r="K68">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4025,7 +4027,7 @@
         <v>110156</v>
       </c>
       <c r="K69">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4060,7 +4062,7 @@
         <v>109055</v>
       </c>
       <c r="K70">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4095,7 +4097,7 @@
         <v>107964</v>
       </c>
       <c r="K71">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4130,7 +4132,7 @@
         <v>106885</v>
       </c>
       <c r="K72">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4165,7 +4167,7 @@
         <v>105816</v>
       </c>
       <c r="K73">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4200,7 +4202,7 @@
         <v>104758</v>
       </c>
       <c r="K74">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4235,7 +4237,7 @@
         <v>103710</v>
       </c>
       <c r="K75">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4270,7 +4272,7 @@
         <v>102673</v>
       </c>
       <c r="K76">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4305,7 +4307,7 @@
         <v>101646</v>
       </c>
       <c r="K77">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4340,7 +4342,7 @@
         <v>100630</v>
       </c>
       <c r="K78">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4375,7 +4377,7 @@
         <v>99623</v>
       </c>
       <c r="K79">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4410,7 +4412,7 @@
         <v>98627</v>
       </c>
       <c r="K80">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4445,7 +4447,7 @@
         <v>97641</v>
       </c>
       <c r="K81">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4480,7 +4482,7 @@
         <v>96665</v>
       </c>
       <c r="K82">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4515,7 +4517,7 @@
         <v>95698</v>
       </c>
       <c r="K83">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4550,7 +4552,7 @@
         <v>94741</v>
       </c>
       <c r="K84">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4585,7 +4587,7 @@
         <v>93793</v>
       </c>
       <c r="K85">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4620,7 +4622,7 @@
         <v>92856</v>
       </c>
       <c r="K86">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4655,7 +4657,7 @@
         <v>91927</v>
       </c>
       <c r="K87">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4690,7 +4692,7 @@
         <v>91008</v>
       </c>
       <c r="K88">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4725,7 +4727,7 @@
         <v>90098</v>
       </c>
       <c r="K89">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4760,7 +4762,7 @@
         <v>89197</v>
       </c>
       <c r="K90">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -4795,7 +4797,7 @@
         <v>88305</v>
       </c>
       <c r="K91">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4830,7 +4832,7 @@
         <v>87422</v>
       </c>
       <c r="K92">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4865,7 +4867,7 @@
         <v>86547</v>
       </c>
       <c r="K93">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -4900,7 +4902,7 @@
         <v>85682</v>
       </c>
       <c r="K94">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4935,7 +4937,7 @@
         <v>84825</v>
       </c>
       <c r="K95">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4970,7 +4972,7 @@
         <v>83977</v>
       </c>
       <c r="K96">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5005,7 +5007,7 @@
         <v>83137</v>
       </c>
       <c r="K97">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5040,7 +5042,7 @@
         <v>82306</v>
       </c>
       <c r="K98">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5075,7 +5077,7 @@
         <v>81483</v>
       </c>
       <c r="K99">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5110,7 +5112,7 @@
         <v>80668</v>
       </c>
       <c r="K100">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5145,7 +5147,7 @@
         <v>79861</v>
       </c>
       <c r="K101">
-        <v>14400</v>
+        <v>13832</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1F9877-2708-4CEC-82B9-A87A35E115C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0514973-94F7-426D-B076-B3A290AC62E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -1857,7 +1857,7 @@
         <v>205413</v>
       </c>
       <c r="K7">
-        <v>13832</v>
+        <v>13694</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1892,7 +1892,7 @@
         <v>203359</v>
       </c>
       <c r="K8">
-        <v>13832</v>
+        <v>13557</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1927,7 +1927,7 @@
         <v>201326</v>
       </c>
       <c r="K9">
-        <v>13832</v>
+        <v>13421</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1962,7 +1962,7 @@
         <v>199312</v>
       </c>
       <c r="K10">
-        <v>13832</v>
+        <v>13287</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1997,7 +1997,7 @@
         <v>197319</v>
       </c>
       <c r="K11">
-        <v>13832</v>
+        <v>13154</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
         <v>195346</v>
       </c>
       <c r="K12">
-        <v>13832</v>
+        <v>13023</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2067,7 +2067,7 @@
         <v>193393</v>
       </c>
       <c r="K13">
-        <v>13832</v>
+        <v>12892</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2102,7 +2102,7 @@
         <v>191459</v>
       </c>
       <c r="K14">
-        <v>13832</v>
+        <v>12763</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2137,7 +2137,7 @@
         <v>189544</v>
       </c>
       <c r="K15">
-        <v>13832</v>
+        <v>12636</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
         <v>187649</v>
       </c>
       <c r="K16">
-        <v>13832</v>
+        <v>12509</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2207,7 +2207,7 @@
         <v>185772</v>
       </c>
       <c r="K17">
-        <v>13832</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2242,7 +2242,7 @@
         <v>183914</v>
       </c>
       <c r="K18">
-        <v>13832</v>
+        <v>12260</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2277,7 +2277,7 @@
         <v>182075</v>
       </c>
       <c r="K19">
-        <v>13832</v>
+        <v>12138</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2312,7 +2312,7 @@
         <v>180254</v>
       </c>
       <c r="K20">
-        <v>13832</v>
+        <v>12016</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2347,7 +2347,7 @@
         <v>178452</v>
       </c>
       <c r="K21">
-        <v>13832</v>
+        <v>11896</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2382,7 +2382,7 @@
         <v>176667</v>
       </c>
       <c r="K22">
-        <v>13832</v>
+        <v>11777</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2417,7 +2417,7 @@
         <v>174901</v>
       </c>
       <c r="K23">
-        <v>13832</v>
+        <v>11660</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2452,7 +2452,7 @@
         <v>173152</v>
       </c>
       <c r="K24">
-        <v>13832</v>
+        <v>11543</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2487,7 +2487,7 @@
         <v>171420</v>
       </c>
       <c r="K25">
-        <v>13832</v>
+        <v>11428</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2522,7 +2522,7 @@
         <v>169706</v>
       </c>
       <c r="K26">
-        <v>13832</v>
+        <v>11313</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2557,7 +2557,7 @@
         <v>168009</v>
       </c>
       <c r="K27">
-        <v>13832</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2592,7 +2592,7 @@
         <v>166329</v>
       </c>
       <c r="K28">
-        <v>13832</v>
+        <v>11088</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2627,7 +2627,7 @@
         <v>164666</v>
       </c>
       <c r="K29">
-        <v>13832</v>
+        <v>10977</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
         <v>163019</v>
       </c>
       <c r="K30">
-        <v>13832</v>
+        <v>10867</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2697,7 +2697,7 @@
         <v>161389</v>
       </c>
       <c r="K31">
-        <v>13832</v>
+        <v>10759</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2732,7 +2732,7 @@
         <v>159775</v>
       </c>
       <c r="K32">
-        <v>13832</v>
+        <v>10651</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2767,7 +2767,7 @@
         <v>158177</v>
       </c>
       <c r="K33">
-        <v>13832</v>
+        <v>10545</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2802,7 +2802,7 @@
         <v>156595</v>
       </c>
       <c r="K34">
-        <v>13832</v>
+        <v>10439</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2837,7 +2837,7 @@
         <v>155029</v>
       </c>
       <c r="K35">
-        <v>13832</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2872,7 +2872,7 @@
         <v>153479</v>
       </c>
       <c r="K36">
-        <v>13832</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2907,7 +2907,7 @@
         <v>151944</v>
       </c>
       <c r="K37">
-        <v>13832</v>
+        <v>10129</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2942,7 +2942,7 @@
         <v>150425</v>
       </c>
       <c r="K38">
-        <v>13832</v>
+        <v>10028</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2977,7 +2977,7 @@
         <v>148921</v>
       </c>
       <c r="K39">
-        <v>13832</v>
+        <v>9928</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3012,7 +3012,7 @@
         <v>147431</v>
       </c>
       <c r="K40">
-        <v>13832</v>
+        <v>9828</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3047,7 +3047,7 @@
         <v>145957</v>
       </c>
       <c r="K41">
-        <v>13832</v>
+        <v>9730</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3082,7 +3082,7 @@
         <v>144497</v>
       </c>
       <c r="K42">
-        <v>13832</v>
+        <v>9633</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3117,7 +3117,7 @@
         <v>143052</v>
       </c>
       <c r="K43">
-        <v>13832</v>
+        <v>9536</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3152,7 +3152,7 @@
         <v>141622</v>
       </c>
       <c r="K44">
-        <v>13832</v>
+        <v>9441</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3187,7 +3187,7 @@
         <v>140206</v>
       </c>
       <c r="K45">
-        <v>13832</v>
+        <v>9347</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3222,7 +3222,7 @@
         <v>138804</v>
       </c>
       <c r="K46">
-        <v>13832</v>
+        <v>9253</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3257,7 +3257,7 @@
         <v>137416</v>
       </c>
       <c r="K47">
-        <v>13832</v>
+        <v>9161</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3292,7 +3292,7 @@
         <v>136041</v>
       </c>
       <c r="K48">
-        <v>13832</v>
+        <v>9069</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3327,7 +3327,7 @@
         <v>134681</v>
       </c>
       <c r="K49">
-        <v>13832</v>
+        <v>8978</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3362,7 +3362,7 @@
         <v>133334</v>
       </c>
       <c r="K50">
-        <v>13832</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3397,7 +3397,7 @@
         <v>132001</v>
       </c>
       <c r="K51">
-        <v>13832</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3432,7 +3432,7 @@
         <v>130681</v>
       </c>
       <c r="K52">
-        <v>13832</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3467,7 +3467,7 @@
         <v>129374</v>
       </c>
       <c r="K53">
-        <v>13832</v>
+        <v>8624</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3502,7 +3502,7 @@
         <v>128080</v>
       </c>
       <c r="K54">
-        <v>13832</v>
+        <v>8538</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3537,7 +3537,7 @@
         <v>126799</v>
       </c>
       <c r="K55">
-        <v>13832</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3572,7 +3572,7 @@
         <v>125531</v>
       </c>
       <c r="K56">
-        <v>13832</v>
+        <v>8368</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3607,7 +3607,7 @@
         <v>124276</v>
       </c>
       <c r="K57">
-        <v>13832</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3642,7 +3642,7 @@
         <v>123033</v>
       </c>
       <c r="K58">
-        <v>13832</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3677,7 +3677,7 @@
         <v>121803</v>
       </c>
       <c r="K59">
-        <v>13832</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3712,7 +3712,7 @@
         <v>120585</v>
       </c>
       <c r="K60">
-        <v>13832</v>
+        <v>8039</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3747,7 +3747,7 @@
         <v>119379</v>
       </c>
       <c r="K61">
-        <v>13832</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3782,7 +3782,7 @@
         <v>118185</v>
       </c>
       <c r="K62">
-        <v>13832</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3817,7 +3817,7 @@
         <v>117003</v>
       </c>
       <c r="K63">
-        <v>13832</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3852,7 +3852,7 @@
         <v>115833</v>
       </c>
       <c r="K64">
-        <v>13832</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3887,7 +3887,7 @@
         <v>114675</v>
       </c>
       <c r="K65">
-        <v>13832</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3922,7 +3922,7 @@
         <v>113528</v>
       </c>
       <c r="K66">
-        <v>13832</v>
+        <v>7568</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3957,7 +3957,7 @@
         <v>112393</v>
       </c>
       <c r="K67">
-        <v>13832</v>
+        <v>7492</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3992,7 +3992,7 @@
         <v>111269</v>
       </c>
       <c r="K68">
-        <v>13832</v>
+        <v>7417</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4027,7 +4027,7 @@
         <v>110156</v>
       </c>
       <c r="K69">
-        <v>13832</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4062,7 +4062,7 @@
         <v>109055</v>
       </c>
       <c r="K70">
-        <v>13832</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4097,7 +4097,7 @@
         <v>107964</v>
       </c>
       <c r="K71">
-        <v>13832</v>
+        <v>7197</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
         <v>106885</v>
       </c>
       <c r="K72">
-        <v>13832</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4167,7 +4167,7 @@
         <v>105816</v>
       </c>
       <c r="K73">
-        <v>13832</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4202,7 +4202,7 @@
         <v>104758</v>
       </c>
       <c r="K74">
-        <v>13832</v>
+        <v>6983</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4237,7 +4237,7 @@
         <v>103710</v>
       </c>
       <c r="K75">
-        <v>13832</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4272,7 +4272,7 @@
         <v>102673</v>
       </c>
       <c r="K76">
-        <v>13832</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4307,7 +4307,7 @@
         <v>101646</v>
       </c>
       <c r="K77">
-        <v>13832</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4342,7 +4342,7 @@
         <v>100630</v>
       </c>
       <c r="K78">
-        <v>13832</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4377,7 +4377,7 @@
         <v>99623</v>
       </c>
       <c r="K79">
-        <v>13832</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4412,7 +4412,7 @@
         <v>98627</v>
       </c>
       <c r="K80">
-        <v>13832</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4447,7 +4447,7 @@
         <v>97641</v>
       </c>
       <c r="K81">
-        <v>13832</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4482,7 +4482,7 @@
         <v>96665</v>
       </c>
       <c r="K82">
-        <v>13832</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4517,7 +4517,7 @@
         <v>95698</v>
       </c>
       <c r="K83">
-        <v>13832</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4552,7 +4552,7 @@
         <v>94741</v>
       </c>
       <c r="K84">
-        <v>13832</v>
+        <v>6316</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4587,7 +4587,7 @@
         <v>93793</v>
       </c>
       <c r="K85">
-        <v>13832</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4622,7 +4622,7 @@
         <v>92856</v>
       </c>
       <c r="K86">
-        <v>13832</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4657,7 +4657,7 @@
         <v>91927</v>
       </c>
       <c r="K87">
-        <v>13832</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4692,7 +4692,7 @@
         <v>91008</v>
       </c>
       <c r="K88">
-        <v>13832</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4727,7 +4727,7 @@
         <v>90098</v>
       </c>
       <c r="K89">
-        <v>13832</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4762,7 +4762,7 @@
         <v>89197</v>
       </c>
       <c r="K90">
-        <v>13832</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -4797,7 +4797,7 @@
         <v>88305</v>
       </c>
       <c r="K91">
-        <v>13832</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4832,7 +4832,7 @@
         <v>87422</v>
       </c>
       <c r="K92">
-        <v>13832</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4867,7 +4867,7 @@
         <v>86547</v>
       </c>
       <c r="K93">
-        <v>13832</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -4902,7 +4902,7 @@
         <v>85682</v>
       </c>
       <c r="K94">
-        <v>13832</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4937,7 +4937,7 @@
         <v>84825</v>
       </c>
       <c r="K95">
-        <v>13832</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4972,7 +4972,7 @@
         <v>83977</v>
       </c>
       <c r="K96">
-        <v>13832</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5007,7 +5007,7 @@
         <v>83137</v>
       </c>
       <c r="K97">
-        <v>13832</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5042,7 +5042,7 @@
         <v>82306</v>
       </c>
       <c r="K98">
-        <v>13832</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5077,7 +5077,7 @@
         <v>81483</v>
       </c>
       <c r="K99">
-        <v>13832</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5112,7 +5112,7 @@
         <v>80668</v>
       </c>
       <c r="K100">
-        <v>13832</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5147,7 +5147,7 @@
         <v>79861</v>
       </c>
       <c r="K101">
-        <v>13832</v>
+        <v>5324</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0514973-94F7-426D-B076-B3A290AC62E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C77705-2CDE-405B-BEF8-C5EB6510D962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="G2">
         <v>86400</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>258</v>
+        <v>516</v>
       </c>
       <c r="G3">
         <v>85536</v>
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="G4">
         <v>84680</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>68.5</v>
+        <v>137</v>
       </c>
       <c r="G5">
         <v>83833</v>
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>70.5</v>
+        <v>141</v>
       </c>
       <c r="G6">
         <v>82995</v>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>72.5</v>
+        <v>145</v>
       </c>
       <c r="G7">
         <v>82165</v>
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>74.5</v>
+        <v>149</v>
       </c>
       <c r="G8">
         <v>81343</v>
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>76.5</v>
+        <v>153</v>
       </c>
       <c r="G9">
         <v>80530</v>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>78.5</v>
+        <v>157</v>
       </c>
       <c r="G10">
         <v>79725</v>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>80.5</v>
+        <v>161</v>
       </c>
       <c r="G11">
         <v>78927</v>
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>82.5</v>
+        <v>165</v>
       </c>
       <c r="G12">
         <v>78138</v>
@@ -2052,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>84.5</v>
+        <v>169</v>
       </c>
       <c r="G13">
         <v>77357</v>
@@ -2087,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>86.5</v>
+        <v>173</v>
       </c>
       <c r="G14">
         <v>76583</v>
@@ -2122,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>88.5</v>
+        <v>177</v>
       </c>
       <c r="G15">
         <v>75817</v>
@@ -2157,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>90.5</v>
+        <v>181</v>
       </c>
       <c r="G16">
         <v>75059</v>
@@ -2192,7 +2192,7 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>92.5</v>
+        <v>185</v>
       </c>
       <c r="G17">
         <v>74309</v>
@@ -2227,7 +2227,7 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>94.5</v>
+        <v>189</v>
       </c>
       <c r="G18">
         <v>73565</v>
@@ -2262,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <v>96.5</v>
+        <v>193</v>
       </c>
       <c r="G19">
         <v>72830</v>
@@ -2297,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>98.5</v>
+        <v>197</v>
       </c>
       <c r="G20">
         <v>72101</v>
@@ -2332,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>100.5</v>
+        <v>201</v>
       </c>
       <c r="G21">
         <v>71380</v>
@@ -2367,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>102.5</v>
+        <v>205</v>
       </c>
       <c r="G22">
         <v>70667</v>
@@ -2402,7 +2402,7 @@
         <v>6</v>
       </c>
       <c r="F23">
-        <v>104.5</v>
+        <v>209</v>
       </c>
       <c r="G23">
         <v>69960</v>
@@ -2437,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="F24">
-        <v>106.5</v>
+        <v>213</v>
       </c>
       <c r="G24">
         <v>69260</v>
@@ -2472,7 +2472,7 @@
         <v>7</v>
       </c>
       <c r="F25">
-        <v>108.5</v>
+        <v>217</v>
       </c>
       <c r="G25">
         <v>68568</v>
@@ -2507,7 +2507,7 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>110.5</v>
+        <v>221</v>
       </c>
       <c r="G26">
         <v>67882</v>
@@ -2542,7 +2542,7 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <v>112.5</v>
+        <v>225</v>
       </c>
       <c r="G27">
         <v>67203</v>
@@ -2577,7 +2577,7 @@
         <v>9</v>
       </c>
       <c r="F28">
-        <v>114.5</v>
+        <v>229</v>
       </c>
       <c r="G28">
         <v>66531</v>
@@ -2612,7 +2612,7 @@
         <v>9</v>
       </c>
       <c r="F29">
-        <v>116.5</v>
+        <v>233</v>
       </c>
       <c r="G29">
         <v>65866</v>
@@ -2647,7 +2647,7 @@
         <v>10</v>
       </c>
       <c r="F30">
-        <v>118.5</v>
+        <v>237</v>
       </c>
       <c r="G30">
         <v>65207</v>
@@ -2682,7 +2682,7 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <v>120.5</v>
+        <v>241</v>
       </c>
       <c r="G31">
         <v>64555</v>
@@ -2717,7 +2717,7 @@
         <v>11</v>
       </c>
       <c r="F32">
-        <v>122.5</v>
+        <v>245</v>
       </c>
       <c r="G32">
         <v>63910</v>
@@ -2752,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="F33">
-        <v>124.5</v>
+        <v>249</v>
       </c>
       <c r="G33">
         <v>63271</v>
@@ -2787,7 +2787,7 @@
         <v>13</v>
       </c>
       <c r="F34">
-        <v>126.5</v>
+        <v>253</v>
       </c>
       <c r="G34">
         <v>62638</v>
@@ -2822,7 +2822,7 @@
         <v>13</v>
       </c>
       <c r="F35">
-        <v>128.5</v>
+        <v>257</v>
       </c>
       <c r="G35">
         <v>62011</v>
@@ -2857,7 +2857,7 @@
         <v>14</v>
       </c>
       <c r="F36">
-        <v>130.5</v>
+        <v>261</v>
       </c>
       <c r="G36">
         <v>61391</v>
@@ -2892,7 +2892,7 @@
         <v>15</v>
       </c>
       <c r="F37">
-        <v>132.5</v>
+        <v>265</v>
       </c>
       <c r="G37">
         <v>60777</v>
@@ -2927,7 +2927,7 @@
         <v>15</v>
       </c>
       <c r="F38">
-        <v>134.5</v>
+        <v>269</v>
       </c>
       <c r="G38">
         <v>60170</v>
@@ -2962,7 +2962,7 @@
         <v>16</v>
       </c>
       <c r="F39">
-        <v>136.5</v>
+        <v>273</v>
       </c>
       <c r="G39">
         <v>59568</v>
@@ -2997,7 +2997,7 @@
         <v>17</v>
       </c>
       <c r="F40">
-        <v>138.5</v>
+        <v>277</v>
       </c>
       <c r="G40">
         <v>58972</v>
@@ -3032,7 +3032,7 @@
         <v>18</v>
       </c>
       <c r="F41">
-        <v>140.5</v>
+        <v>281</v>
       </c>
       <c r="G41">
         <v>58382</v>
@@ -3067,7 +3067,7 @@
         <v>19</v>
       </c>
       <c r="F42">
-        <v>142.5</v>
+        <v>285</v>
       </c>
       <c r="G42">
         <v>57799</v>
@@ -3102,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="F43">
-        <v>144.5</v>
+        <v>289</v>
       </c>
       <c r="G43">
         <v>57221</v>
@@ -3137,7 +3137,7 @@
         <v>21</v>
       </c>
       <c r="F44">
-        <v>146.5</v>
+        <v>293</v>
       </c>
       <c r="G44">
         <v>56648</v>
@@ -3172,7 +3172,7 @@
         <v>22</v>
       </c>
       <c r="F45">
-        <v>148.5</v>
+        <v>297</v>
       </c>
       <c r="G45">
         <v>56082</v>
@@ -3207,7 +3207,7 @@
         <v>24</v>
       </c>
       <c r="F46">
-        <v>150.5</v>
+        <v>301</v>
       </c>
       <c r="G46">
         <v>55521</v>
@@ -3242,7 +3242,7 @@
         <v>25</v>
       </c>
       <c r="F47">
-        <v>152.5</v>
+        <v>305</v>
       </c>
       <c r="G47">
         <v>54966</v>
@@ -3277,7 +3277,7 @@
         <v>26</v>
       </c>
       <c r="F48">
-        <v>154.5</v>
+        <v>309</v>
       </c>
       <c r="G48">
         <v>54416</v>
@@ -3312,7 +3312,7 @@
         <v>27</v>
       </c>
       <c r="F49">
-        <v>156.5</v>
+        <v>313</v>
       </c>
       <c r="G49">
         <v>53872</v>
@@ -3347,7 +3347,7 @@
         <v>28</v>
       </c>
       <c r="F50">
-        <v>158.5</v>
+        <v>317</v>
       </c>
       <c r="G50">
         <v>53333</v>
@@ -3382,7 +3382,7 @@
         <v>100</v>
       </c>
       <c r="F51">
-        <v>160.5</v>
+        <v>321</v>
       </c>
       <c r="G51">
         <v>52800</v>
@@ -3417,7 +3417,7 @@
         <v>28</v>
       </c>
       <c r="F52">
-        <v>162.5</v>
+        <v>325</v>
       </c>
       <c r="G52">
         <v>52272</v>
@@ -3452,7 +3452,7 @@
         <v>28</v>
       </c>
       <c r="F53">
-        <v>164.5</v>
+        <v>329</v>
       </c>
       <c r="G53">
         <v>51749</v>
@@ -3487,7 +3487,7 @@
         <v>28</v>
       </c>
       <c r="F54">
-        <v>166.5</v>
+        <v>333</v>
       </c>
       <c r="G54">
         <v>51232</v>
@@ -3522,7 +3522,7 @@
         <v>28</v>
       </c>
       <c r="F55">
-        <v>168.5</v>
+        <v>337</v>
       </c>
       <c r="G55">
         <v>50719</v>
@@ -3557,7 +3557,7 @@
         <v>28</v>
       </c>
       <c r="F56">
-        <v>170.5</v>
+        <v>341</v>
       </c>
       <c r="G56">
         <v>50212</v>
@@ -3592,7 +3592,7 @@
         <v>28</v>
       </c>
       <c r="F57">
-        <v>172.5</v>
+        <v>345</v>
       </c>
       <c r="G57">
         <v>49710</v>
@@ -3627,7 +3627,7 @@
         <v>28</v>
       </c>
       <c r="F58">
-        <v>174.5</v>
+        <v>349</v>
       </c>
       <c r="G58">
         <v>49213</v>
@@ -3662,7 +3662,7 @@
         <v>28</v>
       </c>
       <c r="F59">
-        <v>176.5</v>
+        <v>353</v>
       </c>
       <c r="G59">
         <v>48721</v>
@@ -3697,7 +3697,7 @@
         <v>28</v>
       </c>
       <c r="F60">
-        <v>178.5</v>
+        <v>357</v>
       </c>
       <c r="G60">
         <v>48234</v>
@@ -3732,7 +3732,7 @@
         <v>28</v>
       </c>
       <c r="F61">
-        <v>180.5</v>
+        <v>361</v>
       </c>
       <c r="G61">
         <v>47751</v>
@@ -3767,7 +3767,7 @@
         <v>28</v>
       </c>
       <c r="F62">
-        <v>182.5</v>
+        <v>365</v>
       </c>
       <c r="G62">
         <v>47274</v>
@@ -3802,7 +3802,7 @@
         <v>29</v>
       </c>
       <c r="F63">
-        <v>184.5</v>
+        <v>369</v>
       </c>
       <c r="G63">
         <v>46801</v>
@@ -3837,7 +3837,7 @@
         <v>29</v>
       </c>
       <c r="F64">
-        <v>186.5</v>
+        <v>373</v>
       </c>
       <c r="G64">
         <v>46333</v>
@@ -3872,7 +3872,7 @@
         <v>29</v>
       </c>
       <c r="F65">
-        <v>188.5</v>
+        <v>377</v>
       </c>
       <c r="G65">
         <v>45870</v>
@@ -3907,7 +3907,7 @@
         <v>29</v>
       </c>
       <c r="F66">
-        <v>190.5</v>
+        <v>381</v>
       </c>
       <c r="G66">
         <v>45411</v>
@@ -3942,7 +3942,7 @@
         <v>29</v>
       </c>
       <c r="F67">
-        <v>192.5</v>
+        <v>385</v>
       </c>
       <c r="G67">
         <v>44957</v>
@@ -3977,7 +3977,7 @@
         <v>29</v>
       </c>
       <c r="F68">
-        <v>194.5</v>
+        <v>389</v>
       </c>
       <c r="G68">
         <v>44507</v>
@@ -4012,7 +4012,7 @@
         <v>30</v>
       </c>
       <c r="F69">
-        <v>196.5</v>
+        <v>393</v>
       </c>
       <c r="G69">
         <v>44062</v>
@@ -4047,7 +4047,7 @@
         <v>30</v>
       </c>
       <c r="F70">
-        <v>198.5</v>
+        <v>397</v>
       </c>
       <c r="G70">
         <v>43622</v>
@@ -4082,7 +4082,7 @@
         <v>30</v>
       </c>
       <c r="F71">
-        <v>200.5</v>
+        <v>401</v>
       </c>
       <c r="G71">
         <v>43185</v>
@@ -4117,7 +4117,7 @@
         <v>30</v>
       </c>
       <c r="F72">
-        <v>202.5</v>
+        <v>405</v>
       </c>
       <c r="G72">
         <v>42754</v>
@@ -4152,7 +4152,7 @@
         <v>30</v>
       </c>
       <c r="F73">
-        <v>204.5</v>
+        <v>409</v>
       </c>
       <c r="G73">
         <v>42326</v>
@@ -4187,7 +4187,7 @@
         <v>30</v>
       </c>
       <c r="F74">
-        <v>206.5</v>
+        <v>413</v>
       </c>
       <c r="G74">
         <v>41903</v>
@@ -4222,7 +4222,7 @@
         <v>30</v>
       </c>
       <c r="F75">
-        <v>208.5</v>
+        <v>417</v>
       </c>
       <c r="G75">
         <v>41484</v>
@@ -4257,7 +4257,7 @@
         <v>30</v>
       </c>
       <c r="F76">
-        <v>210.5</v>
+        <v>421</v>
       </c>
       <c r="G76">
         <v>41069</v>
@@ -4292,7 +4292,7 @@
         <v>30</v>
       </c>
       <c r="F77">
-        <v>212.5</v>
+        <v>425</v>
       </c>
       <c r="G77">
         <v>40658</v>
@@ -4327,7 +4327,7 @@
         <v>30</v>
       </c>
       <c r="F78">
-        <v>214.5</v>
+        <v>429</v>
       </c>
       <c r="G78">
         <v>40252</v>
@@ -4362,7 +4362,7 @@
         <v>30</v>
       </c>
       <c r="F79">
-        <v>216.5</v>
+        <v>433</v>
       </c>
       <c r="G79">
         <v>39849</v>
@@ -4397,7 +4397,7 @@
         <v>30</v>
       </c>
       <c r="F80">
-        <v>218.5</v>
+        <v>437</v>
       </c>
       <c r="G80">
         <v>39451</v>
@@ -4432,7 +4432,7 @@
         <v>30</v>
       </c>
       <c r="F81">
-        <v>220.5</v>
+        <v>441</v>
       </c>
       <c r="G81">
         <v>39056</v>
@@ -4467,7 +4467,7 @@
         <v>30</v>
       </c>
       <c r="F82">
-        <v>222.5</v>
+        <v>445</v>
       </c>
       <c r="G82">
         <v>38666</v>
@@ -4502,7 +4502,7 @@
         <v>30</v>
       </c>
       <c r="F83">
-        <v>224.5</v>
+        <v>449</v>
       </c>
       <c r="G83">
         <v>38279</v>
@@ -4537,7 +4537,7 @@
         <v>30</v>
       </c>
       <c r="F84">
-        <v>226.5</v>
+        <v>453</v>
       </c>
       <c r="G84">
         <v>37896</v>
@@ -4572,7 +4572,7 @@
         <v>30</v>
       </c>
       <c r="F85">
-        <v>228.5</v>
+        <v>457</v>
       </c>
       <c r="G85">
         <v>37517</v>
@@ -4607,7 +4607,7 @@
         <v>30</v>
       </c>
       <c r="F86">
-        <v>230.5</v>
+        <v>461</v>
       </c>
       <c r="G86">
         <v>37142</v>
@@ -4642,7 +4642,7 @@
         <v>30</v>
       </c>
       <c r="F87">
-        <v>232.5</v>
+        <v>465</v>
       </c>
       <c r="G87">
         <v>36770</v>
@@ -4677,7 +4677,7 @@
         <v>30</v>
       </c>
       <c r="F88">
-        <v>234.5</v>
+        <v>469</v>
       </c>
       <c r="G88">
         <v>36403</v>
@@ -4712,7 +4712,7 @@
         <v>30</v>
       </c>
       <c r="F89">
-        <v>236.5</v>
+        <v>473</v>
       </c>
       <c r="G89">
         <v>36039</v>
@@ -4747,7 +4747,7 @@
         <v>30</v>
       </c>
       <c r="F90">
-        <v>238.5</v>
+        <v>477</v>
       </c>
       <c r="G90">
         <v>35678</v>
@@ -4782,7 +4782,7 @@
         <v>30</v>
       </c>
       <c r="F91">
-        <v>240.5</v>
+        <v>481</v>
       </c>
       <c r="G91">
         <v>35322</v>
@@ -4817,7 +4817,7 @@
         <v>30</v>
       </c>
       <c r="F92">
-        <v>242.5</v>
+        <v>485</v>
       </c>
       <c r="G92">
         <v>34968</v>
@@ -4852,7 +4852,7 @@
         <v>30</v>
       </c>
       <c r="F93">
-        <v>244.5</v>
+        <v>489</v>
       </c>
       <c r="G93">
         <v>34619</v>
@@ -4887,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="F94">
-        <v>246.5</v>
+        <v>493</v>
       </c>
       <c r="G94">
         <v>34272</v>
@@ -4922,7 +4922,7 @@
         <v>30</v>
       </c>
       <c r="F95">
-        <v>248.5</v>
+        <v>497</v>
       </c>
       <c r="G95">
         <v>33930</v>
@@ -4957,7 +4957,7 @@
         <v>30</v>
       </c>
       <c r="F96">
-        <v>250.5</v>
+        <v>501</v>
       </c>
       <c r="G96">
         <v>33590</v>
@@ -4992,7 +4992,7 @@
         <v>30</v>
       </c>
       <c r="F97">
-        <v>252.5</v>
+        <v>505</v>
       </c>
       <c r="G97">
         <v>33255</v>
@@ -5027,7 +5027,7 @@
         <v>30</v>
       </c>
       <c r="F98">
-        <v>254.5</v>
+        <v>509</v>
       </c>
       <c r="G98">
         <v>32922</v>
@@ -5062,7 +5062,7 @@
         <v>30</v>
       </c>
       <c r="F99">
-        <v>256.5</v>
+        <v>513</v>
       </c>
       <c r="G99">
         <v>32593</v>
@@ -5097,7 +5097,7 @@
         <v>30</v>
       </c>
       <c r="F100">
-        <v>258.5</v>
+        <v>517</v>
       </c>
       <c r="G100">
         <v>32267</v>
@@ -5132,7 +5132,7 @@
         <v>30</v>
       </c>
       <c r="F101">
-        <v>260.5</v>
+        <v>521</v>
       </c>
       <c r="G101">
         <v>31944</v>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C77705-2CDE-405B-BEF8-C5EB6510D962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C525C-216A-4EA7-AB54-BD68C43271A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
     <sheet name="AnalysisTable" sheetId="3" r:id="rId2"/>
     <sheet name="AnalysisKeyTable" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -465,9 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1597,6 +1602,337 @@
       </c>
       <c r="K46">
         <v>1275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>272</v>
+      </c>
+      <c r="F47">
+        <v>17500</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="J47">
+        <v>12150</v>
+      </c>
+      <c r="K47">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>283</v>
+      </c>
+      <c r="F48">
+        <v>17900</v>
+      </c>
+      <c r="H48">
+        <v>25</v>
+      </c>
+      <c r="I48">
+        <v>15</v>
+      </c>
+      <c r="J48">
+        <v>13450</v>
+      </c>
+      <c r="K48">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>295</v>
+      </c>
+      <c r="F49">
+        <v>17300</v>
+      </c>
+      <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="J49">
+        <v>15250</v>
+      </c>
+      <c r="K49">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>302</v>
+      </c>
+      <c r="F50">
+        <v>18200</v>
+      </c>
+      <c r="I50">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>15250</v>
+      </c>
+      <c r="K50">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>310</v>
+      </c>
+      <c r="F51">
+        <v>18500</v>
+      </c>
+      <c r="H51">
+        <v>35</v>
+      </c>
+      <c r="J51">
+        <v>17150</v>
+      </c>
+      <c r="K51">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>319</v>
+      </c>
+      <c r="F52">
+        <v>41000</v>
+      </c>
+      <c r="G52">
+        <v>55</v>
+      </c>
+      <c r="J52">
+        <v>17150</v>
+      </c>
+      <c r="K52">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>329</v>
+      </c>
+      <c r="F53">
+        <v>23200</v>
+      </c>
+      <c r="H53">
+        <v>25</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>18750</v>
+      </c>
+      <c r="K53">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>338</v>
+      </c>
+      <c r="F54">
+        <v>23000</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="J54">
+        <v>20550</v>
+      </c>
+      <c r="K54">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>348</v>
+      </c>
+      <c r="F55">
+        <v>22700</v>
+      </c>
+      <c r="I55">
+        <v>25</v>
+      </c>
+      <c r="J55">
+        <v>20550</v>
+      </c>
+      <c r="K55">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>357</v>
+      </c>
+      <c r="F56">
+        <v>23200</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="J56">
+        <v>22550</v>
+      </c>
+      <c r="K56">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>368</v>
+      </c>
+      <c r="F57">
+        <v>24000</v>
+      </c>
+      <c r="H57">
+        <v>25</v>
+      </c>
+      <c r="I57">
+        <v>15</v>
+      </c>
+      <c r="J57">
+        <v>24350</v>
+      </c>
+      <c r="K57">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>378</v>
+      </c>
+      <c r="F58">
+        <v>23500</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="J58">
+        <v>26550</v>
+      </c>
+      <c r="K58">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>389</v>
+      </c>
+      <c r="F59">
+        <v>23800</v>
+      </c>
+      <c r="I59">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <v>26550</v>
+      </c>
+      <c r="K59">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>399</v>
+      </c>
+      <c r="F60">
+        <v>52000</v>
+      </c>
+      <c r="G60">
+        <v>50</v>
+      </c>
+      <c r="J60">
+        <v>26550</v>
+      </c>
+      <c r="K60">
+        <v>3015</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C525C-216A-4EA7-AB54-BD68C43271A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC9836-B056-4378-A244-BE2B9616FFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -1943,9 +1943,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2012,7 +2012,7 @@
         <v>30</v>
       </c>
       <c r="I2">
-        <v>216000</v>
+        <v>28800</v>
       </c>
       <c r="J2">
         <v>216000</v>
@@ -2047,7 +2047,7 @@
         <v>30</v>
       </c>
       <c r="I3">
-        <v>213840</v>
+        <v>28512</v>
       </c>
       <c r="J3">
         <v>213840</v>
@@ -2082,7 +2082,7 @@
         <v>30</v>
       </c>
       <c r="I4">
-        <v>211701</v>
+        <v>28226</v>
       </c>
       <c r="J4">
         <v>211701</v>
@@ -2117,7 +2117,7 @@
         <v>30</v>
       </c>
       <c r="I5">
-        <v>209584</v>
+        <v>27944</v>
       </c>
       <c r="J5">
         <v>209584</v>
@@ -2152,7 +2152,7 @@
         <v>30</v>
       </c>
       <c r="I6">
-        <v>207488</v>
+        <v>27665</v>
       </c>
       <c r="J6">
         <v>207488</v>
@@ -2187,7 +2187,7 @@
         <v>30</v>
       </c>
       <c r="I7">
-        <v>205413</v>
+        <v>27388</v>
       </c>
       <c r="J7">
         <v>205413</v>
@@ -2222,7 +2222,7 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>203359</v>
+        <v>27114</v>
       </c>
       <c r="J8">
         <v>203359</v>
@@ -2257,7 +2257,7 @@
         <v>30</v>
       </c>
       <c r="I9">
-        <v>201326</v>
+        <v>26843</v>
       </c>
       <c r="J9">
         <v>201326</v>
@@ -2292,7 +2292,7 @@
         <v>30</v>
       </c>
       <c r="I10">
-        <v>199312</v>
+        <v>26575</v>
       </c>
       <c r="J10">
         <v>199312</v>
@@ -2327,7 +2327,7 @@
         <v>29</v>
       </c>
       <c r="I11">
-        <v>197319</v>
+        <v>26309</v>
       </c>
       <c r="J11">
         <v>197319</v>
@@ -2362,7 +2362,7 @@
         <v>29</v>
       </c>
       <c r="I12">
-        <v>195346</v>
+        <v>26046</v>
       </c>
       <c r="J12">
         <v>195346</v>
@@ -2397,7 +2397,7 @@
         <v>29</v>
       </c>
       <c r="I13">
-        <v>193393</v>
+        <v>25785</v>
       </c>
       <c r="J13">
         <v>193393</v>
@@ -2432,7 +2432,7 @@
         <v>29</v>
       </c>
       <c r="I14">
-        <v>191459</v>
+        <v>25527</v>
       </c>
       <c r="J14">
         <v>191459</v>
@@ -2467,7 +2467,7 @@
         <v>29</v>
       </c>
       <c r="I15">
-        <v>189544</v>
+        <v>25272</v>
       </c>
       <c r="J15">
         <v>189544</v>
@@ -2502,7 +2502,7 @@
         <v>29</v>
       </c>
       <c r="I16">
-        <v>187649</v>
+        <v>25019</v>
       </c>
       <c r="J16">
         <v>187649</v>
@@ -2537,7 +2537,7 @@
         <v>29</v>
       </c>
       <c r="I17">
-        <v>185772</v>
+        <v>24769</v>
       </c>
       <c r="J17">
         <v>185772</v>
@@ -2572,7 +2572,7 @@
         <v>29</v>
       </c>
       <c r="I18">
-        <v>183914</v>
+        <v>24521</v>
       </c>
       <c r="J18">
         <v>183914</v>
@@ -2607,7 +2607,7 @@
         <v>29</v>
       </c>
       <c r="I19">
-        <v>182075</v>
+        <v>24276</v>
       </c>
       <c r="J19">
         <v>182075</v>
@@ -2642,7 +2642,7 @@
         <v>29</v>
       </c>
       <c r="I20">
-        <v>180254</v>
+        <v>24033</v>
       </c>
       <c r="J20">
         <v>180254</v>
@@ -2677,7 +2677,7 @@
         <v>28</v>
       </c>
       <c r="I21">
-        <v>178452</v>
+        <v>23793</v>
       </c>
       <c r="J21">
         <v>178452</v>
@@ -2712,7 +2712,7 @@
         <v>28</v>
       </c>
       <c r="I22">
-        <v>176667</v>
+        <v>23555</v>
       </c>
       <c r="J22">
         <v>176667</v>
@@ -2747,7 +2747,7 @@
         <v>28</v>
       </c>
       <c r="I23">
-        <v>174901</v>
+        <v>23320</v>
       </c>
       <c r="J23">
         <v>174901</v>
@@ -2782,7 +2782,7 @@
         <v>28</v>
       </c>
       <c r="I24">
-        <v>173152</v>
+        <v>23086</v>
       </c>
       <c r="J24">
         <v>173152</v>
@@ -2817,7 +2817,7 @@
         <v>28</v>
       </c>
       <c r="I25">
-        <v>171420</v>
+        <v>22856</v>
       </c>
       <c r="J25">
         <v>171420</v>
@@ -2852,7 +2852,7 @@
         <v>28</v>
       </c>
       <c r="I26">
-        <v>169706</v>
+        <v>22627</v>
       </c>
       <c r="J26">
         <v>169706</v>
@@ -2887,7 +2887,7 @@
         <v>28</v>
       </c>
       <c r="I27">
-        <v>168009</v>
+        <v>22401</v>
       </c>
       <c r="J27">
         <v>168009</v>
@@ -2922,7 +2922,7 @@
         <v>28</v>
       </c>
       <c r="I28">
-        <v>166329</v>
+        <v>22177</v>
       </c>
       <c r="J28">
         <v>166329</v>
@@ -2957,7 +2957,7 @@
         <v>28</v>
       </c>
       <c r="I29">
-        <v>164666</v>
+        <v>21955</v>
       </c>
       <c r="J29">
         <v>164666</v>
@@ -2992,7 +2992,7 @@
         <v>28</v>
       </c>
       <c r="I30">
-        <v>163019</v>
+        <v>21735</v>
       </c>
       <c r="J30">
         <v>163019</v>
@@ -3027,7 +3027,7 @@
         <v>27</v>
       </c>
       <c r="I31">
-        <v>161389</v>
+        <v>21518</v>
       </c>
       <c r="J31">
         <v>161389</v>
@@ -3062,7 +3062,7 @@
         <v>27</v>
       </c>
       <c r="I32">
-        <v>159775</v>
+        <v>21303</v>
       </c>
       <c r="J32">
         <v>159775</v>
@@ -3097,7 +3097,7 @@
         <v>27</v>
       </c>
       <c r="I33">
-        <v>158177</v>
+        <v>21090</v>
       </c>
       <c r="J33">
         <v>158177</v>
@@ -3132,7 +3132,7 @@
         <v>27</v>
       </c>
       <c r="I34">
-        <v>156595</v>
+        <v>20879</v>
       </c>
       <c r="J34">
         <v>156595</v>
@@ -3167,7 +3167,7 @@
         <v>27</v>
       </c>
       <c r="I35">
-        <v>155029</v>
+        <v>20670</v>
       </c>
       <c r="J35">
         <v>155029</v>
@@ -3202,7 +3202,7 @@
         <v>27</v>
       </c>
       <c r="I36">
-        <v>153479</v>
+        <v>20463</v>
       </c>
       <c r="J36">
         <v>153479</v>
@@ -3237,7 +3237,7 @@
         <v>27</v>
       </c>
       <c r="I37">
-        <v>151944</v>
+        <v>20259</v>
       </c>
       <c r="J37">
         <v>151944</v>
@@ -3272,7 +3272,7 @@
         <v>27</v>
       </c>
       <c r="I38">
-        <v>150425</v>
+        <v>20056</v>
       </c>
       <c r="J38">
         <v>150425</v>
@@ -3307,7 +3307,7 @@
         <v>27</v>
       </c>
       <c r="I39">
-        <v>148921</v>
+        <v>19856</v>
       </c>
       <c r="J39">
         <v>148921</v>
@@ -3342,7 +3342,7 @@
         <v>27</v>
       </c>
       <c r="I40">
-        <v>147431</v>
+        <v>19657</v>
       </c>
       <c r="J40">
         <v>147431</v>
@@ -3377,7 +3377,7 @@
         <v>26</v>
       </c>
       <c r="I41">
-        <v>145957</v>
+        <v>19460</v>
       </c>
       <c r="J41">
         <v>145957</v>
@@ -3412,7 +3412,7 @@
         <v>26</v>
       </c>
       <c r="I42">
-        <v>144497</v>
+        <v>19266</v>
       </c>
       <c r="J42">
         <v>144497</v>
@@ -3447,7 +3447,7 @@
         <v>26</v>
       </c>
       <c r="I43">
-        <v>143052</v>
+        <v>19073</v>
       </c>
       <c r="J43">
         <v>143052</v>
@@ -3482,7 +3482,7 @@
         <v>26</v>
       </c>
       <c r="I44">
-        <v>141622</v>
+        <v>18882</v>
       </c>
       <c r="J44">
         <v>141622</v>
@@ -3517,7 +3517,7 @@
         <v>26</v>
       </c>
       <c r="I45">
-        <v>140206</v>
+        <v>18694</v>
       </c>
       <c r="J45">
         <v>140206</v>
@@ -3552,7 +3552,7 @@
         <v>26</v>
       </c>
       <c r="I46">
-        <v>138804</v>
+        <v>18507</v>
       </c>
       <c r="J46">
         <v>138804</v>
@@ -3587,7 +3587,7 @@
         <v>26</v>
       </c>
       <c r="I47">
-        <v>137416</v>
+        <v>18322</v>
       </c>
       <c r="J47">
         <v>137416</v>
@@ -3622,7 +3622,7 @@
         <v>26</v>
       </c>
       <c r="I48">
-        <v>136041</v>
+        <v>18138</v>
       </c>
       <c r="J48">
         <v>136041</v>
@@ -3657,7 +3657,7 @@
         <v>26</v>
       </c>
       <c r="I49">
-        <v>134681</v>
+        <v>17957</v>
       </c>
       <c r="J49">
         <v>134681</v>
@@ -3692,7 +3692,7 @@
         <v>26</v>
       </c>
       <c r="I50">
-        <v>133334</v>
+        <v>17777</v>
       </c>
       <c r="J50">
         <v>133334</v>
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="I51">
-        <v>132001</v>
+        <v>17600</v>
       </c>
       <c r="J51">
         <v>132001</v>
@@ -3762,7 +3762,7 @@
         <v>20</v>
       </c>
       <c r="I52">
-        <v>130681</v>
+        <v>17424</v>
       </c>
       <c r="J52">
         <v>130681</v>
@@ -3797,7 +3797,7 @@
         <v>20</v>
       </c>
       <c r="I53">
-        <v>129374</v>
+        <v>17249</v>
       </c>
       <c r="J53">
         <v>129374</v>
@@ -3832,7 +3832,7 @@
         <v>20</v>
       </c>
       <c r="I54">
-        <v>128080</v>
+        <v>17077</v>
       </c>
       <c r="J54">
         <v>128080</v>
@@ -3867,7 +3867,7 @@
         <v>20</v>
       </c>
       <c r="I55">
-        <v>126799</v>
+        <v>16906</v>
       </c>
       <c r="J55">
         <v>126799</v>
@@ -3902,7 +3902,7 @@
         <v>20</v>
       </c>
       <c r="I56">
-        <v>125531</v>
+        <v>16737</v>
       </c>
       <c r="J56">
         <v>125531</v>
@@ -3937,7 +3937,7 @@
         <v>20</v>
       </c>
       <c r="I57">
-        <v>124276</v>
+        <v>16570</v>
       </c>
       <c r="J57">
         <v>124276</v>
@@ -3972,7 +3972,7 @@
         <v>20</v>
       </c>
       <c r="I58">
-        <v>123033</v>
+        <v>16404</v>
       </c>
       <c r="J58">
         <v>123033</v>
@@ -4007,7 +4007,7 @@
         <v>20</v>
       </c>
       <c r="I59">
-        <v>121803</v>
+        <v>16240</v>
       </c>
       <c r="J59">
         <v>121803</v>
@@ -4042,7 +4042,7 @@
         <v>20</v>
       </c>
       <c r="I60">
-        <v>120585</v>
+        <v>16078</v>
       </c>
       <c r="J60">
         <v>120585</v>
@@ -4077,7 +4077,7 @@
         <v>19</v>
       </c>
       <c r="I61">
-        <v>119379</v>
+        <v>15917</v>
       </c>
       <c r="J61">
         <v>119379</v>
@@ -4112,7 +4112,7 @@
         <v>19</v>
       </c>
       <c r="I62">
-        <v>118185</v>
+        <v>15758</v>
       </c>
       <c r="J62">
         <v>118185</v>
@@ -4147,7 +4147,7 @@
         <v>19</v>
       </c>
       <c r="I63">
-        <v>117003</v>
+        <v>15600</v>
       </c>
       <c r="J63">
         <v>117003</v>
@@ -4182,7 +4182,7 @@
         <v>19</v>
       </c>
       <c r="I64">
-        <v>115833</v>
+        <v>15444</v>
       </c>
       <c r="J64">
         <v>115833</v>
@@ -4217,7 +4217,7 @@
         <v>19</v>
       </c>
       <c r="I65">
-        <v>114675</v>
+        <v>15290</v>
       </c>
       <c r="J65">
         <v>114675</v>
@@ -4252,7 +4252,7 @@
         <v>19</v>
       </c>
       <c r="I66">
-        <v>113528</v>
+        <v>15137</v>
       </c>
       <c r="J66">
         <v>113528</v>
@@ -4287,7 +4287,7 @@
         <v>19</v>
       </c>
       <c r="I67">
-        <v>112393</v>
+        <v>14985</v>
       </c>
       <c r="J67">
         <v>112393</v>
@@ -4322,7 +4322,7 @@
         <v>19</v>
       </c>
       <c r="I68">
-        <v>111269</v>
+        <v>14835</v>
       </c>
       <c r="J68">
         <v>111269</v>
@@ -4357,7 +4357,7 @@
         <v>19</v>
       </c>
       <c r="I69">
-        <v>110156</v>
+        <v>14687</v>
       </c>
       <c r="J69">
         <v>110156</v>
@@ -4392,7 +4392,7 @@
         <v>19</v>
       </c>
       <c r="I70">
-        <v>109055</v>
+        <v>14540</v>
       </c>
       <c r="J70">
         <v>109055</v>
@@ -4427,7 +4427,7 @@
         <v>18</v>
       </c>
       <c r="I71">
-        <v>107964</v>
+        <v>14395</v>
       </c>
       <c r="J71">
         <v>107964</v>
@@ -4441,16 +4441,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1846800</v>
+        <v>1850400</v>
       </c>
       <c r="C72">
-        <v>67459800</v>
+        <v>67463400</v>
       </c>
       <c r="D72">
         <v>432000</v>
       </c>
       <c r="E72">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F72">
         <v>405</v>
@@ -4462,7 +4462,7 @@
         <v>18</v>
       </c>
       <c r="I72">
-        <v>106885</v>
+        <v>14251</v>
       </c>
       <c r="J72">
         <v>106885</v>
@@ -4476,16 +4476,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1846800</v>
+        <v>1854000</v>
       </c>
       <c r="C73">
-        <v>69306600</v>
+        <v>69317400</v>
       </c>
       <c r="D73">
         <v>432000</v>
       </c>
       <c r="E73">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F73">
         <v>409</v>
@@ -4497,7 +4497,7 @@
         <v>18</v>
       </c>
       <c r="I73">
-        <v>105816</v>
+        <v>14108</v>
       </c>
       <c r="J73">
         <v>105816</v>
@@ -4511,16 +4511,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1846800</v>
+        <v>1857600</v>
       </c>
       <c r="C74">
-        <v>71153400</v>
+        <v>71175000</v>
       </c>
       <c r="D74">
         <v>432000</v>
       </c>
       <c r="E74">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F74">
         <v>413</v>
@@ -4532,7 +4532,7 @@
         <v>18</v>
       </c>
       <c r="I74">
-        <v>104758</v>
+        <v>13967</v>
       </c>
       <c r="J74">
         <v>104758</v>
@@ -4546,16 +4546,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1846800</v>
+        <v>1861200</v>
       </c>
       <c r="C75">
-        <v>73000200</v>
+        <v>73036200</v>
       </c>
       <c r="D75">
         <v>432000</v>
       </c>
       <c r="E75">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F75">
         <v>417</v>
@@ -4567,7 +4567,7 @@
         <v>18</v>
       </c>
       <c r="I75">
-        <v>103710</v>
+        <v>13828</v>
       </c>
       <c r="J75">
         <v>103710</v>
@@ -4581,16 +4581,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1846800</v>
+        <v>1864800</v>
       </c>
       <c r="C76">
-        <v>74847000</v>
+        <v>74901000</v>
       </c>
       <c r="D76">
         <v>432000</v>
       </c>
       <c r="E76">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F76">
         <v>421</v>
@@ -4602,7 +4602,7 @@
         <v>18</v>
       </c>
       <c r="I76">
-        <v>102673</v>
+        <v>13689</v>
       </c>
       <c r="J76">
         <v>102673</v>
@@ -4616,16 +4616,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1846800</v>
+        <v>1868400</v>
       </c>
       <c r="C77">
-        <v>76693800</v>
+        <v>76769400</v>
       </c>
       <c r="D77">
         <v>432000</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F77">
         <v>425</v>
@@ -4637,7 +4637,7 @@
         <v>18</v>
       </c>
       <c r="I77">
-        <v>101646</v>
+        <v>13552</v>
       </c>
       <c r="J77">
         <v>101646</v>
@@ -4651,16 +4651,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1846800</v>
+        <v>1872000</v>
       </c>
       <c r="C78">
-        <v>78540600</v>
+        <v>78641400</v>
       </c>
       <c r="D78">
         <v>432000</v>
       </c>
       <c r="E78">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F78">
         <v>429</v>
@@ -4672,7 +4672,7 @@
         <v>18</v>
       </c>
       <c r="I78">
-        <v>100630</v>
+        <v>13417</v>
       </c>
       <c r="J78">
         <v>100630</v>
@@ -4686,16 +4686,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1846800</v>
+        <v>1875600</v>
       </c>
       <c r="C79">
-        <v>80387400</v>
+        <v>80517000</v>
       </c>
       <c r="D79">
         <v>432000</v>
       </c>
       <c r="E79">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F79">
         <v>433</v>
@@ -4707,7 +4707,7 @@
         <v>18</v>
       </c>
       <c r="I79">
-        <v>99623</v>
+        <v>13283</v>
       </c>
       <c r="J79">
         <v>99623</v>
@@ -4721,16 +4721,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1846800</v>
+        <v>1879200</v>
       </c>
       <c r="C80">
-        <v>82234200</v>
+        <v>82396200</v>
       </c>
       <c r="D80">
         <v>432000</v>
       </c>
       <c r="E80">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F80">
         <v>437</v>
@@ -4742,7 +4742,7 @@
         <v>18</v>
       </c>
       <c r="I80">
-        <v>98627</v>
+        <v>13150</v>
       </c>
       <c r="J80">
         <v>98627</v>
@@ -4756,16 +4756,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1846800</v>
+        <v>1882800</v>
       </c>
       <c r="C81">
-        <v>84081000</v>
+        <v>84279000</v>
       </c>
       <c r="D81">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F81">
         <v>441</v>
@@ -4774,10 +4774,10 @@
         <v>39056</v>
       </c>
       <c r="H81">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I81">
-        <v>97641</v>
+        <v>13018</v>
       </c>
       <c r="J81">
         <v>97641</v>
@@ -4791,16 +4791,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1846800</v>
+        <v>1886400</v>
       </c>
       <c r="C82">
-        <v>85927800</v>
+        <v>86165400</v>
       </c>
       <c r="D82">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F82">
         <v>445</v>
@@ -4809,10 +4809,10 @@
         <v>38666</v>
       </c>
       <c r="H82">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I82">
-        <v>96665</v>
+        <v>12888</v>
       </c>
       <c r="J82">
         <v>96665</v>
@@ -4826,16 +4826,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1846800</v>
+        <v>1890000</v>
       </c>
       <c r="C83">
-        <v>87774600</v>
+        <v>88055400</v>
       </c>
       <c r="D83">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F83">
         <v>449</v>
@@ -4844,10 +4844,10 @@
         <v>38279</v>
       </c>
       <c r="H83">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I83">
-        <v>95698</v>
+        <v>12759</v>
       </c>
       <c r="J83">
         <v>95698</v>
@@ -4861,16 +4861,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1846800</v>
+        <v>1893600</v>
       </c>
       <c r="C84">
-        <v>89621400</v>
+        <v>89949000</v>
       </c>
       <c r="D84">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F84">
         <v>453</v>
@@ -4879,10 +4879,10 @@
         <v>37896</v>
       </c>
       <c r="H84">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I84">
-        <v>94741</v>
+        <v>12632</v>
       </c>
       <c r="J84">
         <v>94741</v>
@@ -4896,16 +4896,16 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1846800</v>
+        <v>1897200</v>
       </c>
       <c r="C85">
-        <v>91468200</v>
+        <v>91846200</v>
       </c>
       <c r="D85">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F85">
         <v>457</v>
@@ -4914,10 +4914,10 @@
         <v>37517</v>
       </c>
       <c r="H85">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I85">
-        <v>93793</v>
+        <v>12505</v>
       </c>
       <c r="J85">
         <v>93793</v>
@@ -4931,16 +4931,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1846800</v>
+        <v>1900800</v>
       </c>
       <c r="C86">
-        <v>93315000</v>
+        <v>93747000</v>
       </c>
       <c r="D86">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F86">
         <v>461</v>
@@ -4949,10 +4949,10 @@
         <v>37142</v>
       </c>
       <c r="H86">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I86">
-        <v>92856</v>
+        <v>12380</v>
       </c>
       <c r="J86">
         <v>92856</v>
@@ -4966,16 +4966,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1846800</v>
+        <v>1904400</v>
       </c>
       <c r="C87">
-        <v>95161800</v>
+        <v>95651400</v>
       </c>
       <c r="D87">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E87">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F87">
         <v>465</v>
@@ -4984,10 +4984,10 @@
         <v>36770</v>
       </c>
       <c r="H87">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I87">
-        <v>91927</v>
+        <v>12256</v>
       </c>
       <c r="J87">
         <v>91927</v>
@@ -5001,16 +5001,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1846800</v>
+        <v>1908000</v>
       </c>
       <c r="C88">
-        <v>97008600</v>
+        <v>97559400</v>
       </c>
       <c r="D88">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E88">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F88">
         <v>469</v>
@@ -5019,10 +5019,10 @@
         <v>36403</v>
       </c>
       <c r="H88">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I88">
-        <v>91008</v>
+        <v>12134</v>
       </c>
       <c r="J88">
         <v>91008</v>
@@ -5036,16 +5036,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1846800</v>
+        <v>1911600</v>
       </c>
       <c r="C89">
-        <v>98855400</v>
+        <v>99471000</v>
       </c>
       <c r="D89">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E89">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="F89">
         <v>473</v>
@@ -5054,10 +5054,10 @@
         <v>36039</v>
       </c>
       <c r="H89">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I89">
-        <v>90098</v>
+        <v>12013</v>
       </c>
       <c r="J89">
         <v>90098</v>
@@ -5071,16 +5071,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1846800</v>
+        <v>1915200</v>
       </c>
       <c r="C90">
-        <v>100702200</v>
+        <v>101386200</v>
       </c>
       <c r="D90">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E90">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F90">
         <v>477</v>
@@ -5089,10 +5089,10 @@
         <v>35678</v>
       </c>
       <c r="H90">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I90">
-        <v>89197</v>
+        <v>11892</v>
       </c>
       <c r="J90">
         <v>89197</v>
@@ -5106,16 +5106,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1846800</v>
+        <v>1918800</v>
       </c>
       <c r="C91">
-        <v>102549000</v>
+        <v>103305000</v>
       </c>
       <c r="D91">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E91">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="F91">
         <v>481</v>
@@ -5124,10 +5124,10 @@
         <v>35322</v>
       </c>
       <c r="H91">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I91">
-        <v>88305</v>
+        <v>11774</v>
       </c>
       <c r="J91">
         <v>88305</v>
@@ -5141,16 +5141,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1846800</v>
+        <v>1922400</v>
       </c>
       <c r="C92">
-        <v>104395800</v>
+        <v>105227400</v>
       </c>
       <c r="D92">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="F92">
         <v>485</v>
@@ -5159,10 +5159,10 @@
         <v>34968</v>
       </c>
       <c r="H92">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I92">
-        <v>87422</v>
+        <v>11656</v>
       </c>
       <c r="J92">
         <v>87422</v>
@@ -5176,16 +5176,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1846800</v>
+        <v>1926000</v>
       </c>
       <c r="C93">
-        <v>106242600</v>
+        <v>107153400</v>
       </c>
       <c r="D93">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E93">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="F93">
         <v>489</v>
@@ -5194,10 +5194,10 @@
         <v>34619</v>
       </c>
       <c r="H93">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I93">
-        <v>86547</v>
+        <v>11539</v>
       </c>
       <c r="J93">
         <v>86547</v>
@@ -5211,16 +5211,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1846800</v>
+        <v>1929600</v>
       </c>
       <c r="C94">
-        <v>108089400</v>
+        <v>109083000</v>
       </c>
       <c r="D94">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E94">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F94">
         <v>493</v>
@@ -5229,10 +5229,10 @@
         <v>34272</v>
       </c>
       <c r="H94">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I94">
-        <v>85682</v>
+        <v>11424</v>
       </c>
       <c r="J94">
         <v>85682</v>
@@ -5246,16 +5246,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1846800</v>
+        <v>1933200</v>
       </c>
       <c r="C95">
-        <v>109936200</v>
+        <v>111016200</v>
       </c>
       <c r="D95">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="F95">
         <v>497</v>
@@ -5264,10 +5264,10 @@
         <v>33930</v>
       </c>
       <c r="H95">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I95">
-        <v>84825</v>
+        <v>11310</v>
       </c>
       <c r="J95">
         <v>84825</v>
@@ -5281,16 +5281,16 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1846800</v>
+        <v>1936800</v>
       </c>
       <c r="C96">
-        <v>111783000</v>
+        <v>112953000</v>
       </c>
       <c r="D96">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="F96">
         <v>501</v>
@@ -5299,10 +5299,10 @@
         <v>33590</v>
       </c>
       <c r="H96">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I96">
-        <v>83977</v>
+        <v>11196</v>
       </c>
       <c r="J96">
         <v>83977</v>
@@ -5316,16 +5316,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1846800</v>
+        <v>1940400</v>
       </c>
       <c r="C97">
-        <v>113629800</v>
+        <v>114893400</v>
       </c>
       <c r="D97">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="F97">
         <v>505</v>
@@ -5334,10 +5334,10 @@
         <v>33255</v>
       </c>
       <c r="H97">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I97">
-        <v>83137</v>
+        <v>11085</v>
       </c>
       <c r="J97">
         <v>83137</v>
@@ -5351,16 +5351,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1846800</v>
+        <v>1944000</v>
       </c>
       <c r="C98">
-        <v>115476600</v>
+        <v>116837400</v>
       </c>
       <c r="D98">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E98">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="F98">
         <v>509</v>
@@ -5369,10 +5369,10 @@
         <v>32922</v>
       </c>
       <c r="H98">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I98">
-        <v>82306</v>
+        <v>10974</v>
       </c>
       <c r="J98">
         <v>82306</v>
@@ -5386,16 +5386,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1846800</v>
+        <v>1947600</v>
       </c>
       <c r="C99">
-        <v>117323400</v>
+        <v>118785000</v>
       </c>
       <c r="D99">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E99">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="F99">
         <v>513</v>
@@ -5404,10 +5404,10 @@
         <v>32593</v>
       </c>
       <c r="H99">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I99">
-        <v>81483</v>
+        <v>10864</v>
       </c>
       <c r="J99">
         <v>81483</v>
@@ -5421,16 +5421,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1846800</v>
+        <v>1951200</v>
       </c>
       <c r="C100">
-        <v>119170200</v>
+        <v>120736200</v>
       </c>
       <c r="D100">
-        <v>518400</v>
+        <v>432000</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="F100">
         <v>517</v>
@@ -5439,10 +5439,10 @@
         <v>32267</v>
       </c>
       <c r="H100">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I100">
-        <v>80668</v>
+        <v>10755</v>
       </c>
       <c r="J100">
         <v>80668</v>
@@ -5456,16 +5456,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1846800</v>
+        <v>10591200</v>
       </c>
       <c r="C101">
-        <v>121017000</v>
+        <v>131327400</v>
       </c>
       <c r="D101">
-        <v>604800</v>
+        <v>518400</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="F101">
         <v>521</v>
@@ -5474,16 +5474,3516 @@
         <v>31944</v>
       </c>
       <c r="H101">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I101">
-        <v>79861</v>
+        <v>10648</v>
       </c>
       <c r="J101">
         <v>79861</v>
       </c>
       <c r="K101">
         <v>5324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1951200</v>
+      </c>
+      <c r="C102">
+        <v>133278600</v>
+      </c>
+      <c r="D102">
+        <v>518400</v>
+      </c>
+      <c r="E102">
+        <v>178</v>
+      </c>
+      <c r="F102">
+        <v>525</v>
+      </c>
+      <c r="G102">
+        <v>31625</v>
+      </c>
+      <c r="H102">
+        <v>17</v>
+      </c>
+      <c r="I102">
+        <v>10541</v>
+      </c>
+      <c r="J102">
+        <v>79062</v>
+      </c>
+      <c r="K102">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1954800</v>
+      </c>
+      <c r="C103">
+        <v>135233400</v>
+      </c>
+      <c r="D103">
+        <v>518400</v>
+      </c>
+      <c r="E103">
+        <v>186</v>
+      </c>
+      <c r="F103">
+        <v>529</v>
+      </c>
+      <c r="G103">
+        <v>31308</v>
+      </c>
+      <c r="H103">
+        <v>17</v>
+      </c>
+      <c r="I103">
+        <v>10436</v>
+      </c>
+      <c r="J103">
+        <v>78272</v>
+      </c>
+      <c r="K103">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1958400</v>
+      </c>
+      <c r="C104">
+        <v>137191800</v>
+      </c>
+      <c r="D104">
+        <v>518400</v>
+      </c>
+      <c r="E104">
+        <v>194</v>
+      </c>
+      <c r="F104">
+        <v>533</v>
+      </c>
+      <c r="G104">
+        <v>30995</v>
+      </c>
+      <c r="H104">
+        <v>17</v>
+      </c>
+      <c r="I104">
+        <v>10331</v>
+      </c>
+      <c r="J104">
+        <v>77489</v>
+      </c>
+      <c r="K104">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1962000</v>
+      </c>
+      <c r="C105">
+        <v>139153800</v>
+      </c>
+      <c r="D105">
+        <v>518400</v>
+      </c>
+      <c r="E105">
+        <v>200</v>
+      </c>
+      <c r="F105">
+        <v>537</v>
+      </c>
+      <c r="G105">
+        <v>30685</v>
+      </c>
+      <c r="H105">
+        <v>17</v>
+      </c>
+      <c r="I105">
+        <v>10228</v>
+      </c>
+      <c r="J105">
+        <v>76714</v>
+      </c>
+      <c r="K105">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1965600</v>
+      </c>
+      <c r="C106">
+        <v>141119400</v>
+      </c>
+      <c r="D106">
+        <v>518400</v>
+      </c>
+      <c r="E106">
+        <v>200</v>
+      </c>
+      <c r="F106">
+        <v>541</v>
+      </c>
+      <c r="G106">
+        <v>30379</v>
+      </c>
+      <c r="H106">
+        <v>17</v>
+      </c>
+      <c r="I106">
+        <v>10126</v>
+      </c>
+      <c r="J106">
+        <v>75947</v>
+      </c>
+      <c r="K106">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1969200</v>
+      </c>
+      <c r="C107">
+        <v>143088600</v>
+      </c>
+      <c r="D107">
+        <v>518400</v>
+      </c>
+      <c r="E107">
+        <v>200</v>
+      </c>
+      <c r="F107">
+        <v>545</v>
+      </c>
+      <c r="G107">
+        <v>30075</v>
+      </c>
+      <c r="H107">
+        <v>17</v>
+      </c>
+      <c r="I107">
+        <v>10025</v>
+      </c>
+      <c r="J107">
+        <v>75188</v>
+      </c>
+      <c r="K107">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1972800</v>
+      </c>
+      <c r="C108">
+        <v>145061400</v>
+      </c>
+      <c r="D108">
+        <v>518400</v>
+      </c>
+      <c r="E108">
+        <v>200</v>
+      </c>
+      <c r="F108">
+        <v>549</v>
+      </c>
+      <c r="G108">
+        <v>29774</v>
+      </c>
+      <c r="H108">
+        <v>17</v>
+      </c>
+      <c r="I108">
+        <v>9924</v>
+      </c>
+      <c r="J108">
+        <v>74436</v>
+      </c>
+      <c r="K108">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1976400</v>
+      </c>
+      <c r="C109">
+        <v>147037800</v>
+      </c>
+      <c r="D109">
+        <v>518400</v>
+      </c>
+      <c r="E109">
+        <v>200</v>
+      </c>
+      <c r="F109">
+        <v>553</v>
+      </c>
+      <c r="G109">
+        <v>29476</v>
+      </c>
+      <c r="H109">
+        <v>17</v>
+      </c>
+      <c r="I109">
+        <v>9825</v>
+      </c>
+      <c r="J109">
+        <v>73691</v>
+      </c>
+      <c r="K109">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1980000</v>
+      </c>
+      <c r="C110">
+        <v>149017800</v>
+      </c>
+      <c r="D110">
+        <v>518400</v>
+      </c>
+      <c r="E110">
+        <v>200</v>
+      </c>
+      <c r="F110">
+        <v>557</v>
+      </c>
+      <c r="G110">
+        <v>29181</v>
+      </c>
+      <c r="H110">
+        <v>17</v>
+      </c>
+      <c r="I110">
+        <v>9727</v>
+      </c>
+      <c r="J110">
+        <v>72954</v>
+      </c>
+      <c r="K110">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1983600</v>
+      </c>
+      <c r="C111">
+        <v>151001400</v>
+      </c>
+      <c r="D111">
+        <v>518400</v>
+      </c>
+      <c r="E111">
+        <v>200</v>
+      </c>
+      <c r="F111">
+        <v>561</v>
+      </c>
+      <c r="G111">
+        <v>28890</v>
+      </c>
+      <c r="H111">
+        <v>17</v>
+      </c>
+      <c r="I111">
+        <v>9630</v>
+      </c>
+      <c r="J111">
+        <v>72225</v>
+      </c>
+      <c r="K111">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1987200</v>
+      </c>
+      <c r="C112">
+        <v>152988600</v>
+      </c>
+      <c r="D112">
+        <v>518400</v>
+      </c>
+      <c r="E112">
+        <v>200</v>
+      </c>
+      <c r="F112">
+        <v>565</v>
+      </c>
+      <c r="G112">
+        <v>28601</v>
+      </c>
+      <c r="H112">
+        <v>17</v>
+      </c>
+      <c r="I112">
+        <v>9533</v>
+      </c>
+      <c r="J112">
+        <v>71503</v>
+      </c>
+      <c r="K112">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1990800</v>
+      </c>
+      <c r="C113">
+        <v>154979400</v>
+      </c>
+      <c r="D113">
+        <v>518400</v>
+      </c>
+      <c r="E113">
+        <v>200</v>
+      </c>
+      <c r="F113">
+        <v>569</v>
+      </c>
+      <c r="G113">
+        <v>28315</v>
+      </c>
+      <c r="H113">
+        <v>17</v>
+      </c>
+      <c r="I113">
+        <v>9438</v>
+      </c>
+      <c r="J113">
+        <v>70788</v>
+      </c>
+      <c r="K113">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1994400</v>
+      </c>
+      <c r="C114">
+        <v>156973800</v>
+      </c>
+      <c r="D114">
+        <v>518400</v>
+      </c>
+      <c r="E114">
+        <v>200</v>
+      </c>
+      <c r="F114">
+        <v>573</v>
+      </c>
+      <c r="G114">
+        <v>28032</v>
+      </c>
+      <c r="H114">
+        <v>17</v>
+      </c>
+      <c r="I114">
+        <v>9344</v>
+      </c>
+      <c r="J114">
+        <v>70080</v>
+      </c>
+      <c r="K114">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1998000</v>
+      </c>
+      <c r="C115">
+        <v>158971800</v>
+      </c>
+      <c r="D115">
+        <v>518400</v>
+      </c>
+      <c r="E115">
+        <v>200</v>
+      </c>
+      <c r="F115">
+        <v>577</v>
+      </c>
+      <c r="G115">
+        <v>27751</v>
+      </c>
+      <c r="H115">
+        <v>17</v>
+      </c>
+      <c r="I115">
+        <v>9250</v>
+      </c>
+      <c r="J115">
+        <v>69379</v>
+      </c>
+      <c r="K115">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2001600</v>
+      </c>
+      <c r="C116">
+        <v>160973400</v>
+      </c>
+      <c r="D116">
+        <v>518400</v>
+      </c>
+      <c r="E116">
+        <v>200</v>
+      </c>
+      <c r="F116">
+        <v>581</v>
+      </c>
+      <c r="G116">
+        <v>27474</v>
+      </c>
+      <c r="H116">
+        <v>17</v>
+      </c>
+      <c r="I116">
+        <v>9158</v>
+      </c>
+      <c r="J116">
+        <v>68685</v>
+      </c>
+      <c r="K116">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2005200</v>
+      </c>
+      <c r="C117">
+        <v>162978600</v>
+      </c>
+      <c r="D117">
+        <v>518400</v>
+      </c>
+      <c r="E117">
+        <v>200</v>
+      </c>
+      <c r="F117">
+        <v>585</v>
+      </c>
+      <c r="G117">
+        <v>27199</v>
+      </c>
+      <c r="H117">
+        <v>17</v>
+      </c>
+      <c r="I117">
+        <v>9066</v>
+      </c>
+      <c r="J117">
+        <v>67998</v>
+      </c>
+      <c r="K117">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2008800</v>
+      </c>
+      <c r="C118">
+        <v>164987400</v>
+      </c>
+      <c r="D118">
+        <v>518400</v>
+      </c>
+      <c r="E118">
+        <v>200</v>
+      </c>
+      <c r="F118">
+        <v>589</v>
+      </c>
+      <c r="G118">
+        <v>26927</v>
+      </c>
+      <c r="H118">
+        <v>17</v>
+      </c>
+      <c r="I118">
+        <v>8975</v>
+      </c>
+      <c r="J118">
+        <v>67318</v>
+      </c>
+      <c r="K118">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2012400</v>
+      </c>
+      <c r="C119">
+        <v>166999800</v>
+      </c>
+      <c r="D119">
+        <v>518400</v>
+      </c>
+      <c r="E119">
+        <v>200</v>
+      </c>
+      <c r="F119">
+        <v>593</v>
+      </c>
+      <c r="G119">
+        <v>26658</v>
+      </c>
+      <c r="H119">
+        <v>17</v>
+      </c>
+      <c r="I119">
+        <v>8886</v>
+      </c>
+      <c r="J119">
+        <v>66645</v>
+      </c>
+      <c r="K119">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2016000</v>
+      </c>
+      <c r="C120">
+        <v>169015800</v>
+      </c>
+      <c r="D120">
+        <v>518400</v>
+      </c>
+      <c r="E120">
+        <v>200</v>
+      </c>
+      <c r="F120">
+        <v>597</v>
+      </c>
+      <c r="G120">
+        <v>26391</v>
+      </c>
+      <c r="H120">
+        <v>17</v>
+      </c>
+      <c r="I120">
+        <v>8797</v>
+      </c>
+      <c r="J120">
+        <v>65979</v>
+      </c>
+      <c r="K120">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2019600</v>
+      </c>
+      <c r="C121">
+        <v>171035400</v>
+      </c>
+      <c r="D121">
+        <v>518400</v>
+      </c>
+      <c r="E121">
+        <v>200</v>
+      </c>
+      <c r="F121">
+        <v>601</v>
+      </c>
+      <c r="G121">
+        <v>26127</v>
+      </c>
+      <c r="H121">
+        <v>17</v>
+      </c>
+      <c r="I121">
+        <v>8709</v>
+      </c>
+      <c r="J121">
+        <v>65319</v>
+      </c>
+      <c r="K121">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2023200</v>
+      </c>
+      <c r="C122">
+        <v>173058600</v>
+      </c>
+      <c r="D122">
+        <v>518400</v>
+      </c>
+      <c r="E122">
+        <v>200</v>
+      </c>
+      <c r="F122">
+        <v>605</v>
+      </c>
+      <c r="G122">
+        <v>25866</v>
+      </c>
+      <c r="H122">
+        <v>17</v>
+      </c>
+      <c r="I122">
+        <v>8622</v>
+      </c>
+      <c r="J122">
+        <v>64666</v>
+      </c>
+      <c r="K122">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2026800</v>
+      </c>
+      <c r="C123">
+        <v>175085400</v>
+      </c>
+      <c r="D123">
+        <v>518400</v>
+      </c>
+      <c r="E123">
+        <v>200</v>
+      </c>
+      <c r="F123">
+        <v>609</v>
+      </c>
+      <c r="G123">
+        <v>25607</v>
+      </c>
+      <c r="H123">
+        <v>17</v>
+      </c>
+      <c r="I123">
+        <v>8535</v>
+      </c>
+      <c r="J123">
+        <v>64019</v>
+      </c>
+      <c r="K123">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2030400</v>
+      </c>
+      <c r="C124">
+        <v>177115800</v>
+      </c>
+      <c r="D124">
+        <v>518400</v>
+      </c>
+      <c r="E124">
+        <v>200</v>
+      </c>
+      <c r="F124">
+        <v>613</v>
+      </c>
+      <c r="G124">
+        <v>25351</v>
+      </c>
+      <c r="H124">
+        <v>17</v>
+      </c>
+      <c r="I124">
+        <v>8450</v>
+      </c>
+      <c r="J124">
+        <v>63379</v>
+      </c>
+      <c r="K124">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2034000</v>
+      </c>
+      <c r="C125">
+        <v>179149800</v>
+      </c>
+      <c r="D125">
+        <v>518400</v>
+      </c>
+      <c r="E125">
+        <v>200</v>
+      </c>
+      <c r="F125">
+        <v>617</v>
+      </c>
+      <c r="G125">
+        <v>25098</v>
+      </c>
+      <c r="H125">
+        <v>17</v>
+      </c>
+      <c r="I125">
+        <v>8366</v>
+      </c>
+      <c r="J125">
+        <v>62745</v>
+      </c>
+      <c r="K125">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2037600</v>
+      </c>
+      <c r="C126">
+        <v>181187400</v>
+      </c>
+      <c r="D126">
+        <v>518400</v>
+      </c>
+      <c r="E126">
+        <v>200</v>
+      </c>
+      <c r="F126">
+        <v>621</v>
+      </c>
+      <c r="G126">
+        <v>24847</v>
+      </c>
+      <c r="H126">
+        <v>17</v>
+      </c>
+      <c r="I126">
+        <v>8282</v>
+      </c>
+      <c r="J126">
+        <v>62118</v>
+      </c>
+      <c r="K126">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2041200</v>
+      </c>
+      <c r="C127">
+        <v>183228600</v>
+      </c>
+      <c r="D127">
+        <v>518400</v>
+      </c>
+      <c r="E127">
+        <v>200</v>
+      </c>
+      <c r="F127">
+        <v>625</v>
+      </c>
+      <c r="G127">
+        <v>24598</v>
+      </c>
+      <c r="H127">
+        <v>17</v>
+      </c>
+      <c r="I127">
+        <v>8199</v>
+      </c>
+      <c r="J127">
+        <v>61496</v>
+      </c>
+      <c r="K127">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2044800</v>
+      </c>
+      <c r="C128">
+        <v>185273400</v>
+      </c>
+      <c r="D128">
+        <v>518400</v>
+      </c>
+      <c r="E128">
+        <v>200</v>
+      </c>
+      <c r="F128">
+        <v>629</v>
+      </c>
+      <c r="G128">
+        <v>24352</v>
+      </c>
+      <c r="H128">
+        <v>17</v>
+      </c>
+      <c r="I128">
+        <v>8117</v>
+      </c>
+      <c r="J128">
+        <v>60881</v>
+      </c>
+      <c r="K128">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2048400</v>
+      </c>
+      <c r="C129">
+        <v>187321800</v>
+      </c>
+      <c r="D129">
+        <v>518400</v>
+      </c>
+      <c r="E129">
+        <v>200</v>
+      </c>
+      <c r="F129">
+        <v>633</v>
+      </c>
+      <c r="G129">
+        <v>24109</v>
+      </c>
+      <c r="H129">
+        <v>17</v>
+      </c>
+      <c r="I129">
+        <v>8036</v>
+      </c>
+      <c r="J129">
+        <v>60273</v>
+      </c>
+      <c r="K129">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2052000</v>
+      </c>
+      <c r="C130">
+        <v>189373800</v>
+      </c>
+      <c r="D130">
+        <v>518400</v>
+      </c>
+      <c r="E130">
+        <v>200</v>
+      </c>
+      <c r="F130">
+        <v>637</v>
+      </c>
+      <c r="G130">
+        <v>23868</v>
+      </c>
+      <c r="H130">
+        <v>17</v>
+      </c>
+      <c r="I130">
+        <v>7956</v>
+      </c>
+      <c r="J130">
+        <v>59670</v>
+      </c>
+      <c r="K130">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2055600</v>
+      </c>
+      <c r="C131">
+        <v>191429400</v>
+      </c>
+      <c r="D131">
+        <v>518400</v>
+      </c>
+      <c r="E131">
+        <v>200</v>
+      </c>
+      <c r="F131">
+        <v>641</v>
+      </c>
+      <c r="G131">
+        <v>23629</v>
+      </c>
+      <c r="H131">
+        <v>17</v>
+      </c>
+      <c r="I131">
+        <v>7876</v>
+      </c>
+      <c r="J131">
+        <v>59073</v>
+      </c>
+      <c r="K131">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2059200</v>
+      </c>
+      <c r="C132">
+        <v>193488600</v>
+      </c>
+      <c r="D132">
+        <v>518400</v>
+      </c>
+      <c r="E132">
+        <v>200</v>
+      </c>
+      <c r="F132">
+        <v>645</v>
+      </c>
+      <c r="G132">
+        <v>23393</v>
+      </c>
+      <c r="H132">
+        <v>17</v>
+      </c>
+      <c r="I132">
+        <v>7797</v>
+      </c>
+      <c r="J132">
+        <v>58482</v>
+      </c>
+      <c r="K132">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2062800</v>
+      </c>
+      <c r="C133">
+        <v>195551400</v>
+      </c>
+      <c r="D133">
+        <v>518400</v>
+      </c>
+      <c r="E133">
+        <v>200</v>
+      </c>
+      <c r="F133">
+        <v>649</v>
+      </c>
+      <c r="G133">
+        <v>23159</v>
+      </c>
+      <c r="H133">
+        <v>17</v>
+      </c>
+      <c r="I133">
+        <v>7719</v>
+      </c>
+      <c r="J133">
+        <v>57898</v>
+      </c>
+      <c r="K133">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2066400</v>
+      </c>
+      <c r="C134">
+        <v>197617800</v>
+      </c>
+      <c r="D134">
+        <v>518400</v>
+      </c>
+      <c r="E134">
+        <v>200</v>
+      </c>
+      <c r="F134">
+        <v>653</v>
+      </c>
+      <c r="G134">
+        <v>22927</v>
+      </c>
+      <c r="H134">
+        <v>17</v>
+      </c>
+      <c r="I134">
+        <v>7642</v>
+      </c>
+      <c r="J134">
+        <v>57319</v>
+      </c>
+      <c r="K134">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2070000</v>
+      </c>
+      <c r="C135">
+        <v>199687800</v>
+      </c>
+      <c r="D135">
+        <v>518400</v>
+      </c>
+      <c r="E135">
+        <v>200</v>
+      </c>
+      <c r="F135">
+        <v>657</v>
+      </c>
+      <c r="G135">
+        <v>22698</v>
+      </c>
+      <c r="H135">
+        <v>17</v>
+      </c>
+      <c r="I135">
+        <v>7566</v>
+      </c>
+      <c r="J135">
+        <v>56745</v>
+      </c>
+      <c r="K135">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2073600</v>
+      </c>
+      <c r="C136">
+        <v>201761400</v>
+      </c>
+      <c r="D136">
+        <v>518400</v>
+      </c>
+      <c r="E136">
+        <v>200</v>
+      </c>
+      <c r="F136">
+        <v>661</v>
+      </c>
+      <c r="G136">
+        <v>22471</v>
+      </c>
+      <c r="H136">
+        <v>17</v>
+      </c>
+      <c r="I136">
+        <v>7490</v>
+      </c>
+      <c r="J136">
+        <v>56178</v>
+      </c>
+      <c r="K136">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2077200</v>
+      </c>
+      <c r="C137">
+        <v>203838600</v>
+      </c>
+      <c r="D137">
+        <v>518400</v>
+      </c>
+      <c r="E137">
+        <v>200</v>
+      </c>
+      <c r="F137">
+        <v>665</v>
+      </c>
+      <c r="G137">
+        <v>22246</v>
+      </c>
+      <c r="H137">
+        <v>17</v>
+      </c>
+      <c r="I137">
+        <v>7415</v>
+      </c>
+      <c r="J137">
+        <v>55616</v>
+      </c>
+      <c r="K137">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2080800</v>
+      </c>
+      <c r="C138">
+        <v>205919400</v>
+      </c>
+      <c r="D138">
+        <v>518400</v>
+      </c>
+      <c r="E138">
+        <v>200</v>
+      </c>
+      <c r="F138">
+        <v>669</v>
+      </c>
+      <c r="G138">
+        <v>22024</v>
+      </c>
+      <c r="H138">
+        <v>17</v>
+      </c>
+      <c r="I138">
+        <v>7341</v>
+      </c>
+      <c r="J138">
+        <v>55060</v>
+      </c>
+      <c r="K138">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2084400</v>
+      </c>
+      <c r="C139">
+        <v>208003800</v>
+      </c>
+      <c r="D139">
+        <v>518400</v>
+      </c>
+      <c r="E139">
+        <v>200</v>
+      </c>
+      <c r="F139">
+        <v>673</v>
+      </c>
+      <c r="G139">
+        <v>21803</v>
+      </c>
+      <c r="H139">
+        <v>17</v>
+      </c>
+      <c r="I139">
+        <v>7267</v>
+      </c>
+      <c r="J139">
+        <v>54509</v>
+      </c>
+      <c r="K139">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2088000</v>
+      </c>
+      <c r="C140">
+        <v>210091800</v>
+      </c>
+      <c r="D140">
+        <v>518400</v>
+      </c>
+      <c r="E140">
+        <v>200</v>
+      </c>
+      <c r="F140">
+        <v>677</v>
+      </c>
+      <c r="G140">
+        <v>21585</v>
+      </c>
+      <c r="H140">
+        <v>17</v>
+      </c>
+      <c r="I140">
+        <v>7195</v>
+      </c>
+      <c r="J140">
+        <v>53964</v>
+      </c>
+      <c r="K140">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2091600</v>
+      </c>
+      <c r="C141">
+        <v>212183400</v>
+      </c>
+      <c r="D141">
+        <v>604800</v>
+      </c>
+      <c r="E141">
+        <v>200</v>
+      </c>
+      <c r="F141">
+        <v>681</v>
+      </c>
+      <c r="G141">
+        <v>21370</v>
+      </c>
+      <c r="H141">
+        <v>17</v>
+      </c>
+      <c r="I141">
+        <v>7123</v>
+      </c>
+      <c r="J141">
+        <v>53425</v>
+      </c>
+      <c r="K141">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2095200</v>
+      </c>
+      <c r="C142">
+        <v>214278600</v>
+      </c>
+      <c r="D142">
+        <v>604800</v>
+      </c>
+      <c r="E142">
+        <v>250</v>
+      </c>
+      <c r="F142">
+        <v>685</v>
+      </c>
+      <c r="G142">
+        <v>21156</v>
+      </c>
+      <c r="H142">
+        <v>17</v>
+      </c>
+      <c r="I142">
+        <v>7052</v>
+      </c>
+      <c r="J142">
+        <v>52890</v>
+      </c>
+      <c r="K142">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2098800</v>
+      </c>
+      <c r="C143">
+        <v>216377400</v>
+      </c>
+      <c r="D143">
+        <v>604800</v>
+      </c>
+      <c r="E143">
+        <v>250</v>
+      </c>
+      <c r="F143">
+        <v>689</v>
+      </c>
+      <c r="G143">
+        <v>20944</v>
+      </c>
+      <c r="H143">
+        <v>17</v>
+      </c>
+      <c r="I143">
+        <v>6981</v>
+      </c>
+      <c r="J143">
+        <v>52361</v>
+      </c>
+      <c r="K143">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2102400</v>
+      </c>
+      <c r="C144">
+        <v>218479800</v>
+      </c>
+      <c r="D144">
+        <v>604800</v>
+      </c>
+      <c r="E144">
+        <v>250</v>
+      </c>
+      <c r="F144">
+        <v>693</v>
+      </c>
+      <c r="G144">
+        <v>20735</v>
+      </c>
+      <c r="H144">
+        <v>17</v>
+      </c>
+      <c r="I144">
+        <v>6911</v>
+      </c>
+      <c r="J144">
+        <v>51838</v>
+      </c>
+      <c r="K144">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2106000</v>
+      </c>
+      <c r="C145">
+        <v>220585800</v>
+      </c>
+      <c r="D145">
+        <v>604800</v>
+      </c>
+      <c r="E145">
+        <v>250</v>
+      </c>
+      <c r="F145">
+        <v>697</v>
+      </c>
+      <c r="G145">
+        <v>20527</v>
+      </c>
+      <c r="H145">
+        <v>17</v>
+      </c>
+      <c r="I145">
+        <v>6842</v>
+      </c>
+      <c r="J145">
+        <v>51319</v>
+      </c>
+      <c r="K145">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2109600</v>
+      </c>
+      <c r="C146">
+        <v>222695400</v>
+      </c>
+      <c r="D146">
+        <v>604800</v>
+      </c>
+      <c r="E146">
+        <v>250</v>
+      </c>
+      <c r="F146">
+        <v>701</v>
+      </c>
+      <c r="G146">
+        <v>20322</v>
+      </c>
+      <c r="H146">
+        <v>17</v>
+      </c>
+      <c r="I146">
+        <v>6774</v>
+      </c>
+      <c r="J146">
+        <v>50806</v>
+      </c>
+      <c r="K146">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2113200</v>
+      </c>
+      <c r="C147">
+        <v>224808600</v>
+      </c>
+      <c r="D147">
+        <v>604800</v>
+      </c>
+      <c r="E147">
+        <v>250</v>
+      </c>
+      <c r="F147">
+        <v>705</v>
+      </c>
+      <c r="G147">
+        <v>20119</v>
+      </c>
+      <c r="H147">
+        <v>17</v>
+      </c>
+      <c r="I147">
+        <v>6706</v>
+      </c>
+      <c r="J147">
+        <v>50298</v>
+      </c>
+      <c r="K147">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2116800</v>
+      </c>
+      <c r="C148">
+        <v>226925400</v>
+      </c>
+      <c r="D148">
+        <v>604800</v>
+      </c>
+      <c r="E148">
+        <v>250</v>
+      </c>
+      <c r="F148">
+        <v>709</v>
+      </c>
+      <c r="G148">
+        <v>19918</v>
+      </c>
+      <c r="H148">
+        <v>17</v>
+      </c>
+      <c r="I148">
+        <v>6639</v>
+      </c>
+      <c r="J148">
+        <v>49795</v>
+      </c>
+      <c r="K148">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2120400</v>
+      </c>
+      <c r="C149">
+        <v>229045800</v>
+      </c>
+      <c r="D149">
+        <v>604800</v>
+      </c>
+      <c r="E149">
+        <v>250</v>
+      </c>
+      <c r="F149">
+        <v>713</v>
+      </c>
+      <c r="G149">
+        <v>19719</v>
+      </c>
+      <c r="H149">
+        <v>17</v>
+      </c>
+      <c r="I149">
+        <v>6573</v>
+      </c>
+      <c r="J149">
+        <v>49297</v>
+      </c>
+      <c r="K149">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2124000</v>
+      </c>
+      <c r="C150">
+        <v>231169800</v>
+      </c>
+      <c r="D150">
+        <v>604800</v>
+      </c>
+      <c r="E150">
+        <v>250</v>
+      </c>
+      <c r="F150">
+        <v>717</v>
+      </c>
+      <c r="G150">
+        <v>19521</v>
+      </c>
+      <c r="H150">
+        <v>17</v>
+      </c>
+      <c r="I150">
+        <v>6507</v>
+      </c>
+      <c r="J150">
+        <v>48804</v>
+      </c>
+      <c r="K150">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>10764000</v>
+      </c>
+      <c r="C151">
+        <v>241933800</v>
+      </c>
+      <c r="D151">
+        <v>604800</v>
+      </c>
+      <c r="E151">
+        <v>1000</v>
+      </c>
+      <c r="F151">
+        <v>721</v>
+      </c>
+      <c r="G151">
+        <v>19326</v>
+      </c>
+      <c r="H151">
+        <v>16</v>
+      </c>
+      <c r="I151">
+        <v>6442</v>
+      </c>
+      <c r="J151">
+        <v>48316</v>
+      </c>
+      <c r="K151">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2124000</v>
+      </c>
+      <c r="C152">
+        <v>244057800</v>
+      </c>
+      <c r="D152">
+        <v>604800</v>
+      </c>
+      <c r="E152">
+        <v>300</v>
+      </c>
+      <c r="F152">
+        <v>725</v>
+      </c>
+      <c r="G152">
+        <v>19133</v>
+      </c>
+      <c r="H152">
+        <v>16</v>
+      </c>
+      <c r="I152">
+        <v>6377</v>
+      </c>
+      <c r="J152">
+        <v>47833</v>
+      </c>
+      <c r="K152">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2127600</v>
+      </c>
+      <c r="C153">
+        <v>246185400</v>
+      </c>
+      <c r="D153">
+        <v>604800</v>
+      </c>
+      <c r="E153">
+        <v>300</v>
+      </c>
+      <c r="F153">
+        <v>729</v>
+      </c>
+      <c r="G153">
+        <v>18942</v>
+      </c>
+      <c r="H153">
+        <v>16</v>
+      </c>
+      <c r="I153">
+        <v>6314</v>
+      </c>
+      <c r="J153">
+        <v>47355</v>
+      </c>
+      <c r="K153">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2131200</v>
+      </c>
+      <c r="C154">
+        <v>248316600</v>
+      </c>
+      <c r="D154">
+        <v>604800</v>
+      </c>
+      <c r="E154">
+        <v>300</v>
+      </c>
+      <c r="F154">
+        <v>733</v>
+      </c>
+      <c r="G154">
+        <v>18752</v>
+      </c>
+      <c r="H154">
+        <v>16</v>
+      </c>
+      <c r="I154">
+        <v>6250</v>
+      </c>
+      <c r="J154">
+        <v>46881</v>
+      </c>
+      <c r="K154">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2134800</v>
+      </c>
+      <c r="C155">
+        <v>250451400</v>
+      </c>
+      <c r="D155">
+        <v>604800</v>
+      </c>
+      <c r="E155">
+        <v>300</v>
+      </c>
+      <c r="F155">
+        <v>737</v>
+      </c>
+      <c r="G155">
+        <v>18565</v>
+      </c>
+      <c r="H155">
+        <v>16</v>
+      </c>
+      <c r="I155">
+        <v>6188</v>
+      </c>
+      <c r="J155">
+        <v>46412</v>
+      </c>
+      <c r="K155">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2138400</v>
+      </c>
+      <c r="C156">
+        <v>252589800</v>
+      </c>
+      <c r="D156">
+        <v>604800</v>
+      </c>
+      <c r="E156">
+        <v>300</v>
+      </c>
+      <c r="F156">
+        <v>741</v>
+      </c>
+      <c r="G156">
+        <v>18379</v>
+      </c>
+      <c r="H156">
+        <v>16</v>
+      </c>
+      <c r="I156">
+        <v>6126</v>
+      </c>
+      <c r="J156">
+        <v>45948</v>
+      </c>
+      <c r="K156">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>2142000</v>
+      </c>
+      <c r="C157">
+        <v>254731800</v>
+      </c>
+      <c r="D157">
+        <v>604800</v>
+      </c>
+      <c r="E157">
+        <v>300</v>
+      </c>
+      <c r="F157">
+        <v>745</v>
+      </c>
+      <c r="G157">
+        <v>18195</v>
+      </c>
+      <c r="H157">
+        <v>16</v>
+      </c>
+      <c r="I157">
+        <v>6065</v>
+      </c>
+      <c r="J157">
+        <v>45489</v>
+      </c>
+      <c r="K157">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>2145600</v>
+      </c>
+      <c r="C158">
+        <v>256877400</v>
+      </c>
+      <c r="D158">
+        <v>604800</v>
+      </c>
+      <c r="E158">
+        <v>300</v>
+      </c>
+      <c r="F158">
+        <v>749</v>
+      </c>
+      <c r="G158">
+        <v>18013</v>
+      </c>
+      <c r="H158">
+        <v>16</v>
+      </c>
+      <c r="I158">
+        <v>6004</v>
+      </c>
+      <c r="J158">
+        <v>45034</v>
+      </c>
+      <c r="K158">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>2149200</v>
+      </c>
+      <c r="C159">
+        <v>259026600</v>
+      </c>
+      <c r="D159">
+        <v>604800</v>
+      </c>
+      <c r="E159">
+        <v>300</v>
+      </c>
+      <c r="F159">
+        <v>753</v>
+      </c>
+      <c r="G159">
+        <v>17833</v>
+      </c>
+      <c r="H159">
+        <v>16</v>
+      </c>
+      <c r="I159">
+        <v>5944</v>
+      </c>
+      <c r="J159">
+        <v>44584</v>
+      </c>
+      <c r="K159">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>2152800</v>
+      </c>
+      <c r="C160">
+        <v>261179400</v>
+      </c>
+      <c r="D160">
+        <v>604800</v>
+      </c>
+      <c r="E160">
+        <v>300</v>
+      </c>
+      <c r="F160">
+        <v>757</v>
+      </c>
+      <c r="G160">
+        <v>17655</v>
+      </c>
+      <c r="H160">
+        <v>16</v>
+      </c>
+      <c r="I160">
+        <v>5885</v>
+      </c>
+      <c r="J160">
+        <v>44138</v>
+      </c>
+      <c r="K160">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>2156400</v>
+      </c>
+      <c r="C161">
+        <v>263335800</v>
+      </c>
+      <c r="D161">
+        <v>604800</v>
+      </c>
+      <c r="E161">
+        <v>300</v>
+      </c>
+      <c r="F161">
+        <v>761</v>
+      </c>
+      <c r="G161">
+        <v>17478</v>
+      </c>
+      <c r="H161">
+        <v>16</v>
+      </c>
+      <c r="I161">
+        <v>5826</v>
+      </c>
+      <c r="J161">
+        <v>43696</v>
+      </c>
+      <c r="K161">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>2160000</v>
+      </c>
+      <c r="C162">
+        <v>265495800</v>
+      </c>
+      <c r="D162">
+        <v>604800</v>
+      </c>
+      <c r="E162">
+        <v>300</v>
+      </c>
+      <c r="F162">
+        <v>765</v>
+      </c>
+      <c r="G162">
+        <v>17303</v>
+      </c>
+      <c r="H162">
+        <v>16</v>
+      </c>
+      <c r="I162">
+        <v>5767</v>
+      </c>
+      <c r="J162">
+        <v>43259</v>
+      </c>
+      <c r="K162">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>2163600</v>
+      </c>
+      <c r="C163">
+        <v>267659400</v>
+      </c>
+      <c r="D163">
+        <v>604800</v>
+      </c>
+      <c r="E163">
+        <v>300</v>
+      </c>
+      <c r="F163">
+        <v>769</v>
+      </c>
+      <c r="G163">
+        <v>17130</v>
+      </c>
+      <c r="H163">
+        <v>16</v>
+      </c>
+      <c r="I163">
+        <v>5710</v>
+      </c>
+      <c r="J163">
+        <v>42827</v>
+      </c>
+      <c r="K163">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>2167200</v>
+      </c>
+      <c r="C164">
+        <v>269826600</v>
+      </c>
+      <c r="D164">
+        <v>604800</v>
+      </c>
+      <c r="E164">
+        <v>300</v>
+      </c>
+      <c r="F164">
+        <v>773</v>
+      </c>
+      <c r="G164">
+        <v>16959</v>
+      </c>
+      <c r="H164">
+        <v>16</v>
+      </c>
+      <c r="I164">
+        <v>5653</v>
+      </c>
+      <c r="J164">
+        <v>42398</v>
+      </c>
+      <c r="K164">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>2170800</v>
+      </c>
+      <c r="C165">
+        <v>271997400</v>
+      </c>
+      <c r="D165">
+        <v>604800</v>
+      </c>
+      <c r="E165">
+        <v>300</v>
+      </c>
+      <c r="F165">
+        <v>777</v>
+      </c>
+      <c r="G165">
+        <v>16789</v>
+      </c>
+      <c r="H165">
+        <v>16</v>
+      </c>
+      <c r="I165">
+        <v>5596</v>
+      </c>
+      <c r="J165">
+        <v>41974</v>
+      </c>
+      <c r="K165">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>2174400</v>
+      </c>
+      <c r="C166">
+        <v>274171800</v>
+      </c>
+      <c r="D166">
+        <v>604800</v>
+      </c>
+      <c r="E166">
+        <v>300</v>
+      </c>
+      <c r="F166">
+        <v>781</v>
+      </c>
+      <c r="G166">
+        <v>16622</v>
+      </c>
+      <c r="H166">
+        <v>16</v>
+      </c>
+      <c r="I166">
+        <v>5540</v>
+      </c>
+      <c r="J166">
+        <v>41555</v>
+      </c>
+      <c r="K166">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>2178000</v>
+      </c>
+      <c r="C167">
+        <v>276349800</v>
+      </c>
+      <c r="D167">
+        <v>604800</v>
+      </c>
+      <c r="E167">
+        <v>300</v>
+      </c>
+      <c r="F167">
+        <v>785</v>
+      </c>
+      <c r="G167">
+        <v>16455</v>
+      </c>
+      <c r="H167">
+        <v>16</v>
+      </c>
+      <c r="I167">
+        <v>5485</v>
+      </c>
+      <c r="J167">
+        <v>41139</v>
+      </c>
+      <c r="K167">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>2181600</v>
+      </c>
+      <c r="C168">
+        <v>278531400</v>
+      </c>
+      <c r="D168">
+        <v>604800</v>
+      </c>
+      <c r="E168">
+        <v>300</v>
+      </c>
+      <c r="F168">
+        <v>789</v>
+      </c>
+      <c r="G168">
+        <v>16291</v>
+      </c>
+      <c r="H168">
+        <v>16</v>
+      </c>
+      <c r="I168">
+        <v>5430</v>
+      </c>
+      <c r="J168">
+        <v>40728</v>
+      </c>
+      <c r="K168">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>2185200</v>
+      </c>
+      <c r="C169">
+        <v>280716600</v>
+      </c>
+      <c r="D169">
+        <v>604800</v>
+      </c>
+      <c r="E169">
+        <v>300</v>
+      </c>
+      <c r="F169">
+        <v>793</v>
+      </c>
+      <c r="G169">
+        <v>16128</v>
+      </c>
+      <c r="H169">
+        <v>16</v>
+      </c>
+      <c r="I169">
+        <v>5376</v>
+      </c>
+      <c r="J169">
+        <v>40320</v>
+      </c>
+      <c r="K169">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>2188800</v>
+      </c>
+      <c r="C170">
+        <v>282905400</v>
+      </c>
+      <c r="D170">
+        <v>604800</v>
+      </c>
+      <c r="E170">
+        <v>300</v>
+      </c>
+      <c r="F170">
+        <v>797</v>
+      </c>
+      <c r="G170">
+        <v>15967</v>
+      </c>
+      <c r="H170">
+        <v>16</v>
+      </c>
+      <c r="I170">
+        <v>5322</v>
+      </c>
+      <c r="J170">
+        <v>39917</v>
+      </c>
+      <c r="K170">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>2192400</v>
+      </c>
+      <c r="C171">
+        <v>285097800</v>
+      </c>
+      <c r="D171">
+        <v>604800</v>
+      </c>
+      <c r="E171">
+        <v>300</v>
+      </c>
+      <c r="F171">
+        <v>801</v>
+      </c>
+      <c r="G171">
+        <v>15807</v>
+      </c>
+      <c r="H171">
+        <v>16</v>
+      </c>
+      <c r="I171">
+        <v>5269</v>
+      </c>
+      <c r="J171">
+        <v>39518</v>
+      </c>
+      <c r="K171">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>2196000</v>
+      </c>
+      <c r="C172">
+        <v>287293800</v>
+      </c>
+      <c r="D172">
+        <v>604800</v>
+      </c>
+      <c r="E172">
+        <v>300</v>
+      </c>
+      <c r="F172">
+        <v>805</v>
+      </c>
+      <c r="G172">
+        <v>15649</v>
+      </c>
+      <c r="H172">
+        <v>16</v>
+      </c>
+      <c r="I172">
+        <v>5216</v>
+      </c>
+      <c r="J172">
+        <v>39123</v>
+      </c>
+      <c r="K172">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2199600</v>
+      </c>
+      <c r="C173">
+        <v>289493400</v>
+      </c>
+      <c r="D173">
+        <v>604800</v>
+      </c>
+      <c r="E173">
+        <v>300</v>
+      </c>
+      <c r="F173">
+        <v>809</v>
+      </c>
+      <c r="G173">
+        <v>15492</v>
+      </c>
+      <c r="H173">
+        <v>16</v>
+      </c>
+      <c r="I173">
+        <v>5164</v>
+      </c>
+      <c r="J173">
+        <v>38732</v>
+      </c>
+      <c r="K173">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2203200</v>
+      </c>
+      <c r="C174">
+        <v>291696600</v>
+      </c>
+      <c r="D174">
+        <v>604800</v>
+      </c>
+      <c r="E174">
+        <v>300</v>
+      </c>
+      <c r="F174">
+        <v>813</v>
+      </c>
+      <c r="G174">
+        <v>15337</v>
+      </c>
+      <c r="H174">
+        <v>16</v>
+      </c>
+      <c r="I174">
+        <v>5112</v>
+      </c>
+      <c r="J174">
+        <v>38344</v>
+      </c>
+      <c r="K174">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2206800</v>
+      </c>
+      <c r="C175">
+        <v>293903400</v>
+      </c>
+      <c r="D175">
+        <v>604800</v>
+      </c>
+      <c r="E175">
+        <v>300</v>
+      </c>
+      <c r="F175">
+        <v>817</v>
+      </c>
+      <c r="G175">
+        <v>15184</v>
+      </c>
+      <c r="H175">
+        <v>16</v>
+      </c>
+      <c r="I175">
+        <v>5061</v>
+      </c>
+      <c r="J175">
+        <v>37961</v>
+      </c>
+      <c r="K175">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>2210400</v>
+      </c>
+      <c r="C176">
+        <v>296113800</v>
+      </c>
+      <c r="D176">
+        <v>604800</v>
+      </c>
+      <c r="E176">
+        <v>300</v>
+      </c>
+      <c r="F176">
+        <v>821</v>
+      </c>
+      <c r="G176">
+        <v>15032</v>
+      </c>
+      <c r="H176">
+        <v>16</v>
+      </c>
+      <c r="I176">
+        <v>5010</v>
+      </c>
+      <c r="J176">
+        <v>37581</v>
+      </c>
+      <c r="K176">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2214000</v>
+      </c>
+      <c r="C177">
+        <v>298327800</v>
+      </c>
+      <c r="D177">
+        <v>604800</v>
+      </c>
+      <c r="E177">
+        <v>300</v>
+      </c>
+      <c r="F177">
+        <v>825</v>
+      </c>
+      <c r="G177">
+        <v>14882</v>
+      </c>
+      <c r="H177">
+        <v>16</v>
+      </c>
+      <c r="I177">
+        <v>4960</v>
+      </c>
+      <c r="J177">
+        <v>37205</v>
+      </c>
+      <c r="K177">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2217600</v>
+      </c>
+      <c r="C178">
+        <v>300545400</v>
+      </c>
+      <c r="D178">
+        <v>604800</v>
+      </c>
+      <c r="E178">
+        <v>300</v>
+      </c>
+      <c r="F178">
+        <v>829</v>
+      </c>
+      <c r="G178">
+        <v>14733</v>
+      </c>
+      <c r="H178">
+        <v>16</v>
+      </c>
+      <c r="I178">
+        <v>4911</v>
+      </c>
+      <c r="J178">
+        <v>36833</v>
+      </c>
+      <c r="K178">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2221200</v>
+      </c>
+      <c r="C179">
+        <v>302766600</v>
+      </c>
+      <c r="D179">
+        <v>604800</v>
+      </c>
+      <c r="E179">
+        <v>300</v>
+      </c>
+      <c r="F179">
+        <v>833</v>
+      </c>
+      <c r="G179">
+        <v>14586</v>
+      </c>
+      <c r="H179">
+        <v>16</v>
+      </c>
+      <c r="I179">
+        <v>4862</v>
+      </c>
+      <c r="J179">
+        <v>36465</v>
+      </c>
+      <c r="K179">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2224800</v>
+      </c>
+      <c r="C180">
+        <v>304991400</v>
+      </c>
+      <c r="D180">
+        <v>604800</v>
+      </c>
+      <c r="E180">
+        <v>300</v>
+      </c>
+      <c r="F180">
+        <v>837</v>
+      </c>
+      <c r="G180">
+        <v>14440</v>
+      </c>
+      <c r="H180">
+        <v>16</v>
+      </c>
+      <c r="I180">
+        <v>4813</v>
+      </c>
+      <c r="J180">
+        <v>36100</v>
+      </c>
+      <c r="K180">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2228400</v>
+      </c>
+      <c r="C181">
+        <v>307219800</v>
+      </c>
+      <c r="D181">
+        <v>604800</v>
+      </c>
+      <c r="E181">
+        <v>300</v>
+      </c>
+      <c r="F181">
+        <v>841</v>
+      </c>
+      <c r="G181">
+        <v>14295</v>
+      </c>
+      <c r="H181">
+        <v>16</v>
+      </c>
+      <c r="I181">
+        <v>4765</v>
+      </c>
+      <c r="J181">
+        <v>35739</v>
+      </c>
+      <c r="K181">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2232000</v>
+      </c>
+      <c r="C182">
+        <v>309451800</v>
+      </c>
+      <c r="D182">
+        <v>604800</v>
+      </c>
+      <c r="E182">
+        <v>400</v>
+      </c>
+      <c r="F182">
+        <v>845</v>
+      </c>
+      <c r="G182">
+        <v>14153</v>
+      </c>
+      <c r="H182">
+        <v>16</v>
+      </c>
+      <c r="I182">
+        <v>4717</v>
+      </c>
+      <c r="J182">
+        <v>35382</v>
+      </c>
+      <c r="K182">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2235600</v>
+      </c>
+      <c r="C183">
+        <v>311687400</v>
+      </c>
+      <c r="D183">
+        <v>604800</v>
+      </c>
+      <c r="E183">
+        <v>400</v>
+      </c>
+      <c r="F183">
+        <v>849</v>
+      </c>
+      <c r="G183">
+        <v>14011</v>
+      </c>
+      <c r="H183">
+        <v>16</v>
+      </c>
+      <c r="I183">
+        <v>4670</v>
+      </c>
+      <c r="J183">
+        <v>35028</v>
+      </c>
+      <c r="K183">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2239200</v>
+      </c>
+      <c r="C184">
+        <v>313926600</v>
+      </c>
+      <c r="D184">
+        <v>604800</v>
+      </c>
+      <c r="E184">
+        <v>400</v>
+      </c>
+      <c r="F184">
+        <v>853</v>
+      </c>
+      <c r="G184">
+        <v>13871</v>
+      </c>
+      <c r="H184">
+        <v>16</v>
+      </c>
+      <c r="I184">
+        <v>4623</v>
+      </c>
+      <c r="J184">
+        <v>34678</v>
+      </c>
+      <c r="K184">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2242800</v>
+      </c>
+      <c r="C185">
+        <v>316169400</v>
+      </c>
+      <c r="D185">
+        <v>604800</v>
+      </c>
+      <c r="E185">
+        <v>400</v>
+      </c>
+      <c r="F185">
+        <v>857</v>
+      </c>
+      <c r="G185">
+        <v>13732</v>
+      </c>
+      <c r="H185">
+        <v>16</v>
+      </c>
+      <c r="I185">
+        <v>4577</v>
+      </c>
+      <c r="J185">
+        <v>34331</v>
+      </c>
+      <c r="K185">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2246400</v>
+      </c>
+      <c r="C186">
+        <v>318415800</v>
+      </c>
+      <c r="D186">
+        <v>604800</v>
+      </c>
+      <c r="E186">
+        <v>400</v>
+      </c>
+      <c r="F186">
+        <v>861</v>
+      </c>
+      <c r="G186">
+        <v>13595</v>
+      </c>
+      <c r="H186">
+        <v>16</v>
+      </c>
+      <c r="I186">
+        <v>4531</v>
+      </c>
+      <c r="J186">
+        <v>33988</v>
+      </c>
+      <c r="K186">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2250000</v>
+      </c>
+      <c r="C187">
+        <v>320665800</v>
+      </c>
+      <c r="D187">
+        <v>604800</v>
+      </c>
+      <c r="E187">
+        <v>400</v>
+      </c>
+      <c r="F187">
+        <v>865</v>
+      </c>
+      <c r="G187">
+        <v>13459</v>
+      </c>
+      <c r="H187">
+        <v>16</v>
+      </c>
+      <c r="I187">
+        <v>4486</v>
+      </c>
+      <c r="J187">
+        <v>33648</v>
+      </c>
+      <c r="K187">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>2253600</v>
+      </c>
+      <c r="C188">
+        <v>322919400</v>
+      </c>
+      <c r="D188">
+        <v>604800</v>
+      </c>
+      <c r="E188">
+        <v>400</v>
+      </c>
+      <c r="F188">
+        <v>869</v>
+      </c>
+      <c r="G188">
+        <v>13324</v>
+      </c>
+      <c r="H188">
+        <v>16</v>
+      </c>
+      <c r="I188">
+        <v>4441</v>
+      </c>
+      <c r="J188">
+        <v>33311</v>
+      </c>
+      <c r="K188">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>2257200</v>
+      </c>
+      <c r="C189">
+        <v>325176600</v>
+      </c>
+      <c r="D189">
+        <v>604800</v>
+      </c>
+      <c r="E189">
+        <v>400</v>
+      </c>
+      <c r="F189">
+        <v>873</v>
+      </c>
+      <c r="G189">
+        <v>13191</v>
+      </c>
+      <c r="H189">
+        <v>16</v>
+      </c>
+      <c r="I189">
+        <v>4397</v>
+      </c>
+      <c r="J189">
+        <v>32978</v>
+      </c>
+      <c r="K189">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2260800</v>
+      </c>
+      <c r="C190">
+        <v>327437400</v>
+      </c>
+      <c r="D190">
+        <v>604800</v>
+      </c>
+      <c r="E190">
+        <v>400</v>
+      </c>
+      <c r="F190">
+        <v>877</v>
+      </c>
+      <c r="G190">
+        <v>13059</v>
+      </c>
+      <c r="H190">
+        <v>16</v>
+      </c>
+      <c r="I190">
+        <v>4353</v>
+      </c>
+      <c r="J190">
+        <v>32649</v>
+      </c>
+      <c r="K190">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2264400</v>
+      </c>
+      <c r="C191">
+        <v>329701800</v>
+      </c>
+      <c r="D191">
+        <v>604800</v>
+      </c>
+      <c r="E191">
+        <v>400</v>
+      </c>
+      <c r="F191">
+        <v>881</v>
+      </c>
+      <c r="G191">
+        <v>12929</v>
+      </c>
+      <c r="H191">
+        <v>16</v>
+      </c>
+      <c r="I191">
+        <v>4309</v>
+      </c>
+      <c r="J191">
+        <v>32322</v>
+      </c>
+      <c r="K191">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>2268000</v>
+      </c>
+      <c r="C192">
+        <v>331969800</v>
+      </c>
+      <c r="D192">
+        <v>604800</v>
+      </c>
+      <c r="E192">
+        <v>400</v>
+      </c>
+      <c r="F192">
+        <v>885</v>
+      </c>
+      <c r="G192">
+        <v>12799</v>
+      </c>
+      <c r="H192">
+        <v>16</v>
+      </c>
+      <c r="I192">
+        <v>4266</v>
+      </c>
+      <c r="J192">
+        <v>31999</v>
+      </c>
+      <c r="K192">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2271600</v>
+      </c>
+      <c r="C193">
+        <v>334241400</v>
+      </c>
+      <c r="D193">
+        <v>604800</v>
+      </c>
+      <c r="E193">
+        <v>400</v>
+      </c>
+      <c r="F193">
+        <v>889</v>
+      </c>
+      <c r="G193">
+        <v>12671</v>
+      </c>
+      <c r="H193">
+        <v>16</v>
+      </c>
+      <c r="I193">
+        <v>4223</v>
+      </c>
+      <c r="J193">
+        <v>31679</v>
+      </c>
+      <c r="K193">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2275200</v>
+      </c>
+      <c r="C194">
+        <v>336516600</v>
+      </c>
+      <c r="D194">
+        <v>604800</v>
+      </c>
+      <c r="E194">
+        <v>400</v>
+      </c>
+      <c r="F194">
+        <v>893</v>
+      </c>
+      <c r="G194">
+        <v>12545</v>
+      </c>
+      <c r="H194">
+        <v>16</v>
+      </c>
+      <c r="I194">
+        <v>4181</v>
+      </c>
+      <c r="J194">
+        <v>31362</v>
+      </c>
+      <c r="K194">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2278800</v>
+      </c>
+      <c r="C195">
+        <v>338795400</v>
+      </c>
+      <c r="D195">
+        <v>604800</v>
+      </c>
+      <c r="E195">
+        <v>400</v>
+      </c>
+      <c r="F195">
+        <v>897</v>
+      </c>
+      <c r="G195">
+        <v>12419</v>
+      </c>
+      <c r="H195">
+        <v>16</v>
+      </c>
+      <c r="I195">
+        <v>4139</v>
+      </c>
+      <c r="J195">
+        <v>31048</v>
+      </c>
+      <c r="K195">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2282400</v>
+      </c>
+      <c r="C196">
+        <v>341077800</v>
+      </c>
+      <c r="D196">
+        <v>604800</v>
+      </c>
+      <c r="E196">
+        <v>400</v>
+      </c>
+      <c r="F196">
+        <v>901</v>
+      </c>
+      <c r="G196">
+        <v>12295</v>
+      </c>
+      <c r="H196">
+        <v>16</v>
+      </c>
+      <c r="I196">
+        <v>4098</v>
+      </c>
+      <c r="J196">
+        <v>30738</v>
+      </c>
+      <c r="K196">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2286000</v>
+      </c>
+      <c r="C197">
+        <v>343363800</v>
+      </c>
+      <c r="D197">
+        <v>604800</v>
+      </c>
+      <c r="E197">
+        <v>400</v>
+      </c>
+      <c r="F197">
+        <v>905</v>
+      </c>
+      <c r="G197">
+        <v>12172</v>
+      </c>
+      <c r="H197">
+        <v>16</v>
+      </c>
+      <c r="I197">
+        <v>4057</v>
+      </c>
+      <c r="J197">
+        <v>30431</v>
+      </c>
+      <c r="K197">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2289600</v>
+      </c>
+      <c r="C198">
+        <v>345653400</v>
+      </c>
+      <c r="D198">
+        <v>604800</v>
+      </c>
+      <c r="E198">
+        <v>400</v>
+      </c>
+      <c r="F198">
+        <v>909</v>
+      </c>
+      <c r="G198">
+        <v>12050</v>
+      </c>
+      <c r="H198">
+        <v>16</v>
+      </c>
+      <c r="I198">
+        <v>4016</v>
+      </c>
+      <c r="J198">
+        <v>30126</v>
+      </c>
+      <c r="K198">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2293200</v>
+      </c>
+      <c r="C199">
+        <v>347946600</v>
+      </c>
+      <c r="D199">
+        <v>604800</v>
+      </c>
+      <c r="E199">
+        <v>400</v>
+      </c>
+      <c r="F199">
+        <v>913</v>
+      </c>
+      <c r="G199">
+        <v>11930</v>
+      </c>
+      <c r="H199">
+        <v>16</v>
+      </c>
+      <c r="I199">
+        <v>3976</v>
+      </c>
+      <c r="J199">
+        <v>29825</v>
+      </c>
+      <c r="K199">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2296800</v>
+      </c>
+      <c r="C200">
+        <v>350243400</v>
+      </c>
+      <c r="D200">
+        <v>604800</v>
+      </c>
+      <c r="E200">
+        <v>400</v>
+      </c>
+      <c r="F200">
+        <v>917</v>
+      </c>
+      <c r="G200">
+        <v>11810</v>
+      </c>
+      <c r="H200">
+        <v>16</v>
+      </c>
+      <c r="I200">
+        <v>3936</v>
+      </c>
+      <c r="J200">
+        <v>29527</v>
+      </c>
+      <c r="K200">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>10936800</v>
+      </c>
+      <c r="C201">
+        <v>361180200</v>
+      </c>
+      <c r="D201">
+        <v>604800</v>
+      </c>
+      <c r="E201">
+        <v>2000</v>
+      </c>
+      <c r="F201">
+        <v>921</v>
+      </c>
+      <c r="G201">
+        <v>11692</v>
+      </c>
+      <c r="H201">
+        <v>15</v>
+      </c>
+      <c r="I201">
+        <v>3897</v>
+      </c>
+      <c r="J201">
+        <v>29231</v>
+      </c>
+      <c r="K201">
+        <v>1948</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Research.xlsx
+++ b/Excel/Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC9836-B056-4378-A244-BE2B9616FFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71937B29-F00F-4653-A486-A70208D55052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchTable" sheetId="2" r:id="rId1"/>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1935,6 +1935,29 @@
         <v>3015</v>
       </c>
     </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>411</v>
+      </c>
+      <c r="F61">
+        <v>28500</v>
+      </c>
+      <c r="H61">
+        <v>40</v>
+      </c>
+      <c r="J61">
+        <v>28950</v>
+      </c>
+      <c r="K61">
+        <v>3015</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1945,9 +1968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FCC9B-BEF4-452F-99F3-14159C16BC5D}">
   <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView topLeftCell="A193" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
